--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0192C0A0-7D5C-4921-9624-B60A7F1A30EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66801A4-E84F-4FB0-8E78-2EFBF17395CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38690" yWindow="550" windowWidth="28800" windowHeight="15460" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="3955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4824" uniqueCount="3993">
   <si>
     <t>Temperature</t>
   </si>
@@ -11890,6 +11890,120 @@
   </si>
   <si>
     <t>ድምፅ</t>
+  </si>
+  <si>
+    <t>MENU:MenuAlarms</t>
+  </si>
+  <si>
+    <t>MENU:MenuAlarmsEnable</t>
+  </si>
+  <si>
+    <t>MENU:MenuAlarmsDisable</t>
+  </si>
+  <si>
+    <t>Alarms</t>
+  </si>
+  <si>
+    <t>Enable Alarms</t>
+  </si>
+  <si>
+    <t>Disable Alarms</t>
+  </si>
+  <si>
+    <t>هشدار</t>
+  </si>
+  <si>
+    <t>खतरे की घंटी</t>
+  </si>
+  <si>
+    <t>警报</t>
+  </si>
+  <si>
+    <t>启用警报</t>
+  </si>
+  <si>
+    <t>禁用警报</t>
+  </si>
+  <si>
+    <t>Zima kengele</t>
+  </si>
+  <si>
+    <t>Wezesha kengele</t>
+  </si>
+  <si>
+    <t>включить будильник</t>
+  </si>
+  <si>
+    <t>отключить будильник</t>
+  </si>
+  <si>
+    <t>будильники</t>
+  </si>
+  <si>
+    <t>Ativar alarmes</t>
+  </si>
+  <si>
+    <t>Desativar alarmes</t>
+  </si>
+  <si>
+    <t>알람 비활성화</t>
+  </si>
+  <si>
+    <t>알람 활성화</t>
+  </si>
+  <si>
+    <t>Abilita allarmi</t>
+  </si>
+  <si>
+    <t>Disabilita allarmi</t>
+  </si>
+  <si>
+    <t>अलार्म अक्षम करें</t>
+  </si>
+  <si>
+    <t>अलार्म सक्षम करें</t>
+  </si>
+  <si>
+    <t>אפשר אזעקות</t>
+  </si>
+  <si>
+    <t>השבת אזעקות</t>
+  </si>
+  <si>
+    <t>Désactiver les alarmes</t>
+  </si>
+  <si>
+    <t>Activer les alarmes</t>
+  </si>
+  <si>
+    <t>Habilitar alarmas</t>
+  </si>
+  <si>
+    <t>Deshabilitar alarmas</t>
+  </si>
+  <si>
+    <t>آلارم ها را غیرفعال کنید</t>
+  </si>
+  <si>
+    <t>فعال کردن آلارم ها</t>
+  </si>
+  <si>
+    <t>Alarme aktivieren</t>
+  </si>
+  <si>
+    <t>Alarme deaktivieren</t>
+  </si>
+  <si>
+    <t>تعطيل التنبيهات</t>
+  </si>
+  <si>
+    <t>تفعيل التنبيهات</t>
+  </si>
+  <si>
+    <t>ማንቂያዎችን አንቃ</t>
+  </si>
+  <si>
+    <t>ማንቂያዎችን አሰናክል</t>
   </si>
 </sst>
 </file>
@@ -12258,11 +12372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P324"/>
+  <dimension ref="A1:P327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A215" sqref="A215:XFD217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22217,5013 +22331,5163 @@
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>1020</v>
+        <v>3955</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>75</v>
+        <v>3958</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>1548</v>
+        <v>1583</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>1950</v>
+        <v>1898</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>329</v>
+        <v>1205</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>1964</v>
+        <v>3961</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>115</v>
+        <v>1294</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>158</v>
+        <v>1307</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>1978</v>
+        <v>1929</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>2217</v>
+        <v>3962</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>205</v>
+        <v>1329</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>854</v>
+        <v>1372</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>243</v>
+        <v>1307</v>
       </c>
       <c r="N215" s="3" t="s">
-        <v>286</v>
+        <v>3970</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>930</v>
+        <v>1444</v>
       </c>
       <c r="P215" s="3" t="s">
-        <v>2203</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>3249</v>
+        <v>3956</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>3251</v>
+        <v>3959</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>3268</v>
+        <v>3991</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>3267</v>
+        <v>3990</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>3270</v>
+        <v>3987</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>3266</v>
+        <v>3986</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>3271</v>
+        <v>3983</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>3272</v>
+        <v>3982</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>3273</v>
+        <v>3979</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>3274</v>
+        <v>3978</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>3275</v>
+        <v>3975</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>3276</v>
+        <v>3974</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>3277</v>
+        <v>3971</v>
       </c>
       <c r="N216" s="3" t="s">
-        <v>3278</v>
+        <v>3968</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>3279</v>
+        <v>3967</v>
       </c>
       <c r="P216" s="3" t="s">
-        <v>3269</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>3248</v>
+        <v>3957</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>3250</v>
+        <v>3960</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>3262</v>
+        <v>3992</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>3263</v>
+        <v>3989</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>3253</v>
+        <v>3988</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>3265</v>
+        <v>3985</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>3254</v>
+        <v>3984</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>3255</v>
+        <v>3981</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>3256</v>
+        <v>3980</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>3257</v>
+        <v>3977</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>3252</v>
+        <v>3976</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>3258</v>
+        <v>3973</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>3259</v>
+        <v>3972</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>3260</v>
+        <v>3969</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>3261</v>
+        <v>3966</v>
       </c>
       <c r="P217" s="3" t="s">
-        <v>3264</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>3280</v>
+        <v>1020</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>3281</v>
+        <v>75</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>3283</v>
+        <v>1548</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>3284</v>
+        <v>1950</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>3286</v>
+        <v>329</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>3287</v>
+        <v>1964</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>3288</v>
+        <v>115</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>3289</v>
+        <v>158</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>3290</v>
+        <v>1978</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>3291</v>
+        <v>2217</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>3292</v>
+        <v>205</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>3293</v>
+        <v>854</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>3294</v>
+        <v>243</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>3295</v>
+        <v>286</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>3282</v>
+        <v>930</v>
       </c>
       <c r="P218" s="3" t="s">
-        <v>3285</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="219" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>1021</v>
+        <v>3249</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>76</v>
+        <v>3251</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>1549</v>
+        <v>3268</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>1951</v>
+        <v>3267</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>330</v>
+        <v>3270</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1965</v>
+        <v>3266</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>170</v>
+        <v>3271</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>159</v>
+        <v>3272</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>1979</v>
+        <v>3273</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>2218</v>
+        <v>3274</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>206</v>
+        <v>3275</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>855</v>
+        <v>3276</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>244</v>
+        <v>3277</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>287</v>
+        <v>3278</v>
       </c>
       <c r="O219" s="3" t="s">
-        <v>931</v>
+        <v>3279</v>
       </c>
       <c r="P219" s="3" t="s">
-        <v>2204</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>3328</v>
+        <v>3248</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>3330</v>
+        <v>3250</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>3341</v>
+        <v>3262</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>3342</v>
+        <v>3263</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>3344</v>
+        <v>3253</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>3345</v>
+        <v>3265</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>3334</v>
+        <v>3254</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>3335</v>
+        <v>3255</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>3339</v>
+        <v>3256</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>3340</v>
+        <v>3257</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>3336</v>
+        <v>3252</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>3337</v>
+        <v>3258</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>3333</v>
+        <v>3259</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>3332</v>
+        <v>3260</v>
       </c>
       <c r="O220" s="3" t="s">
-        <v>3338</v>
+        <v>3261</v>
       </c>
       <c r="P220" s="3" t="s">
-        <v>3343</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>3329</v>
+        <v>3280</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>3331</v>
+        <v>3281</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>3347</v>
+        <v>3283</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>3348</v>
+        <v>3284</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>3350</v>
+        <v>3286</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>3346</v>
+        <v>3287</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>3351</v>
+        <v>3288</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>3352</v>
+        <v>3289</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>3353</v>
+        <v>3290</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>3354</v>
+        <v>3291</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>3355</v>
+        <v>3292</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>3356</v>
+        <v>3293</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>3357</v>
+        <v>3294</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>3358</v>
+        <v>3295</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>3359</v>
+        <v>3282</v>
       </c>
       <c r="P221" s="3" t="s">
-        <v>3349</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>1023</v>
+        <v>3328</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>45</v>
+        <v>3330</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>1485</v>
+        <v>3341</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>1699</v>
+        <v>3342</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>347</v>
+        <v>3344</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>1708</v>
+        <v>3345</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>348</v>
+        <v>3334</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>349</v>
+        <v>3335</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>1717</v>
+        <v>3339</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>2122</v>
+        <v>3340</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>350</v>
+        <v>3336</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>815</v>
+        <v>3337</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>762</v>
+        <v>3333</v>
       </c>
       <c r="N223" s="3" t="s">
-        <v>255</v>
+        <v>3332</v>
       </c>
       <c r="O223" s="3" t="s">
-        <v>897</v>
+        <v>3338</v>
       </c>
       <c r="P223" s="3" t="s">
-        <v>2115</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>1026</v>
+        <v>3329</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>700</v>
+        <v>3331</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>1553</v>
+        <v>3347</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>1955</v>
+        <v>3348</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>776</v>
+        <v>3350</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1969</v>
+        <v>3346</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>771</v>
+        <v>3351</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>772</v>
+        <v>3352</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>1983</v>
+        <v>3353</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>2222</v>
+        <v>3354</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>773</v>
+        <v>3355</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>859</v>
+        <v>3356</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>774</v>
+        <v>3357</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>775</v>
+        <v>3358</v>
       </c>
       <c r="O224" s="3" t="s">
-        <v>935</v>
+        <v>3359</v>
       </c>
       <c r="P224" s="3" t="s">
-        <v>2208</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1044</v>
+        <v>77</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1064</v>
+        <v>331</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>1065</v>
+        <v>171</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1066</v>
+        <v>160</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>1067</v>
+        <v>207</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>1068</v>
+        <v>856</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>1069</v>
+        <v>245</v>
       </c>
       <c r="N225" s="3" t="s">
-        <v>1070</v>
+        <v>288</v>
       </c>
       <c r="O225" s="3" t="s">
-        <v>1071</v>
+        <v>932</v>
       </c>
       <c r="P225" s="3" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>3218</v>
+        <v>1023</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>3219</v>
+        <v>45</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>3243</v>
+        <v>1485</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>3244</v>
+        <v>1699</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>3246</v>
+        <v>347</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>3247</v>
+        <v>1708</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>3235</v>
+        <v>348</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>3234</v>
+        <v>349</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>3236</v>
+        <v>1717</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>3237</v>
+        <v>2122</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>3238</v>
+        <v>350</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>3239</v>
+        <v>815</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>3240</v>
+        <v>762</v>
       </c>
       <c r="N226" s="3" t="s">
-        <v>3241</v>
+        <v>255</v>
       </c>
       <c r="O226" s="3" t="s">
-        <v>3242</v>
+        <v>897</v>
       </c>
       <c r="P226" s="3" t="s">
-        <v>3245</v>
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>2208</v>
       </c>
     </row>
     <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>444</v>
+        <v>1045</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>441</v>
+        <v>1044</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>1729</v>
+        <v>1956</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>634</v>
+        <v>1064</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1738</v>
+        <v>1970</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>637</v>
+        <v>1065</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>656</v>
+        <v>1066</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>2043</v>
+        <v>1984</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>2223</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>683</v>
+        <v>1067</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>861</v>
+        <v>1068</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>641</v>
+        <v>1069</v>
       </c>
       <c r="N228" s="3" t="s">
-        <v>686</v>
+        <v>1070</v>
       </c>
       <c r="O228" s="3" t="s">
-        <v>441</v>
+        <v>1071</v>
       </c>
       <c r="P228" s="3" t="s">
-        <v>2034</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>445</v>
+        <v>3218</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>0</v>
+        <v>3219</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>1503</v>
+        <v>3243</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>1755</v>
+        <v>3244</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>311</v>
+        <v>3246</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1771</v>
+        <v>3247</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>101</v>
+        <v>3235</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>141</v>
+        <v>3234</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1795</v>
+        <v>3236</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>2070</v>
+        <v>3237</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>101</v>
+        <v>3238</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>832</v>
+        <v>3239</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>101</v>
+        <v>3240</v>
       </c>
       <c r="N229" s="3" t="s">
-        <v>270</v>
+        <v>3241</v>
       </c>
       <c r="O229" s="3" t="s">
-        <v>912</v>
+        <v>3242</v>
       </c>
       <c r="P229" s="3" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H230" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I230" s="3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="J230" s="3" t="s">
-        <v>2068</v>
-      </c>
-      <c r="K230" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L230" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="M230" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N230" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O230" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="P230" s="3" t="s">
-        <v>2051</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>1985</v>
+        <v>1729</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1988</v>
+        <v>1738</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>1991</v>
-      </c>
-      <c r="J231" s="3" t="s">
-        <v>2071</v>
+        <v>1936</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>2043</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N231" s="3" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="O231" s="3" t="s">
-        <v>936</v>
+        <v>441</v>
       </c>
       <c r="P231" s="3" t="s">
-        <v>2054</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>1789</v>
+        <v>1755</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1790</v>
+        <v>1771</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="P232" s="3" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>443</v>
+        <v>50</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>1557</v>
+        <v>1501</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>1986</v>
+        <v>1754</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>636</v>
+        <v>309</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1989</v>
+        <v>1770</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>639</v>
+        <v>99</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>658</v>
+        <v>139</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1992</v>
+        <v>1793</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>2227</v>
+        <v>2068</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>672</v>
+        <v>190</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>643</v>
+        <v>225</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>687</v>
+        <v>268</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
       <c r="P233" s="3" t="s">
-        <v>2224</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>1505</v>
+        <v>1556</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>1757</v>
+        <v>1985</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>313</v>
+        <v>635</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1769</v>
+        <v>1988</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>102</v>
+        <v>638</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>143</v>
+        <v>657</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>1797</v>
+        <v>1991</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>192</v>
+        <v>671</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>227</v>
+        <v>642</v>
       </c>
       <c r="N234" s="3" t="s">
-        <v>271</v>
+        <v>608</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="P234" s="3" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>1758</v>
+        <v>1789</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1773</v>
+        <v>1790</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N235" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="P235" s="3" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>3479</v>
+        <v>449</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>3478</v>
+        <v>443</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>3489</v>
+        <v>1557</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>3490</v>
+        <v>1986</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>3492</v>
+        <v>636</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>3493</v>
+        <v>1989</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>3480</v>
+        <v>639</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>3481</v>
+        <v>658</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>3482</v>
+        <v>1992</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>3483</v>
+        <v>2227</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>3484</v>
+        <v>672</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>3485</v>
+        <v>863</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>3486</v>
+        <v>643</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>3487</v>
+        <v>687</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>3488</v>
+        <v>937</v>
       </c>
       <c r="P236" s="3" t="s">
-        <v>3491</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>701</v>
+        <v>450</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N237" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="P237" s="3" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>2352</v>
+        <v>451</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>2354</v>
+        <v>54</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>2359</v>
+        <v>1506</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>2355</v>
+        <v>1758</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>2361</v>
+        <v>314</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>2358</v>
+        <v>1773</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>2356</v>
+        <v>103</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>2357</v>
+        <v>144</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>2362</v>
+        <v>1798</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>2363</v>
+        <v>2073</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>2364</v>
+        <v>193</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>2365</v>
+        <v>834</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>2366</v>
+        <v>228</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>2367</v>
+        <v>272</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>2368</v>
+        <v>914</v>
       </c>
       <c r="P238" s="3" t="s">
-        <v>2360</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>2372</v>
+        <v>3479</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>2370</v>
+        <v>3478</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>2375</v>
+        <v>3489</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>2376</v>
+        <v>3490</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>2378</v>
+        <v>3492</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>2379</v>
+        <v>3493</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>2380</v>
+        <v>3480</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>2381</v>
+        <v>3481</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>2382</v>
+        <v>3482</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>2383</v>
+        <v>3483</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>2384</v>
+        <v>3484</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>2385</v>
+        <v>3485</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>2386</v>
+        <v>3486</v>
       </c>
       <c r="N239" s="3" t="s">
-        <v>2374</v>
+        <v>3487</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>2373</v>
+        <v>3488</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>2377</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>1206</v>
+        <v>701</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1054</v>
+        <v>55</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>1558</v>
+        <v>1507</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>1897</v>
+        <v>1759</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1182</v>
+        <v>315</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1912</v>
+        <v>1774</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>1183</v>
+        <v>104</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>1184</v>
+        <v>145</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>1928</v>
+        <v>1799</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>2228</v>
+        <v>2074</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>1185</v>
+        <v>194</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>1186</v>
+        <v>835</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>1187</v>
+        <v>229</v>
       </c>
       <c r="N240" s="3" t="s">
-        <v>1188</v>
+        <v>273</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>1189</v>
+        <v>915</v>
       </c>
       <c r="P240" s="3" t="s">
-        <v>2225</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>1232</v>
+        <v>2352</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1231</v>
+        <v>2354</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>1559</v>
+        <v>2359</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>1987</v>
+        <v>2355</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1274</v>
+        <v>2361</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1990</v>
+        <v>2358</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>1299</v>
+        <v>2356</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>1300</v>
+        <v>2357</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>1993</v>
+        <v>2362</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>2229</v>
+        <v>2363</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>1301</v>
+        <v>2364</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>1302</v>
+        <v>2365</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>1303</v>
+        <v>2366</v>
       </c>
       <c r="N241" s="3" t="s">
-        <v>1304</v>
+        <v>2367</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>1305</v>
+        <v>2368</v>
       </c>
       <c r="P241" s="3" t="s">
-        <v>2226</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>1046</v>
+        <v>2372</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>3193</v>
+        <v>2370</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>1554</v>
+        <v>2375</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>3199</v>
+        <v>2376</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>3197</v>
+        <v>2378</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>3199</v>
+        <v>2379</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>3191</v>
+        <v>2380</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>3192</v>
+        <v>2381</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>3198</v>
+        <v>2382</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>2223</v>
+        <v>2383</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>3193</v>
+        <v>2384</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>3196</v>
+        <v>2385</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>3193</v>
+        <v>2386</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>3195</v>
+        <v>2374</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>3194</v>
+        <v>2373</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>2225</v>
+      </c>
+    </row>
     <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>697</v>
+        <v>1232</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>441</v>
+        <v>1231</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>1729</v>
+        <v>1987</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>634</v>
+        <v>1274</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1738</v>
+        <v>1990</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>637</v>
+        <v>1299</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>656</v>
+        <v>1300</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="J244" s="4" t="s">
-        <v>2043</v>
+        <v>1993</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>2229</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>683</v>
+        <v>1301</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>861</v>
+        <v>1302</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>641</v>
+        <v>1303</v>
       </c>
       <c r="N244" s="3" t="s">
-        <v>686</v>
+        <v>1304</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>441</v>
+        <v>1305</v>
       </c>
       <c r="P244" s="3" t="s">
-        <v>2034</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="245" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
-        <v>3216</v>
+        <v>1046</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1035</v>
+        <v>3193</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>1590</v>
+        <v>1554</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>1904</v>
+        <v>3199</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1096</v>
+        <v>3197</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>1920</v>
+        <v>3199</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>1097</v>
+        <v>3191</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>1088</v>
+        <v>3192</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>1937</v>
+        <v>3198</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>2190</v>
+        <v>2223</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>1092</v>
+        <v>3193</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>1089</v>
+        <v>3196</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>1097</v>
+        <v>3193</v>
       </c>
       <c r="N245" s="3" t="s">
-        <v>1100</v>
+        <v>3195</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>1101</v>
+        <v>3194</v>
       </c>
       <c r="P245" s="3" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="3" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>3221</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>3227</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>3229</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>3226</v>
-      </c>
-      <c r="H246" s="3" t="s">
-        <v>3225</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>3231</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>3232</v>
-      </c>
-      <c r="K246" s="3" t="s">
-        <v>3223</v>
-      </c>
-      <c r="L246" s="3" t="s">
-        <v>3233</v>
-      </c>
-      <c r="M246" s="3" t="s">
-        <v>3224</v>
-      </c>
-      <c r="N246" s="3" t="s">
-        <v>3222</v>
-      </c>
-      <c r="O246" s="3" t="s">
-        <v>3220</v>
-      </c>
-      <c r="P246" s="3" t="s">
-        <v>3230</v>
-      </c>
-    </row>
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J247" s="4"/>
+      <c r="A247" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J247" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="P247" s="3" t="s">
+        <v>2034</v>
+      </c>
     </row>
     <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>464</v>
+        <v>3216</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>51</v>
+        <v>1035</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>1502</v>
+        <v>1590</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>1789</v>
+        <v>1904</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>310</v>
+        <v>1096</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>1790</v>
+        <v>1920</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>100</v>
+        <v>1097</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>140</v>
+        <v>1088</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1794</v>
+        <v>1937</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>2069</v>
+        <v>2190</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>191</v>
+        <v>1092</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>831</v>
+        <v>1089</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>226</v>
+        <v>1097</v>
       </c>
       <c r="N248" s="3" t="s">
-        <v>269</v>
+        <v>1100</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>948</v>
+        <v>1101</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>2052</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
-        <v>465</v>
+        <v>3217</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>54</v>
+        <v>3221</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>1506</v>
+        <v>3228</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>1758</v>
+        <v>3229</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>314</v>
+        <v>3227</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1773</v>
+        <v>3229</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>103</v>
+        <v>3226</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>144</v>
+        <v>3225</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1798</v>
+        <v>3231</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>2073</v>
+        <v>3232</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>193</v>
+        <v>3223</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>834</v>
+        <v>3233</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>228</v>
+        <v>3224</v>
       </c>
       <c r="N249" s="3" t="s">
-        <v>272</v>
+        <v>3222</v>
       </c>
       <c r="O249" s="3" t="s">
-        <v>914</v>
+        <v>3220</v>
       </c>
       <c r="P249" s="3" t="s">
-        <v>2056</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>1757</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H250" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>1797</v>
-      </c>
-      <c r="J250" s="3" t="s">
-        <v>2072</v>
-      </c>
-      <c r="K250" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L250" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="M250" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N250" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="O250" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="P250" s="3" t="s">
-        <v>2055</v>
-      </c>
+      <c r="J250" s="4"/>
     </row>
     <row r="251" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>1759</v>
+        <v>1789</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1774</v>
+        <v>1790</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N251" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O251" s="3" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="P251" s="3" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>2353</v>
+        <v>465</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>2354</v>
+        <v>54</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>2359</v>
+        <v>1506</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>2355</v>
+        <v>1758</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>2361</v>
+        <v>314</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>2358</v>
+        <v>1773</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>2356</v>
+        <v>103</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>2357</v>
+        <v>144</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>2362</v>
+        <v>1798</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>2363</v>
+        <v>2073</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>2364</v>
+        <v>193</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>2365</v>
+        <v>834</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>2366</v>
+        <v>228</v>
       </c>
       <c r="N252" s="3" t="s">
-        <v>2367</v>
+        <v>272</v>
       </c>
       <c r="O252" s="3" t="s">
-        <v>2368</v>
+        <v>914</v>
       </c>
       <c r="P252" s="3" t="s">
-        <v>2360</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
-        <v>2371</v>
+        <v>466</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>2370</v>
+        <v>53</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>2375</v>
+        <v>1505</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>2376</v>
+        <v>1757</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>2378</v>
+        <v>313</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>2379</v>
+        <v>1769</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>2380</v>
+        <v>102</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>2381</v>
+        <v>143</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>2382</v>
+        <v>1797</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>2383</v>
+        <v>2072</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>2384</v>
+        <v>192</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>2385</v>
+        <v>833</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>2386</v>
+        <v>227</v>
       </c>
       <c r="N253" s="3" t="s">
-        <v>2374</v>
+        <v>271</v>
       </c>
       <c r="O253" s="3" t="s">
-        <v>2373</v>
+        <v>913</v>
       </c>
       <c r="P253" s="3" t="s">
-        <v>2377</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
-        <v>1036</v>
+        <v>481</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1037</v>
+        <v>55</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>1560</v>
+        <v>1507</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>1732</v>
+        <v>1759</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>1741</v>
+        <v>1774</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1725</v>
+        <v>1799</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>2230</v>
+        <v>2074</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="O254" s="3" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="P254" s="3" t="s">
-        <v>2037</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>467</v>
+        <v>2353</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>50</v>
+        <v>2354</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1501</v>
+        <v>2359</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>1754</v>
+        <v>2355</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>309</v>
+        <v>2361</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>1770</v>
+        <v>2358</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>99</v>
+        <v>2356</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>139</v>
+        <v>2357</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1793</v>
+        <v>2362</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>2068</v>
+        <v>2363</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>190</v>
+        <v>2364</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>830</v>
+        <v>2365</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>225</v>
+        <v>2366</v>
       </c>
       <c r="N255" s="3" t="s">
-        <v>268</v>
+        <v>2367</v>
       </c>
       <c r="O255" s="3" t="s">
-        <v>910</v>
+        <v>2368</v>
       </c>
       <c r="P255" s="3" t="s">
-        <v>2051</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>468</v>
+        <v>2371</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>442</v>
+        <v>2370</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1556</v>
+        <v>2375</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>1985</v>
+        <v>2376</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>635</v>
+        <v>2378</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>1988</v>
+        <v>2379</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>640</v>
+        <v>2380</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>657</v>
+        <v>2381</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>1991</v>
+        <v>2382</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>2071</v>
+        <v>2383</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>671</v>
+        <v>2384</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>864</v>
+        <v>2385</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>642</v>
+        <v>2386</v>
       </c>
       <c r="N256" s="3" t="s">
-        <v>608</v>
+        <v>2374</v>
       </c>
       <c r="O256" s="3" t="s">
-        <v>947</v>
+        <v>2373</v>
       </c>
       <c r="P256" s="3" t="s">
-        <v>2054</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>469</v>
+        <v>1036</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>452</v>
+        <v>1037</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>1994</v>
+        <v>1732</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>719</v>
+        <v>304</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>2006</v>
+        <v>1741</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>731</v>
+        <v>94</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>670</v>
+        <v>134</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>2018</v>
+        <v>1725</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>2313</v>
+        <v>2230</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>673</v>
+        <v>185</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>644</v>
+        <v>221</v>
       </c>
       <c r="N257" s="3" t="s">
-        <v>755</v>
+        <v>263</v>
       </c>
       <c r="O257" s="3" t="s">
-        <v>961</v>
+        <v>905</v>
       </c>
       <c r="P257" s="3" t="s">
-        <v>2301</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>453</v>
+        <v>50</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>1569</v>
+        <v>1501</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>1995</v>
+        <v>1754</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>722</v>
+        <v>309</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>2007</v>
+        <v>1770</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>732</v>
+        <v>99</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>669</v>
+        <v>139</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>2019</v>
+        <v>1793</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>2314</v>
+        <v>2068</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>684</v>
+        <v>190</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>648</v>
+        <v>225</v>
       </c>
       <c r="N258" s="3" t="s">
-        <v>756</v>
+        <v>268</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>962</v>
+        <v>910</v>
       </c>
       <c r="P258" s="3" t="s">
-        <v>2302</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>723</v>
+        <v>635</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>733</v>
+        <v>640</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>2315</v>
+        <v>2071</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="N259" s="3" t="s">
-        <v>757</v>
+        <v>608</v>
       </c>
       <c r="O259" s="3" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="P259" s="3" t="s">
-        <v>2303</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N260" s="3" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="O260" s="3" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="P260" s="3" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>972</v>
+        <v>866</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N261" s="3" t="s">
-        <v>689</v>
+        <v>756</v>
       </c>
       <c r="O261" s="3" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="P261" s="3" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>973</v>
+        <v>867</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N262" s="3" t="s">
-        <v>690</v>
+        <v>757</v>
       </c>
       <c r="O262" s="3" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="P262" s="3" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M263" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="N263" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="O263" s="3" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="P263" s="3" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>870</v>
+        <v>972</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N264" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="O264" s="3" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="P264" s="3" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>871</v>
+        <v>973</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N265" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O265" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P265" s="3" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N266" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="O266" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="P266" s="3" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N267" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="O267" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P267" s="3" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N268" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="P268" s="3" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>707</v>
+        <v>478</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>743</v>
+        <v>461</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>743</v>
+        <v>1577</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>743</v>
+        <v>2003</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>743</v>
+        <v>2015</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>743</v>
+        <v>665</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>743</v>
+        <v>2027</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>743</v>
+        <v>2322</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>743</v>
+        <v>680</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>743</v>
+        <v>872</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="N269" s="3" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="O269" s="3" t="s">
-        <v>743</v>
+        <v>956</v>
       </c>
       <c r="P269" s="3" t="s">
-        <v>743</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
-        <v>708</v>
+        <v>479</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>744</v>
+        <v>462</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>744</v>
+        <v>1578</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>744</v>
+        <v>2004</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>744</v>
+        <v>2016</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>744</v>
+        <v>666</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>744</v>
+        <v>2028</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>744</v>
+        <v>2323</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>744</v>
+        <v>681</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>744</v>
+        <v>873</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>744</v>
+        <v>654</v>
       </c>
       <c r="N270" s="3" t="s">
-        <v>744</v>
+        <v>695</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>744</v>
+        <v>960</v>
       </c>
       <c r="P270" s="3" t="s">
-        <v>744</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
-        <v>709</v>
+        <v>480</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>745</v>
+        <v>463</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>745</v>
+        <v>1579</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>745</v>
+        <v>2005</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>745</v>
+        <v>2017</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>745</v>
+        <v>667</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>745</v>
+        <v>2029</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>745</v>
+        <v>2324</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>745</v>
+        <v>682</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>745</v>
+        <v>874</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>745</v>
+        <v>655</v>
       </c>
       <c r="N271" s="3" t="s">
-        <v>745</v>
+        <v>696</v>
       </c>
       <c r="O271" s="3" t="s">
-        <v>745</v>
+        <v>957</v>
       </c>
       <c r="P271" s="3" t="s">
-        <v>745</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="P272" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="M273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="N273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P273" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="N274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="P274" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="N275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="P275" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="P276" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="N277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="O277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="P277" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="M278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="N278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="O278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="P278" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="N279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="O279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="P279" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="N280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="O280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="P280" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>3474</v>
+        <v>716</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>991</v>
+        <v>752</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>3510</v>
+        <v>752</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>3513</v>
+        <v>752</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>3520</v>
+        <v>752</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>3523</v>
+        <v>752</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>3559</v>
+        <v>752</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>3561</v>
+        <v>752</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>3531</v>
+        <v>752</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>3535</v>
+        <v>752</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>3557</v>
+        <v>752</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>3541</v>
+        <v>752</v>
       </c>
       <c r="M281" s="3" t="s">
-        <v>3543</v>
+        <v>752</v>
       </c>
       <c r="N281" s="3" t="s">
-        <v>3546</v>
+        <v>752</v>
       </c>
       <c r="O281" s="3" t="s">
-        <v>3508</v>
+        <v>752</v>
       </c>
       <c r="P281" s="3" t="s">
-        <v>3517</v>
+        <v>752</v>
       </c>
     </row>
     <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>3475</v>
+        <v>717</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>3476</v>
+        <v>753</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>3550</v>
+        <v>753</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>3551</v>
+        <v>753</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>3553</v>
+        <v>753</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>3554</v>
+        <v>753</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>3560</v>
+        <v>753</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>3562</v>
+        <v>753</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>3555</v>
+        <v>753</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>3556</v>
+        <v>753</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>3558</v>
+        <v>753</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>3563</v>
+        <v>753</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>3564</v>
+        <v>753</v>
       </c>
       <c r="N282" s="3" t="s">
-        <v>3565</v>
+        <v>753</v>
       </c>
       <c r="O282" s="3" t="s">
-        <v>3549</v>
+        <v>753</v>
       </c>
       <c r="P282" s="3" t="s">
-        <v>3552</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="N283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="O283" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="P283" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
     <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>996</v>
+        <v>3474</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>1561</v>
+        <v>3510</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>1827</v>
+        <v>3513</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>1120</v>
+        <v>3520</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>1831</v>
+        <v>3523</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>1119</v>
+        <v>3559</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1000</v>
+        <v>3561</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>1835</v>
+        <v>3531</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>2235</v>
+        <v>3535</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>1137</v>
+        <v>3557</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>1136</v>
+        <v>3541</v>
       </c>
       <c r="M284" s="3" t="s">
-        <v>1119</v>
+        <v>3543</v>
       </c>
       <c r="N284" s="3" t="s">
-        <v>1138</v>
+        <v>3546</v>
       </c>
       <c r="O284" s="3" t="s">
-        <v>1139</v>
+        <v>3508</v>
       </c>
       <c r="P284" s="3" t="s">
-        <v>2231</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>997</v>
+        <v>3475</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1001</v>
+        <v>3476</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>1562</v>
+        <v>3550</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>1828</v>
+        <v>3551</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1122</v>
+        <v>3553</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>1832</v>
+        <v>3554</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>1123</v>
+        <v>3560</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1121</v>
+        <v>3562</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>1836</v>
+        <v>3555</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>2236</v>
+        <v>3556</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>1133</v>
+        <v>3558</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>1134</v>
+        <v>3563</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>1135</v>
+        <v>3564</v>
       </c>
       <c r="N285" s="3" t="s">
-        <v>1145</v>
+        <v>3565</v>
       </c>
       <c r="O285" s="3" t="s">
-        <v>1144</v>
+        <v>3549</v>
       </c>
       <c r="P285" s="3" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H286" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I286" s="3" t="s">
-        <v>1837</v>
-      </c>
-      <c r="J286" s="3" t="s">
-        <v>2237</v>
-      </c>
-      <c r="K286" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L286" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M286" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="N286" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="O286" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="P286" s="3" t="s">
-        <v>2233</v>
-      </c>
-    </row>
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>1127</v>
+        <v>1000</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="M287" s="3" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="N287" s="3" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="O287" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="P287" s="3" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N288" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O288" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P288" s="3" t="s">
+        <v>2232</v>
+      </c>
+    </row>
     <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>2418</v>
+        <v>998</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>3865</v>
+        <v>1002</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>3863</v>
+        <v>1563</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>3864</v>
+        <v>1829</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>3866</v>
+        <v>1125</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>3867</v>
+        <v>1833</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>3868</v>
+        <v>1124</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>3869</v>
+        <v>1126</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>3870</v>
+        <v>1837</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>3871</v>
+        <v>2237</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>3872</v>
+        <v>1131</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>3873</v>
+        <v>1132</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>3874</v>
+        <v>1124</v>
       </c>
       <c r="N289" s="3" t="s">
-        <v>3875</v>
+        <v>1142</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>3876</v>
+        <v>1143</v>
       </c>
       <c r="P289" s="3" t="s">
-        <v>3877</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H291" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I291" s="3" t="s">
-        <v>1819</v>
-      </c>
-      <c r="J291" s="3" t="s">
-        <v>2241</v>
-      </c>
-      <c r="K291" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L291" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="M291" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N291" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="O291" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="P291" s="3" t="s">
-        <v>2239</v>
-      </c>
-    </row>
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O290" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="P290" s="3" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>38</v>
+        <v>2418</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>81</v>
+        <v>3865</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1566</v>
+        <v>3863</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>1817</v>
+        <v>3864</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>81</v>
+        <v>3866</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>1818</v>
+        <v>3867</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>118</v>
+        <v>3868</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>81</v>
+        <v>3869</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>1820</v>
+        <v>3870</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>2242</v>
+        <v>3871</v>
       </c>
       <c r="K292" s="3" t="s">
-        <v>209</v>
+        <v>3872</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>875</v>
+        <v>3873</v>
       </c>
       <c r="M292" s="3" t="s">
-        <v>246</v>
+        <v>3874</v>
       </c>
       <c r="N292" s="3" t="s">
-        <v>290</v>
+        <v>3875</v>
       </c>
       <c r="O292" s="3" t="s">
-        <v>938</v>
+        <v>3876</v>
       </c>
       <c r="P292" s="3" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>1823</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H293" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I293" s="3" t="s">
-        <v>1821</v>
-      </c>
-      <c r="J293" s="3" t="s">
-        <v>2243</v>
-      </c>
-      <c r="K293" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L293" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="M293" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="N293" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="O293" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="P293" s="3" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>2241</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N294" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O294" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="P294" s="3" t="s">
+        <v>2239</v>
+      </c>
+    </row>
     <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>3676</v>
+        <v>38</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>3678</v>
+        <v>81</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1487</v>
+        <v>1566</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>1701</v>
+        <v>1817</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>1710</v>
+        <v>1818</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>1719</v>
+        <v>1820</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>2124</v>
+        <v>2242</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>358</v>
+        <v>209</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>817</v>
+        <v>875</v>
       </c>
       <c r="M295" s="3" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="N295" s="3" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="O295" s="3" t="s">
-        <v>899</v>
+        <v>938</v>
       </c>
       <c r="P295" s="3" t="s">
-        <v>2117</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>3677</v>
+        <v>39</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M296" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N296" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O296" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="P296" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>3680</v>
+        <v>3676</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>3725</v>
+        <v>1487</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>3712</v>
+        <v>1701</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>3713</v>
+        <v>361</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>3714</v>
+        <v>1710</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>3715</v>
+        <v>360</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>3716</v>
+        <v>359</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>3717</v>
+        <v>1719</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>3718</v>
+        <v>2124</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>3719</v>
+        <v>358</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>3720</v>
+        <v>817</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>3721</v>
+        <v>357</v>
       </c>
       <c r="N298" s="3" t="s">
-        <v>3722</v>
+        <v>356</v>
       </c>
       <c r="O298" s="3" t="s">
-        <v>3723</v>
+        <v>899</v>
       </c>
       <c r="P298" s="3" t="s">
-        <v>3724</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>3681</v>
+        <v>3677</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>2403</v>
+        <v>83</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>2404</v>
+        <v>1565</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>2405</v>
+        <v>1824</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>2407</v>
+        <v>334</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>2408</v>
-      </c>
-      <c r="G299" s="4" t="s">
-        <v>2409</v>
+        <v>1825</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>2410</v>
+        <v>163</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>2411</v>
+        <v>1826</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>2412</v>
+        <v>2246</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>2413</v>
+        <v>211</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>2414</v>
+        <v>877</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>2415</v>
+        <v>248</v>
       </c>
       <c r="N299" s="3" t="s">
-        <v>2416</v>
+        <v>292</v>
       </c>
       <c r="O299" s="3" t="s">
-        <v>2417</v>
+        <v>940</v>
       </c>
       <c r="P299" s="3" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G300" s="4"/>
-    </row>
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>3690</v>
+        <v>3680</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>3688</v>
+        <v>3679</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>3753</v>
+        <v>3712</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>3732</v>
+        <v>3713</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>3761</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>3731</v>
+        <v>3714</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>3715</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>3730</v>
+        <v>3716</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>3762</v>
+        <v>3717</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>3766</v>
+        <v>3718</v>
       </c>
       <c r="K301" s="3" t="s">
-        <v>3729</v>
+        <v>3719</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>3770</v>
+        <v>3720</v>
       </c>
       <c r="M301" s="3" t="s">
-        <v>3728</v>
+        <v>3721</v>
       </c>
       <c r="N301" s="3" t="s">
-        <v>3774</v>
+        <v>3722</v>
       </c>
       <c r="O301" s="3" t="s">
-        <v>3780</v>
+        <v>3723</v>
       </c>
       <c r="P301" s="3" t="s">
-        <v>3727</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>3691</v>
+        <v>3681</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>3689</v>
+        <v>2403</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>3739</v>
+        <v>2404</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>3754</v>
+        <v>2405</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>3733</v>
+        <v>2407</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>3760</v>
+        <v>2408</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>3734</v>
+        <v>2409</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>3735</v>
+        <v>2410</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>3763</v>
+        <v>2411</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>3767</v>
+        <v>2412</v>
       </c>
       <c r="K302" s="3" t="s">
-        <v>3736</v>
+        <v>2413</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>3771</v>
+        <v>2414</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>3737</v>
+        <v>2415</v>
       </c>
       <c r="N302" s="3" t="s">
-        <v>3775</v>
+        <v>2416</v>
       </c>
       <c r="O302" s="3" t="s">
-        <v>3781</v>
+        <v>2417</v>
       </c>
       <c r="P302" s="3" t="s">
-        <v>3738</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="3" t="s">
-        <v>3708</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>3709</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>3740</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>3755</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>3759</v>
-      </c>
-      <c r="G303" s="4" t="s">
-        <v>3744</v>
-      </c>
-      <c r="H303" s="3" t="s">
-        <v>3745</v>
-      </c>
-      <c r="I303" s="3" t="s">
-        <v>3764</v>
-      </c>
-      <c r="J303" s="3" t="s">
-        <v>3768</v>
-      </c>
-      <c r="K303" s="3" t="s">
-        <v>3742</v>
-      </c>
-      <c r="L303" s="3" t="s">
-        <v>3772</v>
-      </c>
-      <c r="M303" s="3" t="s">
-        <v>3743</v>
-      </c>
-      <c r="N303" s="3" t="s">
-        <v>3776</v>
-      </c>
-      <c r="O303" s="3" t="s">
-        <v>3778</v>
-      </c>
-      <c r="P303" s="3" t="s">
-        <v>3741</v>
-      </c>
+      <c r="G303" s="4"/>
     </row>
     <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
-        <v>3710</v>
+        <v>3690</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>3711</v>
+        <v>3688</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>3757</v>
+        <v>3726</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>3756</v>
+        <v>3753</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>3747</v>
+        <v>3732</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>3749</v>
+        <v>3731</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>3748</v>
+        <v>3730</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>3765</v>
+        <v>3762</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>3769</v>
+        <v>3766</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>3750</v>
+        <v>3729</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>3751</v>
+        <v>3728</v>
       </c>
       <c r="N304" s="3" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="O304" s="3" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="P304" s="3" t="s">
-        <v>3752</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
-        <v>3696</v>
+        <v>3691</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>2434</v>
+        <v>3689</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>2591</v>
+        <v>3739</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>2590</v>
+        <v>3754</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>2449</v>
+        <v>3733</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>2565</v>
-      </c>
-      <c r="G305" s="3" t="s">
-        <v>2459</v>
+        <v>3760</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>3734</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>2470</v>
+        <v>3735</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>2552</v>
+        <v>3763</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>2539</v>
+        <v>3767</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>2481</v>
+        <v>3736</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>2527</v>
+        <v>3771</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>2500</v>
+        <v>3737</v>
       </c>
       <c r="N305" s="3" t="s">
-        <v>2501</v>
+        <v>3775</v>
       </c>
       <c r="O305" s="3" t="s">
-        <v>2513</v>
+        <v>3781</v>
       </c>
       <c r="P305" s="3" t="s">
-        <v>2604</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
-        <v>3697</v>
+        <v>3708</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>2438</v>
+        <v>3709</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>2592</v>
+        <v>3740</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>2578</v>
+        <v>3755</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>2438</v>
+        <v>3746</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>2566</v>
-      </c>
-      <c r="G306" s="3" t="s">
-        <v>2460</v>
+        <v>3759</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>3744</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>2471</v>
+        <v>3745</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>2553</v>
+        <v>3764</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>2540</v>
+        <v>3768</v>
       </c>
       <c r="K306" s="3" t="s">
-        <v>2482</v>
+        <v>3742</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>2528</v>
+        <v>3772</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>2460</v>
+        <v>3743</v>
       </c>
       <c r="N306" s="3" t="s">
-        <v>2502</v>
+        <v>3776</v>
       </c>
       <c r="O306" s="3" t="s">
-        <v>2514</v>
+        <v>3778</v>
       </c>
       <c r="P306" s="3" t="s">
-        <v>2605</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
-        <v>3698</v>
+        <v>3710</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>2437</v>
+        <v>3711</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>2593</v>
+        <v>3757</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>2579</v>
+        <v>3756</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>1075</v>
+        <v>3747</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>2567</v>
-      </c>
-      <c r="G307" s="3" t="s">
-        <v>1081</v>
+        <v>3758</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>3749</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>1082</v>
+        <v>3748</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>2554</v>
+        <v>3765</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>2541</v>
+        <v>3769</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>2483</v>
+        <v>3750</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>1084</v>
+        <v>3773</v>
       </c>
       <c r="M307" s="3" t="s">
-        <v>1080</v>
+        <v>3751</v>
       </c>
       <c r="N307" s="3" t="s">
-        <v>1078</v>
+        <v>3777</v>
       </c>
       <c r="O307" s="3" t="s">
-        <v>2515</v>
+        <v>3779</v>
       </c>
       <c r="P307" s="3" t="s">
-        <v>2606</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
-        <v>3694</v>
+        <v>3696</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>2435</v>
+        <v>2449</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>2435</v>
+        <v>2481</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>2461</v>
+        <v>2500</v>
       </c>
       <c r="N308" s="3" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>2526</v>
+        <v>2513</v>
       </c>
       <c r="P308" s="3" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
-        <v>3695</v>
+        <v>3697</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>2450</v>
+        <v>2438</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>2436</v>
+        <v>2471</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="K309" s="3" t="s">
-        <v>2462</v>
+        <v>2482</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="N309" s="3" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="O309" s="3" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="P309" s="3" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>2451</v>
+        <v>1075</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>2463</v>
+        <v>1081</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>2473</v>
+        <v>1082</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>2531</v>
+        <v>1084</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>2492</v>
+        <v>1080</v>
       </c>
       <c r="N310" s="3" t="s">
-        <v>2505</v>
+        <v>1078</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="P310" s="3" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
-        <v>3700</v>
+        <v>3694</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>2452</v>
+        <v>2435</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>2485</v>
+        <v>2435</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="M311" s="3" t="s">
-        <v>2493</v>
+        <v>2461</v>
       </c>
       <c r="N311" s="3" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="O311" s="3" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="P311" s="3" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
-        <v>3701</v>
+        <v>3695</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>2525</v>
+        <v>2462</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>2475</v>
+        <v>2436</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="K312" s="3" t="s">
-        <v>2486</v>
+        <v>2462</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>2494</v>
+        <v>2462</v>
       </c>
       <c r="N312" s="3" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>2524</v>
+        <v>2517</v>
       </c>
       <c r="P312" s="3" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
-        <v>3702</v>
+        <v>3699</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>2480</v>
+        <v>2473</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>2491</v>
+        <v>2484</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="M313" s="3" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="N313" s="3" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="P313" s="3" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
-        <v>3703</v>
+        <v>3700</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="K314" s="3" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="M314" s="3" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="N314" s="3" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
       <c r="P314" s="3" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
-        <v>3704</v>
+        <v>3701</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>2469</v>
+        <v>2525</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="K315" s="3" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="L315" s="3" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="M315" s="3" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="N315" s="3" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="P315" s="3" t="s">
-        <v>2615</v>
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="3" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>2465</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>2480</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="N316" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="O316" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="P316" s="3" t="s">
+        <v>2612</v>
       </c>
     </row>
     <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
-        <v>3370</v>
+        <v>3703</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>3371</v>
+        <v>2443</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>3376</v>
+        <v>2600</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>3377</v>
+        <v>2586</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>3379</v>
+        <v>2458</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>3380</v>
+        <v>2574</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>3381</v>
+        <v>2466</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>3382</v>
+        <v>2479</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>3374</v>
+        <v>2561</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>3375</v>
+        <v>2548</v>
       </c>
       <c r="K317" s="3" t="s">
-        <v>3383</v>
+        <v>2490</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>3384</v>
+        <v>2535</v>
       </c>
       <c r="M317" s="3" t="s">
-        <v>3385</v>
+        <v>2496</v>
       </c>
       <c r="N317" s="3" t="s">
-        <v>3386</v>
+        <v>2509</v>
       </c>
       <c r="O317" s="3" t="s">
-        <v>3387</v>
+        <v>2519</v>
       </c>
       <c r="P317" s="3" t="s">
-        <v>3378</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
-        <v>3707</v>
+        <v>3704</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>3786</v>
+        <v>2446</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>3787</v>
+        <v>2602</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>3788</v>
+        <v>2588</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>3789</v>
+        <v>2456</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>3790</v>
+        <v>2576</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>3791</v>
+        <v>2469</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>3792</v>
+        <v>2478</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>3793</v>
+        <v>2563</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>3794</v>
+        <v>2550</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>3795</v>
+        <v>2489</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>3785</v>
+        <v>2537</v>
       </c>
       <c r="M318" s="3" t="s">
-        <v>3796</v>
+        <v>2498</v>
       </c>
       <c r="N318" s="3" t="s">
-        <v>3784</v>
+        <v>2511</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>3782</v>
+        <v>2522</v>
       </c>
       <c r="P318" s="3" t="s">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="3" t="s">
-        <v>3360</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>3361</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>3400</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>3396</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="G319" s="3" t="s">
-        <v>3390</v>
-      </c>
-      <c r="H319" s="3" t="s">
-        <v>3391</v>
-      </c>
-      <c r="I319" s="3" t="s">
-        <v>3398</v>
-      </c>
-      <c r="J319" s="3" t="s">
-        <v>3395</v>
-      </c>
-      <c r="K319" s="3" t="s">
-        <v>3392</v>
-      </c>
-      <c r="L319" s="3" t="s">
-        <v>3394</v>
-      </c>
-      <c r="M319" s="3" t="s">
-        <v>3393</v>
-      </c>
-      <c r="N319" s="3" t="s">
-        <v>3389</v>
-      </c>
-      <c r="O319" s="3" t="s">
-        <v>3388</v>
-      </c>
-      <c r="P319" s="3" t="s">
-        <v>3401</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
-        <v>3362</v>
+        <v>3370</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>3366</v>
+        <v>3371</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>3404</v>
+        <v>3376</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>3403</v>
+        <v>3377</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>3405</v>
+        <v>3379</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>3406</v>
+        <v>3380</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>3407</v>
+        <v>3381</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>3408</v>
+        <v>3382</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>3409</v>
+        <v>3374</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>3410</v>
+        <v>3375</v>
       </c>
       <c r="K320" s="3" t="s">
-        <v>3411</v>
+        <v>3383</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>3412</v>
+        <v>3384</v>
       </c>
       <c r="M320" s="3" t="s">
-        <v>3413</v>
+        <v>3385</v>
       </c>
       <c r="N320" s="3" t="s">
-        <v>3414</v>
+        <v>3386</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>3415</v>
+        <v>3387</v>
       </c>
       <c r="P320" s="3" t="s">
-        <v>3402</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
-        <v>3363</v>
+        <v>3707</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>3367</v>
+        <v>3786</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>3418</v>
+        <v>3787</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>3419</v>
+        <v>3788</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>3421</v>
+        <v>3789</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>3422</v>
+        <v>3790</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>3423</v>
+        <v>3791</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>3424</v>
+        <v>3792</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>3425</v>
+        <v>3793</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>3426</v>
+        <v>3794</v>
       </c>
       <c r="K321" s="3" t="s">
-        <v>3427</v>
+        <v>3795</v>
       </c>
       <c r="L321" s="3" t="s">
-        <v>3428</v>
+        <v>3785</v>
       </c>
       <c r="M321" s="3" t="s">
-        <v>3429</v>
+        <v>3796</v>
       </c>
       <c r="N321" s="3" t="s">
-        <v>3417</v>
+        <v>3784</v>
       </c>
       <c r="O321" s="3" t="s">
-        <v>3416</v>
+        <v>3782</v>
       </c>
       <c r="P321" s="3" t="s">
-        <v>3420</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
-        <v>3364</v>
+        <v>3360</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>3368</v>
+        <v>3361</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>3435</v>
+        <v>3399</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>3436</v>
+        <v>3400</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>3438</v>
+        <v>3396</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>3439</v>
+        <v>3397</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>3440</v>
+        <v>3390</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>3441</v>
+        <v>3391</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>3442</v>
+        <v>3398</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>3443</v>
+        <v>3395</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>3431</v>
+        <v>3392</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>3432</v>
+        <v>3394</v>
       </c>
       <c r="M322" s="3" t="s">
-        <v>3430</v>
+        <v>3393</v>
       </c>
       <c r="N322" s="3" t="s">
-        <v>3433</v>
+        <v>3389</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>3434</v>
+        <v>3388</v>
       </c>
       <c r="P322" s="3" t="s">
-        <v>3437</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>3409</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>3411</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="N323" s="3" t="s">
+        <v>3414</v>
+      </c>
+      <c r="O323" s="3" t="s">
+        <v>3415</v>
+      </c>
+      <c r="P323" s="3" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="3" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>3423</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>3426</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>3429</v>
+      </c>
+      <c r="N324" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="O324" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="P324" s="3" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="3" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>3441</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="N325" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="O325" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="P325" s="3" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="3" t="s">
         <v>3365</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B326" s="3" t="s">
         <v>3369</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>3452</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D326" s="3" t="s">
         <v>3451</v>
       </c>
-      <c r="E323" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F326" s="3" t="s">
         <v>3455</v>
       </c>
-      <c r="G323" s="3" t="s">
+      <c r="G326" s="3" t="s">
         <v>3456</v>
       </c>
-      <c r="H323" s="3" t="s">
+      <c r="H326" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="I326" s="3" t="s">
         <v>3445</v>
       </c>
-      <c r="J323" s="3" t="s">
+      <c r="J326" s="3" t="s">
         <v>3444</v>
       </c>
-      <c r="K323" s="3" t="s">
+      <c r="K326" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="L323" s="3" t="s">
+      <c r="L326" s="3" t="s">
         <v>3447</v>
       </c>
-      <c r="M323" s="3" t="s">
+      <c r="M326" s="3" t="s">
         <v>3448</v>
       </c>
-      <c r="N323" s="3" t="s">
+      <c r="N326" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="O323" s="3" t="s">
+      <c r="O326" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="P323" s="3" t="s">
+      <c r="P326" s="3" t="s">
         <v>3453</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="3" t="s">
+    <row r="327" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="3" t="s">
         <v>3372</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B327" s="3" t="s">
         <v>3373</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>3467</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>3468</v>
       </c>
-      <c r="E324" s="3" t="s">
+      <c r="E327" s="3" t="s">
         <v>3470</v>
       </c>
-      <c r="F324" s="3" t="s">
+      <c r="F327" s="3" t="s">
         <v>3471</v>
       </c>
-      <c r="G324" s="3" t="s">
+      <c r="G327" s="3" t="s">
         <v>3459</v>
       </c>
-      <c r="H324" s="3" t="s">
+      <c r="H327" s="3" t="s">
         <v>3458</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="I327" s="3" t="s">
         <v>3460</v>
       </c>
-      <c r="J324" s="3" t="s">
+      <c r="J327" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="K324" s="3" t="s">
+      <c r="K327" s="3" t="s">
         <v>3463</v>
       </c>
-      <c r="L324" s="3" t="s">
+      <c r="L327" s="3" t="s">
         <v>3464</v>
       </c>
-      <c r="M324" s="4" t="s">
+      <c r="M327" s="4" t="s">
         <v>3462</v>
       </c>
-      <c r="N324" s="3" t="s">
+      <c r="N327" s="3" t="s">
         <v>3465</v>
       </c>
-      <c r="O324" s="3" t="s">
+      <c r="O327" s="3" t="s">
         <v>3466</v>
       </c>
-      <c r="P324" s="3" t="s">
+      <c r="P327" s="3" t="s">
         <v>3469</v>
       </c>
     </row>

--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B093773D-A12D-468B-A8B3-C3BEF82C5F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB71532-CAD3-4C5F-A12B-22E01F803186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4936" uniqueCount="4101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="4123">
   <si>
     <t>Temperature</t>
   </si>
@@ -12328,6 +12328,72 @@
   </si>
   <si>
     <t>QRS 时间</t>
+  </si>
+  <si>
+    <t>MENU:StripSpeed</t>
+  </si>
+  <si>
+    <t>Strip Speed</t>
+  </si>
+  <si>
+    <t>MENU:StripSpeedx1</t>
+  </si>
+  <si>
+    <t>MENU:StripSpeedx10</t>
+  </si>
+  <si>
+    <t>1 : 1</t>
+  </si>
+  <si>
+    <t>1 : 10</t>
+  </si>
+  <si>
+    <t>MENU:StripSpeedx25</t>
+  </si>
+  <si>
+    <t>1 : 25</t>
+  </si>
+  <si>
+    <t>滚动速度</t>
+  </si>
+  <si>
+    <t>Kasi ya Kusogeza</t>
+  </si>
+  <si>
+    <t>скорость прокрутки</t>
+  </si>
+  <si>
+    <t>Velocidade de Rolamento</t>
+  </si>
+  <si>
+    <t>스크롤 속도</t>
+  </si>
+  <si>
+    <t>Velocità di Scorrimento</t>
+  </si>
+  <si>
+    <t>स्क्रोल गति</t>
+  </si>
+  <si>
+    <t>מהירות גלילה</t>
+  </si>
+  <si>
+    <t>Vitesse de Défilement</t>
+  </si>
+  <si>
+    <t>Velocidad de Desplazamiento</t>
+  </si>
+  <si>
+    <t>سرعت پیمایش</t>
+  </si>
+  <si>
+    <t>Scrollgeschwindigkeit</t>
+  </si>
+  <si>
+    <t>سرعة التمرير</t>
+  </si>
+  <si>
+    <t>የማሸብለል ፍጥነት</t>
   </si>
 </sst>
 </file>
@@ -12392,7 +12458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12415,6 +12481,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12696,28 +12765,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P335"/>
+  <dimension ref="A1:P339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="A136:XFD138"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.7265625" style="2"/>
-    <col min="3" max="4" width="60.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="60.7265625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="60.7265625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="60.7265625" style="3" customWidth="1"/>
-    <col min="11" max="15" width="60.7265625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="60.7265625" style="3"/>
-    <col min="17" max="16384" width="60.7265625" style="2"/>
+    <col min="1" max="1" width="41.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="2"/>
+    <col min="3" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="60.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="60.7109375" style="3" customWidth="1"/>
+    <col min="11" max="15" width="60.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" style="3"/>
+    <col min="17" max="16384" width="60.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12767,7 +12836,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3993</v>
       </c>
@@ -12817,7 +12886,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3994</v>
       </c>
@@ -12867,7 +12936,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -12917,7 +12986,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -12967,7 +13036,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
@@ -13017,7 +13086,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3298</v>
       </c>
@@ -13067,8 +13136,8 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>368</v>
       </c>
@@ -13118,7 +13187,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>335</v>
       </c>
@@ -13168,7 +13237,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>362</v>
       </c>
@@ -13218,7 +13287,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>702</v>
       </c>
@@ -13268,7 +13337,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1027</v>
       </c>
@@ -13318,7 +13387,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1209</v>
       </c>
@@ -13368,7 +13437,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3472</v>
       </c>
@@ -13418,8 +13487,8 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1050</v>
       </c>
@@ -13469,7 +13538,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1049</v>
       </c>
@@ -13519,8 +13588,8 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>392</v>
       </c>
@@ -13570,7 +13639,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>393</v>
       </c>
@@ -13620,7 +13689,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>394</v>
       </c>
@@ -13670,7 +13739,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>395</v>
       </c>
@@ -13720,7 +13789,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>396</v>
       </c>
@@ -13770,7 +13839,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>397</v>
       </c>
@@ -13820,7 +13889,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>398</v>
       </c>
@@ -13870,7 +13939,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>399</v>
       </c>
@@ -13920,7 +13989,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>3200</v>
       </c>
@@ -13970,7 +14039,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>400</v>
       </c>
@@ -14020,7 +14089,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>401</v>
       </c>
@@ -14070,7 +14139,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>402</v>
       </c>
@@ -14120,7 +14189,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>2854</v>
       </c>
@@ -14170,7 +14239,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>2856</v>
       </c>
@@ -14220,7 +14289,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>403</v>
       </c>
@@ -14270,7 +14339,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>2855</v>
       </c>
@@ -14320,7 +14389,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>404</v>
       </c>
@@ -14370,7 +14439,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>405</v>
       </c>
@@ -14420,7 +14489,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>406</v>
       </c>
@@ -14470,7 +14539,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>407</v>
       </c>
@@ -14520,7 +14589,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>408</v>
       </c>
@@ -14570,7 +14639,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>409</v>
       </c>
@@ -14620,7 +14689,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>410</v>
       </c>
@@ -14670,7 +14739,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>411</v>
       </c>
@@ -14720,7 +14789,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>412</v>
       </c>
@@ -14770,7 +14839,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>413</v>
       </c>
@@ -14820,7 +14889,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>414</v>
       </c>
@@ -14870,7 +14939,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>415</v>
       </c>
@@ -14920,7 +14989,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>391</v>
       </c>
@@ -14970,7 +15039,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>2792</v>
       </c>
@@ -15020,7 +15089,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>418</v>
       </c>
@@ -15070,7 +15139,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>2793</v>
       </c>
@@ -15120,7 +15189,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>2794</v>
       </c>
@@ -15170,7 +15239,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>2795</v>
       </c>
@@ -15220,7 +15289,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>2853</v>
       </c>
@@ -15270,7 +15339,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>417</v>
       </c>
@@ -15320,7 +15389,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>2910</v>
       </c>
@@ -15370,7 +15439,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>2926</v>
       </c>
@@ -15420,7 +15489,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>2942</v>
       </c>
@@ -15470,7 +15539,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2958</v>
       </c>
@@ -15520,7 +15589,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1004</v>
       </c>
@@ -15570,7 +15639,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1005</v>
       </c>
@@ -15620,7 +15689,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1006</v>
       </c>
@@ -15670,7 +15739,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1007</v>
       </c>
@@ -15720,7 +15789,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>2990</v>
       </c>
@@ -15770,7 +15839,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>2991</v>
       </c>
@@ -15817,7 +15886,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>2992</v>
       </c>
@@ -15867,7 +15936,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>2993</v>
       </c>
@@ -15917,7 +15986,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -15967,7 +16036,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>3066</v>
       </c>
@@ -16017,7 +16086,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>6</v>
       </c>
@@ -16067,7 +16136,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
@@ -16117,7 +16186,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
@@ -16167,7 +16236,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>3682</v>
       </c>
@@ -16217,7 +16286,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>3692</v>
       </c>
@@ -16267,7 +16336,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>3684</v>
       </c>
@@ -16317,7 +16386,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>3685</v>
       </c>
@@ -16367,7 +16436,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>337</v>
       </c>
@@ -16417,7 +16486,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>3939</v>
       </c>
@@ -16467,7 +16536,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>339</v>
       </c>
@@ -16517,7 +16586,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
@@ -16567,7 +16636,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>3706</v>
       </c>
@@ -16617,7 +16686,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>10</v>
       </c>
@@ -16667,8 +16736,8 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>30</v>
       </c>
@@ -16718,7 +16787,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>31</v>
       </c>
@@ -16768,7 +16837,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>32</v>
       </c>
@@ -16818,7 +16887,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>33</v>
       </c>
@@ -16868,7 +16937,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>34</v>
       </c>
@@ -16918,7 +16987,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>35</v>
       </c>
@@ -16968,7 +17037,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>975</v>
       </c>
@@ -17018,7 +17087,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>36</v>
       </c>
@@ -17068,7 +17137,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>37</v>
       </c>
@@ -17118,8 +17187,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>2444</v>
       </c>
@@ -17169,7 +17238,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>2447</v>
       </c>
@@ -17219,7 +17288,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>3296</v>
       </c>
@@ -17269,8 +17338,8 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>2908</v>
       </c>
@@ -17320,7 +17389,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>3122</v>
       </c>
@@ -17370,7 +17439,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>3114</v>
       </c>
@@ -17420,7 +17489,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>3115</v>
       </c>
@@ -17470,7 +17539,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>3116</v>
       </c>
@@ -17520,7 +17589,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>3119</v>
       </c>
@@ -17570,7 +17639,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>3082</v>
       </c>
@@ -17620,7 +17689,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>3083</v>
       </c>
@@ -17670,8 +17739,8 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>23</v>
       </c>
@@ -17721,7 +17790,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>11</v>
       </c>
@@ -17771,7 +17840,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>12</v>
       </c>
@@ -17821,7 +17890,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>13</v>
       </c>
@@ -17871,7 +17940,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>14</v>
       </c>
@@ -17921,7 +17990,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>15</v>
       </c>
@@ -17971,7 +18040,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>16</v>
       </c>
@@ -18021,7 +18090,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>17</v>
       </c>
@@ -18071,7 +18140,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>18</v>
       </c>
@@ -18121,7 +18190,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>3477</v>
       </c>
@@ -18171,7 +18240,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>19</v>
       </c>
@@ -18221,7 +18290,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>2351</v>
       </c>
@@ -18271,7 +18340,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>2369</v>
       </c>
@@ -18321,7 +18390,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>20</v>
       </c>
@@ -18371,7 +18440,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>21</v>
       </c>
@@ -18421,7 +18490,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>2723</v>
       </c>
@@ -18471,7 +18540,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>22</v>
       </c>
@@ -18521,7 +18590,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>24</v>
       </c>
@@ -18571,7 +18640,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>25</v>
       </c>
@@ -18621,7 +18690,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>26</v>
       </c>
@@ -18671,7 +18740,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>27</v>
       </c>
@@ -18721,7 +18790,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>2419</v>
       </c>
@@ -18771,7 +18840,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>2727</v>
       </c>
@@ -18821,7 +18890,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>2728</v>
       </c>
@@ -18871,7 +18940,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>2973</v>
       </c>
@@ -18921,7 +18990,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>4055</v>
       </c>
@@ -18971,7 +19040,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>4059</v>
       </c>
@@ -19021,7 +19090,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>4056</v>
       </c>
@@ -19071,7 +19140,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>2629</v>
       </c>
@@ -19121,7 +19190,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>28</v>
       </c>
@@ -19171,7 +19240,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>29</v>
       </c>
@@ -19221,7 +19290,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>989</v>
       </c>
@@ -19271,7 +19340,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>984</v>
       </c>
@@ -19321,7 +19390,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>985</v>
       </c>
@@ -19371,7 +19440,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>986</v>
       </c>
@@ -19421,7 +19490,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>987</v>
       </c>
@@ -19471,7 +19540,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>995</v>
       </c>
@@ -19521,7 +19590,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>988</v>
       </c>
@@ -19571,8 +19640,8 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>2617</v>
       </c>
@@ -19622,7 +19691,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>2618</v>
       </c>
@@ -19672,7 +19741,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>2619</v>
       </c>
@@ -19722,7 +19791,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>2620</v>
       </c>
@@ -19772,7 +19841,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>2621</v>
       </c>
@@ -19822,7 +19891,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>2622</v>
       </c>
@@ -19872,7 +19941,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>1253</v>
       </c>
@@ -19922,7 +19991,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>1224</v>
       </c>
@@ -19972,7 +20041,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>1225</v>
       </c>
@@ -20022,7 +20091,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>1222</v>
       </c>
@@ -20072,7 +20141,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>1211</v>
       </c>
@@ -20122,7 +20191,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>1212</v>
       </c>
@@ -20172,7 +20241,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1219</v>
       </c>
@@ -20222,7 +20291,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>1213</v>
       </c>
@@ -20272,7 +20341,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20322,7 +20391,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>1226</v>
       </c>
@@ -20372,7 +20441,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>1227</v>
       </c>
@@ -20422,7 +20491,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>1228</v>
       </c>
@@ -20472,7 +20541,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>1233</v>
       </c>
@@ -20522,7 +20591,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>1234</v>
       </c>
@@ -20572,7 +20641,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>2387</v>
       </c>
@@ -20622,7 +20691,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>2773</v>
       </c>
@@ -20672,7 +20741,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>1238</v>
       </c>
@@ -20722,7 +20791,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>1251</v>
       </c>
@@ -20772,7 +20841,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>1252</v>
       </c>
@@ -20813,7 +20882,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>1243</v>
       </c>
@@ -20863,7 +20932,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="177" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>1244</v>
       </c>
@@ -20913,7 +20982,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>1241</v>
       </c>
@@ -20963,7 +21032,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="179" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>1242</v>
       </c>
@@ -21013,7 +21082,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="180" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>1249</v>
       </c>
@@ -21063,8 +21132,8 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="181" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>1201</v>
       </c>
@@ -21114,7 +21183,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="183" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1047</v>
       </c>
@@ -21164,7 +21233,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="184" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>1053</v>
       </c>
@@ -21214,7 +21283,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>1202</v>
       </c>
@@ -21264,7 +21333,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>1203</v>
       </c>
@@ -21314,7 +21383,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>1208</v>
       </c>
@@ -21364,7 +21433,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="188" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>1055</v>
       </c>
@@ -21414,7 +21483,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>1056</v>
       </c>
@@ -21464,7 +21533,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>1060</v>
       </c>
@@ -21514,7 +21583,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>2790</v>
       </c>
@@ -21564,7 +21633,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="192" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>1192</v>
       </c>
@@ -21614,7 +21683,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>1029</v>
       </c>
@@ -21664,7 +21733,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>1030</v>
       </c>
@@ -21714,7 +21783,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>1033</v>
       </c>
@@ -21764,7 +21833,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>1034</v>
       </c>
@@ -21814,7 +21883,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>1038</v>
       </c>
@@ -21864,7 +21933,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>1039</v>
       </c>
@@ -21914,7 +21983,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>1040</v>
       </c>
@@ -21964,7 +22033,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>1198</v>
       </c>
@@ -22011,7 +22080,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>1197</v>
       </c>
@@ -22058,7 +22127,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>1062</v>
       </c>
@@ -22108,7 +22177,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>1195</v>
       </c>
@@ -22155,7 +22224,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>1196</v>
       </c>
@@ -22202,8 +22271,8 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>1013</v>
       </c>
@@ -22253,7 +22322,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>1014</v>
       </c>
@@ -22303,7 +22372,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1015</v>
       </c>
@@ -22353,7 +22422,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1024</v>
       </c>
@@ -22403,7 +22472,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>1016</v>
       </c>
@@ -22453,7 +22522,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>1025</v>
       </c>
@@ -22503,7 +22572,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>2349</v>
       </c>
@@ -22553,7 +22622,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>2350</v>
       </c>
@@ -22603,7 +22672,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>1017</v>
       </c>
@@ -22653,7 +22722,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>1019</v>
       </c>
@@ -22703,7 +22772,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>1018</v>
       </c>
@@ -22753,5416 +22822,5616 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>4120</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>4119</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>4118</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>4117</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>4116</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>4115</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>4114</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>4112</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>4111</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>4110</v>
+      </c>
+      <c r="P217" s="3" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="H218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="I218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="J218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="K218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="L218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="M218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="N218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="O218" s="9" t="s">
+        <v>4105</v>
+      </c>
+      <c r="P218" s="9" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="K219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="L219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="M219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="N219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="O219" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="P219" s="9" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="G220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="H220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="I220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="J220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="K220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="L220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="M220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="N220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="O220" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="P220" s="9" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
         <v>3895</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>3898</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>3901</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D221" s="3" t="s">
         <v>3906</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E221" s="3" t="s">
         <v>3907</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F221" s="3" t="s">
         <v>3911</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="G221" s="3" t="s">
         <v>3912</v>
       </c>
-      <c r="H217" s="3" t="s">
+      <c r="H221" s="3" t="s">
         <v>3917</v>
       </c>
-      <c r="I217" s="3" t="s">
+      <c r="I221" s="3" t="s">
         <v>3918</v>
       </c>
-      <c r="J217" s="3" t="s">
+      <c r="J221" s="3" t="s">
         <v>3923</v>
       </c>
-      <c r="K217" s="3" t="s">
+      <c r="K221" s="3" t="s">
         <v>3924</v>
       </c>
-      <c r="L217" s="3" t="s">
+      <c r="L221" s="3" t="s">
         <v>3928</v>
       </c>
-      <c r="M217" s="3" t="s">
+      <c r="M221" s="3" t="s">
         <v>3929</v>
       </c>
-      <c r="N217" s="3" t="s">
+      <c r="N221" s="3" t="s">
         <v>3932</v>
       </c>
-      <c r="O217" s="3" t="s">
+      <c r="O221" s="3" t="s">
         <v>3933</v>
       </c>
-      <c r="P217" s="3" t="s">
+      <c r="P221" s="3" t="s">
         <v>3938</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="3" t="s">
+    <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
         <v>3896</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B222" s="3" t="s">
         <v>3899</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C222" s="3" t="s">
         <v>3902</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>3905</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E222" s="3" t="s">
         <v>3899</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F222" s="3" t="s">
         <v>3910</v>
       </c>
-      <c r="G218" s="3" t="s">
+      <c r="G222" s="3" t="s">
         <v>3913</v>
       </c>
-      <c r="H218" s="3" t="s">
+      <c r="H222" s="3" t="s">
         <v>3916</v>
       </c>
-      <c r="I218" s="3" t="s">
+      <c r="I222" s="3" t="s">
         <v>3919</v>
       </c>
-      <c r="J218" s="3" t="s">
+      <c r="J222" s="3" t="s">
         <v>3922</v>
       </c>
-      <c r="K218" s="3" t="s">
+      <c r="K222" s="3" t="s">
         <v>3913</v>
       </c>
-      <c r="L218" s="3" t="s">
+      <c r="L222" s="3" t="s">
         <v>3927</v>
       </c>
-      <c r="M218" s="3" t="s">
+      <c r="M222" s="3" t="s">
         <v>3913</v>
       </c>
-      <c r="N218" s="3" t="s">
+      <c r="N222" s="3" t="s">
         <v>3931</v>
       </c>
-      <c r="O218" s="3" t="s">
+      <c r="O222" s="3" t="s">
         <v>3934</v>
       </c>
-      <c r="P218" s="3" t="s">
+      <c r="P222" s="3" t="s">
         <v>3937</v>
       </c>
     </row>
-    <row r="219" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="3" t="s">
+    <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>3897</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>3900</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>3903</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D223" s="3" t="s">
         <v>3904</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="E223" s="3" t="s">
         <v>3908</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F223" s="3" t="s">
         <v>3909</v>
       </c>
-      <c r="G219" s="3" t="s">
+      <c r="G223" s="3" t="s">
         <v>3914</v>
       </c>
-      <c r="H219" s="3" t="s">
+      <c r="H223" s="3" t="s">
         <v>3915</v>
       </c>
-      <c r="I219" s="3" t="s">
+      <c r="I223" s="3" t="s">
         <v>3920</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="J223" s="3" t="s">
         <v>3921</v>
       </c>
-      <c r="K219" s="3" t="s">
+      <c r="K223" s="3" t="s">
         <v>3925</v>
       </c>
-      <c r="L219" s="3" t="s">
+      <c r="L223" s="3" t="s">
         <v>3926</v>
       </c>
-      <c r="M219" s="3" t="s">
+      <c r="M223" s="3" t="s">
         <v>3914</v>
       </c>
-      <c r="N219" s="3" t="s">
+      <c r="N223" s="3" t="s">
         <v>3930</v>
       </c>
-      <c r="O219" s="3" t="s">
+      <c r="O223" s="3" t="s">
         <v>3935</v>
       </c>
-      <c r="P219" s="3" t="s">
+      <c r="P223" s="3" t="s">
         <v>3936</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="3" t="s">
+    <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>3955</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>3958</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C224" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>1898</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E224" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F224" s="3" t="s">
         <v>3961</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="G224" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="H220" s="3" t="s">
+      <c r="H224" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="I220" s="3" t="s">
+      <c r="I224" s="3" t="s">
         <v>1929</v>
       </c>
-      <c r="J220" s="3" t="s">
+      <c r="J224" s="3" t="s">
         <v>3962</v>
       </c>
-      <c r="K220" s="3" t="s">
+      <c r="K224" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="L220" s="3" t="s">
+      <c r="L224" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="M220" s="3" t="s">
+      <c r="M224" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="N220" s="3" t="s">
+      <c r="N224" s="3" t="s">
         <v>3970</v>
       </c>
-      <c r="O220" s="3" t="s">
+      <c r="O224" s="3" t="s">
         <v>1444</v>
       </c>
-      <c r="P220" s="3" t="s">
+      <c r="P224" s="3" t="s">
         <v>3963</v>
       </c>
     </row>
-    <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="3" t="s">
+    <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>3956</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>3959</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C225" s="3" t="s">
         <v>3991</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D225" s="3" t="s">
         <v>3990</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E225" s="3" t="s">
         <v>3987</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="F225" s="3" t="s">
         <v>3986</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="G225" s="3" t="s">
         <v>3983</v>
       </c>
-      <c r="H221" s="3" t="s">
+      <c r="H225" s="3" t="s">
         <v>3982</v>
       </c>
-      <c r="I221" s="3" t="s">
+      <c r="I225" s="3" t="s">
         <v>3979</v>
       </c>
-      <c r="J221" s="3" t="s">
+      <c r="J225" s="3" t="s">
         <v>3978</v>
       </c>
-      <c r="K221" s="3" t="s">
+      <c r="K225" s="3" t="s">
         <v>3975</v>
       </c>
-      <c r="L221" s="3" t="s">
+      <c r="L225" s="3" t="s">
         <v>3974</v>
       </c>
-      <c r="M221" s="3" t="s">
+      <c r="M225" s="3" t="s">
         <v>3971</v>
       </c>
-      <c r="N221" s="3" t="s">
+      <c r="N225" s="3" t="s">
         <v>3968</v>
       </c>
-      <c r="O221" s="3" t="s">
+      <c r="O225" s="3" t="s">
         <v>3967</v>
       </c>
-      <c r="P221" s="3" t="s">
+      <c r="P225" s="3" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="3" t="s">
+    <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>3957</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B226" s="3" t="s">
         <v>3960</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>3992</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D226" s="3" t="s">
         <v>3989</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E226" s="3" t="s">
         <v>3988</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F226" s="3" t="s">
         <v>3985</v>
       </c>
-      <c r="G222" s="3" t="s">
+      <c r="G226" s="3" t="s">
         <v>3984</v>
       </c>
-      <c r="H222" s="3" t="s">
+      <c r="H226" s="3" t="s">
         <v>3981</v>
       </c>
-      <c r="I222" s="3" t="s">
+      <c r="I226" s="3" t="s">
         <v>3980</v>
       </c>
-      <c r="J222" s="3" t="s">
+      <c r="J226" s="3" t="s">
         <v>3977</v>
       </c>
-      <c r="K222" s="3" t="s">
+      <c r="K226" s="3" t="s">
         <v>3976</v>
       </c>
-      <c r="L222" s="3" t="s">
+      <c r="L226" s="3" t="s">
         <v>3973</v>
       </c>
-      <c r="M222" s="3" t="s">
+      <c r="M226" s="3" t="s">
         <v>3972</v>
       </c>
-      <c r="N222" s="3" t="s">
+      <c r="N226" s="3" t="s">
         <v>3969</v>
       </c>
-      <c r="O222" s="3" t="s">
+      <c r="O226" s="3" t="s">
         <v>3966</v>
       </c>
-      <c r="P222" s="3" t="s">
+      <c r="P226" s="3" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="3" t="s">
+    <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B227" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C227" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D227" s="3" t="s">
         <v>1950</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E227" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F227" s="3" t="s">
         <v>1964</v>
       </c>
-      <c r="G223" s="3" t="s">
+      <c r="G227" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="H227" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I223" s="3" t="s">
+      <c r="I227" s="3" t="s">
         <v>1978</v>
       </c>
-      <c r="J223" s="3" t="s">
+      <c r="J227" s="3" t="s">
         <v>2217</v>
       </c>
-      <c r="K223" s="3" t="s">
+      <c r="K227" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L223" s="3" t="s">
+      <c r="L227" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="M223" s="3" t="s">
+      <c r="M227" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N223" s="3" t="s">
+      <c r="N227" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="O223" s="3" t="s">
+      <c r="O227" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="P223" s="3" t="s">
+      <c r="P227" s="3" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="3" t="s">
+    <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>3249</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>3251</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C228" s="3" t="s">
         <v>3268</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D228" s="3" t="s">
         <v>3267</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E228" s="3" t="s">
         <v>3270</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F228" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="G224" s="3" t="s">
+      <c r="G228" s="3" t="s">
         <v>3271</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="H228" s="3" t="s">
         <v>3272</v>
       </c>
-      <c r="I224" s="3" t="s">
+      <c r="I228" s="3" t="s">
         <v>3273</v>
       </c>
-      <c r="J224" s="3" t="s">
+      <c r="J228" s="3" t="s">
         <v>3274</v>
       </c>
-      <c r="K224" s="3" t="s">
+      <c r="K228" s="3" t="s">
         <v>3275</v>
       </c>
-      <c r="L224" s="3" t="s">
+      <c r="L228" s="3" t="s">
         <v>3276</v>
       </c>
-      <c r="M224" s="3" t="s">
+      <c r="M228" s="3" t="s">
         <v>3277</v>
       </c>
-      <c r="N224" s="3" t="s">
+      <c r="N228" s="3" t="s">
         <v>3278</v>
       </c>
-      <c r="O224" s="3" t="s">
+      <c r="O228" s="3" t="s">
         <v>3279</v>
       </c>
-      <c r="P224" s="3" t="s">
+      <c r="P228" s="3" t="s">
         <v>3269</v>
       </c>
     </row>
-    <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="3" t="s">
+    <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
         <v>3248</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>3250</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>3262</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D229" s="3" t="s">
         <v>3263</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E229" s="3" t="s">
         <v>3253</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="F229" s="3" t="s">
         <v>3265</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G229" s="3" t="s">
         <v>3254</v>
       </c>
-      <c r="H225" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>3255</v>
       </c>
-      <c r="I225" s="3" t="s">
+      <c r="I229" s="3" t="s">
         <v>3256</v>
       </c>
-      <c r="J225" s="3" t="s">
+      <c r="J229" s="3" t="s">
         <v>3257</v>
       </c>
-      <c r="K225" s="3" t="s">
+      <c r="K229" s="3" t="s">
         <v>3252</v>
       </c>
-      <c r="L225" s="3" t="s">
+      <c r="L229" s="3" t="s">
         <v>3258</v>
       </c>
-      <c r="M225" s="3" t="s">
+      <c r="M229" s="3" t="s">
         <v>3259</v>
       </c>
-      <c r="N225" s="3" t="s">
+      <c r="N229" s="3" t="s">
         <v>3260</v>
       </c>
-      <c r="O225" s="3" t="s">
+      <c r="O229" s="3" t="s">
         <v>3261</v>
       </c>
-      <c r="P225" s="3" t="s">
+      <c r="P229" s="3" t="s">
         <v>3264</v>
       </c>
     </row>
-    <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="3" t="s">
+    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>3280</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>3281</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C230" s="3" t="s">
         <v>3283</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D230" s="3" t="s">
         <v>3284</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E230" s="3" t="s">
         <v>3286</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F230" s="3" t="s">
         <v>3287</v>
       </c>
-      <c r="G226" s="3" t="s">
+      <c r="G230" s="3" t="s">
         <v>3288</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="H230" s="3" t="s">
         <v>3289</v>
       </c>
-      <c r="I226" s="3" t="s">
+      <c r="I230" s="3" t="s">
         <v>3290</v>
       </c>
-      <c r="J226" s="3" t="s">
+      <c r="J230" s="3" t="s">
         <v>3291</v>
       </c>
-      <c r="K226" s="3" t="s">
+      <c r="K230" s="3" t="s">
         <v>3292</v>
       </c>
-      <c r="L226" s="3" t="s">
+      <c r="L230" s="3" t="s">
         <v>3293</v>
       </c>
-      <c r="M226" s="3" t="s">
+      <c r="M230" s="3" t="s">
         <v>3294</v>
       </c>
-      <c r="N226" s="3" t="s">
+      <c r="N230" s="3" t="s">
         <v>3295</v>
       </c>
-      <c r="O226" s="3" t="s">
+      <c r="O230" s="3" t="s">
         <v>3282</v>
       </c>
-      <c r="P226" s="3" t="s">
+      <c r="P230" s="3" t="s">
         <v>3285</v>
       </c>
     </row>
-    <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="3" t="s">
+    <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C231" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D231" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E231" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="F231" s="3" t="s">
         <v>1965</v>
       </c>
-      <c r="G227" s="3" t="s">
+      <c r="G231" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H227" s="3" t="s">
+      <c r="H231" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I227" s="3" t="s">
+      <c r="I231" s="3" t="s">
         <v>1979</v>
       </c>
-      <c r="J227" s="3" t="s">
+      <c r="J231" s="3" t="s">
         <v>2218</v>
       </c>
-      <c r="K227" s="3" t="s">
+      <c r="K231" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L227" s="3" t="s">
+      <c r="L231" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="M227" s="3" t="s">
+      <c r="M231" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N227" s="3" t="s">
+      <c r="N231" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="O227" s="3" t="s">
+      <c r="O231" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="P227" s="3" t="s">
+      <c r="P231" s="3" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="3" t="s">
+    <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>3328</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>3330</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C232" s="3" t="s">
         <v>3341</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>3342</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E232" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="F232" s="3" t="s">
         <v>3345</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="G232" s="3" t="s">
         <v>3334</v>
       </c>
-      <c r="H228" s="3" t="s">
+      <c r="H232" s="3" t="s">
         <v>3335</v>
       </c>
-      <c r="I228" s="3" t="s">
+      <c r="I232" s="3" t="s">
         <v>3339</v>
       </c>
-      <c r="J228" s="3" t="s">
+      <c r="J232" s="3" t="s">
         <v>3340</v>
       </c>
-      <c r="K228" s="3" t="s">
+      <c r="K232" s="3" t="s">
         <v>3336</v>
       </c>
-      <c r="L228" s="3" t="s">
+      <c r="L232" s="3" t="s">
         <v>3337</v>
       </c>
-      <c r="M228" s="3" t="s">
+      <c r="M232" s="3" t="s">
         <v>3333</v>
       </c>
-      <c r="N228" s="3" t="s">
+      <c r="N232" s="3" t="s">
         <v>3332</v>
       </c>
-      <c r="O228" s="3" t="s">
+      <c r="O232" s="3" t="s">
         <v>3338</v>
       </c>
-      <c r="P228" s="3" t="s">
+      <c r="P232" s="3" t="s">
         <v>3343</v>
       </c>
     </row>
-    <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="3" t="s">
+    <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>3329</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>3331</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C233" s="3" t="s">
         <v>3347</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>3348</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E233" s="3" t="s">
         <v>3350</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="F233" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="G233" s="3" t="s">
         <v>3351</v>
       </c>
-      <c r="H229" s="3" t="s">
+      <c r="H233" s="3" t="s">
         <v>3352</v>
       </c>
-      <c r="I229" s="3" t="s">
+      <c r="I233" s="3" t="s">
         <v>3353</v>
       </c>
-      <c r="J229" s="3" t="s">
+      <c r="J233" s="3" t="s">
         <v>3354</v>
       </c>
-      <c r="K229" s="3" t="s">
+      <c r="K233" s="3" t="s">
         <v>3355</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="L233" s="3" t="s">
         <v>3356</v>
       </c>
-      <c r="M229" s="3" t="s">
+      <c r="M233" s="3" t="s">
         <v>3357</v>
       </c>
-      <c r="N229" s="3" t="s">
+      <c r="N233" s="3" t="s">
         <v>3358</v>
       </c>
-      <c r="O229" s="3" t="s">
+      <c r="O233" s="3" t="s">
         <v>3359</v>
       </c>
-      <c r="P229" s="3" t="s">
+      <c r="P233" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
-    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="3" t="s">
+    <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B234" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C234" s="3" t="s">
         <v>1550</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D234" s="3" t="s">
         <v>1952</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F230" s="3" t="s">
+      <c r="F234" s="3" t="s">
         <v>1966</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G234" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H230" s="3" t="s">
+      <c r="H234" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I230" s="3" t="s">
+      <c r="I234" s="3" t="s">
         <v>1980</v>
       </c>
-      <c r="J230" s="3" t="s">
+      <c r="J234" s="3" t="s">
         <v>2219</v>
       </c>
-      <c r="K230" s="3" t="s">
+      <c r="K234" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L230" s="3" t="s">
+      <c r="L234" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="M230" s="3" t="s">
+      <c r="M234" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N230" s="3" t="s">
+      <c r="N234" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="O230" s="3" t="s">
+      <c r="O234" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="P230" s="3" t="s">
+      <c r="P234" s="3" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="3" t="s">
+    <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B235" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C235" s="3" t="s">
         <v>1485</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E235" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="F235" s="3" t="s">
         <v>1708</v>
       </c>
-      <c r="G231" s="3" t="s">
+      <c r="G235" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H231" s="3" t="s">
+      <c r="H235" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="I231" s="3" t="s">
+      <c r="I235" s="3" t="s">
         <v>1717</v>
       </c>
-      <c r="J231" s="3" t="s">
+      <c r="J235" s="3" t="s">
         <v>2122</v>
       </c>
-      <c r="K231" s="3" t="s">
+      <c r="K235" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="L231" s="3" t="s">
+      <c r="L235" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="M231" s="3" t="s">
+      <c r="M235" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="N231" s="3" t="s">
+      <c r="N235" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="O231" s="3" t="s">
+      <c r="O235" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="P231" s="3" t="s">
+      <c r="P235" s="3" t="s">
         <v>2115</v>
       </c>
     </row>
-    <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="3" t="s">
+    <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B236" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C236" s="3" t="s">
         <v>1553</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>1955</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E236" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F236" s="3" t="s">
         <v>1969</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="G236" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="H232" s="3" t="s">
+      <c r="H236" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="I232" s="3" t="s">
+      <c r="I236" s="3" t="s">
         <v>1983</v>
       </c>
-      <c r="J232" s="3" t="s">
+      <c r="J236" s="3" t="s">
         <v>2222</v>
       </c>
-      <c r="K232" s="3" t="s">
+      <c r="K236" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="L232" s="3" t="s">
+      <c r="L236" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="M232" s="3" t="s">
+      <c r="M236" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="N232" s="3" t="s">
+      <c r="N236" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="O232" s="3" t="s">
+      <c r="O236" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="P232" s="3" t="s">
+      <c r="P236" s="3" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="3" t="s">
+    <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B237" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C237" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>1956</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E237" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F237" s="3" t="s">
         <v>1970</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G237" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="H233" s="3" t="s">
+      <c r="H237" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="I233" s="3" t="s">
+      <c r="I237" s="3" t="s">
         <v>1984</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J237" s="3" t="s">
         <v>2223</v>
       </c>
-      <c r="K233" s="3" t="s">
+      <c r="K237" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="L233" s="3" t="s">
+      <c r="L237" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="M233" s="3" t="s">
+      <c r="M237" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="N233" s="3" t="s">
+      <c r="N237" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="O233" s="3" t="s">
+      <c r="O237" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="P233" s="3" t="s">
+      <c r="P237" s="3" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="3" t="s">
+    <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>3218</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B238" s="3" t="s">
         <v>3219</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C238" s="3" t="s">
         <v>3243</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>3244</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E238" s="3" t="s">
         <v>3246</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="F238" s="3" t="s">
         <v>3247</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="G238" s="3" t="s">
         <v>3235</v>
       </c>
-      <c r="H234" s="3" t="s">
+      <c r="H238" s="3" t="s">
         <v>3234</v>
       </c>
-      <c r="I234" s="3" t="s">
+      <c r="I238" s="3" t="s">
         <v>3236</v>
       </c>
-      <c r="J234" s="3" t="s">
+      <c r="J238" s="3" t="s">
         <v>3237</v>
       </c>
-      <c r="K234" s="3" t="s">
+      <c r="K238" s="3" t="s">
         <v>3238</v>
       </c>
-      <c r="L234" s="3" t="s">
+      <c r="L238" s="3" t="s">
         <v>3239</v>
       </c>
-      <c r="M234" s="3" t="s">
+      <c r="M238" s="3" t="s">
         <v>3240</v>
       </c>
-      <c r="N234" s="3" t="s">
+      <c r="N238" s="3" t="s">
         <v>3241</v>
       </c>
-      <c r="O234" s="3" t="s">
+      <c r="O238" s="3" t="s">
         <v>3242</v>
       </c>
-      <c r="P234" s="3" t="s">
+      <c r="P238" s="3" t="s">
         <v>3245</v>
       </c>
     </row>
-    <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="3" t="s">
+    <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B240" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C240" s="3" t="s">
         <v>1555</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D240" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E240" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F240" s="3" t="s">
         <v>1738</v>
       </c>
-      <c r="G236" s="3" t="s">
+      <c r="G240" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="H236" s="3" t="s">
+      <c r="H240" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="I236" s="3" t="s">
+      <c r="I240" s="3" t="s">
         <v>1936</v>
       </c>
-      <c r="J236" s="4" t="s">
+      <c r="J240" s="4" t="s">
         <v>2043</v>
       </c>
-      <c r="K236" s="3" t="s">
+      <c r="K240" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="L236" s="3" t="s">
+      <c r="L240" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M236" s="3" t="s">
+      <c r="M240" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="N236" s="3" t="s">
+      <c r="N240" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="O236" s="3" t="s">
+      <c r="O240" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="P236" s="3" t="s">
+      <c r="P240" s="3" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="3" t="s">
+    <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B241" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C241" s="3" t="s">
         <v>1503</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D241" s="3" t="s">
         <v>1755</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E241" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="F241" s="3" t="s">
         <v>1771</v>
       </c>
-      <c r="G237" s="3" t="s">
+      <c r="G241" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H237" s="3" t="s">
+      <c r="H241" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I237" s="3" t="s">
+      <c r="I241" s="3" t="s">
         <v>1795</v>
       </c>
-      <c r="J237" s="3" t="s">
+      <c r="J241" s="3" t="s">
         <v>2070</v>
       </c>
-      <c r="K237" s="3" t="s">
+      <c r="K241" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L237" s="3" t="s">
+      <c r="L241" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="M237" s="3" t="s">
+      <c r="M241" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N237" s="3" t="s">
+      <c r="N241" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="O237" s="3" t="s">
+      <c r="O241" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="P237" s="3" t="s">
+      <c r="P241" s="3" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="3" t="s">
+    <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B242" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C242" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>1754</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E242" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F242" s="3" t="s">
         <v>1770</v>
       </c>
-      <c r="G238" s="3" t="s">
+      <c r="G242" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H238" s="3" t="s">
+      <c r="H242" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I238" s="3" t="s">
+      <c r="I242" s="3" t="s">
         <v>1793</v>
       </c>
-      <c r="J238" s="3" t="s">
+      <c r="J242" s="3" t="s">
         <v>2068</v>
       </c>
-      <c r="K238" s="3" t="s">
+      <c r="K242" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L238" s="3" t="s">
+      <c r="L242" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="M238" s="3" t="s">
+      <c r="M242" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N238" s="3" t="s">
+      <c r="N242" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="O238" s="3" t="s">
+      <c r="O242" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="P238" s="3" t="s">
+      <c r="P242" s="3" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="3" t="s">
+    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B243" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C243" s="3" t="s">
         <v>1556</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="E239" s="3" t="s">
+      <c r="E243" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F239" s="3" t="s">
+      <c r="F243" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="G239" s="3" t="s">
+      <c r="G243" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="H239" s="3" t="s">
+      <c r="H243" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="I239" s="3" t="s">
+      <c r="I243" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="J239" s="3" t="s">
+      <c r="J243" s="3" t="s">
         <v>2071</v>
       </c>
-      <c r="K239" s="3" t="s">
+      <c r="K243" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="L239" s="3" t="s">
+      <c r="L243" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="M239" s="3" t="s">
+      <c r="M243" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="N239" s="3" t="s">
+      <c r="N243" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="O239" s="3" t="s">
+      <c r="O243" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="P239" s="3" t="s">
+      <c r="P243" s="3" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="3" t="s">
+    <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B244" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>1502</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E244" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="G240" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H240" s="3" t="s">
+      <c r="H244" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="I244" s="3" t="s">
         <v>1794</v>
       </c>
-      <c r="J240" s="3" t="s">
+      <c r="J244" s="3" t="s">
         <v>2069</v>
       </c>
-      <c r="K240" s="3" t="s">
+      <c r="K244" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L240" s="3" t="s">
+      <c r="L244" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="M240" s="3" t="s">
+      <c r="M244" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N240" s="3" t="s">
+      <c r="N244" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="O240" s="3" t="s">
+      <c r="O244" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="P240" s="3" t="s">
+      <c r="P244" s="3" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="3" t="s">
+    <row r="245" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B245" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C245" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D245" s="3" t="s">
         <v>1986</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E245" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="F245" s="3" t="s">
         <v>1989</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G245" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="H241" s="3" t="s">
+      <c r="H245" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="I241" s="3" t="s">
+      <c r="I245" s="3" t="s">
         <v>1992</v>
       </c>
-      <c r="J241" s="3" t="s">
+      <c r="J245" s="3" t="s">
         <v>2227</v>
       </c>
-      <c r="K241" s="3" t="s">
+      <c r="K245" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="L241" s="3" t="s">
+      <c r="L245" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="M241" s="3" t="s">
+      <c r="M245" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="N241" s="3" t="s">
+      <c r="N245" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="O241" s="3" t="s">
+      <c r="O245" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="P241" s="3" t="s">
+      <c r="P245" s="3" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="3" t="s">
+    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B246" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C246" s="3" t="s">
         <v>1505</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>1757</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E246" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F246" s="3" t="s">
         <v>1769</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H242" s="3" t="s">
+      <c r="H246" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I242" s="3" t="s">
+      <c r="I246" s="3" t="s">
         <v>1797</v>
       </c>
-      <c r="J242" s="3" t="s">
+      <c r="J246" s="3" t="s">
         <v>2072</v>
       </c>
-      <c r="K242" s="3" t="s">
+      <c r="K246" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L242" s="3" t="s">
+      <c r="L246" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="M242" s="3" t="s">
+      <c r="M246" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N242" s="3" t="s">
+      <c r="N246" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O242" s="3" t="s">
+      <c r="O246" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="P242" s="3" t="s">
+      <c r="P246" s="3" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="3" t="s">
+    <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B247" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>1506</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>1758</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="F247" s="3" t="s">
         <v>1773</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="G247" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H243" s="3" t="s">
+      <c r="H247" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I243" s="3" t="s">
+      <c r="I247" s="3" t="s">
         <v>1798</v>
       </c>
-      <c r="J243" s="3" t="s">
+      <c r="J247" s="3" t="s">
         <v>2073</v>
       </c>
-      <c r="K243" s="3" t="s">
+      <c r="K247" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L243" s="3" t="s">
+      <c r="L247" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="M243" s="3" t="s">
+      <c r="M247" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N243" s="3" t="s">
+      <c r="N247" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="O243" s="3" t="s">
+      <c r="O247" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="P243" s="3" t="s">
+      <c r="P247" s="3" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="3" t="s">
+    <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
         <v>3479</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>3478</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>3489</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>3490</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E248" s="3" t="s">
         <v>3492</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="F248" s="3" t="s">
         <v>3493</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="G248" s="3" t="s">
         <v>3480</v>
       </c>
-      <c r="H244" s="3" t="s">
+      <c r="H248" s="3" t="s">
         <v>3481</v>
       </c>
-      <c r="I244" s="3" t="s">
+      <c r="I248" s="3" t="s">
         <v>3482</v>
       </c>
-      <c r="J244" s="3" t="s">
+      <c r="J248" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="K244" s="3" t="s">
+      <c r="K248" s="3" t="s">
         <v>3484</v>
       </c>
-      <c r="L244" s="3" t="s">
+      <c r="L248" s="3" t="s">
         <v>3485</v>
       </c>
-      <c r="M244" s="3" t="s">
+      <c r="M248" s="3" t="s">
         <v>3486</v>
       </c>
-      <c r="N244" s="3" t="s">
+      <c r="N248" s="3" t="s">
         <v>3487</v>
       </c>
-      <c r="O244" s="3" t="s">
+      <c r="O248" s="3" t="s">
         <v>3488</v>
       </c>
-      <c r="P244" s="3" t="s">
+      <c r="P248" s="3" t="s">
         <v>3491</v>
       </c>
     </row>
-    <row r="245" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="3" t="s">
+    <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B249" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C249" s="3" t="s">
         <v>1507</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>1759</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="G245" s="3" t="s">
+      <c r="G249" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="H249" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I245" s="3" t="s">
+      <c r="I249" s="3" t="s">
         <v>1799</v>
       </c>
-      <c r="J245" s="3" t="s">
+      <c r="J249" s="3" t="s">
         <v>2074</v>
       </c>
-      <c r="K245" s="3" t="s">
+      <c r="K249" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L245" s="3" t="s">
+      <c r="L249" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="M245" s="3" t="s">
+      <c r="M249" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N245" s="3" t="s">
+      <c r="N249" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O245" s="3" t="s">
+      <c r="O249" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="P245" s="3" t="s">
+      <c r="P249" s="3" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="3" t="s">
+    <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
         <v>2352</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>2354</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C250" s="3" t="s">
         <v>2359</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>2355</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E250" s="3" t="s">
         <v>2361</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>2358</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G250" s="3" t="s">
         <v>2356</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="H250" s="3" t="s">
         <v>2357</v>
       </c>
-      <c r="I246" s="3" t="s">
+      <c r="I250" s="3" t="s">
         <v>2362</v>
       </c>
-      <c r="J246" s="3" t="s">
+      <c r="J250" s="3" t="s">
         <v>2363</v>
       </c>
-      <c r="K246" s="3" t="s">
+      <c r="K250" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="L246" s="3" t="s">
+      <c r="L250" s="3" t="s">
         <v>2365</v>
       </c>
-      <c r="M246" s="3" t="s">
+      <c r="M250" s="3" t="s">
         <v>2366</v>
       </c>
-      <c r="N246" s="3" t="s">
+      <c r="N250" s="3" t="s">
         <v>2367</v>
       </c>
-      <c r="O246" s="3" t="s">
+      <c r="O250" s="3" t="s">
         <v>2368</v>
       </c>
-      <c r="P246" s="3" t="s">
+      <c r="P250" s="3" t="s">
         <v>2360</v>
       </c>
     </row>
-    <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="3" t="s">
+    <row r="251" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
         <v>2372</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B251" s="3" t="s">
         <v>2370</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C251" s="3" t="s">
         <v>2375</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>2376</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E251" s="3" t="s">
         <v>2378</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="F251" s="3" t="s">
         <v>2379</v>
       </c>
-      <c r="G247" s="3" t="s">
+      <c r="G251" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="H247" s="3" t="s">
+      <c r="H251" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="I247" s="3" t="s">
+      <c r="I251" s="3" t="s">
         <v>2382</v>
       </c>
-      <c r="J247" s="3" t="s">
+      <c r="J251" s="3" t="s">
         <v>2383</v>
       </c>
-      <c r="K247" s="3" t="s">
+      <c r="K251" s="3" t="s">
         <v>2384</v>
       </c>
-      <c r="L247" s="3" t="s">
+      <c r="L251" s="3" t="s">
         <v>2385</v>
       </c>
-      <c r="M247" s="3" t="s">
+      <c r="M251" s="3" t="s">
         <v>2386</v>
       </c>
-      <c r="N247" s="3" t="s">
+      <c r="N251" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="O247" s="3" t="s">
+      <c r="O251" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="P247" s="3" t="s">
+      <c r="P251" s="3" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="3" t="s">
+    <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B252" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C252" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E252" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F252" s="3" t="s">
         <v>1912</v>
       </c>
-      <c r="G248" s="3" t="s">
+      <c r="G252" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="H248" s="3" t="s">
+      <c r="H252" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="I248" s="3" t="s">
+      <c r="I252" s="3" t="s">
         <v>1928</v>
       </c>
-      <c r="J248" s="3" t="s">
+      <c r="J252" s="3" t="s">
         <v>2228</v>
       </c>
-      <c r="K248" s="3" t="s">
+      <c r="K252" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="L248" s="3" t="s">
+      <c r="L252" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="M248" s="3" t="s">
+      <c r="M252" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="N248" s="3" t="s">
+      <c r="N252" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="O248" s="3" t="s">
+      <c r="O252" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="P248" s="3" t="s">
+      <c r="P252" s="3" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="3" t="s">
+    <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B253" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C253" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D253" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E253" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="F253" s="3" t="s">
         <v>1990</v>
       </c>
-      <c r="G249" s="3" t="s">
+      <c r="G253" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="H249" s="3" t="s">
+      <c r="H253" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="I249" s="3" t="s">
+      <c r="I253" s="3" t="s">
         <v>1993</v>
       </c>
-      <c r="J249" s="3" t="s">
+      <c r="J253" s="3" t="s">
         <v>2229</v>
       </c>
-      <c r="K249" s="3" t="s">
+      <c r="K253" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="L249" s="3" t="s">
+      <c r="L253" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="M249" s="3" t="s">
+      <c r="M253" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="N249" s="3" t="s">
+      <c r="N253" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="O249" s="3" t="s">
+      <c r="O253" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="P249" s="3" t="s">
+      <c r="P253" s="3" t="s">
         <v>2226</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="3" t="s">
+    <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B254" s="3" t="s">
         <v>3193</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>3199</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E254" s="3" t="s">
         <v>3197</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F254" s="3" t="s">
         <v>3199</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="G254" s="3" t="s">
         <v>3191</v>
       </c>
-      <c r="H250" s="3" t="s">
+      <c r="H254" s="3" t="s">
         <v>3192</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="I254" s="3" t="s">
         <v>3198</v>
       </c>
-      <c r="J250" s="3" t="s">
+      <c r="J254" s="3" t="s">
         <v>2223</v>
       </c>
-      <c r="K250" s="3" t="s">
+      <c r="K254" s="3" t="s">
         <v>3193</v>
       </c>
-      <c r="L250" s="3" t="s">
+      <c r="L254" s="3" t="s">
         <v>3196</v>
       </c>
-      <c r="M250" s="3" t="s">
+      <c r="M254" s="3" t="s">
         <v>3193</v>
       </c>
-      <c r="N250" s="3" t="s">
+      <c r="N254" s="3" t="s">
         <v>3195</v>
       </c>
-      <c r="O250" s="3" t="s">
+      <c r="O254" s="3" t="s">
         <v>3194</v>
       </c>
-      <c r="P250" s="3" t="s">
+      <c r="P254" s="3" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="3" t="s">
+    <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>1555</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D256" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="E256" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F256" s="3" t="s">
         <v>1738</v>
       </c>
-      <c r="G252" s="3" t="s">
+      <c r="G256" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="H252" s="3" t="s">
+      <c r="H256" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="I252" s="3" t="s">
+      <c r="I256" s="3" t="s">
         <v>1936</v>
       </c>
-      <c r="J252" s="4" t="s">
+      <c r="J256" s="4" t="s">
         <v>2043</v>
       </c>
-      <c r="K252" s="3" t="s">
+      <c r="K256" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="L252" s="3" t="s">
+      <c r="L256" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M252" s="3" t="s">
+      <c r="M256" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="N252" s="3" t="s">
+      <c r="N256" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="O252" s="3" t="s">
+      <c r="O256" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="P252" s="3" t="s">
+      <c r="P256" s="3" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="3" t="s">
+    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
         <v>3216</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B257" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C257" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D257" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E257" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="F257" s="3" t="s">
         <v>1920</v>
       </c>
-      <c r="G253" s="3" t="s">
+      <c r="G257" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="H253" s="3" t="s">
+      <c r="H257" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="I257" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="J253" s="3" t="s">
+      <c r="J257" s="3" t="s">
         <v>2190</v>
       </c>
-      <c r="K253" s="3" t="s">
+      <c r="K257" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="L253" s="3" t="s">
+      <c r="L257" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="M253" s="3" t="s">
+      <c r="M257" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="N253" s="3" t="s">
+      <c r="N257" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="O253" s="3" t="s">
+      <c r="O257" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="P253" s="3" t="s">
+      <c r="P257" s="3" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="3" t="s">
+    <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
         <v>3217</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B258" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>3228</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>3229</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E258" s="3" t="s">
         <v>3227</v>
       </c>
-      <c r="F254" s="3" t="s">
+      <c r="F258" s="3" t="s">
         <v>3229</v>
       </c>
-      <c r="G254" s="3" t="s">
+      <c r="G258" s="3" t="s">
         <v>3226</v>
       </c>
-      <c r="H254" s="3" t="s">
+      <c r="H258" s="3" t="s">
         <v>3225</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="I258" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="J254" s="3" t="s">
+      <c r="J258" s="3" t="s">
         <v>3232</v>
       </c>
-      <c r="K254" s="3" t="s">
+      <c r="K258" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="L254" s="3" t="s">
+      <c r="L258" s="3" t="s">
         <v>3233</v>
       </c>
-      <c r="M254" s="3" t="s">
+      <c r="M258" s="3" t="s">
         <v>3224</v>
       </c>
-      <c r="N254" s="3" t="s">
+      <c r="N258" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="O254" s="3" t="s">
+      <c r="O258" s="3" t="s">
         <v>3220</v>
       </c>
-      <c r="P254" s="3" t="s">
+      <c r="P258" s="3" t="s">
         <v>3230</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J255" s="4"/>
-    </row>
-    <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="3" t="s">
+    <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J259" s="4"/>
+    </row>
+    <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B260" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>1502</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E260" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="F260" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G260" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="H260" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="I260" s="3" t="s">
         <v>1794</v>
       </c>
-      <c r="J256" s="3" t="s">
+      <c r="J260" s="3" t="s">
         <v>2069</v>
       </c>
-      <c r="K256" s="3" t="s">
+      <c r="K260" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L256" s="3" t="s">
+      <c r="L260" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="M256" s="3" t="s">
+      <c r="M260" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N256" s="3" t="s">
+      <c r="N260" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="O256" s="3" t="s">
+      <c r="O260" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="P256" s="3" t="s">
+      <c r="P260" s="3" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="3" t="s">
+    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B261" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>1506</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>1758</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E261" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F257" s="3" t="s">
+      <c r="F261" s="3" t="s">
         <v>1773</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="G261" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H257" s="3" t="s">
+      <c r="H261" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I257" s="3" t="s">
+      <c r="I261" s="3" t="s">
         <v>1798</v>
       </c>
-      <c r="J257" s="3" t="s">
+      <c r="J261" s="3" t="s">
         <v>2073</v>
       </c>
-      <c r="K257" s="3" t="s">
+      <c r="K261" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L257" s="3" t="s">
+      <c r="L261" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="M257" s="3" t="s">
+      <c r="M261" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N257" s="3" t="s">
+      <c r="N261" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="O257" s="3" t="s">
+      <c r="O261" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="P257" s="3" t="s">
+      <c r="P261" s="3" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="3" t="s">
+    <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B262" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>1505</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>1757</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E262" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="F262" s="3" t="s">
         <v>1769</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="G262" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H258" s="3" t="s">
+      <c r="H262" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="I262" s="3" t="s">
         <v>1797</v>
       </c>
-      <c r="J258" s="3" t="s">
+      <c r="J262" s="3" t="s">
         <v>2072</v>
       </c>
-      <c r="K258" s="3" t="s">
+      <c r="K262" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L258" s="3" t="s">
+      <c r="L262" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="M258" s="3" t="s">
+      <c r="M262" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N258" s="3" t="s">
+      <c r="N262" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O258" s="3" t="s">
+      <c r="O262" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="P258" s="3" t="s">
+      <c r="P262" s="3" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="3" t="s">
+    <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B263" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>1507</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>1759</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E263" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F263" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="G263" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="H263" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I259" s="3" t="s">
+      <c r="I263" s="3" t="s">
         <v>1799</v>
       </c>
-      <c r="J259" s="3" t="s">
+      <c r="J263" s="3" t="s">
         <v>2074</v>
       </c>
-      <c r="K259" s="3" t="s">
+      <c r="K263" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L259" s="3" t="s">
+      <c r="L263" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="M259" s="3" t="s">
+      <c r="M263" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N259" s="3" t="s">
+      <c r="N263" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O259" s="3" t="s">
+      <c r="O263" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="P259" s="3" t="s">
+      <c r="P263" s="3" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="3" t="s">
+    <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
         <v>2353</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B264" s="3" t="s">
         <v>2354</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>2359</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>2355</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E264" s="3" t="s">
         <v>2361</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F264" s="3" t="s">
         <v>2358</v>
       </c>
-      <c r="G260" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>2356</v>
       </c>
-      <c r="H260" s="3" t="s">
+      <c r="H264" s="3" t="s">
         <v>2357</v>
       </c>
-      <c r="I260" s="3" t="s">
+      <c r="I264" s="3" t="s">
         <v>2362</v>
       </c>
-      <c r="J260" s="3" t="s">
+      <c r="J264" s="3" t="s">
         <v>2363</v>
       </c>
-      <c r="K260" s="3" t="s">
+      <c r="K264" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="L260" s="3" t="s">
+      <c r="L264" s="3" t="s">
         <v>2365</v>
       </c>
-      <c r="M260" s="3" t="s">
+      <c r="M264" s="3" t="s">
         <v>2366</v>
       </c>
-      <c r="N260" s="3" t="s">
+      <c r="N264" s="3" t="s">
         <v>2367</v>
       </c>
-      <c r="O260" s="3" t="s">
+      <c r="O264" s="3" t="s">
         <v>2368</v>
       </c>
-      <c r="P260" s="3" t="s">
+      <c r="P264" s="3" t="s">
         <v>2360</v>
       </c>
     </row>
-    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="3" t="s">
+    <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
         <v>2371</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B265" s="3" t="s">
         <v>2370</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>2375</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>2376</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E265" s="3" t="s">
         <v>2378</v>
       </c>
-      <c r="F261" s="3" t="s">
+      <c r="F265" s="3" t="s">
         <v>2379</v>
       </c>
-      <c r="G261" s="3" t="s">
+      <c r="G265" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="H261" s="3" t="s">
+      <c r="H265" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="I261" s="3" t="s">
+      <c r="I265" s="3" t="s">
         <v>2382</v>
       </c>
-      <c r="J261" s="3" t="s">
+      <c r="J265" s="3" t="s">
         <v>2383</v>
       </c>
-      <c r="K261" s="3" t="s">
+      <c r="K265" s="3" t="s">
         <v>2384</v>
       </c>
-      <c r="L261" s="3" t="s">
+      <c r="L265" s="3" t="s">
         <v>2385</v>
       </c>
-      <c r="M261" s="3" t="s">
+      <c r="M265" s="3" t="s">
         <v>2386</v>
       </c>
-      <c r="N261" s="3" t="s">
+      <c r="N265" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="O261" s="3" t="s">
+      <c r="O265" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="P261" s="3" t="s">
+      <c r="P265" s="3" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="3" t="s">
+    <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B266" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E266" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F262" s="3" t="s">
+      <c r="F266" s="3" t="s">
         <v>1741</v>
       </c>
-      <c r="G262" s="3" t="s">
+      <c r="G266" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H262" s="3" t="s">
+      <c r="H266" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="I266" s="3" t="s">
         <v>1725</v>
       </c>
-      <c r="J262" s="3" t="s">
+      <c r="J266" s="3" t="s">
         <v>2230</v>
       </c>
-      <c r="K262" s="3" t="s">
+      <c r="K266" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L262" s="3" t="s">
+      <c r="L266" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="M262" s="3" t="s">
+      <c r="M266" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N262" s="3" t="s">
+      <c r="N266" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="O262" s="3" t="s">
+      <c r="O266" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="P262" s="3" t="s">
+      <c r="P266" s="3" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="3" t="s">
+    <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B267" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C267" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>1754</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E267" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F263" s="3" t="s">
+      <c r="F267" s="3" t="s">
         <v>1770</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="G267" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H263" s="3" t="s">
+      <c r="H267" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="I267" s="3" t="s">
         <v>1793</v>
       </c>
-      <c r="J263" s="3" t="s">
+      <c r="J267" s="3" t="s">
         <v>2068</v>
       </c>
-      <c r="K263" s="3" t="s">
+      <c r="K267" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L263" s="3" t="s">
+      <c r="L267" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="M263" s="3" t="s">
+      <c r="M267" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N263" s="3" t="s">
+      <c r="N267" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="O263" s="3" t="s">
+      <c r="O267" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="P263" s="3" t="s">
+      <c r="P267" s="3" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="3" t="s">
+    <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B268" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>1556</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D268" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E268" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="F268" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="G264" s="3" t="s">
+      <c r="G268" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="H264" s="3" t="s">
+      <c r="H268" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="I268" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="J264" s="3" t="s">
+      <c r="J268" s="3" t="s">
         <v>2071</v>
       </c>
-      <c r="K264" s="3" t="s">
+      <c r="K268" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="L264" s="3" t="s">
+      <c r="L268" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="M264" s="3" t="s">
+      <c r="M268" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="N264" s="3" t="s">
+      <c r="N268" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="O264" s="3" t="s">
+      <c r="O268" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="P264" s="3" t="s">
+      <c r="P268" s="3" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="3" t="s">
+    <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B269" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C269" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D269" s="3" t="s">
         <v>1994</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E269" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F265" s="3" t="s">
+      <c r="F269" s="3" t="s">
         <v>2006</v>
       </c>
-      <c r="G265" s="3" t="s">
+      <c r="G269" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="H265" s="3" t="s">
+      <c r="H269" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="I269" s="3" t="s">
         <v>2018</v>
       </c>
-      <c r="J265" s="3" t="s">
+      <c r="J269" s="3" t="s">
         <v>2313</v>
       </c>
-      <c r="K265" s="3" t="s">
+      <c r="K269" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="L265" s="3" t="s">
+      <c r="L269" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="M265" s="3" t="s">
+      <c r="M269" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="N265" s="3" t="s">
+      <c r="N269" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="O265" s="3" t="s">
+      <c r="O269" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="P265" s="3" t="s">
+      <c r="P269" s="3" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="3" t="s">
+    <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>1569</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>1995</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F270" s="3" t="s">
         <v>2007</v>
       </c>
-      <c r="G266" s="3" t="s">
+      <c r="G270" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="H266" s="3" t="s">
+      <c r="H270" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="I266" s="3" t="s">
+      <c r="I270" s="3" t="s">
         <v>2019</v>
       </c>
-      <c r="J266" s="3" t="s">
+      <c r="J270" s="3" t="s">
         <v>2314</v>
       </c>
-      <c r="K266" s="3" t="s">
+      <c r="K270" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="L266" s="3" t="s">
+      <c r="L270" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="M266" s="3" t="s">
+      <c r="M270" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="N266" s="3" t="s">
+      <c r="N270" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="O266" s="3" t="s">
+      <c r="O270" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="P266" s="3" t="s">
+      <c r="P270" s="3" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="3" t="s">
+    <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B271" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>1570</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>1996</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E271" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="F267" s="3" t="s">
+      <c r="F271" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="G267" s="3" t="s">
+      <c r="G271" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="H267" s="3" t="s">
+      <c r="H271" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="I267" s="3" t="s">
+      <c r="I271" s="3" t="s">
         <v>2020</v>
       </c>
-      <c r="J267" s="3" t="s">
+      <c r="J271" s="3" t="s">
         <v>2315</v>
       </c>
-      <c r="K267" s="3" t="s">
+      <c r="K271" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="L267" s="3" t="s">
+      <c r="L271" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="M267" s="3" t="s">
+      <c r="M271" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N267" s="3" t="s">
+      <c r="N271" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="O267" s="3" t="s">
+      <c r="O271" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="P267" s="3" t="s">
+      <c r="P271" s="3" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="3" t="s">
+    <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B272" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C272" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D272" s="3" t="s">
         <v>1997</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E272" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F268" s="3" t="s">
+      <c r="F272" s="3" t="s">
         <v>2009</v>
       </c>
-      <c r="G268" s="3" t="s">
+      <c r="G272" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="H268" s="3" t="s">
+      <c r="H272" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="I268" s="3" t="s">
+      <c r="I272" s="3" t="s">
         <v>2021</v>
       </c>
-      <c r="J268" s="3" t="s">
+      <c r="J272" s="3" t="s">
         <v>2316</v>
       </c>
-      <c r="K268" s="3" t="s">
+      <c r="K272" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L268" s="3" t="s">
+      <c r="L272" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="M268" s="3" t="s">
+      <c r="M272" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="N268" s="3" t="s">
+      <c r="N272" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="O268" s="3" t="s">
+      <c r="O272" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="P268" s="3" t="s">
+      <c r="P272" s="3" t="s">
         <v>2304</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="3" t="s">
+    <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B273" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D273" s="3" t="s">
         <v>1998</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E273" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F269" s="3" t="s">
+      <c r="F273" s="3" t="s">
         <v>2010</v>
       </c>
-      <c r="G269" s="3" t="s">
+      <c r="G273" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="H269" s="3" t="s">
+      <c r="H273" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="I269" s="3" t="s">
+      <c r="I273" s="3" t="s">
         <v>2022</v>
       </c>
-      <c r="J269" s="3" t="s">
+      <c r="J273" s="3" t="s">
         <v>2317</v>
       </c>
-      <c r="K269" s="3" t="s">
+      <c r="K273" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="L269" s="3" t="s">
+      <c r="L273" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="M269" s="3" t="s">
+      <c r="M273" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="N269" s="3" t="s">
+      <c r="N273" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="O269" s="3" t="s">
+      <c r="O273" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="P269" s="3" t="s">
+      <c r="P273" s="3" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="3" t="s">
+    <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B274" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C274" s="3" t="s">
         <v>1573</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D274" s="3" t="s">
         <v>1999</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E274" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="F270" s="3" t="s">
+      <c r="F274" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="G270" s="3" t="s">
+      <c r="G274" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="H270" s="3" t="s">
+      <c r="H274" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="I270" s="3" t="s">
+      <c r="I274" s="3" t="s">
         <v>2023</v>
       </c>
-      <c r="J270" s="3" t="s">
+      <c r="J274" s="3" t="s">
         <v>2318</v>
       </c>
-      <c r="K270" s="3" t="s">
+      <c r="K274" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="L270" s="3" t="s">
+      <c r="L274" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="M270" s="3" t="s">
+      <c r="M274" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="N270" s="3" t="s">
+      <c r="N274" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="O270" s="3" t="s">
+      <c r="O274" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="P270" s="3" t="s">
+      <c r="P274" s="3" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="3" t="s">
+    <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B275" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C275" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D275" s="3" t="s">
         <v>2000</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E275" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F275" s="3" t="s">
         <v>2012</v>
       </c>
-      <c r="G271" s="3" t="s">
+      <c r="G275" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="H271" s="3" t="s">
+      <c r="H275" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="I271" s="3" t="s">
+      <c r="I275" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="J271" s="3" t="s">
+      <c r="J275" s="3" t="s">
         <v>2319</v>
       </c>
-      <c r="K271" s="3" t="s">
+      <c r="K275" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="L271" s="3" t="s">
+      <c r="L275" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="M271" s="3" t="s">
+      <c r="M275" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="N271" s="3" t="s">
+      <c r="N275" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="O271" s="3" t="s">
+      <c r="O275" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="P271" s="3" t="s">
+      <c r="P275" s="3" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="3" t="s">
+    <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C276" s="3" t="s">
         <v>1575</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>2001</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E276" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="F272" s="3" t="s">
+      <c r="F276" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="G272" s="3" t="s">
+      <c r="G276" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="H272" s="3" t="s">
+      <c r="H276" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="I276" s="3" t="s">
         <v>2025</v>
       </c>
-      <c r="J272" s="3" t="s">
+      <c r="J276" s="3" t="s">
         <v>2320</v>
       </c>
-      <c r="K272" s="3" t="s">
+      <c r="K276" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="L272" s="3" t="s">
+      <c r="L276" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="M272" s="3" t="s">
+      <c r="M276" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="N272" s="3" t="s">
+      <c r="N276" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="O272" s="3" t="s">
+      <c r="O276" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="P272" s="3" t="s">
+      <c r="P276" s="3" t="s">
         <v>2308</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="3" t="s">
+    <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B277" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C277" s="3" t="s">
         <v>1576</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E277" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F273" s="3" t="s">
+      <c r="F277" s="3" t="s">
         <v>2014</v>
       </c>
-      <c r="G273" s="3" t="s">
+      <c r="G277" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H273" s="3" t="s">
+      <c r="H277" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="I277" s="3" t="s">
         <v>2026</v>
       </c>
-      <c r="J273" s="3" t="s">
+      <c r="J277" s="3" t="s">
         <v>2321</v>
       </c>
-      <c r="K273" s="3" t="s">
+      <c r="K277" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="L273" s="3" t="s">
+      <c r="L277" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="M273" s="3" t="s">
+      <c r="M277" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="N273" s="3" t="s">
+      <c r="N277" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="O273" s="3" t="s">
+      <c r="O277" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="P273" s="3" t="s">
+      <c r="P277" s="3" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="3" t="s">
+    <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B278" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C278" s="3" t="s">
         <v>1577</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D278" s="3" t="s">
         <v>2003</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E278" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="F274" s="3" t="s">
+      <c r="F278" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="G274" s="3" t="s">
+      <c r="G278" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="H278" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="I278" s="3" t="s">
         <v>2027</v>
       </c>
-      <c r="J274" s="3" t="s">
+      <c r="J278" s="3" t="s">
         <v>2322</v>
       </c>
-      <c r="K274" s="3" t="s">
+      <c r="K278" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="L274" s="3" t="s">
+      <c r="L278" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="M274" s="3" t="s">
+      <c r="M278" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="N274" s="3" t="s">
+      <c r="N278" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="O274" s="3" t="s">
+      <c r="O278" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="P274" s="3" t="s">
+      <c r="P278" s="3" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="3" t="s">
+    <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B279" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>1578</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>2004</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E279" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="F275" s="3" t="s">
+      <c r="F279" s="3" t="s">
         <v>2016</v>
       </c>
-      <c r="G275" s="3" t="s">
+      <c r="G279" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="H279" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="I275" s="3" t="s">
+      <c r="I279" s="3" t="s">
         <v>2028</v>
       </c>
-      <c r="J275" s="3" t="s">
+      <c r="J279" s="3" t="s">
         <v>2323</v>
       </c>
-      <c r="K275" s="3" t="s">
+      <c r="K279" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="L275" s="3" t="s">
+      <c r="L279" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="M275" s="3" t="s">
+      <c r="M279" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="N275" s="3" t="s">
+      <c r="N279" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="O275" s="3" t="s">
+      <c r="O279" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="P275" s="3" t="s">
+      <c r="P279" s="3" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="3" t="s">
+    <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B280" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C280" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>2005</v>
       </c>
-      <c r="E276" s="3" t="s">
+      <c r="E280" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F276" s="3" t="s">
+      <c r="F280" s="3" t="s">
         <v>2017</v>
       </c>
-      <c r="G276" s="3" t="s">
+      <c r="G280" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="H276" s="3" t="s">
+      <c r="H280" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="I276" s="3" t="s">
+      <c r="I280" s="3" t="s">
         <v>2029</v>
       </c>
-      <c r="J276" s="3" t="s">
+      <c r="J280" s="3" t="s">
         <v>2324</v>
       </c>
-      <c r="K276" s="3" t="s">
+      <c r="K280" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="L276" s="3" t="s">
+      <c r="L280" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="M276" s="3" t="s">
+      <c r="M280" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="N276" s="3" t="s">
+      <c r="N280" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="O276" s="3" t="s">
+      <c r="O280" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="P276" s="3" t="s">
+      <c r="P280" s="3" t="s">
         <v>2312</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="3" t="s">
+    <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="F277" s="3" t="s">
+      <c r="F281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="G277" s="3" t="s">
+      <c r="G281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="H277" s="3" t="s">
+      <c r="H281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="I277" s="3" t="s">
+      <c r="I281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="J277" s="3" t="s">
+      <c r="J281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="K277" s="3" t="s">
+      <c r="K281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="L277" s="3" t="s">
+      <c r="L281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="M277" s="3" t="s">
+      <c r="M281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="N277" s="3" t="s">
+      <c r="N281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="O277" s="3" t="s">
+      <c r="O281" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="P277" s="3" t="s">
+      <c r="P281" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="3" t="s">
+    <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="F278" s="3" t="s">
+      <c r="F282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="G278" s="3" t="s">
+      <c r="G282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="H278" s="3" t="s">
+      <c r="H282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="I282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="J278" s="3" t="s">
+      <c r="J282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="K278" s="3" t="s">
+      <c r="K282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="L278" s="3" t="s">
+      <c r="L282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="M278" s="3" t="s">
+      <c r="M282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="N278" s="3" t="s">
+      <c r="N282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="O278" s="3" t="s">
+      <c r="O282" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="P278" s="3" t="s">
+      <c r="P282" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="3" t="s">
+    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="E279" s="3" t="s">
+      <c r="E283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F279" s="3" t="s">
+      <c r="F283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="G279" s="3" t="s">
+      <c r="G283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="H279" s="3" t="s">
+      <c r="H283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="I283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="J279" s="3" t="s">
+      <c r="J283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="K279" s="3" t="s">
+      <c r="K283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="L279" s="3" t="s">
+      <c r="L283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="M279" s="3" t="s">
+      <c r="M283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="N279" s="3" t="s">
+      <c r="N283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="O279" s="3" t="s">
+      <c r="O283" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="P279" s="3" t="s">
+      <c r="P283" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="3" t="s">
+    <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="E280" s="3" t="s">
+      <c r="E284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="F284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="G280" s="3" t="s">
+      <c r="G284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="H280" s="3" t="s">
+      <c r="H284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="I284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="J280" s="3" t="s">
+      <c r="J284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="K280" s="3" t="s">
+      <c r="K284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="L280" s="3" t="s">
+      <c r="L284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="M280" s="3" t="s">
+      <c r="M284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="N280" s="3" t="s">
+      <c r="N284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="O280" s="3" t="s">
+      <c r="O284" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="P280" s="3" t="s">
+      <c r="P284" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="3" t="s">
+    <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F281" s="3" t="s">
+      <c r="F285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="G281" s="3" t="s">
+      <c r="G285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H281" s="3" t="s">
+      <c r="H285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="I285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="J281" s="3" t="s">
+      <c r="J285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="K281" s="3" t="s">
+      <c r="K285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="L281" s="3" t="s">
+      <c r="L285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="M281" s="3" t="s">
+      <c r="M285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="N281" s="3" t="s">
+      <c r="N285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="O281" s="3" t="s">
+      <c r="O285" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="P281" s="3" t="s">
+      <c r="P285" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="3" t="s">
+    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="E282" s="3" t="s">
+      <c r="E286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F282" s="3" t="s">
+      <c r="F286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G282" s="3" t="s">
+      <c r="G286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="H282" s="3" t="s">
+      <c r="H286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="I282" s="3" t="s">
+      <c r="I286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="J282" s="3" t="s">
+      <c r="J286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="K282" s="3" t="s">
+      <c r="K286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="L282" s="3" t="s">
+      <c r="L286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="M282" s="3" t="s">
+      <c r="M286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="N282" s="3" t="s">
+      <c r="N286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="O282" s="3" t="s">
+      <c r="O286" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="P282" s="3" t="s">
+      <c r="P286" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="3" t="s">
+    <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="E283" s="3" t="s">
+      <c r="E287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F283" s="3" t="s">
+      <c r="F287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="G283" s="3" t="s">
+      <c r="G287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H283" s="3" t="s">
+      <c r="H287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="I283" s="3" t="s">
+      <c r="I287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="J283" s="3" t="s">
+      <c r="J287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="K283" s="3" t="s">
+      <c r="K287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="L283" s="3" t="s">
+      <c r="L287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="M283" s="3" t="s">
+      <c r="M287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="N283" s="3" t="s">
+      <c r="N287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="O283" s="3" t="s">
+      <c r="O287" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="P283" s="3" t="s">
+      <c r="P287" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="3" t="s">
+    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="E284" s="3" t="s">
+      <c r="E288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="F284" s="3" t="s">
+      <c r="F288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="G284" s="3" t="s">
+      <c r="G288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="H284" s="3" t="s">
+      <c r="H288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="I284" s="3" t="s">
+      <c r="I288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="J284" s="3" t="s">
+      <c r="J288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="K284" s="3" t="s">
+      <c r="K288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="L284" s="3" t="s">
+      <c r="L288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="M284" s="3" t="s">
+      <c r="M288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="N284" s="3" t="s">
+      <c r="N288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="O284" s="3" t="s">
+      <c r="O288" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="P284" s="3" t="s">
+      <c r="P288" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="3" t="s">
+    <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="E289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F285" s="3" t="s">
+      <c r="F289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="G285" s="3" t="s">
+      <c r="G289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="H285" s="3" t="s">
+      <c r="H289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="I285" s="3" t="s">
+      <c r="I289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="J285" s="3" t="s">
+      <c r="J289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="K285" s="3" t="s">
+      <c r="K289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="L285" s="3" t="s">
+      <c r="L289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="M285" s="3" t="s">
+      <c r="M289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="N285" s="3" t="s">
+      <c r="N289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="O285" s="3" t="s">
+      <c r="O289" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="P285" s="3" t="s">
+      <c r="P289" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="3" t="s">
+    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="E286" s="3" t="s">
+      <c r="E290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="F286" s="3" t="s">
+      <c r="F290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="G286" s="3" t="s">
+      <c r="G290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="H286" s="3" t="s">
+      <c r="H290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="I286" s="3" t="s">
+      <c r="I290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="J286" s="3" t="s">
+      <c r="J290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="K286" s="3" t="s">
+      <c r="K290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="L286" s="3" t="s">
+      <c r="L290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="M286" s="3" t="s">
+      <c r="M290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="N286" s="3" t="s">
+      <c r="N290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="O286" s="3" t="s">
+      <c r="O290" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="P286" s="3" t="s">
+      <c r="P290" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="3" t="s">
+    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="E291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="F287" s="3" t="s">
+      <c r="F291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G287" s="3" t="s">
+      <c r="G291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="H287" s="3" t="s">
+      <c r="H291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="I291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="J287" s="3" t="s">
+      <c r="J291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="K287" s="3" t="s">
+      <c r="K291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="L287" s="3" t="s">
+      <c r="L291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="M287" s="3" t="s">
+      <c r="M291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="N287" s="3" t="s">
+      <c r="N291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="O287" s="3" t="s">
+      <c r="O291" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="P287" s="3" t="s">
+      <c r="P291" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="3" t="s">
+    <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E288" s="3" t="s">
+      <c r="E292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="F288" s="3" t="s">
+      <c r="F292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="G288" s="3" t="s">
+      <c r="G292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="H288" s="3" t="s">
+      <c r="H292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="I288" s="3" t="s">
+      <c r="I292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="J288" s="3" t="s">
+      <c r="J292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="K288" s="3" t="s">
+      <c r="K292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="L288" s="3" t="s">
+      <c r="L292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="M288" s="3" t="s">
+      <c r="M292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="N288" s="3" t="s">
+      <c r="N292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="O288" s="3" t="s">
+      <c r="O292" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="P288" s="3" t="s">
+      <c r="P292" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="3" t="s">
+    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
         <v>3474</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B293" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>3510</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D293" s="3" t="s">
         <v>3513</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E293" s="3" t="s">
         <v>3520</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F293" s="3" t="s">
         <v>3523</v>
       </c>
-      <c r="G289" s="3" t="s">
+      <c r="G293" s="3" t="s">
         <v>3559</v>
       </c>
-      <c r="H289" s="3" t="s">
+      <c r="H293" s="3" t="s">
         <v>3561</v>
       </c>
-      <c r="I289" s="3" t="s">
+      <c r="I293" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="J289" s="3" t="s">
+      <c r="J293" s="3" t="s">
         <v>3535</v>
       </c>
-      <c r="K289" s="3" t="s">
+      <c r="K293" s="3" t="s">
         <v>3557</v>
       </c>
-      <c r="L289" s="3" t="s">
+      <c r="L293" s="3" t="s">
         <v>3541</v>
       </c>
-      <c r="M289" s="3" t="s">
+      <c r="M293" s="3" t="s">
         <v>3543</v>
       </c>
-      <c r="N289" s="3" t="s">
+      <c r="N293" s="3" t="s">
         <v>3546</v>
       </c>
-      <c r="O289" s="3" t="s">
+      <c r="O293" s="3" t="s">
         <v>3508</v>
       </c>
-      <c r="P289" s="3" t="s">
+      <c r="P293" s="3" t="s">
         <v>3517</v>
       </c>
     </row>
-    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="3" t="s">
+    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
         <v>3475</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>3476</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C294" s="3" t="s">
         <v>3550</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D294" s="3" t="s">
         <v>3551</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="E294" s="3" t="s">
         <v>3553</v>
       </c>
-      <c r="F290" s="3" t="s">
+      <c r="F294" s="3" t="s">
         <v>3554</v>
       </c>
-      <c r="G290" s="3" t="s">
+      <c r="G294" s="3" t="s">
         <v>3560</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="H294" s="3" t="s">
         <v>3562</v>
       </c>
-      <c r="I290" s="3" t="s">
+      <c r="I294" s="3" t="s">
         <v>3555</v>
       </c>
-      <c r="J290" s="3" t="s">
+      <c r="J294" s="3" t="s">
         <v>3556</v>
       </c>
-      <c r="K290" s="3" t="s">
+      <c r="K294" s="3" t="s">
         <v>3558</v>
       </c>
-      <c r="L290" s="3" t="s">
+      <c r="L294" s="3" t="s">
         <v>3563</v>
       </c>
-      <c r="M290" s="3" t="s">
+      <c r="M294" s="3" t="s">
         <v>3564</v>
       </c>
-      <c r="N290" s="3" t="s">
+      <c r="N294" s="3" t="s">
         <v>3565</v>
       </c>
-      <c r="O290" s="3" t="s">
+      <c r="O294" s="3" t="s">
         <v>3549</v>
       </c>
-      <c r="P290" s="3" t="s">
+      <c r="P294" s="3" t="s">
         <v>3552</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="3" t="s">
+    <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B296" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C296" s="3" t="s">
         <v>1561</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D296" s="3" t="s">
         <v>1827</v>
       </c>
-      <c r="E292" s="3" t="s">
+      <c r="E296" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="F292" s="3" t="s">
+      <c r="F296" s="3" t="s">
         <v>1831</v>
       </c>
-      <c r="G292" s="3" t="s">
+      <c r="G296" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="H292" s="3" t="s">
+      <c r="H296" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="I292" s="3" t="s">
+      <c r="I296" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="J292" s="3" t="s">
+      <c r="J296" s="3" t="s">
         <v>2235</v>
       </c>
-      <c r="K292" s="3" t="s">
+      <c r="K296" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="L292" s="3" t="s">
+      <c r="L296" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="M292" s="3" t="s">
+      <c r="M296" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="N292" s="3" t="s">
+      <c r="N296" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="O292" s="3" t="s">
+      <c r="O296" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="P292" s="3" t="s">
+      <c r="P296" s="3" t="s">
         <v>2231</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="3" t="s">
+    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B297" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>1562</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D297" s="3" t="s">
         <v>1828</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="E297" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="F297" s="3" t="s">
         <v>1832</v>
       </c>
-      <c r="G293" s="3" t="s">
+      <c r="G297" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="H293" s="3" t="s">
+      <c r="H297" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="I293" s="3" t="s">
+      <c r="I297" s="3" t="s">
         <v>1836</v>
       </c>
-      <c r="J293" s="3" t="s">
+      <c r="J297" s="3" t="s">
         <v>2236</v>
       </c>
-      <c r="K293" s="3" t="s">
+      <c r="K297" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="L293" s="3" t="s">
+      <c r="L297" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="M293" s="3" t="s">
+      <c r="M297" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="N293" s="3" t="s">
+      <c r="N297" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="O293" s="3" t="s">
+      <c r="O297" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="P293" s="3" t="s">
+      <c r="P297" s="3" t="s">
         <v>2232</v>
       </c>
     </row>
-    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="3" t="s">
+    <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="E298" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="F294" s="3" t="s">
+      <c r="F298" s="3" t="s">
         <v>1833</v>
       </c>
-      <c r="G294" s="3" t="s">
+      <c r="G298" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="H294" s="3" t="s">
+      <c r="H298" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="I294" s="3" t="s">
+      <c r="I298" s="3" t="s">
         <v>1837</v>
       </c>
-      <c r="J294" s="3" t="s">
+      <c r="J298" s="3" t="s">
         <v>2237</v>
       </c>
-      <c r="K294" s="3" t="s">
+      <c r="K298" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="L294" s="3" t="s">
+      <c r="L298" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="M294" s="3" t="s">
+      <c r="M298" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="N294" s="3" t="s">
+      <c r="N298" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="O294" s="3" t="s">
+      <c r="O298" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="P294" s="3" t="s">
+      <c r="P298" s="3" t="s">
         <v>2233</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="3" t="s">
+    <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>1830</v>
       </c>
-      <c r="E295" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="F295" s="3" t="s">
+      <c r="F299" s="3" t="s">
         <v>1834</v>
       </c>
-      <c r="G295" s="3" t="s">
+      <c r="G299" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="H295" s="3" t="s">
+      <c r="H299" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="I295" s="3" t="s">
+      <c r="I299" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="J295" s="3" t="s">
+      <c r="J299" s="3" t="s">
         <v>2238</v>
       </c>
-      <c r="K295" s="3" t="s">
+      <c r="K299" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="L295" s="3" t="s">
+      <c r="L299" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="M295" s="3" t="s">
+      <c r="M299" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="N295" s="3" t="s">
+      <c r="N299" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="O295" s="3" t="s">
+      <c r="O299" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="P295" s="3" t="s">
+      <c r="P299" s="3" t="s">
         <v>2234</v>
       </c>
     </row>
-    <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="3" t="s">
+    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
         <v>2418</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B301" s="3" t="s">
         <v>3865</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C301" s="3" t="s">
         <v>3863</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D301" s="3" t="s">
         <v>3864</v>
       </c>
-      <c r="E297" s="3" t="s">
+      <c r="E301" s="3" t="s">
         <v>3866</v>
       </c>
-      <c r="F297" s="3" t="s">
+      <c r="F301" s="3" t="s">
         <v>3867</v>
       </c>
-      <c r="G297" s="3" t="s">
+      <c r="G301" s="3" t="s">
         <v>3868</v>
       </c>
-      <c r="H297" s="3" t="s">
+      <c r="H301" s="3" t="s">
         <v>3869</v>
       </c>
-      <c r="I297" s="3" t="s">
+      <c r="I301" s="3" t="s">
         <v>3870</v>
       </c>
-      <c r="J297" s="3" t="s">
+      <c r="J301" s="3" t="s">
         <v>3871</v>
       </c>
-      <c r="K297" s="3" t="s">
+      <c r="K301" s="3" t="s">
         <v>3872</v>
       </c>
-      <c r="L297" s="3" t="s">
+      <c r="L301" s="3" t="s">
         <v>3873</v>
       </c>
-      <c r="M297" s="3" t="s">
+      <c r="M301" s="3" t="s">
         <v>3874</v>
       </c>
-      <c r="N297" s="3" t="s">
+      <c r="N301" s="3" t="s">
         <v>3875</v>
       </c>
-      <c r="O297" s="3" t="s">
+      <c r="O301" s="3" t="s">
         <v>3876</v>
       </c>
-      <c r="P297" s="3" t="s">
+      <c r="P301" s="3" t="s">
         <v>3877</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="3" t="s">
+    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
         <v>4023</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B303" s="3" t="s">
         <v>4025</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>4030</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>4031</v>
       </c>
-      <c r="E299" s="3" t="s">
+      <c r="E303" s="3" t="s">
         <v>4032</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F303" s="3" t="s">
         <v>4033</v>
       </c>
-      <c r="G299" s="3" t="s">
+      <c r="G303" s="3" t="s">
         <v>4034</v>
       </c>
-      <c r="H299" s="3" t="s">
+      <c r="H303" s="3" t="s">
         <v>4035</v>
       </c>
-      <c r="I299" s="3" t="s">
+      <c r="I303" s="3" t="s">
         <v>4036</v>
       </c>
-      <c r="J299" s="3" t="s">
+      <c r="J303" s="3" t="s">
         <v>4037</v>
       </c>
-      <c r="K299" s="3" t="s">
+      <c r="K303" s="3" t="s">
         <v>4038</v>
       </c>
-      <c r="L299" s="3" t="s">
+      <c r="L303" s="3" t="s">
         <v>4039</v>
       </c>
-      <c r="M299" s="3" t="s">
+      <c r="M303" s="3" t="s">
         <v>4040</v>
       </c>
-      <c r="N299" s="3" t="s">
+      <c r="N303" s="3" t="s">
         <v>4029</v>
       </c>
-      <c r="O299" s="3" t="s">
+      <c r="O303" s="3" t="s">
         <v>4028</v>
       </c>
-      <c r="P299" s="3" t="s">
+      <c r="P303" s="3" t="s">
         <v>4027</v>
       </c>
     </row>
-    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="3" t="s">
+    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
         <v>4024</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B304" s="3" t="s">
         <v>4026</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C304" s="3" t="s">
         <v>4046</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D304" s="3" t="s">
         <v>4047</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E304" s="3" t="s">
         <v>4048</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="F304" s="3" t="s">
         <v>4049</v>
       </c>
-      <c r="G300" s="3" t="s">
+      <c r="G304" s="3" t="s">
         <v>4050</v>
       </c>
-      <c r="H300" s="3" t="s">
+      <c r="H304" s="3" t="s">
         <v>4051</v>
       </c>
-      <c r="I300" s="3" t="s">
+      <c r="I304" s="3" t="s">
         <v>4052</v>
       </c>
-      <c r="J300" s="3" t="s">
+      <c r="J304" s="3" t="s">
         <v>4053</v>
       </c>
-      <c r="K300" s="3" t="s">
+      <c r="K304" s="3" t="s">
         <v>4054</v>
       </c>
-      <c r="L300" s="3" t="s">
+      <c r="L304" s="3" t="s">
         <v>4042</v>
       </c>
-      <c r="M300" s="3" t="s">
+      <c r="M304" s="3" t="s">
         <v>4041</v>
       </c>
-      <c r="N300" s="3" t="s">
+      <c r="N304" s="3" t="s">
         <v>4043</v>
       </c>
-      <c r="O300" s="3" t="s">
+      <c r="O304" s="3" t="s">
         <v>4044</v>
       </c>
-      <c r="P300" s="3" t="s">
+      <c r="P304" s="3" t="s">
         <v>4045</v>
       </c>
     </row>
-    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="3" t="s">
+    <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B306" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C306" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D306" s="3" t="s">
         <v>1703</v>
       </c>
-      <c r="E302" s="3" t="s">
+      <c r="E306" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="F306" s="3" t="s">
         <v>1712</v>
       </c>
-      <c r="G302" s="3" t="s">
+      <c r="G306" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H302" s="3" t="s">
+      <c r="H306" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I302" s="3" t="s">
+      <c r="I306" s="3" t="s">
         <v>1819</v>
       </c>
-      <c r="J302" s="3" t="s">
+      <c r="J306" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="K302" s="3" t="s">
+      <c r="K306" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L302" s="3" t="s">
+      <c r="L306" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="M302" s="3" t="s">
+      <c r="M306" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N302" s="3" t="s">
+      <c r="N306" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O302" s="3" t="s">
+      <c r="O306" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="P302" s="3" t="s">
+      <c r="P306" s="3" t="s">
         <v>2239</v>
       </c>
     </row>
-    <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="3" t="s">
+    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B307" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>1566</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="E303" s="3" t="s">
+      <c r="E307" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F303" s="3" t="s">
+      <c r="F307" s="3" t="s">
         <v>1818</v>
       </c>
-      <c r="G303" s="3" t="s">
+      <c r="G307" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H303" s="3" t="s">
+      <c r="H307" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I303" s="3" t="s">
+      <c r="I307" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="J303" s="3" t="s">
+      <c r="J307" s="3" t="s">
         <v>2242</v>
       </c>
-      <c r="K303" s="3" t="s">
+      <c r="K307" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L303" s="3" t="s">
+      <c r="L307" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="M303" s="3" t="s">
+      <c r="M307" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N303" s="3" t="s">
+      <c r="N307" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="O303" s="3" t="s">
+      <c r="O307" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="P303" s="3" t="s">
+      <c r="P307" s="3" t="s">
         <v>2240</v>
       </c>
     </row>
-    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="3" t="s">
+    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B308" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C308" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D308" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="E304" s="3" t="s">
+      <c r="E308" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F304" s="3" t="s">
+      <c r="F308" s="3" t="s">
         <v>1823</v>
       </c>
-      <c r="G304" s="3" t="s">
+      <c r="G308" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H304" s="3" t="s">
+      <c r="H308" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I304" s="3" t="s">
+      <c r="I308" s="3" t="s">
         <v>1821</v>
       </c>
-      <c r="J304" s="3" t="s">
+      <c r="J308" s="3" t="s">
         <v>2243</v>
       </c>
-      <c r="K304" s="3" t="s">
+      <c r="K308" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L304" s="3" t="s">
+      <c r="L308" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="M304" s="3" t="s">
+      <c r="M308" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N304" s="3" t="s">
+      <c r="N308" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="O304" s="3" t="s">
+      <c r="O308" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="P304" s="3" t="s">
+      <c r="P308" s="3" t="s">
         <v>2244</v>
       </c>
     </row>
-    <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="3" t="s">
+    <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
         <v>3676</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B310" s="3" t="s">
         <v>3678</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>1487</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D310" s="3" t="s">
         <v>1701</v>
       </c>
-      <c r="E306" s="3" t="s">
+      <c r="E310" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="F310" s="3" t="s">
         <v>1710</v>
       </c>
-      <c r="G306" s="3" t="s">
+      <c r="G310" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H306" s="3" t="s">
+      <c r="H310" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="I310" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="J306" s="3" t="s">
+      <c r="J310" s="3" t="s">
         <v>2124</v>
       </c>
-      <c r="K306" s="3" t="s">
+      <c r="K310" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="L306" s="3" t="s">
+      <c r="L310" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="M306" s="3" t="s">
+      <c r="M310" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="N306" s="3" t="s">
+      <c r="N310" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="O306" s="3" t="s">
+      <c r="O310" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="P306" s="3" t="s">
+      <c r="P310" s="3" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="3" t="s">
+    <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
         <v>3677</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B311" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C311" s="3" t="s">
         <v>1565</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="D311" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="E307" s="3" t="s">
+      <c r="E311" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F307" s="3" t="s">
+      <c r="F311" s="3" t="s">
         <v>1825</v>
       </c>
-      <c r="G307" s="3" t="s">
+      <c r="G311" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H307" s="3" t="s">
+      <c r="H311" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I307" s="3" t="s">
+      <c r="I311" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="J307" s="3" t="s">
+      <c r="J311" s="3" t="s">
         <v>2246</v>
       </c>
-      <c r="K307" s="3" t="s">
+      <c r="K311" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L307" s="3" t="s">
+      <c r="L311" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="M307" s="3" t="s">
+      <c r="M311" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N307" s="3" t="s">
+      <c r="N311" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="O307" s="3" t="s">
+      <c r="O311" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="P307" s="3" t="s">
+      <c r="P311" s="3" t="s">
         <v>2245</v>
       </c>
     </row>
-    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="3" t="s">
+    <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
         <v>3680</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B313" s="3" t="s">
         <v>3679</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C313" s="3" t="s">
         <v>3725</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D313" s="3" t="s">
         <v>3712</v>
       </c>
-      <c r="E309" s="3" t="s">
+      <c r="E313" s="3" t="s">
         <v>3713</v>
       </c>
-      <c r="F309" s="3" t="s">
+      <c r="F313" s="3" t="s">
         <v>3714</v>
       </c>
-      <c r="G309" s="3" t="s">
+      <c r="G313" s="3" t="s">
         <v>3715</v>
       </c>
-      <c r="H309" s="3" t="s">
+      <c r="H313" s="3" t="s">
         <v>3716</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="I313" s="3" t="s">
         <v>3717</v>
       </c>
-      <c r="J309" s="3" t="s">
+      <c r="J313" s="3" t="s">
         <v>3718</v>
       </c>
-      <c r="K309" s="3" t="s">
+      <c r="K313" s="3" t="s">
         <v>3719</v>
       </c>
-      <c r="L309" s="3" t="s">
+      <c r="L313" s="3" t="s">
         <v>3720</v>
       </c>
-      <c r="M309" s="3" t="s">
+      <c r="M313" s="3" t="s">
         <v>3721</v>
       </c>
-      <c r="N309" s="3" t="s">
+      <c r="N313" s="3" t="s">
         <v>3722</v>
       </c>
-      <c r="O309" s="3" t="s">
+      <c r="O313" s="3" t="s">
         <v>3723</v>
       </c>
-      <c r="P309" s="3" t="s">
+      <c r="P313" s="3" t="s">
         <v>3724</v>
       </c>
     </row>
-    <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="3" t="s">
+    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
         <v>3681</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B314" s="3" t="s">
         <v>2403</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>2404</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D314" s="3" t="s">
         <v>2405</v>
       </c>
-      <c r="E310" s="3" t="s">
+      <c r="E314" s="3" t="s">
         <v>2407</v>
       </c>
-      <c r="F310" s="3" t="s">
+      <c r="F314" s="3" t="s">
         <v>2408</v>
       </c>
-      <c r="G310" s="4" t="s">
+      <c r="G314" s="4" t="s">
         <v>2409</v>
       </c>
-      <c r="H310" s="3" t="s">
+      <c r="H314" s="3" t="s">
         <v>2410</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="I314" s="3" t="s">
         <v>2411</v>
       </c>
-      <c r="J310" s="3" t="s">
+      <c r="J314" s="3" t="s">
         <v>2412</v>
       </c>
-      <c r="K310" s="3" t="s">
+      <c r="K314" s="3" t="s">
         <v>2413</v>
       </c>
-      <c r="L310" s="3" t="s">
+      <c r="L314" s="3" t="s">
         <v>2414</v>
       </c>
-      <c r="M310" s="3" t="s">
+      <c r="M314" s="3" t="s">
         <v>2415</v>
       </c>
-      <c r="N310" s="3" t="s">
+      <c r="N314" s="3" t="s">
         <v>2416</v>
       </c>
-      <c r="O310" s="3" t="s">
+      <c r="O314" s="3" t="s">
         <v>2417</v>
       </c>
-      <c r="P310" s="3" t="s">
+      <c r="P314" s="3" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G311" s="4"/>
-    </row>
-    <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="3" t="s">
+    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G315" s="4"/>
+    </row>
+    <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
         <v>3690</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B316" s="3" t="s">
         <v>3688</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C316" s="3" t="s">
         <v>3726</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D316" s="3" t="s">
         <v>3753</v>
       </c>
-      <c r="E312" s="3" t="s">
+      <c r="E316" s="3" t="s">
         <v>3732</v>
       </c>
-      <c r="F312" s="3" t="s">
+      <c r="F316" s="3" t="s">
         <v>3761</v>
       </c>
-      <c r="G312" s="4" t="s">
+      <c r="G316" s="4" t="s">
         <v>3731</v>
       </c>
-      <c r="H312" s="3" t="s">
+      <c r="H316" s="3" t="s">
         <v>3730</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="I316" s="3" t="s">
         <v>3762</v>
       </c>
-      <c r="J312" s="3" t="s">
+      <c r="J316" s="3" t="s">
         <v>3766</v>
       </c>
-      <c r="K312" s="3" t="s">
+      <c r="K316" s="3" t="s">
         <v>3729</v>
       </c>
-      <c r="L312" s="3" t="s">
+      <c r="L316" s="3" t="s">
         <v>3770</v>
       </c>
-      <c r="M312" s="3" t="s">
+      <c r="M316" s="3" t="s">
         <v>3728</v>
       </c>
-      <c r="N312" s="3" t="s">
+      <c r="N316" s="3" t="s">
         <v>3774</v>
       </c>
-      <c r="O312" s="3" t="s">
+      <c r="O316" s="3" t="s">
         <v>3780</v>
       </c>
-      <c r="P312" s="3" t="s">
+      <c r="P316" s="3" t="s">
         <v>3727</v>
       </c>
     </row>
-    <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="3" t="s">
+    <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
         <v>3691</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B317" s="3" t="s">
         <v>3689</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C317" s="3" t="s">
         <v>3739</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>3754</v>
       </c>
-      <c r="E313" s="3" t="s">
+      <c r="E317" s="3" t="s">
         <v>3733</v>
       </c>
-      <c r="F313" s="3" t="s">
+      <c r="F317" s="3" t="s">
         <v>3760</v>
       </c>
-      <c r="G313" s="4" t="s">
+      <c r="G317" s="4" t="s">
         <v>3734</v>
       </c>
-      <c r="H313" s="3" t="s">
+      <c r="H317" s="3" t="s">
         <v>3735</v>
       </c>
-      <c r="I313" s="3" t="s">
+      <c r="I317" s="3" t="s">
         <v>3763</v>
       </c>
-      <c r="J313" s="3" t="s">
+      <c r="J317" s="3" t="s">
         <v>3767</v>
       </c>
-      <c r="K313" s="3" t="s">
+      <c r="K317" s="3" t="s">
         <v>3736</v>
       </c>
-      <c r="L313" s="3" t="s">
+      <c r="L317" s="3" t="s">
         <v>3771</v>
       </c>
-      <c r="M313" s="3" t="s">
+      <c r="M317" s="3" t="s">
         <v>3737</v>
       </c>
-      <c r="N313" s="3" t="s">
+      <c r="N317" s="3" t="s">
         <v>3775</v>
       </c>
-      <c r="O313" s="3" t="s">
+      <c r="O317" s="3" t="s">
         <v>3781</v>
       </c>
-      <c r="P313" s="3" t="s">
+      <c r="P317" s="3" t="s">
         <v>3738</v>
       </c>
     </row>
-    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="3" t="s">
+    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
         <v>3708</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B318" s="3" t="s">
         <v>3709</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>3740</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D318" s="3" t="s">
         <v>3755</v>
       </c>
-      <c r="E314" s="3" t="s">
+      <c r="E318" s="3" t="s">
         <v>3746</v>
       </c>
-      <c r="F314" s="3" t="s">
+      <c r="F318" s="3" t="s">
         <v>3759</v>
       </c>
-      <c r="G314" s="4" t="s">
+      <c r="G318" s="4" t="s">
         <v>3744</v>
       </c>
-      <c r="H314" s="3" t="s">
+      <c r="H318" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="I314" s="3" t="s">
+      <c r="I318" s="3" t="s">
         <v>3764</v>
       </c>
-      <c r="J314" s="3" t="s">
+      <c r="J318" s="3" t="s">
         <v>3768</v>
       </c>
-      <c r="K314" s="3" t="s">
+      <c r="K318" s="3" t="s">
         <v>3742</v>
       </c>
-      <c r="L314" s="3" t="s">
+      <c r="L318" s="3" t="s">
         <v>3772</v>
       </c>
-      <c r="M314" s="3" t="s">
+      <c r="M318" s="3" t="s">
         <v>3743</v>
       </c>
-      <c r="N314" s="3" t="s">
+      <c r="N318" s="3" t="s">
         <v>3776</v>
       </c>
-      <c r="O314" s="3" t="s">
+      <c r="O318" s="3" t="s">
         <v>3778</v>
       </c>
-      <c r="P314" s="3" t="s">
+      <c r="P318" s="3" t="s">
         <v>3741</v>
       </c>
     </row>
-    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="3" t="s">
+    <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
         <v>3710</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B319" s="3" t="s">
         <v>3711</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C319" s="3" t="s">
         <v>3757</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>3756</v>
       </c>
-      <c r="E315" s="3" t="s">
+      <c r="E319" s="3" t="s">
         <v>3747</v>
       </c>
-      <c r="F315" s="3" t="s">
+      <c r="F319" s="3" t="s">
         <v>3758</v>
       </c>
-      <c r="G315" s="4" t="s">
+      <c r="G319" s="4" t="s">
         <v>3749</v>
       </c>
-      <c r="H315" s="3" t="s">
+      <c r="H319" s="3" t="s">
         <v>3748</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="I319" s="3" t="s">
         <v>3765</v>
       </c>
-      <c r="J315" s="3" t="s">
+      <c r="J319" s="3" t="s">
         <v>3769</v>
       </c>
-      <c r="K315" s="3" t="s">
+      <c r="K319" s="3" t="s">
         <v>3750</v>
       </c>
-      <c r="L315" s="3" t="s">
+      <c r="L319" s="3" t="s">
         <v>3773</v>
       </c>
-      <c r="M315" s="3" t="s">
+      <c r="M319" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="N315" s="3" t="s">
+      <c r="N319" s="3" t="s">
         <v>3777</v>
       </c>
-      <c r="O315" s="3" t="s">
+      <c r="O319" s="3" t="s">
         <v>3779</v>
       </c>
-      <c r="P315" s="3" t="s">
+      <c r="P319" s="3" t="s">
         <v>3752</v>
       </c>
     </row>
-    <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="3" t="s">
+    <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
         <v>3696</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B320" s="3" t="s">
         <v>2434</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C320" s="3" t="s">
         <v>2591</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D320" s="3" t="s">
         <v>2590</v>
       </c>
-      <c r="E316" s="3" t="s">
+      <c r="E320" s="3" t="s">
         <v>2449</v>
       </c>
-      <c r="F316" s="3" t="s">
+      <c r="F320" s="3" t="s">
         <v>2565</v>
       </c>
-      <c r="G316" s="3" t="s">
+      <c r="G320" s="3" t="s">
         <v>2459</v>
       </c>
-      <c r="H316" s="3" t="s">
+      <c r="H320" s="3" t="s">
         <v>2470</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="I320" s="3" t="s">
         <v>2552</v>
       </c>
-      <c r="J316" s="3" t="s">
+      <c r="J320" s="3" t="s">
         <v>2539</v>
       </c>
-      <c r="K316" s="3" t="s">
+      <c r="K320" s="3" t="s">
         <v>2481</v>
       </c>
-      <c r="L316" s="3" t="s">
+      <c r="L320" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="M316" s="3" t="s">
+      <c r="M320" s="3" t="s">
         <v>2500</v>
       </c>
-      <c r="N316" s="3" t="s">
+      <c r="N320" s="3" t="s">
         <v>2501</v>
       </c>
-      <c r="O316" s="3" t="s">
+      <c r="O320" s="3" t="s">
         <v>2513</v>
       </c>
-      <c r="P316" s="3" t="s">
+      <c r="P320" s="3" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="3" t="s">
+    <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
         <v>3697</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B321" s="3" t="s">
         <v>2438</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C321" s="3" t="s">
         <v>2592</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="D321" s="3" t="s">
         <v>2578</v>
       </c>
-      <c r="E317" s="3" t="s">
+      <c r="E321" s="3" t="s">
         <v>2438</v>
       </c>
-      <c r="F317" s="3" t="s">
+      <c r="F321" s="3" t="s">
         <v>2566</v>
       </c>
-      <c r="G317" s="3" t="s">
+      <c r="G321" s="3" t="s">
         <v>2460</v>
       </c>
-      <c r="H317" s="3" t="s">
+      <c r="H321" s="3" t="s">
         <v>2471</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="I321" s="3" t="s">
         <v>2553</v>
       </c>
-      <c r="J317" s="3" t="s">
+      <c r="J321" s="3" t="s">
         <v>2540</v>
       </c>
-      <c r="K317" s="3" t="s">
+      <c r="K321" s="3" t="s">
         <v>2482</v>
       </c>
-      <c r="L317" s="3" t="s">
+      <c r="L321" s="3" t="s">
         <v>2528</v>
       </c>
-      <c r="M317" s="3" t="s">
+      <c r="M321" s="3" t="s">
         <v>2460</v>
       </c>
-      <c r="N317" s="3" t="s">
+      <c r="N321" s="3" t="s">
         <v>2502</v>
       </c>
-      <c r="O317" s="3" t="s">
+      <c r="O321" s="3" t="s">
         <v>2514</v>
       </c>
-      <c r="P317" s="3" t="s">
+      <c r="P321" s="3" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="3" t="s">
+    <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
         <v>3698</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B322" s="3" t="s">
         <v>2437</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C322" s="3" t="s">
         <v>2593</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D322" s="3" t="s">
         <v>2579</v>
       </c>
-      <c r="E318" s="3" t="s">
+      <c r="E322" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="F318" s="3" t="s">
+      <c r="F322" s="3" t="s">
         <v>2567</v>
       </c>
-      <c r="G318" s="3" t="s">
+      <c r="G322" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="H318" s="3" t="s">
+      <c r="H322" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="I322" s="3" t="s">
         <v>2554</v>
       </c>
-      <c r="J318" s="3" t="s">
+      <c r="J322" s="3" t="s">
         <v>2541</v>
       </c>
-      <c r="K318" s="3" t="s">
+      <c r="K322" s="3" t="s">
         <v>2483</v>
       </c>
-      <c r="L318" s="3" t="s">
+      <c r="L322" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="M318" s="3" t="s">
+      <c r="M322" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="N318" s="3" t="s">
+      <c r="N322" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="O318" s="3" t="s">
+      <c r="O322" s="3" t="s">
         <v>2515</v>
       </c>
-      <c r="P318" s="3" t="s">
+      <c r="P322" s="3" t="s">
         <v>2606</v>
       </c>
     </row>
-    <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="3" t="s">
+    <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
         <v>3694</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>2594</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D323" s="3" t="s">
         <v>2580</v>
       </c>
-      <c r="E319" s="3" t="s">
+      <c r="E323" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="F319" s="3" t="s">
+      <c r="F323" s="3" t="s">
         <v>2568</v>
       </c>
-      <c r="G319" s="3" t="s">
+      <c r="G323" s="3" t="s">
         <v>2461</v>
       </c>
-      <c r="H319" s="3" t="s">
+      <c r="H323" s="3" t="s">
         <v>2472</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="I323" s="3" t="s">
         <v>2555</v>
       </c>
-      <c r="J319" s="3" t="s">
+      <c r="J323" s="3" t="s">
         <v>2542</v>
       </c>
-      <c r="K319" s="3" t="s">
+      <c r="K323" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="L319" s="3" t="s">
+      <c r="L323" s="3" t="s">
         <v>2529</v>
       </c>
-      <c r="M319" s="3" t="s">
+      <c r="M323" s="3" t="s">
         <v>2461</v>
       </c>
-      <c r="N319" s="3" t="s">
+      <c r="N323" s="3" t="s">
         <v>2503</v>
       </c>
-      <c r="O319" s="3" t="s">
+      <c r="O323" s="3" t="s">
         <v>2526</v>
       </c>
-      <c r="P319" s="3" t="s">
+      <c r="P323" s="3" t="s">
         <v>2607</v>
       </c>
     </row>
-    <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="3" t="s">
+    <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
         <v>3695</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B324" s="3" t="s">
         <v>2436</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C324" s="3" t="s">
         <v>2595</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>2581</v>
       </c>
-      <c r="E320" s="3" t="s">
+      <c r="E324" s="3" t="s">
         <v>2450</v>
       </c>
-      <c r="F320" s="3" t="s">
+      <c r="F324" s="3" t="s">
         <v>2569</v>
       </c>
-      <c r="G320" s="3" t="s">
+      <c r="G324" s="3" t="s">
         <v>2462</v>
       </c>
-      <c r="H320" s="3" t="s">
+      <c r="H324" s="3" t="s">
         <v>2436</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="I324" s="3" t="s">
         <v>2556</v>
       </c>
-      <c r="J320" s="3" t="s">
+      <c r="J324" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="K320" s="3" t="s">
+      <c r="K324" s="3" t="s">
         <v>2462</v>
       </c>
-      <c r="L320" s="3" t="s">
+      <c r="L324" s="3" t="s">
         <v>2530</v>
       </c>
-      <c r="M320" s="3" t="s">
+      <c r="M324" s="3" t="s">
         <v>2462</v>
       </c>
-      <c r="N320" s="3" t="s">
+      <c r="N324" s="3" t="s">
         <v>2504</v>
       </c>
-      <c r="O320" s="3" t="s">
+      <c r="O324" s="3" t="s">
         <v>2517</v>
       </c>
-      <c r="P320" s="3" t="s">
+      <c r="P324" s="3" t="s">
         <v>2608</v>
       </c>
     </row>
-    <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="3" t="s">
+    <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
         <v>3699</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B325" s="3" t="s">
         <v>2439</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C325" s="3" t="s">
         <v>2596</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D325" s="3" t="s">
         <v>2582</v>
       </c>
-      <c r="E321" s="3" t="s">
+      <c r="E325" s="3" t="s">
         <v>2451</v>
       </c>
-      <c r="F321" s="3" t="s">
+      <c r="F325" s="3" t="s">
         <v>2570</v>
       </c>
-      <c r="G321" s="3" t="s">
+      <c r="G325" s="3" t="s">
         <v>2463</v>
       </c>
-      <c r="H321" s="3" t="s">
+      <c r="H325" s="3" t="s">
         <v>2473</v>
       </c>
-      <c r="I321" s="3" t="s">
+      <c r="I325" s="3" t="s">
         <v>2557</v>
       </c>
-      <c r="J321" s="3" t="s">
+      <c r="J325" s="3" t="s">
         <v>2544</v>
       </c>
-      <c r="K321" s="3" t="s">
+      <c r="K325" s="3" t="s">
         <v>2484</v>
       </c>
-      <c r="L321" s="3" t="s">
+      <c r="L325" s="3" t="s">
         <v>2531</v>
       </c>
-      <c r="M321" s="3" t="s">
+      <c r="M325" s="3" t="s">
         <v>2492</v>
       </c>
-      <c r="N321" s="3" t="s">
+      <c r="N325" s="3" t="s">
         <v>2505</v>
       </c>
-      <c r="O321" s="3" t="s">
+      <c r="O325" s="3" t="s">
         <v>2516</v>
       </c>
-      <c r="P321" s="3" t="s">
+      <c r="P325" s="3" t="s">
         <v>2609</v>
       </c>
     </row>
-    <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="3" t="s">
+    <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
         <v>3700</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B326" s="3" t="s">
         <v>2440</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>2597</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D326" s="3" t="s">
         <v>2583</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>2452</v>
       </c>
-      <c r="F322" s="3" t="s">
+      <c r="F326" s="3" t="s">
         <v>2571</v>
       </c>
-      <c r="G322" s="3" t="s">
+      <c r="G326" s="3" t="s">
         <v>2464</v>
       </c>
-      <c r="H322" s="3" t="s">
+      <c r="H326" s="3" t="s">
         <v>2474</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="I326" s="3" t="s">
         <v>2558</v>
       </c>
-      <c r="J322" s="3" t="s">
+      <c r="J326" s="3" t="s">
         <v>2545</v>
       </c>
-      <c r="K322" s="3" t="s">
+      <c r="K326" s="3" t="s">
         <v>2485</v>
       </c>
-      <c r="L322" s="3" t="s">
+      <c r="L326" s="3" t="s">
         <v>2532</v>
       </c>
-      <c r="M322" s="3" t="s">
+      <c r="M326" s="3" t="s">
         <v>2493</v>
       </c>
-      <c r="N322" s="3" t="s">
+      <c r="N326" s="3" t="s">
         <v>2506</v>
       </c>
-      <c r="O322" s="3" t="s">
+      <c r="O326" s="3" t="s">
         <v>2523</v>
       </c>
-      <c r="P322" s="3" t="s">
+      <c r="P326" s="3" t="s">
         <v>2610</v>
       </c>
     </row>
-    <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="3" t="s">
+    <row r="327" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
         <v>3701</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B327" s="3" t="s">
         <v>2441</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>2598</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>2584</v>
       </c>
-      <c r="E323" s="3" t="s">
+      <c r="E327" s="3" t="s">
         <v>2453</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F327" s="3" t="s">
         <v>2572</v>
       </c>
-      <c r="G323" s="3" t="s">
+      <c r="G327" s="3" t="s">
         <v>2525</v>
       </c>
-      <c r="H323" s="3" t="s">
+      <c r="H327" s="3" t="s">
         <v>2475</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="I327" s="3" t="s">
         <v>2559</v>
       </c>
-      <c r="J323" s="3" t="s">
+      <c r="J327" s="3" t="s">
         <v>2546</v>
       </c>
-      <c r="K323" s="3" t="s">
+      <c r="K327" s="3" t="s">
         <v>2486</v>
       </c>
-      <c r="L323" s="3" t="s">
+      <c r="L327" s="3" t="s">
         <v>2533</v>
       </c>
-      <c r="M323" s="3" t="s">
+      <c r="M327" s="3" t="s">
         <v>2494</v>
       </c>
-      <c r="N323" s="3" t="s">
+      <c r="N327" s="3" t="s">
         <v>2507</v>
       </c>
-      <c r="O323" s="3" t="s">
+      <c r="O327" s="3" t="s">
         <v>2524</v>
       </c>
-      <c r="P323" s="3" t="s">
+      <c r="P327" s="3" t="s">
         <v>2611</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="3" t="s">
+    <row r="328" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
         <v>3702</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B328" s="3" t="s">
         <v>2442</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C328" s="3" t="s">
         <v>2599</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D328" s="3" t="s">
         <v>2585</v>
       </c>
-      <c r="E324" s="3" t="s">
+      <c r="E328" s="3" t="s">
         <v>2454</v>
       </c>
-      <c r="F324" s="3" t="s">
+      <c r="F328" s="3" t="s">
         <v>2573</v>
       </c>
-      <c r="G324" s="3" t="s">
+      <c r="G328" s="3" t="s">
         <v>2465</v>
       </c>
-      <c r="H324" s="3" t="s">
+      <c r="H328" s="3" t="s">
         <v>2480</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="I328" s="3" t="s">
         <v>2560</v>
       </c>
-      <c r="J324" s="3" t="s">
+      <c r="J328" s="3" t="s">
         <v>2547</v>
       </c>
-      <c r="K324" s="3" t="s">
+      <c r="K328" s="3" t="s">
         <v>2491</v>
       </c>
-      <c r="L324" s="3" t="s">
+      <c r="L328" s="3" t="s">
         <v>2534</v>
       </c>
-      <c r="M324" s="3" t="s">
+      <c r="M328" s="3" t="s">
         <v>2495</v>
       </c>
-      <c r="N324" s="3" t="s">
+      <c r="N328" s="3" t="s">
         <v>2508</v>
       </c>
-      <c r="O324" s="3" t="s">
+      <c r="O328" s="3" t="s">
         <v>2518</v>
       </c>
-      <c r="P324" s="3" t="s">
+      <c r="P328" s="3" t="s">
         <v>2612</v>
       </c>
     </row>
-    <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="3" t="s">
+    <row r="329" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
         <v>3703</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B329" s="3" t="s">
         <v>2443</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>2600</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D329" s="3" t="s">
         <v>2586</v>
       </c>
-      <c r="E325" s="3" t="s">
+      <c r="E329" s="3" t="s">
         <v>2458</v>
       </c>
-      <c r="F325" s="3" t="s">
+      <c r="F329" s="3" t="s">
         <v>2574</v>
       </c>
-      <c r="G325" s="3" t="s">
+      <c r="G329" s="3" t="s">
         <v>2466</v>
       </c>
-      <c r="H325" s="3" t="s">
+      <c r="H329" s="3" t="s">
         <v>2479</v>
       </c>
-      <c r="I325" s="3" t="s">
+      <c r="I329" s="3" t="s">
         <v>2561</v>
       </c>
-      <c r="J325" s="3" t="s">
+      <c r="J329" s="3" t="s">
         <v>2548</v>
       </c>
-      <c r="K325" s="3" t="s">
+      <c r="K329" s="3" t="s">
         <v>2490</v>
       </c>
-      <c r="L325" s="3" t="s">
+      <c r="L329" s="3" t="s">
         <v>2535</v>
       </c>
-      <c r="M325" s="3" t="s">
+      <c r="M329" s="3" t="s">
         <v>2496</v>
       </c>
-      <c r="N325" s="3" t="s">
+      <c r="N329" s="3" t="s">
         <v>2509</v>
       </c>
-      <c r="O325" s="3" t="s">
+      <c r="O329" s="3" t="s">
         <v>2519</v>
       </c>
-      <c r="P325" s="3" t="s">
+      <c r="P329" s="3" t="s">
         <v>2613</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="3" t="s">
+    <row r="330" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
         <v>3704</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B330" s="3" t="s">
         <v>2446</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>2602</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D330" s="3" t="s">
         <v>2588</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="E330" s="3" t="s">
         <v>2456</v>
       </c>
-      <c r="F326" s="3" t="s">
+      <c r="F330" s="3" t="s">
         <v>2576</v>
       </c>
-      <c r="G326" s="3" t="s">
+      <c r="G330" s="3" t="s">
         <v>2469</v>
       </c>
-      <c r="H326" s="3" t="s">
+      <c r="H330" s="3" t="s">
         <v>2478</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="I330" s="3" t="s">
         <v>2563</v>
       </c>
-      <c r="J326" s="3" t="s">
+      <c r="J330" s="3" t="s">
         <v>2550</v>
       </c>
-      <c r="K326" s="3" t="s">
+      <c r="K330" s="3" t="s">
         <v>2489</v>
       </c>
-      <c r="L326" s="3" t="s">
+      <c r="L330" s="3" t="s">
         <v>2537</v>
       </c>
-      <c r="M326" s="3" t="s">
+      <c r="M330" s="3" t="s">
         <v>2498</v>
       </c>
-      <c r="N326" s="3" t="s">
+      <c r="N330" s="3" t="s">
         <v>2511</v>
       </c>
-      <c r="O326" s="3" t="s">
+      <c r="O330" s="3" t="s">
         <v>2522</v>
       </c>
-      <c r="P326" s="3" t="s">
+      <c r="P330" s="3" t="s">
         <v>2615</v>
       </c>
     </row>
-    <row r="328" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="3" t="s">
+    <row r="332" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
         <v>3370</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B332" s="3" t="s">
         <v>3371</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C332" s="3" t="s">
         <v>3376</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="E328" s="3" t="s">
+      <c r="E332" s="3" t="s">
         <v>3379</v>
       </c>
-      <c r="F328" s="3" t="s">
+      <c r="F332" s="3" t="s">
         <v>3380</v>
       </c>
-      <c r="G328" s="3" t="s">
+      <c r="G332" s="3" t="s">
         <v>3381</v>
       </c>
-      <c r="H328" s="3" t="s">
+      <c r="H332" s="3" t="s">
         <v>3382</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="I332" s="3" t="s">
         <v>3374</v>
       </c>
-      <c r="J328" s="3" t="s">
+      <c r="J332" s="3" t="s">
         <v>3375</v>
       </c>
-      <c r="K328" s="3" t="s">
+      <c r="K332" s="3" t="s">
         <v>3383</v>
       </c>
-      <c r="L328" s="3" t="s">
+      <c r="L332" s="3" t="s">
         <v>3384</v>
       </c>
-      <c r="M328" s="3" t="s">
+      <c r="M332" s="3" t="s">
         <v>3385</v>
       </c>
-      <c r="N328" s="3" t="s">
+      <c r="N332" s="3" t="s">
         <v>3386</v>
       </c>
-      <c r="O328" s="3" t="s">
+      <c r="O332" s="3" t="s">
         <v>3387</v>
       </c>
-      <c r="P328" s="3" t="s">
+      <c r="P332" s="3" t="s">
         <v>3378</v>
       </c>
     </row>
-    <row r="329" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="3" t="s">
+    <row r="333" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
         <v>3707</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B333" s="3" t="s">
         <v>3786</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C333" s="3" t="s">
         <v>3787</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D333" s="3" t="s">
         <v>3788</v>
       </c>
-      <c r="E329" s="3" t="s">
+      <c r="E333" s="3" t="s">
         <v>3789</v>
       </c>
-      <c r="F329" s="3" t="s">
+      <c r="F333" s="3" t="s">
         <v>3790</v>
       </c>
-      <c r="G329" s="3" t="s">
+      <c r="G333" s="3" t="s">
         <v>3791</v>
       </c>
-      <c r="H329" s="3" t="s">
+      <c r="H333" s="3" t="s">
         <v>3792</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="I333" s="3" t="s">
         <v>3793</v>
       </c>
-      <c r="J329" s="3" t="s">
+      <c r="J333" s="3" t="s">
         <v>3794</v>
       </c>
-      <c r="K329" s="3" t="s">
+      <c r="K333" s="3" t="s">
         <v>3795</v>
       </c>
-      <c r="L329" s="3" t="s">
+      <c r="L333" s="3" t="s">
         <v>3785</v>
       </c>
-      <c r="M329" s="3" t="s">
+      <c r="M333" s="3" t="s">
         <v>3796</v>
       </c>
-      <c r="N329" s="3" t="s">
+      <c r="N333" s="3" t="s">
         <v>3784</v>
       </c>
-      <c r="O329" s="3" t="s">
+      <c r="O333" s="3" t="s">
         <v>3782</v>
       </c>
-      <c r="P329" s="3" t="s">
+      <c r="P333" s="3" t="s">
         <v>3783</v>
       </c>
     </row>
-    <row r="330" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="3" t="s">
+    <row r="334" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
         <v>3360</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B334" s="3" t="s">
         <v>3361</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>3399</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D334" s="3" t="s">
         <v>3400</v>
       </c>
-      <c r="E330" s="3" t="s">
+      <c r="E334" s="3" t="s">
         <v>3396</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="F334" s="3" t="s">
         <v>3397</v>
       </c>
-      <c r="G330" s="3" t="s">
+      <c r="G334" s="3" t="s">
         <v>3390</v>
       </c>
-      <c r="H330" s="3" t="s">
+      <c r="H334" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="I334" s="3" t="s">
         <v>3398</v>
       </c>
-      <c r="J330" s="3" t="s">
+      <c r="J334" s="3" t="s">
         <v>3395</v>
       </c>
-      <c r="K330" s="3" t="s">
+      <c r="K334" s="3" t="s">
         <v>3392</v>
       </c>
-      <c r="L330" s="3" t="s">
+      <c r="L334" s="3" t="s">
         <v>3394</v>
       </c>
-      <c r="M330" s="3" t="s">
+      <c r="M334" s="3" t="s">
         <v>3393</v>
       </c>
-      <c r="N330" s="3" t="s">
+      <c r="N334" s="3" t="s">
         <v>3389</v>
       </c>
-      <c r="O330" s="3" t="s">
+      <c r="O334" s="3" t="s">
         <v>3388</v>
       </c>
-      <c r="P330" s="3" t="s">
+      <c r="P334" s="3" t="s">
         <v>3401</v>
       </c>
     </row>
-    <row r="331" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="3" t="s">
+    <row r="335" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
         <v>3362</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B335" s="3" t="s">
         <v>3366</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C335" s="3" t="s">
         <v>3404</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D335" s="3" t="s">
         <v>3403</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="E335" s="3" t="s">
         <v>3405</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="F335" s="3" t="s">
         <v>3406</v>
       </c>
-      <c r="G331" s="3" t="s">
+      <c r="G335" s="3" t="s">
         <v>3407</v>
       </c>
-      <c r="H331" s="3" t="s">
+      <c r="H335" s="3" t="s">
         <v>3408</v>
       </c>
-      <c r="I331" s="3" t="s">
+      <c r="I335" s="3" t="s">
         <v>3409</v>
       </c>
-      <c r="J331" s="3" t="s">
+      <c r="J335" s="3" t="s">
         <v>3410</v>
       </c>
-      <c r="K331" s="3" t="s">
+      <c r="K335" s="3" t="s">
         <v>3411</v>
       </c>
-      <c r="L331" s="3" t="s">
+      <c r="L335" s="3" t="s">
         <v>3412</v>
       </c>
-      <c r="M331" s="3" t="s">
+      <c r="M335" s="3" t="s">
         <v>3413</v>
       </c>
-      <c r="N331" s="3" t="s">
+      <c r="N335" s="3" t="s">
         <v>3414</v>
       </c>
-      <c r="O331" s="3" t="s">
+      <c r="O335" s="3" t="s">
         <v>3415</v>
       </c>
-      <c r="P331" s="3" t="s">
+      <c r="P335" s="3" t="s">
         <v>3402</v>
       </c>
     </row>
-    <row r="332" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="3" t="s">
+    <row r="336" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
         <v>3363</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B336" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C336" s="3" t="s">
         <v>3418</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D336" s="3" t="s">
         <v>3419</v>
       </c>
-      <c r="E332" s="3" t="s">
+      <c r="E336" s="3" t="s">
         <v>3421</v>
       </c>
-      <c r="F332" s="3" t="s">
+      <c r="F336" s="3" t="s">
         <v>3422</v>
       </c>
-      <c r="G332" s="3" t="s">
+      <c r="G336" s="3" t="s">
         <v>3423</v>
       </c>
-      <c r="H332" s="3" t="s">
+      <c r="H336" s="3" t="s">
         <v>3424</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="I336" s="3" t="s">
         <v>3425</v>
       </c>
-      <c r="J332" s="3" t="s">
+      <c r="J336" s="3" t="s">
         <v>3426</v>
       </c>
-      <c r="K332" s="3" t="s">
+      <c r="K336" s="3" t="s">
         <v>3427</v>
       </c>
-      <c r="L332" s="3" t="s">
+      <c r="L336" s="3" t="s">
         <v>3428</v>
       </c>
-      <c r="M332" s="3" t="s">
+      <c r="M336" s="3" t="s">
         <v>3429</v>
       </c>
-      <c r="N332" s="3" t="s">
+      <c r="N336" s="3" t="s">
         <v>3417</v>
       </c>
-      <c r="O332" s="3" t="s">
+      <c r="O336" s="3" t="s">
         <v>3416</v>
       </c>
-      <c r="P332" s="3" t="s">
+      <c r="P336" s="3" t="s">
         <v>3420</v>
       </c>
     </row>
-    <row r="333" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="3" t="s">
+    <row r="337" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
         <v>3364</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B337" s="3" t="s">
         <v>3368</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C337" s="3" t="s">
         <v>3435</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>3436</v>
       </c>
-      <c r="E333" s="3" t="s">
+      <c r="E337" s="3" t="s">
         <v>3438</v>
       </c>
-      <c r="F333" s="3" t="s">
+      <c r="F337" s="3" t="s">
         <v>3439</v>
       </c>
-      <c r="G333" s="3" t="s">
+      <c r="G337" s="3" t="s">
         <v>3440</v>
       </c>
-      <c r="H333" s="3" t="s">
+      <c r="H337" s="3" t="s">
         <v>3441</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="I337" s="3" t="s">
         <v>3442</v>
       </c>
-      <c r="J333" s="3" t="s">
+      <c r="J337" s="3" t="s">
         <v>3443</v>
       </c>
-      <c r="K333" s="3" t="s">
+      <c r="K337" s="3" t="s">
         <v>3431</v>
       </c>
-      <c r="L333" s="3" t="s">
+      <c r="L337" s="3" t="s">
         <v>3432</v>
       </c>
-      <c r="M333" s="3" t="s">
+      <c r="M337" s="3" t="s">
         <v>3430</v>
       </c>
-      <c r="N333" s="3" t="s">
+      <c r="N337" s="3" t="s">
         <v>3433</v>
       </c>
-      <c r="O333" s="3" t="s">
+      <c r="O337" s="3" t="s">
         <v>3434</v>
       </c>
-      <c r="P333" s="3" t="s">
+      <c r="P337" s="3" t="s">
         <v>3437</v>
       </c>
     </row>
-    <row r="334" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="3" t="s">
+    <row r="338" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
         <v>3365</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B338" s="3" t="s">
         <v>3369</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C338" s="3" t="s">
         <v>3452</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>3451</v>
       </c>
-      <c r="E334" s="3" t="s">
+      <c r="E338" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="F338" s="3" t="s">
         <v>3455</v>
       </c>
-      <c r="G334" s="3" t="s">
+      <c r="G338" s="3" t="s">
         <v>3456</v>
       </c>
-      <c r="H334" s="3" t="s">
+      <c r="H338" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="I338" s="3" t="s">
         <v>3445</v>
       </c>
-      <c r="J334" s="3" t="s">
+      <c r="J338" s="3" t="s">
         <v>3444</v>
       </c>
-      <c r="K334" s="3" t="s">
+      <c r="K338" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="L334" s="3" t="s">
+      <c r="L338" s="3" t="s">
         <v>3447</v>
       </c>
-      <c r="M334" s="3" t="s">
+      <c r="M338" s="3" t="s">
         <v>3448</v>
       </c>
-      <c r="N334" s="3" t="s">
+      <c r="N338" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="O334" s="3" t="s">
+      <c r="O338" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="P334" s="3" t="s">
+      <c r="P338" s="3" t="s">
         <v>3453</v>
       </c>
     </row>
-    <row r="335" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="3" t="s">
+    <row r="339" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
         <v>3372</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B339" s="3" t="s">
         <v>3373</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C339" s="3" t="s">
         <v>3467</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D339" s="3" t="s">
         <v>3468</v>
       </c>
-      <c r="E335" s="3" t="s">
+      <c r="E339" s="3" t="s">
         <v>3470</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="F339" s="3" t="s">
         <v>3471</v>
       </c>
-      <c r="G335" s="3" t="s">
+      <c r="G339" s="3" t="s">
         <v>3459</v>
       </c>
-      <c r="H335" s="3" t="s">
+      <c r="H339" s="3" t="s">
         <v>3458</v>
       </c>
-      <c r="I335" s="3" t="s">
+      <c r="I339" s="3" t="s">
         <v>3460</v>
       </c>
-      <c r="J335" s="3" t="s">
+      <c r="J339" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="K335" s="3" t="s">
+      <c r="K339" s="3" t="s">
         <v>3463</v>
       </c>
-      <c r="L335" s="3" t="s">
+      <c r="L339" s="3" t="s">
         <v>3464</v>
       </c>
-      <c r="M335" s="4" t="s">
+      <c r="M339" s="4" t="s">
         <v>3462</v>
       </c>
-      <c r="N335" s="3" t="s">
+      <c r="N339" s="3" t="s">
         <v>3465</v>
       </c>
-      <c r="O335" s="3" t="s">
+      <c r="O339" s="3" t="s">
         <v>3466</v>
       </c>
-      <c r="P335" s="3" t="s">
+      <c r="P339" s="3" t="s">
         <v>3469</v>
       </c>
     </row>

--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3276C394-A345-4859-AD4F-ABD0107BD60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD05AB-25A3-4D52-B3E4-02D477359F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="4157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5096" uniqueCount="4164">
   <si>
     <t>Temperature</t>
   </si>
@@ -12496,6 +12496,27 @@
   </si>
   <si>
     <t>子宫静息压</t>
+  </si>
+  <si>
+    <t>MENU:MenuAudio</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>MENU:MenuAudioECG</t>
+  </si>
+  <si>
+    <t>MENU:MenuAudioSPO2</t>
+  </si>
+  <si>
+    <t>Heart Rate (QRS)</t>
+  </si>
+  <si>
+    <t>Pulse Oximetry (SPO2)</t>
+  </si>
+  <si>
+    <t>MENU:MenuAudioOff</t>
   </si>
 </sst>
 </file>
@@ -12525,12 +12546,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -12560,7 +12587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12585,6 +12612,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -12867,11 +12897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P341"/>
+  <dimension ref="A1:P345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23526,5114 +23556,5314 @@
     </row>
     <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>1014</v>
+        <v>4157</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>75</v>
+        <v>4158</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>1542</v>
+        <v>3934</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>1944</v>
+        <v>3921</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>326</v>
+        <v>3933</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>1958</v>
+        <v>3932</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>115</v>
+        <v>3926</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>158</v>
+        <v>3922</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1972</v>
+        <v>3923</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>2211</v>
+        <v>3924</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>205</v>
+        <v>3925</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>851</v>
+        <v>3927</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>240</v>
+        <v>3928</v>
       </c>
       <c r="N229" s="3" t="s">
-        <v>283</v>
+        <v>3929</v>
       </c>
       <c r="O229" s="3" t="s">
-        <v>927</v>
+        <v>3930</v>
       </c>
       <c r="P229" s="3" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>3243</v>
+        <v>4163</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>3245</v>
+        <v>1046</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>3262</v>
+        <v>1447</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>3261</v>
+        <v>1596</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>3264</v>
+        <v>1069</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>3260</v>
+        <v>1682</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>3265</v>
+        <v>1075</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>3266</v>
+        <v>1076</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>3267</v>
+        <v>1688</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>3268</v>
+        <v>2084</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>3269</v>
+        <v>1077</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>3270</v>
+        <v>1078</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>3271</v>
+        <v>1074</v>
       </c>
       <c r="N230" s="3" t="s">
-        <v>3272</v>
+        <v>1072</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>3273</v>
+        <v>1070</v>
       </c>
       <c r="P230" s="3" t="s">
-        <v>3263</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>3242</v>
+        <v>4159</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>3244</v>
+        <v>4161</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>3256</v>
+        <v>1493</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>3257</v>
+        <v>1746</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>3247</v>
+        <v>304</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>3259</v>
+        <v>1762</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>3248</v>
+        <v>97</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>3249</v>
+        <v>137</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>3250</v>
+        <v>1785</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>3251</v>
+        <v>2079</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>3246</v>
+        <v>188</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>3252</v>
+        <v>825</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>3253</v>
+        <v>223</v>
       </c>
       <c r="N231" s="3" t="s">
-        <v>3254</v>
+        <v>263</v>
       </c>
       <c r="O231" s="3" t="s">
-        <v>3255</v>
+        <v>905</v>
       </c>
       <c r="P231" s="3" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>3274</v>
+        <v>4160</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>3275</v>
+        <v>4162</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>3277</v>
+        <v>1496</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>3278</v>
+        <v>1783</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>3280</v>
+        <v>307</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>3281</v>
+        <v>1784</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>3282</v>
+        <v>100</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>3283</v>
+        <v>140</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>3284</v>
+        <v>1788</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>3285</v>
+        <v>2063</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>3286</v>
+        <v>191</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>3287</v>
+        <v>828</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>3288</v>
+        <v>226</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>3289</v>
+        <v>266</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>3276</v>
+        <v>945</v>
       </c>
       <c r="P232" s="3" t="s">
-        <v>3279</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P233" s="3" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>3322</v>
+        <v>3243</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>3324</v>
+        <v>3245</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>3335</v>
+        <v>3262</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>3336</v>
+        <v>3261</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>3338</v>
+        <v>3264</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>3339</v>
+        <v>3260</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>3328</v>
+        <v>3265</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>3329</v>
+        <v>3266</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>3333</v>
+        <v>3267</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>3334</v>
+        <v>3268</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>3330</v>
+        <v>3269</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>3331</v>
+        <v>3270</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>3327</v>
+        <v>3271</v>
       </c>
       <c r="N234" s="3" t="s">
-        <v>3326</v>
+        <v>3272</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>3332</v>
+        <v>3273</v>
       </c>
       <c r="P234" s="3" t="s">
-        <v>3337</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="235" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>3323</v>
+        <v>3242</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>3325</v>
+        <v>3244</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>3341</v>
+        <v>3256</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>3342</v>
+        <v>3257</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>3344</v>
+        <v>3247</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>3340</v>
+        <v>3259</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>3345</v>
+        <v>3248</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>3346</v>
+        <v>3249</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>3347</v>
+        <v>3250</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>3348</v>
+        <v>3251</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>3349</v>
+        <v>3246</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>3350</v>
+        <v>3252</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>3351</v>
+        <v>3253</v>
       </c>
       <c r="N235" s="3" t="s">
-        <v>3352</v>
+        <v>3254</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>3353</v>
+        <v>3255</v>
       </c>
       <c r="P235" s="3" t="s">
-        <v>3343</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="236" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>1016</v>
+        <v>3274</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>77</v>
+        <v>3275</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>1544</v>
+        <v>3277</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>1946</v>
+        <v>3278</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>328</v>
+        <v>3280</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1960</v>
+        <v>3281</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>171</v>
+        <v>3282</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>160</v>
+        <v>3283</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>1974</v>
+        <v>3284</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>2213</v>
+        <v>3285</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>207</v>
+        <v>3286</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>853</v>
+        <v>3287</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>242</v>
+        <v>3288</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>285</v>
+        <v>3289</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>929</v>
+        <v>3276</v>
       </c>
       <c r="P236" s="3" t="s">
-        <v>2199</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="237" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>1479</v>
+        <v>1543</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>1693</v>
+        <v>1945</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1702</v>
+        <v>1959</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>1711</v>
+        <v>1973</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>2116</v>
+        <v>2212</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>812</v>
+        <v>852</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>759</v>
+        <v>241</v>
       </c>
       <c r="N237" s="3" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>894</v>
+        <v>928</v>
       </c>
       <c r="P237" s="3" t="s">
-        <v>2109</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>1020</v>
+        <v>3322</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>697</v>
+        <v>3324</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>1547</v>
+        <v>3335</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>1949</v>
+        <v>3336</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>773</v>
+        <v>3338</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1963</v>
+        <v>3339</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>768</v>
+        <v>3328</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>769</v>
+        <v>3329</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>1977</v>
+        <v>3333</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>2216</v>
+        <v>3334</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>770</v>
+        <v>3330</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>856</v>
+        <v>3331</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>771</v>
+        <v>3327</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>772</v>
+        <v>3326</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>932</v>
+        <v>3332</v>
       </c>
       <c r="P238" s="3" t="s">
-        <v>2202</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>1039</v>
+        <v>3323</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1038</v>
+        <v>3325</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>1548</v>
+        <v>3341</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>1950</v>
+        <v>3342</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1058</v>
+        <v>3344</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>1964</v>
+        <v>3340</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>1059</v>
+        <v>3345</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>1060</v>
+        <v>3346</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>1978</v>
+        <v>3347</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>2217</v>
+        <v>3348</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>1061</v>
+        <v>3349</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>1062</v>
+        <v>3350</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>1063</v>
+        <v>3351</v>
       </c>
       <c r="N239" s="3" t="s">
-        <v>1064</v>
+        <v>3352</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>1065</v>
+        <v>3353</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>2203</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>3212</v>
+        <v>1016</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>3213</v>
+        <v>77</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>3237</v>
+        <v>1544</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>3238</v>
+        <v>1946</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>3240</v>
+        <v>328</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>3241</v>
+        <v>1960</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>3229</v>
+        <v>171</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>3228</v>
+        <v>160</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>3230</v>
+        <v>1974</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>3231</v>
+        <v>2213</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>3232</v>
+        <v>207</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>3233</v>
+        <v>853</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>3234</v>
+        <v>242</v>
       </c>
       <c r="N240" s="3" t="s">
-        <v>3235</v>
+        <v>285</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>3236</v>
+        <v>929</v>
       </c>
       <c r="P240" s="3" t="s">
-        <v>3239</v>
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O241" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="P241" s="3" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>441</v>
+        <v>1020</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>438</v>
+        <v>697</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>1723</v>
+        <v>1949</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>631</v>
+        <v>773</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1732</v>
+        <v>1963</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>634</v>
+        <v>768</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>653</v>
+        <v>769</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>1930</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>2037</v>
+        <v>1977</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>2216</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>638</v>
+        <v>771</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>438</v>
+        <v>932</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>2028</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
-        <v>442</v>
+        <v>1039</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>1497</v>
+        <v>1548</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>1749</v>
+        <v>1950</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>308</v>
+        <v>1058</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1765</v>
+        <v>1964</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>101</v>
+        <v>1059</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>141</v>
+        <v>1060</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>1789</v>
+        <v>1978</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>2064</v>
+        <v>2217</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>101</v>
+        <v>1061</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>829</v>
+        <v>1062</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>101</v>
+        <v>1063</v>
       </c>
       <c r="N243" s="3" t="s">
-        <v>267</v>
+        <v>1064</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>909</v>
+        <v>1065</v>
       </c>
       <c r="P243" s="3" t="s">
-        <v>2047</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>443</v>
+        <v>3212</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>50</v>
+        <v>3213</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>1495</v>
+        <v>3237</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>1748</v>
+        <v>3238</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>306</v>
+        <v>3240</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1764</v>
+        <v>3241</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>99</v>
+        <v>3229</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>139</v>
+        <v>3228</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>1787</v>
+        <v>3230</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>2062</v>
+        <v>3231</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>190</v>
+        <v>3232</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>827</v>
+        <v>3233</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>225</v>
+        <v>3234</v>
       </c>
       <c r="N244" s="3" t="s">
-        <v>265</v>
+        <v>3235</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>907</v>
+        <v>3236</v>
       </c>
       <c r="P244" s="3" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>1982</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="I245" s="3" t="s">
-        <v>1985</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>2065</v>
-      </c>
-      <c r="K245" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="L245" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="M245" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="N245" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="O245" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="P245" s="3" t="s">
-        <v>2048</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>51</v>
+        <v>438</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>1496</v>
+        <v>1549</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>1783</v>
+        <v>1723</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>307</v>
+        <v>631</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>1784</v>
+        <v>1732</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>100</v>
+        <v>634</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>140</v>
+        <v>653</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>2063</v>
+        <v>1930</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>2037</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>191</v>
+        <v>680</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>226</v>
+        <v>638</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>266</v>
+        <v>683</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>908</v>
+        <v>438</v>
       </c>
       <c r="P246" s="3" t="s">
-        <v>2046</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>1551</v>
+        <v>1497</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>1980</v>
+        <v>1749</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>633</v>
+        <v>308</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>1983</v>
+        <v>1765</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>636</v>
+        <v>101</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>655</v>
+        <v>141</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>1986</v>
+        <v>1789</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>2221</v>
+        <v>2064</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>669</v>
+        <v>101</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>640</v>
+        <v>101</v>
       </c>
       <c r="N247" s="3" t="s">
-        <v>684</v>
+        <v>267</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>934</v>
+        <v>909</v>
       </c>
       <c r="P247" s="3" t="s">
-        <v>2218</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N248" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>54</v>
+        <v>439</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>1752</v>
+        <v>1979</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>311</v>
+        <v>632</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1767</v>
+        <v>1982</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>103</v>
+        <v>635</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>144</v>
+        <v>654</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1792</v>
+        <v>1985</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>193</v>
+        <v>668</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>228</v>
+        <v>639</v>
       </c>
       <c r="N249" s="3" t="s">
-        <v>269</v>
+        <v>605</v>
       </c>
       <c r="O249" s="3" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="P249" s="3" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
-        <v>3473</v>
+        <v>445</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>3472</v>
+        <v>51</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>3483</v>
+        <v>1496</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>3484</v>
+        <v>1783</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>3486</v>
+        <v>307</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>3487</v>
+        <v>1784</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>3474</v>
+        <v>100</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>3475</v>
+        <v>140</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>3476</v>
+        <v>1788</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>3477</v>
+        <v>2063</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>3478</v>
+        <v>191</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>3479</v>
+        <v>828</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>3480</v>
+        <v>226</v>
       </c>
       <c r="N250" s="3" t="s">
-        <v>3481</v>
+        <v>266</v>
       </c>
       <c r="O250" s="3" t="s">
-        <v>3482</v>
+        <v>908</v>
       </c>
       <c r="P250" s="3" t="s">
-        <v>3485</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="251" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>698</v>
+        <v>446</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>1501</v>
+        <v>1551</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>1753</v>
+        <v>1980</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1768</v>
+        <v>1983</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>104</v>
+        <v>636</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>145</v>
+        <v>655</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1793</v>
+        <v>1986</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>2068</v>
+        <v>2221</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>194</v>
+        <v>669</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>229</v>
+        <v>640</v>
       </c>
       <c r="N251" s="3" t="s">
-        <v>270</v>
+        <v>684</v>
       </c>
       <c r="O251" s="3" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
       <c r="P251" s="3" t="s">
-        <v>2051</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>2346</v>
+        <v>447</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>2348</v>
+        <v>53</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>2353</v>
+        <v>1499</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>2349</v>
+        <v>1751</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>2355</v>
+        <v>310</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>2352</v>
+        <v>1763</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>2350</v>
+        <v>102</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>2351</v>
+        <v>143</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>2356</v>
+        <v>1791</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>2357</v>
+        <v>2066</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>2358</v>
+        <v>192</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>2359</v>
+        <v>830</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>2360</v>
+        <v>227</v>
       </c>
       <c r="N252" s="3" t="s">
-        <v>2361</v>
+        <v>268</v>
       </c>
       <c r="O252" s="3" t="s">
-        <v>2362</v>
+        <v>910</v>
       </c>
       <c r="P252" s="3" t="s">
-        <v>2354</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
-        <v>2366</v>
+        <v>448</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>2364</v>
+        <v>54</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>2369</v>
+        <v>1500</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>2370</v>
+        <v>1752</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>2372</v>
+        <v>311</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>2373</v>
+        <v>1767</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>2374</v>
+        <v>103</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>2375</v>
+        <v>144</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>2376</v>
+        <v>1792</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>2377</v>
+        <v>2067</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>2378</v>
+        <v>193</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>2379</v>
+        <v>831</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>2380</v>
+        <v>228</v>
       </c>
       <c r="N253" s="3" t="s">
-        <v>2368</v>
+        <v>269</v>
       </c>
       <c r="O253" s="3" t="s">
-        <v>2367</v>
+        <v>911</v>
       </c>
       <c r="P253" s="3" t="s">
-        <v>2371</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
-        <v>1200</v>
+        <v>3473</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1048</v>
+        <v>3472</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>1552</v>
+        <v>3483</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>1891</v>
+        <v>3484</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>1176</v>
+        <v>3486</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>1906</v>
+        <v>3487</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>1177</v>
+        <v>3474</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1178</v>
+        <v>3475</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1922</v>
+        <v>3476</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>2222</v>
+        <v>3477</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>1179</v>
+        <v>3478</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>1180</v>
+        <v>3479</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>1181</v>
+        <v>3480</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>1182</v>
+        <v>3481</v>
       </c>
       <c r="O254" s="3" t="s">
-        <v>1183</v>
+        <v>3482</v>
       </c>
       <c r="P254" s="3" t="s">
-        <v>2219</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>1226</v>
+        <v>698</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1225</v>
+        <v>55</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1553</v>
+        <v>1501</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>1981</v>
+        <v>1753</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>1268</v>
+        <v>312</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>1984</v>
+        <v>1768</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>1293</v>
+        <v>104</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1294</v>
+        <v>145</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1987</v>
+        <v>1793</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>2223</v>
+        <v>2068</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>1295</v>
+        <v>194</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>1296</v>
+        <v>832</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>1297</v>
+        <v>229</v>
       </c>
       <c r="N255" s="3" t="s">
-        <v>1298</v>
+        <v>270</v>
       </c>
       <c r="O255" s="3" t="s">
-        <v>1299</v>
+        <v>912</v>
       </c>
       <c r="P255" s="3" t="s">
-        <v>2220</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>1040</v>
+        <v>2346</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>3187</v>
+        <v>2348</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1548</v>
+        <v>2353</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>3193</v>
+        <v>2349</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>3191</v>
+        <v>2355</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>3193</v>
+        <v>2352</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>3185</v>
+        <v>2350</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>3186</v>
+        <v>2351</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>3192</v>
+        <v>2356</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>2217</v>
+        <v>2357</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>3187</v>
+        <v>2358</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>3190</v>
+        <v>2359</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>3187</v>
+        <v>2360</v>
       </c>
       <c r="N256" s="3" t="s">
-        <v>3189</v>
+        <v>2361</v>
       </c>
       <c r="O256" s="3" t="s">
-        <v>3188</v>
+        <v>2362</v>
       </c>
       <c r="P256" s="3" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>2377</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>2379</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>2380</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="P257" s="3" t="s">
+        <v>2371</v>
+      </c>
+    </row>
     <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>694</v>
+        <v>1200</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>438</v>
+        <v>1048</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>1723</v>
+        <v>1891</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>631</v>
+        <v>1176</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>1732</v>
+        <v>1906</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>634</v>
+        <v>1177</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>653</v>
+        <v>1178</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1930</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>2037</v>
+        <v>1922</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>2222</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>680</v>
+        <v>1179</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>858</v>
+        <v>1180</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>638</v>
+        <v>1181</v>
       </c>
       <c r="N258" s="3" t="s">
-        <v>683</v>
+        <v>1182</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>438</v>
+        <v>1183</v>
       </c>
       <c r="P258" s="3" t="s">
-        <v>2028</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
-        <v>3210</v>
+        <v>1226</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1029</v>
+        <v>1225</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1584</v>
+        <v>1553</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>1898</v>
+        <v>1981</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>1090</v>
+        <v>1268</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1914</v>
+        <v>1984</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>1091</v>
+        <v>1293</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1082</v>
+        <v>1294</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1931</v>
+        <v>1987</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>2184</v>
+        <v>2223</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>1086</v>
+        <v>1295</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>1083</v>
+        <v>1296</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>1091</v>
+        <v>1297</v>
       </c>
       <c r="N259" s="3" t="s">
-        <v>1094</v>
+        <v>1298</v>
       </c>
       <c r="O259" s="3" t="s">
-        <v>1095</v>
+        <v>1299</v>
       </c>
       <c r="P259" s="3" t="s">
-        <v>2183</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
-        <v>3211</v>
+        <v>1040</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>3215</v>
+        <v>3187</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>3222</v>
+        <v>1548</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>3223</v>
+        <v>3193</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>3221</v>
+        <v>3191</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>3223</v>
+        <v>3193</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>3220</v>
+        <v>3185</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>3219</v>
+        <v>3186</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>3225</v>
+        <v>3192</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>3226</v>
+        <v>2217</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>3217</v>
+        <v>3187</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>3227</v>
+        <v>3190</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>3218</v>
+        <v>3187</v>
       </c>
       <c r="N260" s="3" t="s">
-        <v>3216</v>
+        <v>3189</v>
       </c>
       <c r="O260" s="3" t="s">
-        <v>3214</v>
+        <v>3188</v>
       </c>
       <c r="P260" s="3" t="s">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J261" s="4"/>
-    </row>
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>461</v>
+        <v>694</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>51</v>
+        <v>438</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>1496</v>
+        <v>1549</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>1783</v>
+        <v>1723</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>307</v>
+        <v>631</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>1784</v>
+        <v>1732</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>100</v>
+        <v>634</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>140</v>
+        <v>653</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="J262" s="3" t="s">
-        <v>2063</v>
+        <v>1930</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>2037</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>191</v>
+        <v>680</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>226</v>
+        <v>638</v>
       </c>
       <c r="N262" s="3" t="s">
-        <v>266</v>
+        <v>683</v>
       </c>
       <c r="O262" s="3" t="s">
-        <v>945</v>
+        <v>438</v>
       </c>
       <c r="P262" s="3" t="s">
-        <v>2046</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>462</v>
+        <v>3210</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>54</v>
+        <v>1029</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>1500</v>
+        <v>1584</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>1752</v>
+        <v>1898</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>311</v>
+        <v>1090</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>1767</v>
+        <v>1914</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>103</v>
+        <v>1091</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>144</v>
+        <v>1082</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>1792</v>
+        <v>1931</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>2067</v>
+        <v>2184</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>193</v>
+        <v>1086</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>831</v>
+        <v>1083</v>
       </c>
       <c r="M263" s="3" t="s">
-        <v>228</v>
+        <v>1091</v>
       </c>
       <c r="N263" s="3" t="s">
-        <v>269</v>
+        <v>1094</v>
       </c>
       <c r="O263" s="3" t="s">
-        <v>911</v>
+        <v>1095</v>
       </c>
       <c r="P263" s="3" t="s">
-        <v>2050</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>463</v>
+        <v>3211</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>53</v>
+        <v>3215</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>1499</v>
+        <v>3222</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>1751</v>
+        <v>3223</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>310</v>
+        <v>3221</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1763</v>
+        <v>3223</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>102</v>
+        <v>3220</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>143</v>
+        <v>3219</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>1791</v>
+        <v>3225</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>2066</v>
+        <v>3226</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>192</v>
+        <v>3217</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>830</v>
+        <v>3227</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>227</v>
+        <v>3218</v>
       </c>
       <c r="N264" s="3" t="s">
-        <v>268</v>
+        <v>3216</v>
       </c>
       <c r="O264" s="3" t="s">
-        <v>910</v>
+        <v>3214</v>
       </c>
       <c r="P264" s="3" t="s">
-        <v>2049</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H265" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="J265" s="3" t="s">
-        <v>2068</v>
-      </c>
-      <c r="K265" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="L265" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="M265" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="N265" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="O265" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="P265" s="3" t="s">
-        <v>2051</v>
-      </c>
+      <c r="J265" s="4"/>
     </row>
     <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>2347</v>
+        <v>461</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>2348</v>
+        <v>51</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>2353</v>
+        <v>1496</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>2349</v>
+        <v>1783</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>2355</v>
+        <v>307</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>2352</v>
+        <v>1784</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>2350</v>
+        <v>100</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>2351</v>
+        <v>140</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>2356</v>
+        <v>1788</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>2357</v>
+        <v>2063</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>2358</v>
+        <v>191</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>2359</v>
+        <v>828</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>2360</v>
+        <v>226</v>
       </c>
       <c r="N266" s="3" t="s">
-        <v>2361</v>
+        <v>266</v>
       </c>
       <c r="O266" s="3" t="s">
-        <v>2362</v>
+        <v>945</v>
       </c>
       <c r="P266" s="3" t="s">
-        <v>2354</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>2365</v>
+        <v>462</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>2364</v>
+        <v>54</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>2369</v>
+        <v>1500</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>2370</v>
+        <v>1752</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>2372</v>
+        <v>311</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>2373</v>
+        <v>1767</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>2374</v>
+        <v>103</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>2375</v>
+        <v>144</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>2376</v>
+        <v>1792</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>2377</v>
+        <v>2067</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>2378</v>
+        <v>193</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>2379</v>
+        <v>831</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>2380</v>
+        <v>228</v>
       </c>
       <c r="N267" s="3" t="s">
-        <v>2368</v>
+        <v>269</v>
       </c>
       <c r="O267" s="3" t="s">
-        <v>2367</v>
+        <v>911</v>
       </c>
       <c r="P267" s="3" t="s">
-        <v>2371</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>1030</v>
+        <v>463</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1031</v>
+        <v>53</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>1554</v>
+        <v>1499</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1726</v>
+        <v>1751</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>1735</v>
+        <v>1763</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>1719</v>
+        <v>1791</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>2224</v>
+        <v>2066</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N268" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="P268" s="3" t="s">
-        <v>2031</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N269" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O269" s="3" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="P269" s="3" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
-        <v>465</v>
+        <v>2347</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>439</v>
+        <v>2348</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>1550</v>
+        <v>2353</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>1979</v>
+        <v>2349</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>632</v>
+        <v>2355</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>1982</v>
+        <v>2352</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>637</v>
+        <v>2350</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>654</v>
+        <v>2351</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1985</v>
+        <v>2356</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>2065</v>
+        <v>2357</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>668</v>
+        <v>2358</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>861</v>
+        <v>2359</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>639</v>
+        <v>2360</v>
       </c>
       <c r="N270" s="3" t="s">
-        <v>605</v>
+        <v>2361</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>944</v>
+        <v>2362</v>
       </c>
       <c r="P270" s="3" t="s">
-        <v>2048</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
-        <v>466</v>
+        <v>2365</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>449</v>
+        <v>2364</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>1562</v>
+        <v>2369</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>1988</v>
+        <v>2370</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>716</v>
+        <v>2372</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>2000</v>
+        <v>2373</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>728</v>
+        <v>2374</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>667</v>
+        <v>2375</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>2012</v>
+        <v>2376</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>2307</v>
+        <v>2377</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>670</v>
+        <v>2378</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>862</v>
+        <v>2379</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>641</v>
+        <v>2380</v>
       </c>
       <c r="N271" s="3" t="s">
-        <v>752</v>
+        <v>2368</v>
       </c>
       <c r="O271" s="3" t="s">
-        <v>958</v>
+        <v>2367</v>
       </c>
       <c r="P271" s="3" t="s">
-        <v>2295</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>467</v>
+        <v>1030</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>450</v>
+        <v>1031</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>1989</v>
+        <v>1726</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>719</v>
+        <v>301</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>2001</v>
+        <v>1735</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>729</v>
+        <v>94</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>666</v>
+        <v>134</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>2013</v>
+        <v>1719</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>2308</v>
+        <v>2224</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>681</v>
+        <v>185</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>863</v>
+        <v>822</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>645</v>
+        <v>221</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>753</v>
+        <v>260</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>959</v>
+        <v>902</v>
       </c>
       <c r="P272" s="3" t="s">
-        <v>2296</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>451</v>
+        <v>50</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>1564</v>
+        <v>1495</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>1990</v>
+        <v>1748</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>720</v>
+        <v>306</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>2002</v>
+        <v>1764</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>730</v>
+        <v>99</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>665</v>
+        <v>139</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>2014</v>
+        <v>1787</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>2309</v>
+        <v>2062</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>682</v>
+        <v>190</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="M273" s="3" t="s">
-        <v>644</v>
+        <v>225</v>
       </c>
       <c r="N273" s="3" t="s">
-        <v>754</v>
+        <v>265</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>960</v>
+        <v>907</v>
       </c>
       <c r="P273" s="3" t="s">
-        <v>2297</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>721</v>
+        <v>632</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>2003</v>
+        <v>1982</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>2015</v>
+        <v>1985</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>2310</v>
+        <v>2065</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N274" s="3" t="s">
-        <v>685</v>
+        <v>605</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="P274" s="3" t="s">
-        <v>2298</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>969</v>
+        <v>862</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N275" s="3" t="s">
-        <v>686</v>
+        <v>752</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="P275" s="3" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>970</v>
+        <v>863</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N276" s="3" t="s">
-        <v>687</v>
+        <v>753</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="P276" s="3" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="N277" s="3" t="s">
-        <v>689</v>
+        <v>754</v>
       </c>
       <c r="O277" s="3" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="P277" s="3" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M278" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="N278" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="O278" s="3" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="P278" s="3" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>868</v>
+        <v>969</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N279" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="O279" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="P279" s="3" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>869</v>
+        <v>970</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="N280" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="O280" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="P280" s="3" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="M281" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="N281" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="O281" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="P281" s="3" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="N282" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="O282" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="P282" s="3" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>704</v>
+        <v>474</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>740</v>
+        <v>457</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>740</v>
+        <v>1570</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>740</v>
+        <v>1996</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>740</v>
+        <v>2008</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>740</v>
+        <v>661</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>740</v>
+        <v>2020</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>740</v>
+        <v>2315</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>740</v>
+        <v>868</v>
       </c>
       <c r="M283" s="3" t="s">
-        <v>740</v>
+        <v>649</v>
       </c>
       <c r="N283" s="3" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="O283" s="3" t="s">
-        <v>740</v>
+        <v>952</v>
       </c>
       <c r="P283" s="3" t="s">
-        <v>740</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>705</v>
+        <v>475</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>741</v>
+        <v>458</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>741</v>
+        <v>1571</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>741</v>
+        <v>1997</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>741</v>
+        <v>2009</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>741</v>
+        <v>662</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>741</v>
+        <v>2021</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>741</v>
+        <v>2316</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>741</v>
+        <v>677</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>741</v>
+        <v>869</v>
       </c>
       <c r="M284" s="3" t="s">
-        <v>741</v>
+        <v>650</v>
       </c>
       <c r="N284" s="3" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="O284" s="3" t="s">
-        <v>741</v>
+        <v>953</v>
       </c>
       <c r="P284" s="3" t="s">
-        <v>741</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>706</v>
+        <v>476</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>742</v>
+        <v>459</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>742</v>
+        <v>1572</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>742</v>
+        <v>1998</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>742</v>
+        <v>2010</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>742</v>
+        <v>663</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>742</v>
+        <v>2022</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>742</v>
+        <v>2317</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>742</v>
+        <v>678</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>742</v>
+        <v>870</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>742</v>
+        <v>651</v>
       </c>
       <c r="N285" s="3" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="O285" s="3" t="s">
-        <v>742</v>
+        <v>957</v>
       </c>
       <c r="P285" s="3" t="s">
-        <v>742</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>707</v>
+        <v>477</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>743</v>
+        <v>460</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>743</v>
+        <v>1573</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>743</v>
+        <v>1999</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>743</v>
+        <v>2011</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>743</v>
+        <v>664</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>743</v>
+        <v>2023</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>743</v>
+        <v>2318</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>743</v>
+        <v>679</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>743</v>
+        <v>871</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="N286" s="3" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
       <c r="O286" s="3" t="s">
-        <v>743</v>
+        <v>954</v>
       </c>
       <c r="P286" s="3" t="s">
-        <v>743</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="N287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="O287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="P287" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="M288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="N288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="O288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P288" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="N289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="P289" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="K290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="M290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="N290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="O290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="P290" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="K291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="M291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="N291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="O291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="P291" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="M292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="N292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="O292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="P292" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="M293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="N293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="P293" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="N294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="P294" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>3468</v>
+        <v>712</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>987</v>
+        <v>748</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>3504</v>
+        <v>748</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>3506</v>
+        <v>748</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>3511</v>
+        <v>748</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>3512</v>
+        <v>748</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>3539</v>
+        <v>748</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>3541</v>
+        <v>748</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>3518</v>
+        <v>748</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>3520</v>
+        <v>748</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>3537</v>
+        <v>748</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>3524</v>
+        <v>748</v>
       </c>
       <c r="M295" s="3" t="s">
-        <v>3526</v>
+        <v>748</v>
       </c>
       <c r="N295" s="3" t="s">
-        <v>3527</v>
+        <v>748</v>
       </c>
       <c r="O295" s="3" t="s">
-        <v>3502</v>
+        <v>748</v>
       </c>
       <c r="P295" s="3" t="s">
-        <v>3508</v>
+        <v>748</v>
       </c>
     </row>
     <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>3469</v>
+        <v>713</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>3470</v>
+        <v>749</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>3530</v>
+        <v>749</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>3531</v>
+        <v>749</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>3533</v>
+        <v>749</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>3534</v>
+        <v>749</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>3540</v>
+        <v>749</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>3542</v>
+        <v>749</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>3535</v>
+        <v>749</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>3536</v>
+        <v>749</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>3538</v>
+        <v>749</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>3543</v>
+        <v>749</v>
       </c>
       <c r="M296" s="3" t="s">
-        <v>3544</v>
+        <v>749</v>
       </c>
       <c r="N296" s="3" t="s">
-        <v>3545</v>
+        <v>749</v>
       </c>
       <c r="O296" s="3" t="s">
-        <v>3529</v>
+        <v>749</v>
       </c>
       <c r="P296" s="3" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="N297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="O297" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="P297" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
     <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>990</v>
+        <v>715</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>994</v>
+        <v>751</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1555</v>
+        <v>751</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1821</v>
+        <v>751</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>1114</v>
+        <v>751</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1825</v>
+        <v>751</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>1113</v>
+        <v>751</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>994</v>
+        <v>751</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>1829</v>
+        <v>751</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>2229</v>
+        <v>751</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>1131</v>
+        <v>751</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>1130</v>
+        <v>751</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>1113</v>
+        <v>751</v>
       </c>
       <c r="N298" s="3" t="s">
-        <v>1132</v>
+        <v>751</v>
       </c>
       <c r="O298" s="3" t="s">
-        <v>1133</v>
+        <v>751</v>
       </c>
       <c r="P298" s="3" t="s">
-        <v>2225</v>
+        <v>751</v>
       </c>
     </row>
     <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>991</v>
+        <v>3468</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1556</v>
+        <v>3504</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>1822</v>
+        <v>3506</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>1116</v>
+        <v>3511</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1826</v>
+        <v>3512</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>1117</v>
+        <v>3539</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>1115</v>
+        <v>3541</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>1830</v>
+        <v>3518</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>2230</v>
+        <v>3520</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>1127</v>
+        <v>3537</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>1128</v>
+        <v>3524</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>1129</v>
+        <v>3526</v>
       </c>
       <c r="N299" s="3" t="s">
-        <v>1139</v>
+        <v>3527</v>
       </c>
       <c r="O299" s="3" t="s">
-        <v>1138</v>
+        <v>3502</v>
       </c>
       <c r="P299" s="3" t="s">
-        <v>2226</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>992</v>
+        <v>3469</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>996</v>
+        <v>3470</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1557</v>
+        <v>3530</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1823</v>
+        <v>3531</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>1119</v>
+        <v>3533</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1827</v>
+        <v>3534</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>1118</v>
+        <v>3540</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>1120</v>
+        <v>3542</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>1831</v>
+        <v>3535</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>2231</v>
+        <v>3536</v>
       </c>
       <c r="K300" s="3" t="s">
-        <v>1125</v>
+        <v>3538</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>1126</v>
+        <v>3543</v>
       </c>
       <c r="M300" s="3" t="s">
-        <v>1118</v>
+        <v>3544</v>
       </c>
       <c r="N300" s="3" t="s">
-        <v>1136</v>
+        <v>3545</v>
       </c>
       <c r="O300" s="3" t="s">
-        <v>1137</v>
+        <v>3529</v>
       </c>
       <c r="P300" s="3" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G301" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I301" s="3" t="s">
-        <v>1832</v>
-      </c>
-      <c r="J301" s="3" t="s">
-        <v>2232</v>
-      </c>
-      <c r="K301" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="L301" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M301" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="N301" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="O301" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P301" s="3" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M302" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N302" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O302" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P302" s="3" t="s">
+        <v>2225</v>
+      </c>
+    </row>
     <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
-        <v>2412</v>
+        <v>991</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>3845</v>
+        <v>995</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>3843</v>
+        <v>1556</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>3844</v>
+        <v>1822</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>3846</v>
+        <v>1116</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>3847</v>
+        <v>1826</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>3848</v>
+        <v>1117</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>3849</v>
+        <v>1115</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>3850</v>
+        <v>1830</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>3851</v>
+        <v>2230</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>3852</v>
+        <v>1127</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>3853</v>
+        <v>1128</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>3854</v>
+        <v>1129</v>
       </c>
       <c r="N303" s="3" t="s">
-        <v>3855</v>
+        <v>1139</v>
       </c>
       <c r="O303" s="3" t="s">
-        <v>3856</v>
+        <v>1138</v>
       </c>
       <c r="P303" s="3" t="s">
-        <v>3857</v>
-      </c>
-    </row>
-    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N304" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O304" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="P304" s="3" t="s">
+        <v>2227</v>
+      </c>
+    </row>
     <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
-        <v>4003</v>
+        <v>993</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>4005</v>
+        <v>997</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>4010</v>
+        <v>1558</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>4011</v>
+        <v>1824</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>4012</v>
+        <v>1123</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>4013</v>
+        <v>1828</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>4014</v>
+        <v>1122</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>4015</v>
+        <v>1121</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>4016</v>
+        <v>1832</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>4017</v>
+        <v>2232</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>4018</v>
+        <v>1122</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>4019</v>
+        <v>1124</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>4020</v>
+        <v>1122</v>
       </c>
       <c r="N305" s="3" t="s">
-        <v>4009</v>
+        <v>1135</v>
       </c>
       <c r="O305" s="3" t="s">
-        <v>4008</v>
+        <v>1134</v>
       </c>
       <c r="P305" s="3" t="s">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="3" t="s">
-        <v>4004</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>4006</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>4026</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>4027</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>4028</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G306" s="3" t="s">
-        <v>4030</v>
-      </c>
-      <c r="H306" s="3" t="s">
-        <v>4031</v>
-      </c>
-      <c r="I306" s="3" t="s">
-        <v>4032</v>
-      </c>
-      <c r="J306" s="3" t="s">
-        <v>4033</v>
-      </c>
-      <c r="K306" s="3" t="s">
-        <v>4034</v>
-      </c>
-      <c r="L306" s="3" t="s">
-        <v>4022</v>
-      </c>
-      <c r="M306" s="3" t="s">
-        <v>4021</v>
-      </c>
-      <c r="N306" s="3" t="s">
-        <v>4023</v>
-      </c>
-      <c r="O306" s="3" t="s">
-        <v>4024</v>
-      </c>
-      <c r="P306" s="3" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G308" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H308" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I308" s="3" t="s">
-        <v>1813</v>
-      </c>
-      <c r="J308" s="3" t="s">
-        <v>2235</v>
-      </c>
-      <c r="K308" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L308" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="M308" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N308" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="O308" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="P308" s="3" t="s">
-        <v>2233</v>
-      </c>
-    </row>
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>3849</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>3850</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>3852</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="M307" s="3" t="s">
+        <v>3854</v>
+      </c>
+      <c r="N307" s="3" t="s">
+        <v>3855</v>
+      </c>
+      <c r="O307" s="3" t="s">
+        <v>3856</v>
+      </c>
+      <c r="P307" s="3" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
-        <v>38</v>
+        <v>4003</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>81</v>
+        <v>4005</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1560</v>
+        <v>4010</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>1811</v>
+        <v>4011</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>81</v>
+        <v>4012</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>1812</v>
+        <v>4013</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>118</v>
+        <v>4014</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>81</v>
+        <v>4015</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>1814</v>
+        <v>4016</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>2236</v>
+        <v>4017</v>
       </c>
       <c r="K309" s="3" t="s">
-        <v>209</v>
+        <v>4018</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>872</v>
+        <v>4019</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>243</v>
+        <v>4020</v>
       </c>
       <c r="N309" s="3" t="s">
-        <v>287</v>
+        <v>4009</v>
       </c>
       <c r="O309" s="3" t="s">
-        <v>935</v>
+        <v>4008</v>
       </c>
       <c r="P309" s="3" t="s">
-        <v>2234</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
-        <v>39</v>
+        <v>4004</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>82</v>
+        <v>4006</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1561</v>
+        <v>4026</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>1816</v>
+        <v>4027</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>330</v>
+        <v>4028</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>1817</v>
+        <v>4029</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>119</v>
+        <v>4030</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>162</v>
+        <v>4031</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1815</v>
+        <v>4032</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>2237</v>
+        <v>4033</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>210</v>
+        <v>4034</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>873</v>
+        <v>4022</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>244</v>
+        <v>4021</v>
       </c>
       <c r="N310" s="3" t="s">
-        <v>288</v>
+        <v>4023</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>936</v>
+        <v>4024</v>
       </c>
       <c r="P310" s="3" t="s">
-        <v>2238</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
-        <v>3656</v>
+        <v>40</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>3658</v>
+        <v>79</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>356</v>
+        <v>128</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>1713</v>
+        <v>1813</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>2118</v>
+        <v>2235</v>
       </c>
       <c r="K312" s="3" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="N312" s="3" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="P312" s="3" t="s">
-        <v>2111</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
-        <v>3657</v>
+        <v>38</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="M313" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N313" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="P313" s="3" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="3" t="s">
-        <v>3660</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>3659</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>3705</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>3692</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>3693</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>3694</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>3695</v>
-      </c>
-      <c r="H315" s="3" t="s">
-        <v>3696</v>
-      </c>
-      <c r="I315" s="3" t="s">
-        <v>3697</v>
-      </c>
-      <c r="J315" s="3" t="s">
-        <v>3698</v>
-      </c>
-      <c r="K315" s="3" t="s">
-        <v>3699</v>
-      </c>
-      <c r="L315" s="3" t="s">
-        <v>3700</v>
-      </c>
-      <c r="M315" s="3" t="s">
-        <v>3701</v>
-      </c>
-      <c r="N315" s="3" t="s">
-        <v>3702</v>
-      </c>
-      <c r="O315" s="3" t="s">
-        <v>3703</v>
-      </c>
-      <c r="P315" s="3" t="s">
-        <v>3704</v>
-      </c>
-    </row>
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N314" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O314" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="P314" s="3" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
-        <v>3661</v>
+        <v>3656</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>2397</v>
+        <v>3658</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>2398</v>
+        <v>1481</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>2399</v>
+        <v>1695</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>2401</v>
+        <v>358</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>2402</v>
-      </c>
-      <c r="G316" s="4" t="s">
-        <v>2403</v>
+        <v>1704</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>2404</v>
+        <v>356</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>2405</v>
+        <v>1713</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>2406</v>
+        <v>2118</v>
       </c>
       <c r="K316" s="3" t="s">
-        <v>2407</v>
+        <v>355</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>2408</v>
+        <v>814</v>
       </c>
       <c r="M316" s="3" t="s">
-        <v>2409</v>
+        <v>354</v>
       </c>
       <c r="N316" s="3" t="s">
-        <v>2410</v>
+        <v>353</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>2411</v>
+        <v>896</v>
       </c>
       <c r="P316" s="3" t="s">
-        <v>2400</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G317" s="4"/>
-    </row>
-    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="3" t="s">
-        <v>3670</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>3668</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>3706</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>3712</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>3741</v>
-      </c>
-      <c r="G318" s="4" t="s">
-        <v>3711</v>
-      </c>
-      <c r="H318" s="3" t="s">
-        <v>3710</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>3742</v>
-      </c>
-      <c r="J318" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="K318" s="3" t="s">
-        <v>3709</v>
-      </c>
-      <c r="L318" s="3" t="s">
-        <v>3750</v>
-      </c>
-      <c r="M318" s="3" t="s">
-        <v>3708</v>
-      </c>
-      <c r="N318" s="3" t="s">
-        <v>3754</v>
-      </c>
-      <c r="O318" s="3" t="s">
-        <v>3760</v>
-      </c>
-      <c r="P318" s="3" t="s">
-        <v>3707</v>
-      </c>
-    </row>
+      <c r="A317" s="3" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N317" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O317" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="P317" s="3" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
-        <v>3671</v>
+        <v>3660</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>3669</v>
+        <v>3659</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>3719</v>
+        <v>3705</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>3734</v>
+        <v>3692</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>3713</v>
+        <v>3693</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>3740</v>
-      </c>
-      <c r="G319" s="4" t="s">
-        <v>3714</v>
+        <v>3694</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>3695</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>3715</v>
+        <v>3696</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>3743</v>
+        <v>3697</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>3747</v>
+        <v>3698</v>
       </c>
       <c r="K319" s="3" t="s">
-        <v>3716</v>
+        <v>3699</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>3751</v>
+        <v>3700</v>
       </c>
       <c r="M319" s="3" t="s">
-        <v>3717</v>
+        <v>3701</v>
       </c>
       <c r="N319" s="3" t="s">
-        <v>3755</v>
+        <v>3702</v>
       </c>
       <c r="O319" s="3" t="s">
-        <v>3761</v>
+        <v>3703</v>
       </c>
       <c r="P319" s="3" t="s">
-        <v>3718</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
-        <v>3688</v>
+        <v>3661</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>3689</v>
+        <v>2397</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>3720</v>
+        <v>2398</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>3735</v>
+        <v>2399</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>3726</v>
+        <v>2401</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>3739</v>
+        <v>2402</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>3724</v>
+        <v>2403</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>3725</v>
+        <v>2404</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>3744</v>
+        <v>2405</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>3748</v>
+        <v>2406</v>
       </c>
       <c r="K320" s="3" t="s">
-        <v>3722</v>
+        <v>2407</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>3752</v>
+        <v>2408</v>
       </c>
       <c r="M320" s="3" t="s">
-        <v>3723</v>
+        <v>2409</v>
       </c>
       <c r="N320" s="3" t="s">
-        <v>3756</v>
+        <v>2410</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>3758</v>
+        <v>2411</v>
       </c>
       <c r="P320" s="3" t="s">
-        <v>3721</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="3" t="s">
-        <v>3690</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>3691</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>3737</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>3736</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>3727</v>
-      </c>
-      <c r="F321" s="3" t="s">
-        <v>3738</v>
-      </c>
-      <c r="G321" s="4" t="s">
-        <v>3729</v>
-      </c>
-      <c r="H321" s="3" t="s">
-        <v>3728</v>
-      </c>
-      <c r="I321" s="3" t="s">
-        <v>3745</v>
-      </c>
-      <c r="J321" s="3" t="s">
-        <v>3749</v>
-      </c>
-      <c r="K321" s="3" t="s">
-        <v>3730</v>
-      </c>
-      <c r="L321" s="3" t="s">
-        <v>3753</v>
-      </c>
-      <c r="M321" s="3" t="s">
-        <v>3731</v>
-      </c>
-      <c r="N321" s="3" t="s">
-        <v>3757</v>
-      </c>
-      <c r="O321" s="3" t="s">
-        <v>3759</v>
-      </c>
-      <c r="P321" s="3" t="s">
-        <v>3732</v>
-      </c>
+      <c r="G321" s="4"/>
     </row>
     <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
-        <v>3676</v>
+        <v>3670</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>2428</v>
+        <v>3668</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>2585</v>
+        <v>3706</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>2584</v>
+        <v>3733</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>2443</v>
+        <v>3712</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>2559</v>
-      </c>
-      <c r="G322" s="3" t="s">
-        <v>2453</v>
+        <v>3741</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>3711</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>2464</v>
+        <v>3710</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>2546</v>
+        <v>3742</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>2533</v>
+        <v>3746</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>2475</v>
+        <v>3709</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>2521</v>
+        <v>3750</v>
       </c>
       <c r="M322" s="3" t="s">
-        <v>2494</v>
+        <v>3708</v>
       </c>
       <c r="N322" s="3" t="s">
-        <v>2495</v>
+        <v>3754</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>2507</v>
+        <v>3760</v>
       </c>
       <c r="P322" s="3" t="s">
-        <v>2598</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
-        <v>3677</v>
+        <v>3671</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>2432</v>
+        <v>3669</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>2586</v>
+        <v>3719</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>2572</v>
+        <v>3734</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>2432</v>
+        <v>3713</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>2560</v>
-      </c>
-      <c r="G323" s="3" t="s">
-        <v>2454</v>
+        <v>3740</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>3714</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>2465</v>
+        <v>3715</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>2547</v>
+        <v>3743</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>2534</v>
+        <v>3747</v>
       </c>
       <c r="K323" s="3" t="s">
-        <v>2476</v>
+        <v>3716</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>2522</v>
+        <v>3751</v>
       </c>
       <c r="M323" s="3" t="s">
-        <v>2454</v>
+        <v>3717</v>
       </c>
       <c r="N323" s="3" t="s">
-        <v>2496</v>
+        <v>3755</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>2508</v>
+        <v>3761</v>
       </c>
       <c r="P323" s="3" t="s">
-        <v>2599</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
-        <v>3678</v>
+        <v>3688</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>2431</v>
+        <v>3689</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>2587</v>
+        <v>3720</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>2573</v>
+        <v>3735</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>1069</v>
+        <v>3726</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>2561</v>
-      </c>
-      <c r="G324" s="3" t="s">
-        <v>1075</v>
+        <v>3739</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>3724</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>1076</v>
+        <v>3725</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>2548</v>
+        <v>3744</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>2535</v>
+        <v>3748</v>
       </c>
       <c r="K324" s="3" t="s">
-        <v>2477</v>
+        <v>3722</v>
       </c>
       <c r="L324" s="3" t="s">
-        <v>1078</v>
+        <v>3752</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>1074</v>
+        <v>3723</v>
       </c>
       <c r="N324" s="3" t="s">
-        <v>1072</v>
+        <v>3756</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>2509</v>
+        <v>3758</v>
       </c>
       <c r="P324" s="3" t="s">
-        <v>2600</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
-        <v>3674</v>
+        <v>3690</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>2429</v>
+        <v>3691</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>2588</v>
+        <v>3737</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>2574</v>
+        <v>3736</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>2429</v>
+        <v>3727</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>2562</v>
-      </c>
-      <c r="G325" s="3" t="s">
-        <v>2455</v>
+        <v>3738</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>3729</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>2466</v>
+        <v>3728</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>2549</v>
+        <v>3745</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>2536</v>
+        <v>3749</v>
       </c>
       <c r="K325" s="3" t="s">
-        <v>2429</v>
+        <v>3730</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>2523</v>
+        <v>3753</v>
       </c>
       <c r="M325" s="3" t="s">
-        <v>2455</v>
+        <v>3731</v>
       </c>
       <c r="N325" s="3" t="s">
-        <v>2497</v>
+        <v>3757</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>2520</v>
+        <v>3759</v>
       </c>
       <c r="P325" s="3" t="s">
-        <v>2601</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>2575</v>
+        <v>2584</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>2430</v>
+        <v>2464</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="K326" s="3" t="s">
-        <v>2456</v>
+        <v>2475</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="M326" s="3" t="s">
-        <v>2456</v>
+        <v>2494</v>
       </c>
       <c r="N326" s="3" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="P326" s="3" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="327" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>2445</v>
+        <v>2432</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="K327" s="3" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="L327" s="3" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="M327" s="3" t="s">
-        <v>2486</v>
+        <v>2454</v>
       </c>
       <c r="N327" s="3" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="P327" s="3" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="328" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>2446</v>
+        <v>1069</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>2458</v>
+        <v>1075</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>2468</v>
+        <v>1076</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="K328" s="3" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>2526</v>
+        <v>1078</v>
       </c>
       <c r="M328" s="3" t="s">
-        <v>2487</v>
+        <v>1074</v>
       </c>
       <c r="N328" s="3" t="s">
-        <v>2500</v>
+        <v>1072</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="P328" s="3" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="329" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
-        <v>3681</v>
+        <v>3674</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>2447</v>
+        <v>2429</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>2519</v>
+        <v>2455</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="K329" s="3" t="s">
-        <v>2480</v>
+        <v>2429</v>
       </c>
       <c r="L329" s="3" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="M329" s="3" t="s">
-        <v>2488</v>
+        <v>2455</v>
       </c>
       <c r="N329" s="3" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="P329" s="3" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="330" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>3682</v>
+        <v>3675</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>2474</v>
+        <v>2430</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="K330" s="3" t="s">
-        <v>2485</v>
+        <v>2456</v>
       </c>
       <c r="L330" s="3" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="M330" s="3" t="s">
-        <v>2489</v>
+        <v>2456</v>
       </c>
       <c r="N330" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="P330" s="3" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="331" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
-        <v>3683</v>
+        <v>3679</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>2452</v>
+        <v>2445</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>2473</v>
+        <v>2467</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="K331" s="3" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
       <c r="L331" s="3" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="M331" s="3" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="N331" s="3" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="O331" s="3" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="P331" s="3" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="332" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
-        <v>3684</v>
+        <v>3680</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>2596</v>
+        <v>2591</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>2570</v>
+        <v>2565</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>2557</v>
+        <v>2552</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="K332" s="3" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="L332" s="3" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="M332" s="3" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="N332" s="3" t="s">
-        <v>2505</v>
+        <v>2500</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="P332" s="3" t="s">
-        <v>2609</v>
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="3" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>2469</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="M333" s="3" t="s">
+        <v>2488</v>
+      </c>
+      <c r="N333" s="3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="O333" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="P333" s="3" t="s">
+        <v>2605</v>
       </c>
     </row>
     <row r="334" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
-        <v>3364</v>
+        <v>3682</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>3365</v>
+        <v>2436</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>3370</v>
+        <v>2593</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>3371</v>
+        <v>2579</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>3373</v>
+        <v>2448</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>3374</v>
+        <v>2567</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>3375</v>
+        <v>2459</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>3376</v>
+        <v>2474</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>3368</v>
+        <v>2554</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>3369</v>
+        <v>2541</v>
       </c>
       <c r="K334" s="3" t="s">
-        <v>3377</v>
+        <v>2485</v>
       </c>
       <c r="L334" s="3" t="s">
-        <v>3378</v>
+        <v>2528</v>
       </c>
       <c r="M334" s="3" t="s">
-        <v>3379</v>
+        <v>2489</v>
       </c>
       <c r="N334" s="3" t="s">
-        <v>3380</v>
+        <v>2502</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>3381</v>
+        <v>2512</v>
       </c>
       <c r="P334" s="3" t="s">
-        <v>3372</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="335" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
-        <v>3687</v>
+        <v>3683</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>3766</v>
+        <v>2437</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>3767</v>
+        <v>2594</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>3768</v>
+        <v>2580</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>3769</v>
+        <v>2452</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>3770</v>
+        <v>2568</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>3771</v>
+        <v>2460</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>3772</v>
+        <v>2473</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>3773</v>
+        <v>2555</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>3774</v>
+        <v>2542</v>
       </c>
       <c r="K335" s="3" t="s">
-        <v>3775</v>
+        <v>2484</v>
       </c>
       <c r="L335" s="3" t="s">
-        <v>3765</v>
+        <v>2529</v>
       </c>
       <c r="M335" s="3" t="s">
-        <v>3776</v>
+        <v>2490</v>
       </c>
       <c r="N335" s="3" t="s">
-        <v>3764</v>
+        <v>2503</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>3762</v>
+        <v>2513</v>
       </c>
       <c r="P335" s="3" t="s">
-        <v>3763</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="336" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
-        <v>3354</v>
+        <v>3684</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>3355</v>
+        <v>2440</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>3393</v>
+        <v>2596</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>3394</v>
+        <v>2582</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>3390</v>
+        <v>2450</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>3391</v>
+        <v>2570</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>3384</v>
+        <v>2463</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>3385</v>
+        <v>2472</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>3392</v>
+        <v>2557</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>3389</v>
+        <v>2544</v>
       </c>
       <c r="K336" s="3" t="s">
-        <v>3386</v>
+        <v>2483</v>
       </c>
       <c r="L336" s="3" t="s">
-        <v>3388</v>
+        <v>2531</v>
       </c>
       <c r="M336" s="3" t="s">
-        <v>3387</v>
+        <v>2492</v>
       </c>
       <c r="N336" s="3" t="s">
-        <v>3383</v>
+        <v>2505</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>3382</v>
+        <v>2516</v>
       </c>
       <c r="P336" s="3" t="s">
-        <v>3395</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="3" t="s">
-        <v>3356</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>3360</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>3399</v>
-      </c>
-      <c r="F337" s="3" t="s">
-        <v>3400</v>
-      </c>
-      <c r="G337" s="3" t="s">
-        <v>3401</v>
-      </c>
-      <c r="H337" s="3" t="s">
-        <v>3402</v>
-      </c>
-      <c r="I337" s="3" t="s">
-        <v>3403</v>
-      </c>
-      <c r="J337" s="3" t="s">
-        <v>3404</v>
-      </c>
-      <c r="K337" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="L337" s="3" t="s">
-        <v>3406</v>
-      </c>
-      <c r="M337" s="3" t="s">
-        <v>3407</v>
-      </c>
-      <c r="N337" s="3" t="s">
-        <v>3408</v>
-      </c>
-      <c r="O337" s="3" t="s">
-        <v>3409</v>
-      </c>
-      <c r="P337" s="3" t="s">
-        <v>3396</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="338" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
-        <v>3357</v>
+        <v>3364</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>3361</v>
+        <v>3365</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>3412</v>
+        <v>3370</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>3413</v>
+        <v>3371</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>3415</v>
+        <v>3373</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>3416</v>
+        <v>3374</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>3417</v>
+        <v>3375</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>3418</v>
+        <v>3376</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>3419</v>
+        <v>3368</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>3420</v>
+        <v>3369</v>
       </c>
       <c r="K338" s="3" t="s">
-        <v>3421</v>
+        <v>3377</v>
       </c>
       <c r="L338" s="3" t="s">
-        <v>3422</v>
+        <v>3378</v>
       </c>
       <c r="M338" s="3" t="s">
-        <v>3423</v>
+        <v>3379</v>
       </c>
       <c r="N338" s="3" t="s">
-        <v>3411</v>
+        <v>3380</v>
       </c>
       <c r="O338" s="3" t="s">
-        <v>3410</v>
+        <v>3381</v>
       </c>
       <c r="P338" s="3" t="s">
-        <v>3414</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="339" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
-        <v>3358</v>
+        <v>3687</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>3362</v>
+        <v>3766</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>3429</v>
+        <v>3767</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>3430</v>
+        <v>3768</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>3432</v>
+        <v>3769</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>3433</v>
+        <v>3770</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>3434</v>
+        <v>3771</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>3435</v>
+        <v>3772</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>3436</v>
+        <v>3773</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>3437</v>
+        <v>3774</v>
       </c>
       <c r="K339" s="3" t="s">
-        <v>3425</v>
+        <v>3775</v>
       </c>
       <c r="L339" s="3" t="s">
-        <v>3426</v>
+        <v>3765</v>
       </c>
       <c r="M339" s="3" t="s">
-        <v>3424</v>
+        <v>3776</v>
       </c>
       <c r="N339" s="3" t="s">
-        <v>3427</v>
+        <v>3764</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>3428</v>
+        <v>3762</v>
       </c>
       <c r="P339" s="3" t="s">
-        <v>3431</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="340" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>3391</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>3384</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>3385</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>3392</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>3389</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>3386</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>3387</v>
+      </c>
+      <c r="N340" s="3" t="s">
+        <v>3383</v>
+      </c>
+      <c r="O340" s="3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="P340" s="3" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>3400</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>3401</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>3406</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="N341" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="O341" s="3" t="s">
+        <v>3409</v>
+      </c>
+      <c r="P341" s="3" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="M342" s="3" t="s">
+        <v>3423</v>
+      </c>
+      <c r="N342" s="3" t="s">
+        <v>3411</v>
+      </c>
+      <c r="O342" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="P342" s="3" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>3435</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>3426</v>
+      </c>
+      <c r="M343" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="N343" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="O343" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="P343" s="3" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="3" t="s">
         <v>3359</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B344" s="3" t="s">
         <v>3363</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C344" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="D344" s="3" t="s">
         <v>3445</v>
       </c>
-      <c r="E340" s="3" t="s">
+      <c r="E344" s="3" t="s">
         <v>3448</v>
       </c>
-      <c r="F340" s="3" t="s">
+      <c r="F344" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="G340" s="3" t="s">
+      <c r="G344" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="H340" s="3" t="s">
+      <c r="H344" s="3" t="s">
         <v>3451</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="I344" s="3" t="s">
         <v>3439</v>
       </c>
-      <c r="J340" s="3" t="s">
+      <c r="J344" s="3" t="s">
         <v>3438</v>
       </c>
-      <c r="K340" s="3" t="s">
+      <c r="K344" s="3" t="s">
         <v>3440</v>
       </c>
-      <c r="L340" s="3" t="s">
+      <c r="L344" s="3" t="s">
         <v>3441</v>
       </c>
-      <c r="M340" s="3" t="s">
+      <c r="M344" s="3" t="s">
         <v>3442</v>
       </c>
-      <c r="N340" s="3" t="s">
+      <c r="N344" s="3" t="s">
         <v>3443</v>
       </c>
-      <c r="O340" s="3" t="s">
+      <c r="O344" s="3" t="s">
         <v>3444</v>
       </c>
-      <c r="P340" s="3" t="s">
+      <c r="P344" s="3" t="s">
         <v>3447</v>
       </c>
     </row>
-    <row r="341" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="3" t="s">
+    <row r="345" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="3" t="s">
         <v>3366</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B345" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C345" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D345" s="3" t="s">
         <v>3462</v>
       </c>
-      <c r="E341" s="3" t="s">
+      <c r="E345" s="3" t="s">
         <v>3464</v>
       </c>
-      <c r="F341" s="3" t="s">
+      <c r="F345" s="3" t="s">
         <v>3465</v>
       </c>
-      <c r="G341" s="3" t="s">
+      <c r="G345" s="3" t="s">
         <v>3453</v>
       </c>
-      <c r="H341" s="3" t="s">
+      <c r="H345" s="3" t="s">
         <v>3452</v>
       </c>
-      <c r="I341" s="3" t="s">
+      <c r="I345" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="J341" s="3" t="s">
+      <c r="J345" s="3" t="s">
         <v>3455</v>
       </c>
-      <c r="K341" s="3" t="s">
+      <c r="K345" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="L341" s="3" t="s">
+      <c r="L345" s="3" t="s">
         <v>3458</v>
       </c>
-      <c r="M341" s="4" t="s">
+      <c r="M345" s="4" t="s">
         <v>3456</v>
       </c>
-      <c r="N341" s="3" t="s">
+      <c r="N345" s="3" t="s">
         <v>3459</v>
       </c>
-      <c r="O341" s="3" t="s">
+      <c r="O345" s="3" t="s">
         <v>3460</v>
       </c>
-      <c r="P341" s="3" t="s">
+      <c r="P345" s="3" t="s">
         <v>3463</v>
       </c>
     </row>

--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0439D0-19A9-47EC-A400-CED95D05A137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC2AB2-E020-4CCE-9F4C-A1F15631A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7210" yWindow="2910" windowWidth="28800" windowHeight="15460" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="4174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="4232">
   <si>
     <t>Temperature</t>
   </si>
@@ -12547,6 +12547,180 @@
   </si>
   <si>
     <t>_Close</t>
+  </si>
+  <si>
+    <t>ENUM:PeriodUnits:Hour</t>
+  </si>
+  <si>
+    <t>ENUM:PeriodUnits:Day</t>
+  </si>
+  <si>
+    <t>ENUM:PeriodUnits:Week</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>ENUM:PeriodTypes:PRN</t>
+  </si>
+  <si>
+    <t>ENUM:PeriodTypes:Once</t>
+  </si>
+  <si>
+    <t>ENUM:PeriodTypes:Repeats</t>
+  </si>
+  <si>
+    <t>PRN</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Repeats</t>
+  </si>
+  <si>
+    <t>ENUM:Priorities:Stat</t>
+  </si>
+  <si>
+    <t>ENUM:Priorities:Now</t>
+  </si>
+  <si>
+    <t>ENUM:Priorities:Routine</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:L</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:ML</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:G</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:MG</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:MCG</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:IU</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:Puff</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:Drop</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:ML_HR</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:MCG_HR</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:ML_KG_HR</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:MCG_KG_MIN</t>
+  </si>
+  <si>
+    <t>ENUM:Routes:PO</t>
+  </si>
+  <si>
+    <t>ENUM:Routes:IV</t>
+  </si>
+  <si>
+    <t>ENUM:TimeStatuses:Pending</t>
+  </si>
+  <si>
+    <t>ENUM:TimeStatuses:Late</t>
+  </si>
+  <si>
+    <t>ENUM:AdministrationStatuses:Administered</t>
+  </si>
+  <si>
+    <t>ENUM:AdministrationStatuses:NotAdministered</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Routine</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Administered</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>grams</t>
+  </si>
+  <si>
+    <t>mcg</t>
+  </si>
+  <si>
+    <t>mEq</t>
+  </si>
+  <si>
+    <t>ENUM:DoseUnits:MEQ</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>puffs</t>
+  </si>
+  <si>
+    <t>drops</t>
+  </si>
+  <si>
+    <t>mL/hr</t>
+  </si>
+  <si>
+    <t>mcg/hr</t>
+  </si>
+  <si>
+    <t>mL/kg/hr</t>
+  </si>
+  <si>
+    <t>mcg/kg/min</t>
+  </si>
+  <si>
+    <t>Not Administered</t>
+  </si>
+  <si>
+    <t>ENUM:PeriodUnits:Minute</t>
+  </si>
+  <si>
+    <t>Minute</t>
   </si>
 </sst>
 </file>
@@ -12930,28 +13104,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P351"/>
+  <dimension ref="A1:P381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A245" sqref="A245"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.7265625" style="2"/>
-    <col min="3" max="4" width="60.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="60.7265625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="60.7265625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="60.7265625" style="3" customWidth="1"/>
-    <col min="11" max="15" width="60.7265625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="60.7265625" style="3"/>
-    <col min="17" max="16384" width="60.7265625" style="2"/>
+    <col min="1" max="1" width="41.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="2"/>
+    <col min="3" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="60.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="60.7109375" style="3" customWidth="1"/>
+    <col min="11" max="15" width="60.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" style="3"/>
+    <col min="17" max="16384" width="60.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13001,7 +13175,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3973</v>
       </c>
@@ -13051,7 +13225,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3974</v>
       </c>
@@ -13101,7 +13275,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -13151,7 +13325,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -13201,7 +13375,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
@@ -13251,7 +13425,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3292</v>
       </c>
@@ -13301,8 +13475,8 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>365</v>
       </c>
@@ -13352,7 +13526,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>332</v>
       </c>
@@ -13402,7 +13576,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>359</v>
       </c>
@@ -13452,7 +13626,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>699</v>
       </c>
@@ -13502,7 +13676,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1021</v>
       </c>
@@ -13552,7 +13726,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1203</v>
       </c>
@@ -13602,7 +13776,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3466</v>
       </c>
@@ -13652,7 +13826,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>4168</v>
       </c>
@@ -13662,8 +13836,8 @@
       <c r="D17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1044</v>
       </c>
@@ -13713,7 +13887,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1043</v>
       </c>
@@ -13763,8 +13937,8 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>389</v>
       </c>
@@ -13814,7 +13988,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>390</v>
       </c>
@@ -13864,7 +14038,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>391</v>
       </c>
@@ -13914,7 +14088,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>392</v>
       </c>
@@ -13964,7 +14138,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>393</v>
       </c>
@@ -14014,7 +14188,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>394</v>
       </c>
@@ -14064,7 +14238,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>395</v>
       </c>
@@ -14114,7 +14288,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>396</v>
       </c>
@@ -14164,7 +14338,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3194</v>
       </c>
@@ -14214,7 +14388,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>397</v>
       </c>
@@ -14264,7 +14438,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>398</v>
       </c>
@@ -14314,7 +14488,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>399</v>
       </c>
@@ -14364,7 +14538,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>2848</v>
       </c>
@@ -14414,7 +14588,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>2850</v>
       </c>
@@ -14464,7 +14638,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>400</v>
       </c>
@@ -14514,7 +14688,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>2849</v>
       </c>
@@ -14564,7 +14738,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>401</v>
       </c>
@@ -14614,7 +14788,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>402</v>
       </c>
@@ -14664,7 +14838,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>403</v>
       </c>
@@ -14714,7 +14888,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>404</v>
       </c>
@@ -14764,7 +14938,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>405</v>
       </c>
@@ -14814,7 +14988,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>406</v>
       </c>
@@ -14864,7 +15038,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>407</v>
       </c>
@@ -14914,7 +15088,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>408</v>
       </c>
@@ -14964,7 +15138,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>409</v>
       </c>
@@ -15014,7 +15188,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>410</v>
       </c>
@@ -15064,7 +15238,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>411</v>
       </c>
@@ -15114,7 +15288,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>412</v>
       </c>
@@ -15164,7 +15338,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>388</v>
       </c>
@@ -15214,7 +15388,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>2786</v>
       </c>
@@ -15264,7 +15438,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>415</v>
       </c>
@@ -15314,7 +15488,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>2787</v>
       </c>
@@ -15364,7 +15538,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>2788</v>
       </c>
@@ -15414,7 +15588,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>2789</v>
       </c>
@@ -15464,7 +15638,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>2847</v>
       </c>
@@ -15514,7 +15688,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>414</v>
       </c>
@@ -15564,7 +15738,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>2904</v>
       </c>
@@ -15614,7 +15788,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>2920</v>
       </c>
@@ -15664,7 +15838,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2936</v>
       </c>
@@ -15714,7 +15888,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>2952</v>
       </c>
@@ -15764,7 +15938,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>4103</v>
       </c>
@@ -15814,7 +15988,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>998</v>
       </c>
@@ -15864,7 +16038,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>999</v>
       </c>
@@ -15914,7 +16088,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1000</v>
       </c>
@@ -15964,7 +16138,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1001</v>
       </c>
@@ -16014,7 +16188,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>2984</v>
       </c>
@@ -16064,7 +16238,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>2985</v>
       </c>
@@ -16111,7 +16285,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>2986</v>
       </c>
@@ -16161,7 +16335,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>2987</v>
       </c>
@@ -16211,7 +16385,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -16261,7 +16435,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>3060</v>
       </c>
@@ -16311,7 +16485,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>6</v>
       </c>
@@ -16361,7 +16535,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -16411,7 +16585,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
@@ -16461,7 +16635,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>3662</v>
       </c>
@@ -16511,7 +16685,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>3672</v>
       </c>
@@ -16561,7 +16735,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>3664</v>
       </c>
@@ -16611,7 +16785,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>3665</v>
       </c>
@@ -16661,7 +16835,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>334</v>
       </c>
@@ -16711,7 +16885,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>3919</v>
       </c>
@@ -16761,7 +16935,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>336</v>
       </c>
@@ -16811,7 +16985,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
@@ -16861,7 +17035,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>3686</v>
       </c>
@@ -16911,7 +17085,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
@@ -16961,8 +17135,8 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>30</v>
       </c>
@@ -17012,7 +17186,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>31</v>
       </c>
@@ -17062,7 +17236,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>32</v>
       </c>
@@ -17112,7 +17286,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>33</v>
       </c>
@@ -17162,7 +17336,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>34</v>
       </c>
@@ -17212,7 +17386,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
@@ -17262,7 +17436,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>972</v>
       </c>
@@ -17312,7 +17486,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>36</v>
       </c>
@@ -17362,7 +17536,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>37</v>
       </c>
@@ -17412,7 +17586,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>4164</v>
       </c>
@@ -17420,7 +17594,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>4165</v>
       </c>
@@ -17428,9 +17602,9 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>2438</v>
       </c>
@@ -17480,7 +17654,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>2441</v>
       </c>
@@ -17530,7 +17704,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>3290</v>
       </c>
@@ -17580,8 +17754,8 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>2902</v>
       </c>
@@ -17631,7 +17805,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>3116</v>
       </c>
@@ -17681,7 +17855,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>3108</v>
       </c>
@@ -17731,7 +17905,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>3109</v>
       </c>
@@ -17781,7 +17955,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>3110</v>
       </c>
@@ -17831,7 +18005,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>3113</v>
       </c>
@@ -17881,7 +18055,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>3076</v>
       </c>
@@ -17931,7 +18105,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>3077</v>
       </c>
@@ -17981,8 +18155,8 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>23</v>
       </c>
@@ -18032,7 +18206,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>11</v>
       </c>
@@ -18082,7 +18256,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>12</v>
       </c>
@@ -18132,7 +18306,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>13</v>
       </c>
@@ -18182,7 +18356,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>14</v>
       </c>
@@ -18232,7 +18406,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>15</v>
       </c>
@@ -18282,7 +18456,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>16</v>
       </c>
@@ -18332,7 +18506,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
@@ -18382,7 +18556,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>18</v>
       </c>
@@ -18432,7 +18606,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>3471</v>
       </c>
@@ -18482,7 +18656,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>19</v>
       </c>
@@ -18532,7 +18706,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>2345</v>
       </c>
@@ -18582,7 +18756,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>2363</v>
       </c>
@@ -18632,7 +18806,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>20</v>
       </c>
@@ -18682,7 +18856,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>21</v>
       </c>
@@ -18732,7 +18906,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>2717</v>
       </c>
@@ -18782,7 +18956,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>22</v>
       </c>
@@ -18832,7 +19006,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>24</v>
       </c>
@@ -18882,7 +19056,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>25</v>
       </c>
@@ -18932,7 +19106,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>26</v>
       </c>
@@ -18982,7 +19156,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>27</v>
       </c>
@@ -19032,7 +19206,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>2413</v>
       </c>
@@ -19082,7 +19256,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>2721</v>
       </c>
@@ -19132,7 +19306,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>2722</v>
       </c>
@@ -19182,7 +19356,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>2967</v>
       </c>
@@ -19232,7 +19406,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>4035</v>
       </c>
@@ -19282,7 +19456,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>4039</v>
       </c>
@@ -19332,7 +19506,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>4036</v>
       </c>
@@ -19382,7 +19556,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>2623</v>
       </c>
@@ -19432,7 +19606,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>28</v>
       </c>
@@ -19482,7 +19656,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>29</v>
       </c>
@@ -19532,7 +19706,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>985</v>
       </c>
@@ -19582,7 +19756,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>981</v>
       </c>
@@ -19632,7 +19806,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>4120</v>
       </c>
@@ -19682,7 +19856,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>982</v>
       </c>
@@ -19732,7 +19906,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>983</v>
       </c>
@@ -19782,7 +19956,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>989</v>
       </c>
@@ -19832,7 +20006,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>984</v>
       </c>
@@ -19882,7 +20056,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>4121</v>
       </c>
@@ -19932,8 +20106,8 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>2611</v>
       </c>
@@ -19983,7 +20157,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>2612</v>
       </c>
@@ -20033,7 +20207,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>2613</v>
       </c>
@@ -20083,7 +20257,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>2614</v>
       </c>
@@ -20133,7 +20307,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>2615</v>
       </c>
@@ -20183,7 +20357,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>2616</v>
       </c>
@@ -20233,7 +20407,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1247</v>
       </c>
@@ -20283,7 +20457,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>1218</v>
       </c>
@@ -20333,7 +20507,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>1219</v>
       </c>
@@ -20383,7 +20557,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>1216</v>
       </c>
@@ -20433,7 +20607,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>1205</v>
       </c>
@@ -20483,7 +20657,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>1206</v>
       </c>
@@ -20533,7 +20707,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>1213</v>
       </c>
@@ -20583,7 +20757,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>1207</v>
       </c>
@@ -20633,7 +20807,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>1208</v>
       </c>
@@ -20683,7 +20857,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>1220</v>
       </c>
@@ -20733,7 +20907,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>1221</v>
       </c>
@@ -20783,7 +20957,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>1222</v>
       </c>
@@ -20833,7 +21007,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>1227</v>
       </c>
@@ -20883,7 +21057,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>1228</v>
       </c>
@@ -20933,7 +21107,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="177" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>2381</v>
       </c>
@@ -20983,7 +21157,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>2767</v>
       </c>
@@ -21033,7 +21207,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="179" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>1232</v>
       </c>
@@ -21083,7 +21257,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="180" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21133,7 +21307,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="181" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>1246</v>
       </c>
@@ -21174,7 +21348,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="182" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>1237</v>
       </c>
@@ -21224,7 +21398,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="183" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1238</v>
       </c>
@@ -21274,7 +21448,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="184" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>1235</v>
       </c>
@@ -21324,7 +21498,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>1236</v>
       </c>
@@ -21374,7 +21548,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>1243</v>
       </c>
@@ -21424,8 +21598,8 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>1195</v>
       </c>
@@ -21475,7 +21649,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>1041</v>
       </c>
@@ -21525,7 +21699,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>1047</v>
       </c>
@@ -21575,7 +21749,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>1196</v>
       </c>
@@ -21625,7 +21799,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="192" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>1197</v>
       </c>
@@ -21675,7 +21849,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>1202</v>
       </c>
@@ -21725,7 +21899,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>1049</v>
       </c>
@@ -21775,7 +21949,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>1050</v>
       </c>
@@ -21825,7 +21999,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>1054</v>
       </c>
@@ -21875,7 +22049,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>2784</v>
       </c>
@@ -21925,7 +22099,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>1186</v>
       </c>
@@ -21975,7 +22149,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>1023</v>
       </c>
@@ -22025,7 +22199,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>1024</v>
       </c>
@@ -22075,7 +22249,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>1027</v>
       </c>
@@ -22125,7 +22299,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>1028</v>
       </c>
@@ -22175,7 +22349,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>1032</v>
       </c>
@@ -22225,7 +22399,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>1033</v>
       </c>
@@ -22275,7 +22449,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>1034</v>
       </c>
@@ -22325,7 +22499,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>1192</v>
       </c>
@@ -22372,7 +22546,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>1191</v>
       </c>
@@ -22419,7 +22593,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1056</v>
       </c>
@@ -22469,7 +22643,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1189</v>
       </c>
@@ -22516,7 +22690,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>1190</v>
       </c>
@@ -22563,8 +22737,8 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>4170</v>
       </c>
@@ -22572,7 +22746,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>1007</v>
       </c>
@@ -22622,7 +22796,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>1008</v>
       </c>
@@ -22672,7 +22846,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>1009</v>
       </c>
@@ -22722,7 +22896,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>1018</v>
       </c>
@@ -22772,7 +22946,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>1010</v>
       </c>
@@ -22822,7 +22996,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>1019</v>
       </c>
@@ -22872,7 +23046,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>2343</v>
       </c>
@@ -22922,7 +23096,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>2344</v>
       </c>
@@ -22972,7 +23146,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>1011</v>
       </c>
@@ -23022,7 +23196,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>1013</v>
       </c>
@@ -23072,7 +23246,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>1012</v>
       </c>
@@ -23122,7 +23296,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>4081</v>
       </c>
@@ -23172,7 +23346,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>4083</v>
       </c>
@@ -23222,7 +23396,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>4084</v>
       </c>
@@ -23272,7 +23446,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>4087</v>
       </c>
@@ -23322,7 +23496,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>3875</v>
       </c>
@@ -23372,7 +23546,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>3876</v>
       </c>
@@ -23422,7 +23596,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>3877</v>
       </c>
@@ -23472,7 +23646,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>3935</v>
       </c>
@@ -23522,7 +23696,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>3936</v>
       </c>
@@ -23572,7 +23746,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>3937</v>
       </c>
@@ -23622,7 +23796,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>4157</v>
       </c>
@@ -23672,7 +23846,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="235" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>4163</v>
       </c>
@@ -23722,7 +23896,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="236" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>4159</v>
       </c>
@@ -23772,7 +23946,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="237" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>4160</v>
       </c>
@@ -23822,7 +23996,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1014</v>
       </c>
@@ -23872,7 +24046,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>3243</v>
       </c>
@@ -23922,7 +24096,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>3242</v>
       </c>
@@ -23972,7 +24146,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>3274</v>
       </c>
@@ -24022,7 +24196,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>1015</v>
       </c>
@@ -24072,7 +24246,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>3322</v>
       </c>
@@ -24122,7 +24296,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>3323</v>
       </c>
@@ -24172,7 +24346,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="245" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>4172</v>
       </c>
@@ -24180,7 +24354,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>1016</v>
       </c>
@@ -24230,7 +24404,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>1017</v>
       </c>
@@ -24280,7 +24454,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>1020</v>
       </c>
@@ -24330,7 +24504,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>1039</v>
       </c>
@@ -24380,7 +24554,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>3212</v>
       </c>
@@ -24430,7 +24604,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>441</v>
       </c>
@@ -24480,7 +24654,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>442</v>
       </c>
@@ -24530,7 +24704,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>443</v>
       </c>
@@ -24580,7 +24754,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>444</v>
       </c>
@@ -24630,7 +24804,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>445</v>
       </c>
@@ -24680,7 +24854,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>446</v>
       </c>
@@ -24730,7 +24904,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>447</v>
       </c>
@@ -24780,7 +24954,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>448</v>
       </c>
@@ -24830,7 +25004,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>3473</v>
       </c>
@@ -24880,7 +25054,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>698</v>
       </c>
@@ -24930,7 +25104,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>2346</v>
       </c>
@@ -24980,7 +25154,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>2366</v>
       </c>
@@ -25030,7 +25204,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1200</v>
       </c>
@@ -25080,7 +25254,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1226</v>
       </c>
@@ -25130,7 +25304,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1040</v>
       </c>
@@ -25180,8 +25354,8 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>694</v>
       </c>
@@ -25231,7 +25405,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>3210</v>
       </c>
@@ -25281,7 +25455,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>3211</v>
       </c>
@@ -25331,10 +25505,10 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J271" s="4"/>
     </row>
-    <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>461</v>
       </c>
@@ -25384,7 +25558,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>462</v>
       </c>
@@ -25434,7 +25608,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>463</v>
       </c>
@@ -25484,7 +25658,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>478</v>
       </c>
@@ -25534,7 +25708,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>2347</v>
       </c>
@@ -25584,7 +25758,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>2365</v>
       </c>
@@ -25634,7 +25808,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1030</v>
       </c>
@@ -25684,7 +25858,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>464</v>
       </c>
@@ -25734,7 +25908,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>465</v>
       </c>
@@ -25784,7 +25958,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>466</v>
       </c>
@@ -25834,7 +26008,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>467</v>
       </c>
@@ -25884,7 +26058,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>468</v>
       </c>
@@ -25934,7 +26108,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>469</v>
       </c>
@@ -25984,7 +26158,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>470</v>
       </c>
@@ -26034,7 +26208,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>471</v>
       </c>
@@ -26084,7 +26258,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>472</v>
       </c>
@@ -26134,7 +26308,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>473</v>
       </c>
@@ -26184,7 +26358,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>474</v>
       </c>
@@ -26234,7 +26408,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>475</v>
       </c>
@@ -26284,7 +26458,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>476</v>
       </c>
@@ -26334,7 +26508,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>477</v>
       </c>
@@ -26384,7 +26558,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>704</v>
       </c>
@@ -26434,7 +26608,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>705</v>
       </c>
@@ -26484,7 +26658,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>706</v>
       </c>
@@ -26534,7 +26708,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>707</v>
       </c>
@@ -26584,7 +26758,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>708</v>
       </c>
@@ -26634,7 +26808,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>709</v>
       </c>
@@ -26684,7 +26858,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>710</v>
       </c>
@@ -26734,7 +26908,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>711</v>
       </c>
@@ -26784,7 +26958,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>712</v>
       </c>
@@ -26834,7 +27008,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>713</v>
       </c>
@@ -26884,7 +27058,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>714</v>
       </c>
@@ -26934,7 +27108,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>715</v>
       </c>
@@ -26984,7 +27158,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>3468</v>
       </c>
@@ -27034,7 +27208,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>3469</v>
       </c>
@@ -27084,8 +27258,8 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>990</v>
       </c>
@@ -27135,7 +27309,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>991</v>
       </c>
@@ -27185,7 +27359,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>992</v>
       </c>
@@ -27235,7 +27409,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>993</v>
       </c>
@@ -27285,8 +27459,8 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>2412</v>
       </c>
@@ -27336,8 +27510,8 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>4003</v>
       </c>
@@ -27387,7 +27561,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>4004</v>
       </c>
@@ -27437,8 +27611,8 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>40</v>
       </c>
@@ -27488,7 +27662,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>38</v>
       </c>
@@ -27538,7 +27712,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>39</v>
       </c>
@@ -27588,8 +27762,8 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>3656</v>
       </c>
@@ -27639,7 +27813,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>3657</v>
       </c>
@@ -27689,8 +27863,8 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>3660</v>
       </c>
@@ -27740,7 +27914,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>3661</v>
       </c>
@@ -27790,10 +27964,10 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="327" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G327" s="4"/>
     </row>
-    <row r="328" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>3670</v>
       </c>
@@ -27843,7 +28017,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="329" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>3671</v>
       </c>
@@ -27893,7 +28067,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="330" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>3688</v>
       </c>
@@ -27943,7 +28117,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="331" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>3690</v>
       </c>
@@ -27993,7 +28167,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="332" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>3676</v>
       </c>
@@ -28043,7 +28217,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="333" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>3677</v>
       </c>
@@ -28093,7 +28267,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="334" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>3678</v>
       </c>
@@ -28143,7 +28317,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="335" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>3674</v>
       </c>
@@ -28193,7 +28367,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="336" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>3675</v>
       </c>
@@ -28243,7 +28417,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="337" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>3679</v>
       </c>
@@ -28293,7 +28467,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>3680</v>
       </c>
@@ -28343,7 +28517,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="339" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>3681</v>
       </c>
@@ -28393,7 +28567,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="340" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>3682</v>
       </c>
@@ -28443,7 +28617,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="341" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>3683</v>
       </c>
@@ -28493,7 +28667,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="342" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>3684</v>
       </c>
@@ -28543,7 +28717,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="344" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>3364</v>
       </c>
@@ -28593,7 +28767,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="345" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>3687</v>
       </c>
@@ -28643,7 +28817,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="346" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>3354</v>
       </c>
@@ -28693,7 +28867,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="347" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>3356</v>
       </c>
@@ -28743,7 +28917,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="348" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>3357</v>
       </c>
@@ -28793,7 +28967,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="349" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>3358</v>
       </c>
@@ -28843,7 +29017,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="350" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>3359</v>
       </c>
@@ -28893,7 +29067,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="351" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>3366</v>
       </c>
@@ -28941,6 +29115,238 @@
       </c>
       <c r="P351" s="3" t="s">
         <v>3463</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="10" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B353" s="10" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="10" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="10" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="10" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="10" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="10" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="10" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="10" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="10" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="10" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="10" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="10" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="10" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="10" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="10" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="10" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="10" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="10" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B372" s="10" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="10" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="10" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="10" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="10" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="10" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="10" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="10" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="10" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="10" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>4229</v>
       </c>
     </row>
   </sheetData>

--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC2AB2-E020-4CCE-9F4C-A1F15631A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5491DF48-8213-4644-AB7B-6F672666BE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="4232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="4236">
   <si>
     <t>Temperature</t>
   </si>
@@ -12721,6 +12721,18 @@
   </si>
   <si>
     <t>Minute</t>
+  </si>
+  <si>
+    <t>None Available</t>
+  </si>
+  <si>
+    <t>PE:ProgressionNoneAvailable</t>
+  </si>
+  <si>
+    <t>MENU:MenuRefresh</t>
+  </si>
+  <si>
+    <t>Refresh</t>
   </si>
 </sst>
 </file>
@@ -13104,28 +13116,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P381"/>
+  <dimension ref="A1:P382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="60.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="2"/>
-    <col min="3" max="4" width="60.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="60.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="60.7109375" style="3" customWidth="1"/>
-    <col min="11" max="15" width="60.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="60.7109375" style="3"/>
-    <col min="17" max="16384" width="60.7109375" style="2"/>
+    <col min="1" max="1" width="41.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.7265625" style="2"/>
+    <col min="3" max="4" width="60.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="60.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.7265625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="60.7265625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="60.7265625" style="3" customWidth="1"/>
+    <col min="11" max="15" width="60.7265625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60.7265625" style="3"/>
+    <col min="17" max="16384" width="60.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13175,7 +13187,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3973</v>
       </c>
@@ -13225,7 +13237,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3974</v>
       </c>
@@ -13275,7 +13287,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -13325,7 +13337,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -13375,7 +13387,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
@@ -13425,7 +13437,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>3292</v>
       </c>
@@ -13475,8 +13487,8 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>365</v>
       </c>
@@ -13526,7 +13538,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>332</v>
       </c>
@@ -13576,7 +13588,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>359</v>
       </c>
@@ -13626,7 +13638,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>699</v>
       </c>
@@ -13676,7 +13688,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>1021</v>
       </c>
@@ -13726,7 +13738,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1203</v>
       </c>
@@ -13776,7 +13788,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>3466</v>
       </c>
@@ -13826,7 +13838,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>4168</v>
       </c>
@@ -13836,8 +13848,8 @@
       <c r="D17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1044</v>
       </c>
@@ -13887,7 +13899,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1043</v>
       </c>
@@ -13937,8 +13949,8 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>389</v>
       </c>
@@ -13988,7 +14000,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>390</v>
       </c>
@@ -14038,7 +14050,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>391</v>
       </c>
@@ -14088,7 +14100,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>392</v>
       </c>
@@ -14138,7 +14150,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>393</v>
       </c>
@@ -14188,7 +14200,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>394</v>
       </c>
@@ -14238,7 +14250,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>395</v>
       </c>
@@ -14288,7 +14300,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>396</v>
       </c>
@@ -14338,7 +14350,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>3194</v>
       </c>
@@ -14388,7 +14400,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>397</v>
       </c>
@@ -14438,7 +14450,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>398</v>
       </c>
@@ -14488,7 +14500,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>399</v>
       </c>
@@ -14538,7 +14550,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2848</v>
       </c>
@@ -14588,7 +14600,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2850</v>
       </c>
@@ -14638,7 +14650,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>400</v>
       </c>
@@ -14688,7 +14700,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2849</v>
       </c>
@@ -14738,7 +14750,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>401</v>
       </c>
@@ -14788,7 +14800,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>402</v>
       </c>
@@ -14838,7 +14850,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>403</v>
       </c>
@@ -14888,7 +14900,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>404</v>
       </c>
@@ -14938,7 +14950,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>405</v>
       </c>
@@ -14988,7 +15000,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>406</v>
       </c>
@@ -15038,7 +15050,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>407</v>
       </c>
@@ -15088,7 +15100,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>408</v>
       </c>
@@ -15138,7 +15150,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>409</v>
       </c>
@@ -15188,7 +15200,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>410</v>
       </c>
@@ -15238,7 +15250,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>411</v>
       </c>
@@ -15288,7 +15300,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>412</v>
       </c>
@@ -15338,7 +15350,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>388</v>
       </c>
@@ -15388,7 +15400,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2786</v>
       </c>
@@ -15438,7 +15450,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>415</v>
       </c>
@@ -15488,7 +15500,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2787</v>
       </c>
@@ -15538,7 +15550,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2788</v>
       </c>
@@ -15588,7 +15600,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2789</v>
       </c>
@@ -15638,7 +15650,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2847</v>
       </c>
@@ -15688,7 +15700,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>414</v>
       </c>
@@ -15738,7 +15750,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>2904</v>
       </c>
@@ -15788,7 +15800,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>2920</v>
       </c>
@@ -15838,7 +15850,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>2936</v>
       </c>
@@ -15888,7 +15900,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>2952</v>
       </c>
@@ -15938,7 +15950,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>4103</v>
       </c>
@@ -15988,7 +16000,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>998</v>
       </c>
@@ -16038,7 +16050,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>999</v>
       </c>
@@ -16088,7 +16100,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>1000</v>
       </c>
@@ -16138,7 +16150,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>1001</v>
       </c>
@@ -16188,7 +16200,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2984</v>
       </c>
@@ -16238,7 +16250,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2985</v>
       </c>
@@ -16285,7 +16297,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2986</v>
       </c>
@@ -16335,7 +16347,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2987</v>
       </c>
@@ -16385,7 +16397,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -16435,7 +16447,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>3060</v>
       </c>
@@ -16485,7 +16497,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>6</v>
       </c>
@@ -16535,7 +16547,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -16585,7 +16597,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
@@ -16635,7 +16647,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>3662</v>
       </c>
@@ -16685,7 +16697,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>3672</v>
       </c>
@@ -16735,7 +16747,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>3664</v>
       </c>
@@ -16785,7 +16797,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>3665</v>
       </c>
@@ -16835,7 +16847,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>334</v>
       </c>
@@ -16885,7 +16897,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>3919</v>
       </c>
@@ -16935,7 +16947,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>336</v>
       </c>
@@ -16985,7 +16997,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
@@ -17035,7 +17047,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>3686</v>
       </c>
@@ -17085,7 +17097,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
@@ -17135,8 +17147,8 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>30</v>
       </c>
@@ -17186,7 +17198,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>31</v>
       </c>
@@ -17236,7 +17248,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>32</v>
       </c>
@@ -17286,7 +17298,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>33</v>
       </c>
@@ -17336,7 +17348,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>34</v>
       </c>
@@ -17386,7 +17398,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
@@ -17436,7 +17448,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>972</v>
       </c>
@@ -17486,7 +17498,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>36</v>
       </c>
@@ -17536,7 +17548,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>37</v>
       </c>
@@ -17586,7 +17598,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>4164</v>
       </c>
@@ -17594,7 +17606,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>4165</v>
       </c>
@@ -17602,561 +17614,568 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>2491</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>2504</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>2515</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>2441</v>
+        <v>3290</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>2442</v>
+        <v>3291</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>2597</v>
+        <v>3307</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>2583</v>
+        <v>3294</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>2451</v>
+        <v>3295</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>2571</v>
+        <v>3296</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>2462</v>
+        <v>3297</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>2471</v>
+        <v>3298</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>2558</v>
+        <v>3299</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>2545</v>
+        <v>3305</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>2481</v>
+        <v>3300</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>2532</v>
+        <v>3304</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>2493</v>
+        <v>3301</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>2506</v>
+        <v>3302</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>2514</v>
+        <v>3303</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>3290</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>3291</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>3307</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>3294</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>3295</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>3296</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>3297</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>3298</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>3299</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>3305</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>3300</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>3304</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>3301</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>3302</v>
-      </c>
-      <c r="O105" s="3" t="s">
-        <v>3303</v>
-      </c>
-      <c r="P105" s="3" t="s">
         <v>3306</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>3051</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>3056</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>3052</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>3054</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>3047</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>3049</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>2902</v>
+        <v>3116</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>2903</v>
+        <v>3117</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3059</v>
+        <v>3119</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3058</v>
+        <v>3120</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>3051</v>
+        <v>3121</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>3056</v>
+        <v>3122</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>3052</v>
+        <v>3123</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>3053</v>
+        <v>3124</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>3054</v>
+        <v>3125</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>3055</v>
+        <v>3126</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>3050</v>
+        <v>3123</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>3047</v>
+        <v>3127</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>3048</v>
+        <v>3123</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>3049</v>
+        <v>3128</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>3046</v>
+        <v>3129</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>3116</v>
+        <v>3108</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>3119</v>
+        <v>3146</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3120</v>
+        <v>3147</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>3121</v>
+        <v>3148</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>3122</v>
+        <v>3149</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>3123</v>
+        <v>3150</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>3124</v>
+        <v>3151</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>3125</v>
+        <v>3152</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>3126</v>
+        <v>3153</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>3123</v>
+        <v>3154</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>3127</v>
+        <v>3144</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>3123</v>
+        <v>3155</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>3128</v>
+        <v>3143</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>3129</v>
+        <v>3156</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>3112</v>
+        <v>3115</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3146</v>
+        <v>3170</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3147</v>
+        <v>3168</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>3148</v>
+        <v>3159</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>3149</v>
+        <v>3167</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>3150</v>
+        <v>3160</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>3151</v>
+        <v>3161</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>3152</v>
+        <v>3166</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>3153</v>
+        <v>3165</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>3144</v>
+        <v>3164</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>3143</v>
+        <v>3163</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>3170</v>
+        <v>3131</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3168</v>
+        <v>3132</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>3159</v>
+        <v>3134</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>3167</v>
+        <v>3135</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>3160</v>
+        <v>3136</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>3161</v>
+        <v>3137</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>3166</v>
+        <v>3138</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>3165</v>
+        <v>3139</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>3162</v>
+        <v>3140</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>3164</v>
+        <v>3141</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>3158</v>
+        <v>3136</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>3163</v>
+        <v>3142</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>3157</v>
+        <v>3130</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3131</v>
+        <v>3171</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>3132</v>
+        <v>3173</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>3134</v>
+        <v>3175</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>3135</v>
+        <v>3174</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>3136</v>
+        <v>3176</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>3137</v>
+        <v>3177</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>3138</v>
+        <v>3180</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>3139</v>
+        <v>3181</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>3140</v>
+        <v>3178</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>3141</v>
+        <v>3182</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>3136</v>
+        <v>3179</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>3142</v>
+        <v>3183</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>3130</v>
+        <v>3184</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>3113</v>
+        <v>3076</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>3114</v>
+        <v>3079</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>3171</v>
+        <v>3080</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>3173</v>
+        <v>3081</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>3175</v>
+        <v>3082</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>3174</v>
+        <v>3084</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>3176</v>
+        <v>3088</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>3177</v>
+        <v>3087</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>3180</v>
+        <v>3086</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>3181</v>
+        <v>3085</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>3178</v>
+        <v>3089</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>3182</v>
+        <v>3091</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>3179</v>
+        <v>3090</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>3183</v>
+        <v>3092</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>3184</v>
+        <v>3093</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>3080</v>
+        <v>3107</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>3081</v>
+        <v>3105</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>3082</v>
+        <v>3101</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>3084</v>
+        <v>3102</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>3088</v>
+        <v>3100</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>3087</v>
+        <v>3099</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>3086</v>
+        <v>3103</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>3085</v>
+        <v>3104</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>3089</v>
+        <v>3097</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>3091</v>
+        <v>3098</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>3090</v>
+        <v>3096</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>3078</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>3107</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>3105</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>3101</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>3102</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>3100</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>3099</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>3103</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>3104</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>3097</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>3098</v>
-      </c>
-      <c r="M114" s="3" t="s">
-        <v>3096</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>3095</v>
-      </c>
-      <c r="O114" s="3" t="s">
-        <v>3094</v>
-      </c>
-      <c r="P114" s="3" t="s">
         <v>3106</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>23</v>
       </c>
@@ -18206,7 +18225,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>11</v>
       </c>
@@ -18256,7 +18275,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>12</v>
       </c>
@@ -18306,7 +18325,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>13</v>
       </c>
@@ -18356,7 +18375,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>14</v>
       </c>
@@ -18406,7 +18425,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>15</v>
       </c>
@@ -18456,7 +18475,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>16</v>
       </c>
@@ -18506,7 +18525,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
@@ -18556,7 +18575,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>18</v>
       </c>
@@ -18606,7 +18625,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>3471</v>
       </c>
@@ -18656,7 +18675,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>19</v>
       </c>
@@ -18706,7 +18725,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>2345</v>
       </c>
@@ -18756,7 +18775,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>2363</v>
       </c>
@@ -18806,7 +18825,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>20</v>
       </c>
@@ -18856,7 +18875,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>21</v>
       </c>
@@ -18906,7 +18925,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>2717</v>
       </c>
@@ -18956,7 +18975,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>22</v>
       </c>
@@ -19006,7 +19025,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>24</v>
       </c>
@@ -19056,7 +19075,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>25</v>
       </c>
@@ -19106,7 +19125,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>26</v>
       </c>
@@ -19156,7 +19175,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>27</v>
       </c>
@@ -19206,7 +19225,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>2413</v>
       </c>
@@ -19256,7 +19275,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>2721</v>
       </c>
@@ -19306,7 +19325,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>2722</v>
       </c>
@@ -19356,7 +19375,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>2967</v>
       </c>
@@ -19406,7 +19425,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>4035</v>
       </c>
@@ -19456,7 +19475,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>4039</v>
       </c>
@@ -19506,7 +19525,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>4036</v>
       </c>
@@ -19556,7 +19575,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>2623</v>
       </c>
@@ -19606,7 +19625,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>28</v>
       </c>
@@ -19656,7 +19675,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>29</v>
       </c>
@@ -19706,7 +19725,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>985</v>
       </c>
@@ -19756,7 +19775,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>981</v>
       </c>
@@ -19806,7 +19825,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>4120</v>
       </c>
@@ -19856,7 +19875,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>982</v>
       </c>
@@ -19906,7 +19925,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>983</v>
       </c>
@@ -19956,7 +19975,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>989</v>
       </c>
@@ -20006,7 +20025,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>984</v>
       </c>
@@ -20056,7 +20075,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>4121</v>
       </c>
@@ -20106,8 +20125,8 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>2611</v>
       </c>
@@ -20157,7 +20176,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>2612</v>
       </c>
@@ -20207,7 +20226,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>2613</v>
       </c>
@@ -20257,7 +20276,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>2614</v>
       </c>
@@ -20307,7 +20326,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>2615</v>
       </c>
@@ -20357,7 +20376,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>2616</v>
       </c>
@@ -20407,7 +20426,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>1247</v>
       </c>
@@ -20457,7 +20476,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>1218</v>
       </c>
@@ -20507,7 +20526,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>1219</v>
       </c>
@@ -20557,7 +20576,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>1216</v>
       </c>
@@ -20607,7 +20626,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>1205</v>
       </c>
@@ -20657,7 +20676,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>1206</v>
       </c>
@@ -20707,7 +20726,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>1213</v>
       </c>
@@ -20757,7 +20776,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>1207</v>
       </c>
@@ -20807,7 +20826,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>1208</v>
       </c>
@@ -20857,7 +20876,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>1220</v>
       </c>
@@ -20907,7 +20926,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>1221</v>
       </c>
@@ -20957,7 +20976,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>1222</v>
       </c>
@@ -21007,7 +21026,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>1227</v>
       </c>
@@ -21057,7 +21076,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>1228</v>
       </c>
@@ -21107,7 +21126,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="177" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>2381</v>
       </c>
@@ -21157,7 +21176,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>2767</v>
       </c>
@@ -21207,7 +21226,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="179" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>1232</v>
       </c>
@@ -21257,7 +21276,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="180" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>1245</v>
       </c>
@@ -21307,7 +21326,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="181" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>1246</v>
       </c>
@@ -21348,7 +21367,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="182" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>1237</v>
       </c>
@@ -21398,7 +21417,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="183" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>1238</v>
       </c>
@@ -21448,7 +21467,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="184" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>1235</v>
       </c>
@@ -21498,7 +21517,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>1236</v>
       </c>
@@ -21548,7 +21567,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>1243</v>
       </c>
@@ -21598,8 +21617,8 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>1195</v>
       </c>
@@ -21649,7 +21668,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>1041</v>
       </c>
@@ -21699,7 +21718,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>1047</v>
       </c>
@@ -21749,7 +21768,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>1196</v>
       </c>
@@ -21799,7 +21818,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="192" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>1197</v>
       </c>
@@ -21849,7 +21868,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>1202</v>
       </c>
@@ -21899,7 +21918,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>1049</v>
       </c>
@@ -21949,7 +21968,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>1050</v>
       </c>
@@ -21999,7 +22018,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>1054</v>
       </c>
@@ -22049,7 +22068,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>2784</v>
       </c>
@@ -22099,7 +22118,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>1186</v>
       </c>
@@ -22149,7 +22168,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>1023</v>
       </c>
@@ -22199,7 +22218,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>1024</v>
       </c>
@@ -22249,7 +22268,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>1027</v>
       </c>
@@ -22299,7 +22318,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>1028</v>
       </c>
@@ -22349,7 +22368,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>1032</v>
       </c>
@@ -22399,7 +22418,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>1033</v>
       </c>
@@ -22449,7 +22468,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>1034</v>
       </c>
@@ -22499,7 +22518,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>1192</v>
       </c>
@@ -22546,7 +22565,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>1191</v>
       </c>
@@ -22593,7 +22612,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>1056</v>
       </c>
@@ -22643,7 +22662,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>1189</v>
       </c>
@@ -22690,7 +22709,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>1190</v>
       </c>
@@ -22737,8 +22756,8 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="10" t="s">
         <v>4170</v>
       </c>
@@ -22746,7 +22765,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>1007</v>
       </c>
@@ -22796,7 +22815,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>1008</v>
       </c>
@@ -22846,7 +22865,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>1009</v>
       </c>
@@ -22896,7 +22915,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>1018</v>
       </c>
@@ -22946,7 +22965,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>1010</v>
       </c>
@@ -22996,7 +23015,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>1019</v>
       </c>
@@ -23046,7 +23065,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>2343</v>
       </c>
@@ -23096,7 +23115,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>2344</v>
       </c>
@@ -23146,7 +23165,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>1011</v>
       </c>
@@ -23196,7 +23215,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>1013</v>
       </c>
@@ -23246,7 +23265,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>1012</v>
       </c>
@@ -23296,7 +23315,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>4081</v>
       </c>
@@ -23346,7 +23365,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>4083</v>
       </c>
@@ -23396,7 +23415,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>4084</v>
       </c>
@@ -23446,7 +23465,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>4087</v>
       </c>
@@ -23496,7 +23515,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>3875</v>
       </c>
@@ -23546,7 +23565,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>3876</v>
       </c>
@@ -23596,7 +23615,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>3877</v>
       </c>
@@ -23646,7 +23665,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>3935</v>
       </c>
@@ -23696,7 +23715,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>3936</v>
       </c>
@@ -23746,7 +23765,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>3937</v>
       </c>
@@ -23796,7 +23815,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>4157</v>
       </c>
@@ -23846,7 +23865,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="235" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>4163</v>
       </c>
@@ -23896,7 +23915,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="236" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>4159</v>
       </c>
@@ -23946,7 +23965,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="237" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>4160</v>
       </c>
@@ -23996,7 +24015,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>1014</v>
       </c>
@@ -24046,7 +24065,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>3243</v>
       </c>
@@ -24096,7 +24115,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>3242</v>
       </c>
@@ -24146,7 +24165,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>3274</v>
       </c>
@@ -24196,7 +24215,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>1015</v>
       </c>
@@ -24246,7 +24265,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>3322</v>
       </c>
@@ -24296,7 +24315,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>3323</v>
       </c>
@@ -24346,7 +24365,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="245" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="10" t="s">
         <v>4172</v>
       </c>
@@ -24354,7 +24373,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>1016</v>
       </c>
@@ -24404,7 +24423,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>1017</v>
       </c>
@@ -24454,7 +24473,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>1020</v>
       </c>
@@ -24504,7 +24523,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>1039</v>
       </c>
@@ -24554,7 +24573,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>3212</v>
       </c>
@@ -24604,4748 +24623,4756 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+    <row r="251" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="10" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B253" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C253" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D253" s="3" t="s">
         <v>1723</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="E253" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F253" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="G252" s="3" t="s">
+      <c r="G253" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="H252" s="3" t="s">
+      <c r="H253" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="I252" s="3" t="s">
+      <c r="I253" s="3" t="s">
         <v>1930</v>
       </c>
-      <c r="J252" s="4" t="s">
+      <c r="J253" s="4" t="s">
         <v>2037</v>
       </c>
-      <c r="K252" s="3" t="s">
+      <c r="K253" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="L252" s="3" t="s">
+      <c r="L253" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="M252" s="3" t="s">
+      <c r="M253" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="N252" s="3" t="s">
+      <c r="N253" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="O252" s="3" t="s">
+      <c r="O253" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="P252" s="3" t="s">
+      <c r="P253" s="3" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+    <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B254" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>1497</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>1749</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E254" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="F254" s="3" t="s">
         <v>1765</v>
       </c>
-      <c r="G253" s="3" t="s">
+      <c r="G254" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H253" s="3" t="s">
+      <c r="H254" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="I254" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="J253" s="3" t="s">
+      <c r="J254" s="3" t="s">
         <v>2064</v>
       </c>
-      <c r="K253" s="3" t="s">
+      <c r="K254" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L253" s="3" t="s">
+      <c r="L254" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="M253" s="3" t="s">
+      <c r="M254" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N253" s="3" t="s">
+      <c r="N254" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="O253" s="3" t="s">
+      <c r="O254" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="P253" s="3" t="s">
+      <c r="P254" s="3" t="s">
         <v>2047</v>
       </c>
     </row>
-    <row r="254" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
+    <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B255" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D255" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E255" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F254" s="3" t="s">
+      <c r="F255" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="G254" s="3" t="s">
+      <c r="G255" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H254" s="3" t="s">
+      <c r="H255" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="I255" s="3" t="s">
         <v>1787</v>
       </c>
-      <c r="J254" s="3" t="s">
+      <c r="J255" s="3" t="s">
         <v>2062</v>
       </c>
-      <c r="K254" s="3" t="s">
+      <c r="K255" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L254" s="3" t="s">
+      <c r="L255" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="M254" s="3" t="s">
+      <c r="M255" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N254" s="3" t="s">
+      <c r="N255" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="O254" s="3" t="s">
+      <c r="O255" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="P254" s="3" t="s">
+      <c r="P255" s="3" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
+    <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>1550</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D256" s="3" t="s">
         <v>1979</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="E256" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="F256" s="3" t="s">
         <v>1982</v>
       </c>
-      <c r="G255" s="3" t="s">
+      <c r="G256" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="H255" s="3" t="s">
+      <c r="H256" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="I255" s="3" t="s">
+      <c r="I256" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="J255" s="3" t="s">
+      <c r="J256" s="3" t="s">
         <v>2065</v>
       </c>
-      <c r="K255" s="3" t="s">
+      <c r="K256" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="L255" s="3" t="s">
+      <c r="L256" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="M255" s="3" t="s">
+      <c r="M256" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="N255" s="3" t="s">
+      <c r="N256" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="O255" s="3" t="s">
+      <c r="O256" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="P255" s="3" t="s">
+      <c r="P256" s="3" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B257" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C257" s="3" t="s">
         <v>1496</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D257" s="3" t="s">
         <v>1783</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E257" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="F257" s="3" t="s">
         <v>1784</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G257" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="H257" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="I257" s="3" t="s">
         <v>1788</v>
       </c>
-      <c r="J256" s="3" t="s">
+      <c r="J257" s="3" t="s">
         <v>2063</v>
       </c>
-      <c r="K256" s="3" t="s">
+      <c r="K257" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L256" s="3" t="s">
+      <c r="L257" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="M256" s="3" t="s">
+      <c r="M257" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N256" s="3" t="s">
+      <c r="N257" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="O256" s="3" t="s">
+      <c r="O257" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="P256" s="3" t="s">
+      <c r="P257" s="3" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="257" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+    <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B258" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>1980</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E258" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="F257" s="3" t="s">
+      <c r="F258" s="3" t="s">
         <v>1983</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="G258" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="H257" s="3" t="s">
+      <c r="H258" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="I257" s="3" t="s">
+      <c r="I258" s="3" t="s">
         <v>1986</v>
       </c>
-      <c r="J257" s="3" t="s">
+      <c r="J258" s="3" t="s">
         <v>2221</v>
       </c>
-      <c r="K257" s="3" t="s">
+      <c r="K258" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="L257" s="3" t="s">
+      <c r="L258" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="M257" s="3" t="s">
+      <c r="M258" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="N257" s="3" t="s">
+      <c r="N258" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="O257" s="3" t="s">
+      <c r="O258" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="P257" s="3" t="s">
+      <c r="P258" s="3" t="s">
         <v>2218</v>
       </c>
     </row>
-    <row r="258" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
+    <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B259" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D259" s="3" t="s">
         <v>1751</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E259" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="F259" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="G259" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H258" s="3" t="s">
+      <c r="H259" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="I259" s="3" t="s">
         <v>1791</v>
       </c>
-      <c r="J258" s="3" t="s">
+      <c r="J259" s="3" t="s">
         <v>2066</v>
       </c>
-      <c r="K258" s="3" t="s">
+      <c r="K259" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L258" s="3" t="s">
+      <c r="L259" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="M258" s="3" t="s">
+      <c r="M259" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N258" s="3" t="s">
+      <c r="N259" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="O258" s="3" t="s">
+      <c r="O259" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="P258" s="3" t="s">
+      <c r="P259" s="3" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="259" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
+    <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B260" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E260" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F260" s="3" t="s">
         <v>1767</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="G260" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="H260" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I259" s="3" t="s">
+      <c r="I260" s="3" t="s">
         <v>1792</v>
       </c>
-      <c r="J259" s="3" t="s">
+      <c r="J260" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="K259" s="3" t="s">
+      <c r="K260" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L259" s="3" t="s">
+      <c r="L260" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="M259" s="3" t="s">
+      <c r="M260" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N259" s="3" t="s">
+      <c r="N260" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="O259" s="3" t="s">
+      <c r="O260" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="P259" s="3" t="s">
+      <c r="P260" s="3" t="s">
         <v>2050</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
+    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="3" t="s">
         <v>3473</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B261" s="3" t="s">
         <v>3472</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>3484</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E261" s="3" t="s">
         <v>3486</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F261" s="3" t="s">
         <v>3487</v>
       </c>
-      <c r="G260" s="3" t="s">
+      <c r="G261" s="3" t="s">
         <v>3474</v>
       </c>
-      <c r="H260" s="3" t="s">
+      <c r="H261" s="3" t="s">
         <v>3475</v>
       </c>
-      <c r="I260" s="3" t="s">
+      <c r="I261" s="3" t="s">
         <v>3476</v>
       </c>
-      <c r="J260" s="3" t="s">
+      <c r="J261" s="3" t="s">
         <v>3477</v>
       </c>
-      <c r="K260" s="3" t="s">
+      <c r="K261" s="3" t="s">
         <v>3478</v>
       </c>
-      <c r="L260" s="3" t="s">
+      <c r="L261" s="3" t="s">
         <v>3479</v>
       </c>
-      <c r="M260" s="3" t="s">
+      <c r="M261" s="3" t="s">
         <v>3480</v>
       </c>
-      <c r="N260" s="3" t="s">
+      <c r="N261" s="3" t="s">
         <v>3481</v>
       </c>
-      <c r="O260" s="3" t="s">
+      <c r="O261" s="3" t="s">
         <v>3482</v>
       </c>
-      <c r="P260" s="3" t="s">
+      <c r="P261" s="3" t="s">
         <v>3485</v>
       </c>
     </row>
-    <row r="261" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+    <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B262" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>1753</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E262" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F261" s="3" t="s">
+      <c r="F262" s="3" t="s">
         <v>1768</v>
       </c>
-      <c r="G261" s="3" t="s">
+      <c r="G262" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H261" s="3" t="s">
+      <c r="H262" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I261" s="3" t="s">
+      <c r="I262" s="3" t="s">
         <v>1793</v>
       </c>
-      <c r="J261" s="3" t="s">
+      <c r="J262" s="3" t="s">
         <v>2068</v>
       </c>
-      <c r="K261" s="3" t="s">
+      <c r="K262" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L261" s="3" t="s">
+      <c r="L262" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="M261" s="3" t="s">
+      <c r="M262" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N261" s="3" t="s">
+      <c r="N262" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="O261" s="3" t="s">
+      <c r="O262" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="P261" s="3" t="s">
+      <c r="P262" s="3" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+    <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="3" t="s">
         <v>2346</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B263" s="3" t="s">
         <v>2348</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>2353</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>2349</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E263" s="3" t="s">
         <v>2355</v>
       </c>
-      <c r="F262" s="3" t="s">
+      <c r="F263" s="3" t="s">
         <v>2352</v>
       </c>
-      <c r="G262" s="3" t="s">
+      <c r="G263" s="3" t="s">
         <v>2350</v>
       </c>
-      <c r="H262" s="3" t="s">
+      <c r="H263" s="3" t="s">
         <v>2351</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="I263" s="3" t="s">
         <v>2356</v>
       </c>
-      <c r="J262" s="3" t="s">
+      <c r="J263" s="3" t="s">
         <v>2357</v>
       </c>
-      <c r="K262" s="3" t="s">
+      <c r="K263" s="3" t="s">
         <v>2358</v>
       </c>
-      <c r="L262" s="3" t="s">
+      <c r="L263" s="3" t="s">
         <v>2359</v>
       </c>
-      <c r="M262" s="3" t="s">
+      <c r="M263" s="3" t="s">
         <v>2360</v>
       </c>
-      <c r="N262" s="3" t="s">
+      <c r="N263" s="3" t="s">
         <v>2361</v>
       </c>
-      <c r="O262" s="3" t="s">
+      <c r="O263" s="3" t="s">
         <v>2362</v>
       </c>
-      <c r="P262" s="3" t="s">
+      <c r="P263" s="3" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="263" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
+    <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="3" t="s">
         <v>2366</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B264" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>2369</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>2370</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E264" s="3" t="s">
         <v>2372</v>
       </c>
-      <c r="F263" s="3" t="s">
+      <c r="F264" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="H263" s="3" t="s">
+      <c r="H264" s="3" t="s">
         <v>2375</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="I264" s="3" t="s">
         <v>2376</v>
       </c>
-      <c r="J263" s="3" t="s">
+      <c r="J264" s="3" t="s">
         <v>2377</v>
       </c>
-      <c r="K263" s="3" t="s">
+      <c r="K264" s="3" t="s">
         <v>2378</v>
       </c>
-      <c r="L263" s="3" t="s">
+      <c r="L264" s="3" t="s">
         <v>2379</v>
       </c>
-      <c r="M263" s="3" t="s">
+      <c r="M264" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="N263" s="3" t="s">
+      <c r="N264" s="3" t="s">
         <v>2368</v>
       </c>
-      <c r="O263" s="3" t="s">
+      <c r="O264" s="3" t="s">
         <v>2367</v>
       </c>
-      <c r="P263" s="3" t="s">
+      <c r="P264" s="3" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="264" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+    <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B265" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>1891</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E265" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="F265" s="3" t="s">
         <v>1906</v>
       </c>
-      <c r="G264" s="3" t="s">
+      <c r="G265" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="H264" s="3" t="s">
+      <c r="H265" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="I265" s="3" t="s">
         <v>1922</v>
       </c>
-      <c r="J264" s="3" t="s">
+      <c r="J265" s="3" t="s">
         <v>2222</v>
       </c>
-      <c r="K264" s="3" t="s">
+      <c r="K265" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="L264" s="3" t="s">
+      <c r="L265" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="M264" s="3" t="s">
+      <c r="M265" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="N264" s="3" t="s">
+      <c r="N265" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="O264" s="3" t="s">
+      <c r="O265" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="P264" s="3" t="s">
+      <c r="P265" s="3" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+    <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B266" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>1553</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>1981</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E266" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="F265" s="3" t="s">
+      <c r="F266" s="3" t="s">
         <v>1984</v>
       </c>
-      <c r="G265" s="3" t="s">
+      <c r="G266" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="H265" s="3" t="s">
+      <c r="H266" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="I266" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="J265" s="3" t="s">
+      <c r="J266" s="3" t="s">
         <v>2223</v>
       </c>
-      <c r="K265" s="3" t="s">
+      <c r="K266" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="L265" s="3" t="s">
+      <c r="L266" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="M265" s="3" t="s">
+      <c r="M266" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="N265" s="3" t="s">
+      <c r="N266" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="O265" s="3" t="s">
+      <c r="O266" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="P265" s="3" t="s">
+      <c r="P266" s="3" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="266" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+    <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B267" s="3" t="s">
         <v>3187</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C267" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>3193</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E267" s="3" t="s">
         <v>3191</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F267" s="3" t="s">
         <v>3193</v>
       </c>
-      <c r="G266" s="3" t="s">
+      <c r="G267" s="3" t="s">
         <v>3185</v>
       </c>
-      <c r="H266" s="3" t="s">
+      <c r="H267" s="3" t="s">
         <v>3186</v>
       </c>
-      <c r="I266" s="3" t="s">
+      <c r="I267" s="3" t="s">
         <v>3192</v>
       </c>
-      <c r="J266" s="3" t="s">
+      <c r="J267" s="3" t="s">
         <v>2217</v>
       </c>
-      <c r="K266" s="3" t="s">
+      <c r="K267" s="3" t="s">
         <v>3187</v>
       </c>
-      <c r="L266" s="3" t="s">
+      <c r="L267" s="3" t="s">
         <v>3190</v>
       </c>
-      <c r="M266" s="3" t="s">
+      <c r="M267" s="3" t="s">
         <v>3187</v>
       </c>
-      <c r="N266" s="3" t="s">
+      <c r="N267" s="3" t="s">
         <v>3189</v>
       </c>
-      <c r="O266" s="3" t="s">
+      <c r="O267" s="3" t="s">
         <v>3188</v>
       </c>
-      <c r="P266" s="3" t="s">
+      <c r="P267" s="3" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+    <row r="268" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B269" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C269" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D269" s="3" t="s">
         <v>1723</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E269" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F268" s="3" t="s">
+      <c r="F269" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="G268" s="3" t="s">
+      <c r="G269" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="H268" s="3" t="s">
+      <c r="H269" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="I268" s="3" t="s">
+      <c r="I269" s="3" t="s">
         <v>1930</v>
       </c>
-      <c r="J268" s="4" t="s">
+      <c r="J269" s="4" t="s">
         <v>2037</v>
       </c>
-      <c r="K268" s="3" t="s">
+      <c r="K269" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="L268" s="3" t="s">
+      <c r="L269" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="M268" s="3" t="s">
+      <c r="M269" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="N268" s="3" t="s">
+      <c r="N269" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="O268" s="3" t="s">
+      <c r="O269" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="P268" s="3" t="s">
+      <c r="P269" s="3" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
+    <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
         <v>3210</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>1898</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="F269" s="3" t="s">
+      <c r="F270" s="3" t="s">
         <v>1914</v>
       </c>
-      <c r="G269" s="3" t="s">
+      <c r="G270" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="H269" s="3" t="s">
+      <c r="H270" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="I269" s="3" t="s">
+      <c r="I270" s="3" t="s">
         <v>1931</v>
       </c>
-      <c r="J269" s="3" t="s">
+      <c r="J270" s="3" t="s">
         <v>2184</v>
       </c>
-      <c r="K269" s="3" t="s">
+      <c r="K270" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="L269" s="3" t="s">
+      <c r="L270" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="M269" s="3" t="s">
+      <c r="M270" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="N269" s="3" t="s">
+      <c r="N270" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="O269" s="3" t="s">
+      <c r="O270" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="P269" s="3" t="s">
+      <c r="P270" s="3" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+    <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="3" t="s">
         <v>3211</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B271" s="3" t="s">
         <v>3215</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D271" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E271" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="F270" s="3" t="s">
+      <c r="F271" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="G270" s="3" t="s">
+      <c r="G271" s="3" t="s">
         <v>3220</v>
       </c>
-      <c r="H270" s="3" t="s">
+      <c r="H271" s="3" t="s">
         <v>3219</v>
       </c>
-      <c r="I270" s="3" t="s">
+      <c r="I271" s="3" t="s">
         <v>3225</v>
       </c>
-      <c r="J270" s="3" t="s">
+      <c r="J271" s="3" t="s">
         <v>3226</v>
       </c>
-      <c r="K270" s="3" t="s">
+      <c r="K271" s="3" t="s">
         <v>3217</v>
       </c>
-      <c r="L270" s="3" t="s">
+      <c r="L271" s="3" t="s">
         <v>3227</v>
       </c>
-      <c r="M270" s="3" t="s">
+      <c r="M271" s="3" t="s">
         <v>3218</v>
       </c>
-      <c r="N270" s="3" t="s">
+      <c r="N271" s="3" t="s">
         <v>3216</v>
       </c>
-      <c r="O270" s="3" t="s">
+      <c r="O271" s="3" t="s">
         <v>3214</v>
       </c>
-      <c r="P270" s="3" t="s">
+      <c r="P271" s="3" t="s">
         <v>3224</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J271" s="4"/>
-    </row>
-    <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
+    <row r="272" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J272" s="4"/>
+    </row>
+    <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B273" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>1496</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D273" s="3" t="s">
         <v>1783</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E273" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F272" s="3" t="s">
+      <c r="F273" s="3" t="s">
         <v>1784</v>
       </c>
-      <c r="G272" s="3" t="s">
+      <c r="G273" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H272" s="3" t="s">
+      <c r="H273" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="I273" s="3" t="s">
         <v>1788</v>
       </c>
-      <c r="J272" s="3" t="s">
+      <c r="J273" s="3" t="s">
         <v>2063</v>
       </c>
-      <c r="K272" s="3" t="s">
+      <c r="K273" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L272" s="3" t="s">
+      <c r="L273" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="M272" s="3" t="s">
+      <c r="M273" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N272" s="3" t="s">
+      <c r="N273" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="O272" s="3" t="s">
+      <c r="O273" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="P272" s="3" t="s">
+      <c r="P273" s="3" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+    <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B274" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C274" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D274" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E274" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F273" s="3" t="s">
+      <c r="F274" s="3" t="s">
         <v>1767</v>
       </c>
-      <c r="G273" s="3" t="s">
+      <c r="G274" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H273" s="3" t="s">
+      <c r="H274" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="I274" s="3" t="s">
         <v>1792</v>
       </c>
-      <c r="J273" s="3" t="s">
+      <c r="J274" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="K273" s="3" t="s">
+      <c r="K274" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L273" s="3" t="s">
+      <c r="L274" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="M273" s="3" t="s">
+      <c r="M274" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N273" s="3" t="s">
+      <c r="N274" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="O273" s="3" t="s">
+      <c r="O274" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="P273" s="3" t="s">
+      <c r="P274" s="3" t="s">
         <v>2050</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+    <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B275" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C275" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D275" s="3" t="s">
         <v>1751</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E275" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F274" s="3" t="s">
+      <c r="F275" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="G274" s="3" t="s">
+      <c r="G275" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="H275" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="I275" s="3" t="s">
         <v>1791</v>
       </c>
-      <c r="J274" s="3" t="s">
+      <c r="J275" s="3" t="s">
         <v>2066</v>
       </c>
-      <c r="K274" s="3" t="s">
+      <c r="K275" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L274" s="3" t="s">
+      <c r="L275" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="M274" s="3" t="s">
+      <c r="M275" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N274" s="3" t="s">
+      <c r="N275" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="O274" s="3" t="s">
+      <c r="O275" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="P274" s="3" t="s">
+      <c r="P275" s="3" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
+    <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C276" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>1753</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E276" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F275" s="3" t="s">
+      <c r="F276" s="3" t="s">
         <v>1768</v>
       </c>
-      <c r="G275" s="3" t="s">
+      <c r="G276" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="H276" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I275" s="3" t="s">
+      <c r="I276" s="3" t="s">
         <v>1793</v>
       </c>
-      <c r="J275" s="3" t="s">
+      <c r="J276" s="3" t="s">
         <v>2068</v>
       </c>
-      <c r="K275" s="3" t="s">
+      <c r="K276" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L275" s="3" t="s">
+      <c r="L276" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="M275" s="3" t="s">
+      <c r="M276" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N275" s="3" t="s">
+      <c r="N276" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="O275" s="3" t="s">
+      <c r="O276" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="P275" s="3" t="s">
+      <c r="P276" s="3" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+    <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="3" t="s">
         <v>2347</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B277" s="3" t="s">
         <v>2348</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C277" s="3" t="s">
         <v>2353</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>2349</v>
       </c>
-      <c r="E276" s="3" t="s">
+      <c r="E277" s="3" t="s">
         <v>2355</v>
       </c>
-      <c r="F276" s="3" t="s">
+      <c r="F277" s="3" t="s">
         <v>2352</v>
       </c>
-      <c r="G276" s="3" t="s">
+      <c r="G277" s="3" t="s">
         <v>2350</v>
       </c>
-      <c r="H276" s="3" t="s">
+      <c r="H277" s="3" t="s">
         <v>2351</v>
       </c>
-      <c r="I276" s="3" t="s">
+      <c r="I277" s="3" t="s">
         <v>2356</v>
       </c>
-      <c r="J276" s="3" t="s">
+      <c r="J277" s="3" t="s">
         <v>2357</v>
       </c>
-      <c r="K276" s="3" t="s">
+      <c r="K277" s="3" t="s">
         <v>2358</v>
       </c>
-      <c r="L276" s="3" t="s">
+      <c r="L277" s="3" t="s">
         <v>2359</v>
       </c>
-      <c r="M276" s="3" t="s">
+      <c r="M277" s="3" t="s">
         <v>2360</v>
       </c>
-      <c r="N276" s="3" t="s">
+      <c r="N277" s="3" t="s">
         <v>2361</v>
       </c>
-      <c r="O276" s="3" t="s">
+      <c r="O277" s="3" t="s">
         <v>2362</v>
       </c>
-      <c r="P276" s="3" t="s">
+      <c r="P277" s="3" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
+    <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="3" t="s">
         <v>2365</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B278" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C278" s="3" t="s">
         <v>2369</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D278" s="3" t="s">
         <v>2370</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E278" s="3" t="s">
         <v>2372</v>
       </c>
-      <c r="F277" s="3" t="s">
+      <c r="F278" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="G277" s="3" t="s">
+      <c r="G278" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="H277" s="3" t="s">
+      <c r="H278" s="3" t="s">
         <v>2375</v>
       </c>
-      <c r="I277" s="3" t="s">
+      <c r="I278" s="3" t="s">
         <v>2376</v>
       </c>
-      <c r="J277" s="3" t="s">
+      <c r="J278" s="3" t="s">
         <v>2377</v>
       </c>
-      <c r="K277" s="3" t="s">
+      <c r="K278" s="3" t="s">
         <v>2378</v>
       </c>
-      <c r="L277" s="3" t="s">
+      <c r="L278" s="3" t="s">
         <v>2379</v>
       </c>
-      <c r="M277" s="3" t="s">
+      <c r="M278" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="N277" s="3" t="s">
+      <c r="N278" s="3" t="s">
         <v>2368</v>
       </c>
-      <c r="O277" s="3" t="s">
+      <c r="O278" s="3" t="s">
         <v>2367</v>
       </c>
-      <c r="P277" s="3" t="s">
+      <c r="P278" s="3" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
+    <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B279" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>1726</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E279" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F278" s="3" t="s">
+      <c r="F279" s="3" t="s">
         <v>1735</v>
       </c>
-      <c r="G278" s="3" t="s">
+      <c r="G279" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H278" s="3" t="s">
+      <c r="H279" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="I279" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="J278" s="3" t="s">
+      <c r="J279" s="3" t="s">
         <v>2224</v>
       </c>
-      <c r="K278" s="3" t="s">
+      <c r="K279" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L278" s="3" t="s">
+      <c r="L279" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="M278" s="3" t="s">
+      <c r="M279" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N278" s="3" t="s">
+      <c r="N279" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="O278" s="3" t="s">
+      <c r="O279" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="P278" s="3" t="s">
+      <c r="P279" s="3" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
+    <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B280" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C280" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="E279" s="3" t="s">
+      <c r="E280" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F279" s="3" t="s">
+      <c r="F280" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="G279" s="3" t="s">
+      <c r="G280" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H279" s="3" t="s">
+      <c r="H280" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="I280" s="3" t="s">
         <v>1787</v>
       </c>
-      <c r="J279" s="3" t="s">
+      <c r="J280" s="3" t="s">
         <v>2062</v>
       </c>
-      <c r="K279" s="3" t="s">
+      <c r="K280" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L279" s="3" t="s">
+      <c r="L280" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="M279" s="3" t="s">
+      <c r="M280" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N279" s="3" t="s">
+      <c r="N280" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="O279" s="3" t="s">
+      <c r="O280" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="P279" s="3" t="s">
+      <c r="P280" s="3" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="280" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
+    <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B281" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C281" s="3" t="s">
         <v>1550</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>1979</v>
       </c>
-      <c r="E280" s="3" t="s">
+      <c r="E281" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="F281" s="3" t="s">
         <v>1982</v>
       </c>
-      <c r="G280" s="3" t="s">
+      <c r="G281" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="H280" s="3" t="s">
+      <c r="H281" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="I281" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="J280" s="3" t="s">
+      <c r="J281" s="3" t="s">
         <v>2065</v>
       </c>
-      <c r="K280" s="3" t="s">
+      <c r="K281" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="L280" s="3" t="s">
+      <c r="L281" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M280" s="3" t="s">
+      <c r="M281" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="N280" s="3" t="s">
+      <c r="N281" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="O280" s="3" t="s">
+      <c r="O281" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="P280" s="3" t="s">
+      <c r="P281" s="3" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
+    <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B282" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C282" s="3" t="s">
         <v>1562</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D282" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E282" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F281" s="3" t="s">
+      <c r="F282" s="3" t="s">
         <v>2000</v>
       </c>
-      <c r="G281" s="3" t="s">
+      <c r="G282" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="H281" s="3" t="s">
+      <c r="H282" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="I282" s="3" t="s">
         <v>2012</v>
       </c>
-      <c r="J281" s="3" t="s">
+      <c r="J282" s="3" t="s">
         <v>2307</v>
       </c>
-      <c r="K281" s="3" t="s">
+      <c r="K282" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="L281" s="3" t="s">
+      <c r="L282" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="M281" s="3" t="s">
+      <c r="M282" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="N281" s="3" t="s">
+      <c r="N282" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="O281" s="3" t="s">
+      <c r="O282" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="P281" s="3" t="s">
+      <c r="P282" s="3" t="s">
         <v>2295</v>
       </c>
     </row>
-    <row r="282" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
+    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B283" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>1989</v>
       </c>
-      <c r="E282" s="3" t="s">
+      <c r="E283" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F282" s="3" t="s">
+      <c r="F283" s="3" t="s">
         <v>2001</v>
       </c>
-      <c r="G282" s="3" t="s">
+      <c r="G283" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="H282" s="3" t="s">
+      <c r="H283" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="I282" s="3" t="s">
+      <c r="I283" s="3" t="s">
         <v>2013</v>
       </c>
-      <c r="J282" s="3" t="s">
+      <c r="J283" s="3" t="s">
         <v>2308</v>
       </c>
-      <c r="K282" s="3" t="s">
+      <c r="K283" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="L282" s="3" t="s">
+      <c r="L283" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="M282" s="3" t="s">
+      <c r="M283" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="N282" s="3" t="s">
+      <c r="N283" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="O282" s="3" t="s">
+      <c r="O283" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="P282" s="3" t="s">
+      <c r="P283" s="3" t="s">
         <v>2296</v>
       </c>
     </row>
-    <row r="283" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
+    <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B284" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C284" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D284" s="3" t="s">
         <v>1990</v>
       </c>
-      <c r="E283" s="3" t="s">
+      <c r="E284" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="F283" s="3" t="s">
+      <c r="F284" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="G283" s="3" t="s">
+      <c r="G284" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="H283" s="3" t="s">
+      <c r="H284" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="I283" s="3" t="s">
+      <c r="I284" s="3" t="s">
         <v>2014</v>
       </c>
-      <c r="J283" s="3" t="s">
+      <c r="J284" s="3" t="s">
         <v>2309</v>
       </c>
-      <c r="K283" s="3" t="s">
+      <c r="K284" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="L283" s="3" t="s">
+      <c r="L284" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="M283" s="3" t="s">
+      <c r="M284" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="N283" s="3" t="s">
+      <c r="N284" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="O283" s="3" t="s">
+      <c r="O284" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="P283" s="3" t="s">
+      <c r="P284" s="3" t="s">
         <v>2297</v>
       </c>
     </row>
-    <row r="284" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
+    <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B285" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>1565</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D285" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="E284" s="3" t="s">
+      <c r="E285" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="F284" s="3" t="s">
+      <c r="F285" s="3" t="s">
         <v>2003</v>
       </c>
-      <c r="G284" s="3" t="s">
+      <c r="G285" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="H284" s="3" t="s">
+      <c r="H285" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="I284" s="3" t="s">
+      <c r="I285" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="J284" s="3" t="s">
+      <c r="J285" s="3" t="s">
         <v>2310</v>
       </c>
-      <c r="K284" s="3" t="s">
+      <c r="K285" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="L284" s="3" t="s">
+      <c r="L285" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="M284" s="3" t="s">
+      <c r="M285" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="N284" s="3" t="s">
+      <c r="N285" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="O284" s="3" t="s">
+      <c r="O285" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="P284" s="3" t="s">
+      <c r="P285" s="3" t="s">
         <v>2298</v>
       </c>
     </row>
-    <row r="285" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
+    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B286" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C286" s="3" t="s">
         <v>1566</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D286" s="3" t="s">
         <v>1992</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="E286" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F285" s="3" t="s">
+      <c r="F286" s="3" t="s">
         <v>2004</v>
       </c>
-      <c r="G285" s="3" t="s">
+      <c r="G286" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="H285" s="3" t="s">
+      <c r="H286" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="I285" s="3" t="s">
+      <c r="I286" s="3" t="s">
         <v>2016</v>
       </c>
-      <c r="J285" s="3" t="s">
+      <c r="J286" s="3" t="s">
         <v>2311</v>
       </c>
-      <c r="K285" s="3" t="s">
+      <c r="K286" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="L285" s="3" t="s">
+      <c r="L286" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="M285" s="3" t="s">
+      <c r="M286" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="N285" s="3" t="s">
+      <c r="N286" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="O285" s="3" t="s">
+      <c r="O286" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="P285" s="3" t="s">
+      <c r="P286" s="3" t="s">
         <v>2299</v>
       </c>
     </row>
-    <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
+    <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B287" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>1993</v>
       </c>
-      <c r="E286" s="3" t="s">
+      <c r="E287" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="F286" s="3" t="s">
+      <c r="F287" s="3" t="s">
         <v>2005</v>
       </c>
-      <c r="G286" s="3" t="s">
+      <c r="G287" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="H286" s="3" t="s">
+      <c r="H287" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="I286" s="3" t="s">
+      <c r="I287" s="3" t="s">
         <v>2017</v>
       </c>
-      <c r="J286" s="3" t="s">
+      <c r="J287" s="3" t="s">
         <v>2312</v>
       </c>
-      <c r="K286" s="3" t="s">
+      <c r="K287" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="L286" s="3" t="s">
+      <c r="L287" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="M286" s="3" t="s">
+      <c r="M287" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="N286" s="3" t="s">
+      <c r="N287" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="O286" s="3" t="s">
+      <c r="O287" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="P286" s="3" t="s">
+      <c r="P287" s="3" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="287" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
+    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B288" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C288" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>1994</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="E288" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="F287" s="3" t="s">
+      <c r="F288" s="3" t="s">
         <v>2006</v>
       </c>
-      <c r="G287" s="3" t="s">
+      <c r="G288" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="H287" s="3" t="s">
+      <c r="H288" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="I288" s="3" t="s">
         <v>2018</v>
       </c>
-      <c r="J287" s="3" t="s">
+      <c r="J288" s="3" t="s">
         <v>2313</v>
       </c>
-      <c r="K287" s="3" t="s">
+      <c r="K288" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L287" s="3" t="s">
+      <c r="L288" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="M287" s="3" t="s">
+      <c r="M288" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N287" s="3" t="s">
+      <c r="N288" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="O287" s="3" t="s">
+      <c r="O288" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="P287" s="3" t="s">
+      <c r="P288" s="3" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="288" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3" t="s">
+    <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B289" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>1569</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>1995</v>
       </c>
-      <c r="E288" s="3" t="s">
+      <c r="E289" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="F288" s="3" t="s">
+      <c r="F289" s="3" t="s">
         <v>2007</v>
       </c>
-      <c r="G288" s="3" t="s">
+      <c r="G289" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="H288" s="3" t="s">
+      <c r="H289" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="I288" s="3" t="s">
+      <c r="I289" s="3" t="s">
         <v>2019</v>
       </c>
-      <c r="J288" s="3" t="s">
+      <c r="J289" s="3" t="s">
         <v>2314</v>
       </c>
-      <c r="K288" s="3" t="s">
+      <c r="K289" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="L288" s="3" t="s">
+      <c r="L289" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="M288" s="3" t="s">
+      <c r="M289" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="N288" s="3" t="s">
+      <c r="N289" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="O288" s="3" t="s">
+      <c r="O289" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="P288" s="3" t="s">
+      <c r="P289" s="3" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="289" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
+    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B290" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>1570</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>1996</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E290" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F290" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="G289" s="3" t="s">
+      <c r="G290" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="H289" s="3" t="s">
+      <c r="H290" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="I289" s="3" t="s">
+      <c r="I290" s="3" t="s">
         <v>2020</v>
       </c>
-      <c r="J289" s="3" t="s">
+      <c r="J290" s="3" t="s">
         <v>2315</v>
       </c>
-      <c r="K289" s="3" t="s">
+      <c r="K290" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="L289" s="3" t="s">
+      <c r="L290" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="M289" s="3" t="s">
+      <c r="M290" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="N289" s="3" t="s">
+      <c r="N290" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="O289" s="3" t="s">
+      <c r="O290" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="P289" s="3" t="s">
+      <c r="P290" s="3" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3" t="s">
+    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B291" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C291" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D291" s="3" t="s">
         <v>1997</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="E291" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F290" s="3" t="s">
+      <c r="F291" s="3" t="s">
         <v>2009</v>
       </c>
-      <c r="G290" s="3" t="s">
+      <c r="G291" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="H291" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="I290" s="3" t="s">
+      <c r="I291" s="3" t="s">
         <v>2021</v>
       </c>
-      <c r="J290" s="3" t="s">
+      <c r="J291" s="3" t="s">
         <v>2316</v>
       </c>
-      <c r="K290" s="3" t="s">
+      <c r="K291" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="L290" s="3" t="s">
+      <c r="L291" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="M290" s="3" t="s">
+      <c r="M291" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="N290" s="3" t="s">
+      <c r="N291" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="O290" s="3" t="s">
+      <c r="O291" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="P290" s="3" t="s">
+      <c r="P291" s="3" t="s">
         <v>2304</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
+    <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B292" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C292" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>1998</v>
       </c>
-      <c r="E291" s="3" t="s">
+      <c r="E292" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F291" s="3" t="s">
+      <c r="F292" s="3" t="s">
         <v>2010</v>
       </c>
-      <c r="G291" s="3" t="s">
+      <c r="G292" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="H291" s="3" t="s">
+      <c r="H292" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="I291" s="3" t="s">
+      <c r="I292" s="3" t="s">
         <v>2022</v>
       </c>
-      <c r="J291" s="3" t="s">
+      <c r="J292" s="3" t="s">
         <v>2317</v>
       </c>
-      <c r="K291" s="3" t="s">
+      <c r="K292" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="L291" s="3" t="s">
+      <c r="L292" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="M291" s="3" t="s">
+      <c r="M292" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="N291" s="3" t="s">
+      <c r="N292" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="O291" s="3" t="s">
+      <c r="O292" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="P291" s="3" t="s">
+      <c r="P292" s="3" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
+    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B293" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>1573</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D293" s="3" t="s">
         <v>1999</v>
       </c>
-      <c r="E292" s="3" t="s">
+      <c r="E293" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F292" s="3" t="s">
+      <c r="F293" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="G292" s="3" t="s">
+      <c r="G293" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H292" s="3" t="s">
+      <c r="H293" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="I292" s="3" t="s">
+      <c r="I293" s="3" t="s">
         <v>2023</v>
       </c>
-      <c r="J292" s="3" t="s">
+      <c r="J293" s="3" t="s">
         <v>2318</v>
       </c>
-      <c r="K292" s="3" t="s">
+      <c r="K293" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="L292" s="3" t="s">
+      <c r="L293" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="M292" s="3" t="s">
+      <c r="M293" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="N292" s="3" t="s">
+      <c r="N293" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="O292" s="3" t="s">
+      <c r="O293" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="P292" s="3" t="s">
+      <c r="P293" s="3" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="E294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="F294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="G293" s="3" t="s">
+      <c r="G294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="H293" s="3" t="s">
+      <c r="H294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="I293" s="3" t="s">
+      <c r="I294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="J293" s="3" t="s">
+      <c r="J294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="K293" s="3" t="s">
+      <c r="K294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="L293" s="3" t="s">
+      <c r="L294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="M293" s="3" t="s">
+      <c r="M294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="N293" s="3" t="s">
+      <c r="N294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="O293" s="3" t="s">
+      <c r="O294" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="P293" s="3" t="s">
+      <c r="P294" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
+    <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="E295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="F294" s="3" t="s">
+      <c r="F295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="G294" s="3" t="s">
+      <c r="G295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="H294" s="3" t="s">
+      <c r="H295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="I294" s="3" t="s">
+      <c r="I295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="J294" s="3" t="s">
+      <c r="J295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="K294" s="3" t="s">
+      <c r="K295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="L294" s="3" t="s">
+      <c r="L295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="M294" s="3" t="s">
+      <c r="M295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="N294" s="3" t="s">
+      <c r="N295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="O294" s="3" t="s">
+      <c r="O295" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="P294" s="3" t="s">
+      <c r="P295" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
+    <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="E295" s="3" t="s">
+      <c r="E296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="F295" s="3" t="s">
+      <c r="F296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="G295" s="3" t="s">
+      <c r="G296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="H295" s="3" t="s">
+      <c r="H296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="I295" s="3" t="s">
+      <c r="I296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="J295" s="3" t="s">
+      <c r="J296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="K295" s="3" t="s">
+      <c r="K296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="L295" s="3" t="s">
+      <c r="L296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="M295" s="3" t="s">
+      <c r="M296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="N295" s="3" t="s">
+      <c r="N296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="O295" s="3" t="s">
+      <c r="O296" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="P295" s="3" t="s">
+      <c r="P296" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="296" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
+    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="E296" s="3" t="s">
+      <c r="E297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="F296" s="3" t="s">
+      <c r="F297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="G296" s="3" t="s">
+      <c r="G297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="H296" s="3" t="s">
+      <c r="H297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="I296" s="3" t="s">
+      <c r="I297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="J296" s="3" t="s">
+      <c r="J297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="K296" s="3" t="s">
+      <c r="K297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="L296" s="3" t="s">
+      <c r="L297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="M296" s="3" t="s">
+      <c r="M297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="N296" s="3" t="s">
+      <c r="N297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="O296" s="3" t="s">
+      <c r="O297" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="P296" s="3" t="s">
+      <c r="P297" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
+    <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E297" s="3" t="s">
+      <c r="E298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="F297" s="3" t="s">
+      <c r="F298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="G297" s="3" t="s">
+      <c r="G298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="H297" s="3" t="s">
+      <c r="H298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="I297" s="3" t="s">
+      <c r="I298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="J297" s="3" t="s">
+      <c r="J298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="K297" s="3" t="s">
+      <c r="K298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="L297" s="3" t="s">
+      <c r="L298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="M297" s="3" t="s">
+      <c r="M298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="N297" s="3" t="s">
+      <c r="N298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="O297" s="3" t="s">
+      <c r="O298" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="P297" s="3" t="s">
+      <c r="P298" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3" t="s">
+    <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F298" s="3" t="s">
+      <c r="F299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="G298" s="3" t="s">
+      <c r="G299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="H298" s="3" t="s">
+      <c r="H299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="I298" s="3" t="s">
+      <c r="I299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="J298" s="3" t="s">
+      <c r="J299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="K298" s="3" t="s">
+      <c r="K299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="L298" s="3" t="s">
+      <c r="L299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="M298" s="3" t="s">
+      <c r="M299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="N298" s="3" t="s">
+      <c r="N299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="O298" s="3" t="s">
+      <c r="O299" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="P298" s="3" t="s">
+      <c r="P299" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
+    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="E299" s="3" t="s">
+      <c r="E300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="G299" s="3" t="s">
+      <c r="G300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="H299" s="3" t="s">
+      <c r="H300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="I299" s="3" t="s">
+      <c r="I300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="J299" s="3" t="s">
+      <c r="J300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="K299" s="3" t="s">
+      <c r="K300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="L299" s="3" t="s">
+      <c r="L300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="M299" s="3" t="s">
+      <c r="M300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="N299" s="3" t="s">
+      <c r="N300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="O299" s="3" t="s">
+      <c r="O300" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="P299" s="3" t="s">
+      <c r="P300" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3" t="s">
+    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="F301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="G300" s="3" t="s">
+      <c r="G301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H300" s="3" t="s">
+      <c r="H301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="I300" s="3" t="s">
+      <c r="I301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="J300" s="3" t="s">
+      <c r="J301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="K300" s="3" t="s">
+      <c r="K301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="L300" s="3" t="s">
+      <c r="L301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="M300" s="3" t="s">
+      <c r="M301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="N300" s="3" t="s">
+      <c r="N301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="O300" s="3" t="s">
+      <c r="O301" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="P300" s="3" t="s">
+      <c r="P301" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
+    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="D302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="E301" s="3" t="s">
+      <c r="E302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F301" s="3" t="s">
+      <c r="F302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G301" s="3" t="s">
+      <c r="G302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="H301" s="3" t="s">
+      <c r="H302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="I301" s="3" t="s">
+      <c r="I302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="J301" s="3" t="s">
+      <c r="J302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="K301" s="3" t="s">
+      <c r="K302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="L301" s="3" t="s">
+      <c r="L302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="M301" s="3" t="s">
+      <c r="M302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="N301" s="3" t="s">
+      <c r="N302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="O301" s="3" t="s">
+      <c r="O302" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="P301" s="3" t="s">
+      <c r="P302" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
+    <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="E302" s="3" t="s">
+      <c r="E303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="F303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="G302" s="3" t="s">
+      <c r="G303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H302" s="3" t="s">
+      <c r="H303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="I302" s="3" t="s">
+      <c r="I303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="J302" s="3" t="s">
+      <c r="J303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="K302" s="3" t="s">
+      <c r="K303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="L302" s="3" t="s">
+      <c r="L303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="M302" s="3" t="s">
+      <c r="M303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="N302" s="3" t="s">
+      <c r="N303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="O302" s="3" t="s">
+      <c r="O303" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="P302" s="3" t="s">
+      <c r="P303" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
+    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="E303" s="3" t="s">
+      <c r="E304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="F303" s="3" t="s">
+      <c r="F304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="G303" s="3" t="s">
+      <c r="G304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="H303" s="3" t="s">
+      <c r="H304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="I303" s="3" t="s">
+      <c r="I304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="J303" s="3" t="s">
+      <c r="J304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="K303" s="3" t="s">
+      <c r="K304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="L303" s="3" t="s">
+      <c r="L304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="M303" s="3" t="s">
+      <c r="M304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="N303" s="3" t="s">
+      <c r="N304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="O303" s="3" t="s">
+      <c r="O304" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="P303" s="3" t="s">
+      <c r="P304" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
+    <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="E304" s="3" t="s">
+      <c r="E305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F304" s="3" t="s">
+      <c r="F305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="G304" s="3" t="s">
+      <c r="G305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="H304" s="3" t="s">
+      <c r="H305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="I304" s="3" t="s">
+      <c r="I305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="J304" s="3" t="s">
+      <c r="J305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="K304" s="3" t="s">
+      <c r="K305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="L304" s="3" t="s">
+      <c r="L305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="M304" s="3" t="s">
+      <c r="M305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="N304" s="3" t="s">
+      <c r="N305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="O304" s="3" t="s">
+      <c r="O305" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="P304" s="3" t="s">
+      <c r="P305" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
+    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="3" t="s">
         <v>3468</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B306" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C306" s="3" t="s">
         <v>3504</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D306" s="3" t="s">
         <v>3506</v>
       </c>
-      <c r="E305" s="3" t="s">
+      <c r="E306" s="3" t="s">
         <v>3511</v>
       </c>
-      <c r="F305" s="3" t="s">
+      <c r="F306" s="3" t="s">
         <v>3512</v>
       </c>
-      <c r="G305" s="3" t="s">
+      <c r="G306" s="3" t="s">
         <v>3539</v>
       </c>
-      <c r="H305" s="3" t="s">
+      <c r="H306" s="3" t="s">
         <v>3541</v>
       </c>
-      <c r="I305" s="3" t="s">
+      <c r="I306" s="3" t="s">
         <v>3518</v>
       </c>
-      <c r="J305" s="3" t="s">
+      <c r="J306" s="3" t="s">
         <v>3520</v>
       </c>
-      <c r="K305" s="3" t="s">
+      <c r="K306" s="3" t="s">
         <v>3537</v>
       </c>
-      <c r="L305" s="3" t="s">
+      <c r="L306" s="3" t="s">
         <v>3524</v>
       </c>
-      <c r="M305" s="3" t="s">
+      <c r="M306" s="3" t="s">
         <v>3526</v>
       </c>
-      <c r="N305" s="3" t="s">
+      <c r="N306" s="3" t="s">
         <v>3527</v>
       </c>
-      <c r="O305" s="3" t="s">
+      <c r="O306" s="3" t="s">
         <v>3502</v>
       </c>
-      <c r="P305" s="3" t="s">
+      <c r="P306" s="3" t="s">
         <v>3508</v>
       </c>
     </row>
-    <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3" t="s">
+    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="3" t="s">
         <v>3469</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B307" s="3" t="s">
         <v>3470</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>3530</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="E306" s="3" t="s">
+      <c r="E307" s="3" t="s">
         <v>3533</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="F307" s="3" t="s">
         <v>3534</v>
       </c>
-      <c r="G306" s="3" t="s">
+      <c r="G307" s="3" t="s">
         <v>3540</v>
       </c>
-      <c r="H306" s="3" t="s">
+      <c r="H307" s="3" t="s">
         <v>3542</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="I307" s="3" t="s">
         <v>3535</v>
       </c>
-      <c r="J306" s="3" t="s">
+      <c r="J307" s="3" t="s">
         <v>3536</v>
       </c>
-      <c r="K306" s="3" t="s">
+      <c r="K307" s="3" t="s">
         <v>3538</v>
       </c>
-      <c r="L306" s="3" t="s">
+      <c r="L307" s="3" t="s">
         <v>3543</v>
       </c>
-      <c r="M306" s="3" t="s">
+      <c r="M307" s="3" t="s">
         <v>3544</v>
       </c>
-      <c r="N306" s="3" t="s">
+      <c r="N307" s="3" t="s">
         <v>3545</v>
       </c>
-      <c r="O306" s="3" t="s">
+      <c r="O307" s="3" t="s">
         <v>3529</v>
       </c>
-      <c r="P306" s="3" t="s">
+      <c r="P307" s="3" t="s">
         <v>3532</v>
       </c>
     </row>
-    <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3" t="s">
+    <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C309" s="3" t="s">
         <v>1555</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>1821</v>
       </c>
-      <c r="E308" s="3" t="s">
+      <c r="E309" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="F308" s="3" t="s">
+      <c r="F309" s="3" t="s">
         <v>1825</v>
       </c>
-      <c r="G308" s="3" t="s">
+      <c r="G309" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="H308" s="3" t="s">
+      <c r="H309" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="I308" s="3" t="s">
+      <c r="I309" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="J308" s="3" t="s">
+      <c r="J309" s="3" t="s">
         <v>2229</v>
       </c>
-      <c r="K308" s="3" t="s">
+      <c r="K309" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="L308" s="3" t="s">
+      <c r="L309" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="M308" s="3" t="s">
+      <c r="M309" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="N308" s="3" t="s">
+      <c r="N309" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="O308" s="3" t="s">
+      <c r="O309" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="P308" s="3" t="s">
+      <c r="P309" s="3" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3" t="s">
+    <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B310" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>1556</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D310" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="E309" s="3" t="s">
+      <c r="E310" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="F309" s="3" t="s">
+      <c r="F310" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="G309" s="3" t="s">
+      <c r="G310" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="H309" s="3" t="s">
+      <c r="H310" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="I310" s="3" t="s">
         <v>1830</v>
       </c>
-      <c r="J309" s="3" t="s">
+      <c r="J310" s="3" t="s">
         <v>2230</v>
       </c>
-      <c r="K309" s="3" t="s">
+      <c r="K310" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="L309" s="3" t="s">
+      <c r="L310" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="M309" s="3" t="s">
+      <c r="M310" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="N309" s="3" t="s">
+      <c r="N310" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="O309" s="3" t="s">
+      <c r="O310" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="P309" s="3" t="s">
+      <c r="P310" s="3" t="s">
         <v>2226</v>
       </c>
     </row>
-    <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3" t="s">
+    <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B311" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C311" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D311" s="3" t="s">
         <v>1823</v>
       </c>
-      <c r="E310" s="3" t="s">
+      <c r="E311" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="F310" s="3" t="s">
+      <c r="F311" s="3" t="s">
         <v>1827</v>
       </c>
-      <c r="G310" s="3" t="s">
+      <c r="G311" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="H310" s="3" t="s">
+      <c r="H311" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="I311" s="3" t="s">
         <v>1831</v>
       </c>
-      <c r="J310" s="3" t="s">
+      <c r="J311" s="3" t="s">
         <v>2231</v>
       </c>
-      <c r="K310" s="3" t="s">
+      <c r="K311" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="L310" s="3" t="s">
+      <c r="L311" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="M310" s="3" t="s">
+      <c r="M311" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="N310" s="3" t="s">
+      <c r="N311" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="O310" s="3" t="s">
+      <c r="O311" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="P310" s="3" t="s">
+      <c r="P311" s="3" t="s">
         <v>2227</v>
       </c>
     </row>
-    <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
+    <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B312" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C312" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D312" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="E311" s="3" t="s">
+      <c r="E312" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="F311" s="3" t="s">
+      <c r="F312" s="3" t="s">
         <v>1828</v>
       </c>
-      <c r="G311" s="3" t="s">
+      <c r="G312" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="H311" s="3" t="s">
+      <c r="H312" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="I311" s="3" t="s">
+      <c r="I312" s="3" t="s">
         <v>1832</v>
       </c>
-      <c r="J311" s="3" t="s">
+      <c r="J312" s="3" t="s">
         <v>2232</v>
       </c>
-      <c r="K311" s="3" t="s">
+      <c r="K312" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="L311" s="3" t="s">
+      <c r="L312" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="M311" s="3" t="s">
+      <c r="M312" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="N311" s="3" t="s">
+      <c r="N312" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="O311" s="3" t="s">
+      <c r="O312" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="P311" s="3" t="s">
+      <c r="P312" s="3" t="s">
         <v>2228</v>
       </c>
     </row>
-    <row r="312" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3" t="s">
+    <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="3" t="s">
         <v>2412</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B314" s="3" t="s">
         <v>3845</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>3843</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D314" s="3" t="s">
         <v>3844</v>
       </c>
-      <c r="E313" s="3" t="s">
+      <c r="E314" s="3" t="s">
         <v>3846</v>
       </c>
-      <c r="F313" s="3" t="s">
+      <c r="F314" s="3" t="s">
         <v>3847</v>
       </c>
-      <c r="G313" s="3" t="s">
+      <c r="G314" s="3" t="s">
         <v>3848</v>
       </c>
-      <c r="H313" s="3" t="s">
+      <c r="H314" s="3" t="s">
         <v>3849</v>
       </c>
-      <c r="I313" s="3" t="s">
+      <c r="I314" s="3" t="s">
         <v>3850</v>
       </c>
-      <c r="J313" s="3" t="s">
+      <c r="J314" s="3" t="s">
         <v>3851</v>
       </c>
-      <c r="K313" s="3" t="s">
+      <c r="K314" s="3" t="s">
         <v>3852</v>
       </c>
-      <c r="L313" s="3" t="s">
+      <c r="L314" s="3" t="s">
         <v>3853</v>
       </c>
-      <c r="M313" s="3" t="s">
+      <c r="M314" s="3" t="s">
         <v>3854</v>
       </c>
-      <c r="N313" s="3" t="s">
+      <c r="N314" s="3" t="s">
         <v>3855</v>
       </c>
-      <c r="O313" s="3" t="s">
+      <c r="O314" s="3" t="s">
         <v>3856</v>
       </c>
-      <c r="P313" s="3" t="s">
+      <c r="P314" s="3" t="s">
         <v>3857</v>
       </c>
     </row>
-    <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3" t="s">
+    <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="3" t="s">
         <v>4003</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B316" s="3" t="s">
         <v>4005</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C316" s="3" t="s">
         <v>4010</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D316" s="3" t="s">
         <v>4011</v>
       </c>
-      <c r="E315" s="3" t="s">
+      <c r="E316" s="3" t="s">
         <v>4012</v>
       </c>
-      <c r="F315" s="3" t="s">
+      <c r="F316" s="3" t="s">
         <v>4013</v>
       </c>
-      <c r="G315" s="3" t="s">
+      <c r="G316" s="3" t="s">
         <v>4014</v>
       </c>
-      <c r="H315" s="3" t="s">
+      <c r="H316" s="3" t="s">
         <v>4015</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="I316" s="3" t="s">
         <v>4016</v>
       </c>
-      <c r="J315" s="3" t="s">
+      <c r="J316" s="3" t="s">
         <v>4017</v>
       </c>
-      <c r="K315" s="3" t="s">
+      <c r="K316" s="3" t="s">
         <v>4018</v>
       </c>
-      <c r="L315" s="3" t="s">
+      <c r="L316" s="3" t="s">
         <v>4019</v>
       </c>
-      <c r="M315" s="3" t="s">
+      <c r="M316" s="3" t="s">
         <v>4020</v>
       </c>
-      <c r="N315" s="3" t="s">
+      <c r="N316" s="3" t="s">
         <v>4009</v>
       </c>
-      <c r="O315" s="3" t="s">
+      <c r="O316" s="3" t="s">
         <v>4008</v>
       </c>
-      <c r="P315" s="3" t="s">
+      <c r="P316" s="3" t="s">
         <v>4007</v>
       </c>
     </row>
-    <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3" t="s">
+    <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="3" t="s">
         <v>4004</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B317" s="3" t="s">
         <v>4006</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C317" s="3" t="s">
         <v>4026</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>4027</v>
       </c>
-      <c r="E316" s="3" t="s">
+      <c r="E317" s="3" t="s">
         <v>4028</v>
       </c>
-      <c r="F316" s="3" t="s">
+      <c r="F317" s="3" t="s">
         <v>4029</v>
       </c>
-      <c r="G316" s="3" t="s">
+      <c r="G317" s="3" t="s">
         <v>4030</v>
       </c>
-      <c r="H316" s="3" t="s">
+      <c r="H317" s="3" t="s">
         <v>4031</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="I317" s="3" t="s">
         <v>4032</v>
       </c>
-      <c r="J316" s="3" t="s">
+      <c r="J317" s="3" t="s">
         <v>4033</v>
       </c>
-      <c r="K316" s="3" t="s">
+      <c r="K317" s="3" t="s">
         <v>4034</v>
       </c>
-      <c r="L316" s="3" t="s">
+      <c r="L317" s="3" t="s">
         <v>4022</v>
       </c>
-      <c r="M316" s="3" t="s">
+      <c r="M317" s="3" t="s">
         <v>4021</v>
       </c>
-      <c r="N316" s="3" t="s">
+      <c r="N317" s="3" t="s">
         <v>4023</v>
       </c>
-      <c r="O316" s="3" t="s">
+      <c r="O317" s="3" t="s">
         <v>4024</v>
       </c>
-      <c r="P316" s="3" t="s">
+      <c r="P317" s="3" t="s">
         <v>4025</v>
       </c>
     </row>
-    <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3" t="s">
+    <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B319" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C319" s="3" t="s">
         <v>1483</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="E318" s="3" t="s">
+      <c r="E319" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F318" s="3" t="s">
+      <c r="F319" s="3" t="s">
         <v>1706</v>
       </c>
-      <c r="G318" s="3" t="s">
+      <c r="G319" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H318" s="3" t="s">
+      <c r="H319" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="I319" s="3" t="s">
         <v>1813</v>
       </c>
-      <c r="J318" s="3" t="s">
+      <c r="J319" s="3" t="s">
         <v>2235</v>
       </c>
-      <c r="K318" s="3" t="s">
+      <c r="K319" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L318" s="3" t="s">
+      <c r="L319" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="M318" s="3" t="s">
+      <c r="M319" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N318" s="3" t="s">
+      <c r="N319" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="O318" s="3" t="s">
+      <c r="O319" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="P318" s="3" t="s">
+      <c r="P319" s="3" t="s">
         <v>2233</v>
       </c>
     </row>
-    <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3" t="s">
+    <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B320" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C320" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D320" s="3" t="s">
         <v>1811</v>
       </c>
-      <c r="E319" s="3" t="s">
+      <c r="E320" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F319" s="3" t="s">
+      <c r="F320" s="3" t="s">
         <v>1812</v>
       </c>
-      <c r="G319" s="3" t="s">
+      <c r="G320" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H319" s="3" t="s">
+      <c r="H320" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="I320" s="3" t="s">
         <v>1814</v>
       </c>
-      <c r="J319" s="3" t="s">
+      <c r="J320" s="3" t="s">
         <v>2236</v>
       </c>
-      <c r="K319" s="3" t="s">
+      <c r="K320" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L319" s="3" t="s">
+      <c r="L320" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="M319" s="3" t="s">
+      <c r="M320" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N319" s="3" t="s">
+      <c r="N320" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="O319" s="3" t="s">
+      <c r="O320" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="P319" s="3" t="s">
+      <c r="P320" s="3" t="s">
         <v>2234</v>
       </c>
     </row>
-    <row r="320" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3" t="s">
+    <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B321" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C321" s="3" t="s">
         <v>1561</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D321" s="3" t="s">
         <v>1816</v>
       </c>
-      <c r="E320" s="3" t="s">
+      <c r="E321" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F320" s="3" t="s">
+      <c r="F321" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="G320" s="3" t="s">
+      <c r="G321" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H320" s="3" t="s">
+      <c r="H321" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="I321" s="3" t="s">
         <v>1815</v>
       </c>
-      <c r="J320" s="3" t="s">
+      <c r="J321" s="3" t="s">
         <v>2237</v>
       </c>
-      <c r="K320" s="3" t="s">
+      <c r="K321" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L320" s="3" t="s">
+      <c r="L321" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="M320" s="3" t="s">
+      <c r="M321" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N320" s="3" t="s">
+      <c r="N321" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="O320" s="3" t="s">
+      <c r="O321" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="P320" s="3" t="s">
+      <c r="P321" s="3" t="s">
         <v>2238</v>
       </c>
     </row>
-    <row r="321" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3" t="s">
+    <row r="322" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>3658</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>1481</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D323" s="3" t="s">
         <v>1695</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="E323" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F322" s="3" t="s">
+      <c r="F323" s="3" t="s">
         <v>1704</v>
       </c>
-      <c r="G322" s="3" t="s">
+      <c r="G323" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="H322" s="3" t="s">
+      <c r="H323" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="I323" s="3" t="s">
         <v>1713</v>
       </c>
-      <c r="J322" s="3" t="s">
+      <c r="J323" s="3" t="s">
         <v>2118</v>
       </c>
-      <c r="K322" s="3" t="s">
+      <c r="K323" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="L322" s="3" t="s">
+      <c r="L323" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="M322" s="3" t="s">
+      <c r="M323" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="N322" s="3" t="s">
+      <c r="N323" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="O322" s="3" t="s">
+      <c r="O323" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="P322" s="3" t="s">
+      <c r="P323" s="3" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="323" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
+    <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="3" t="s">
         <v>3657</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B324" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C324" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>1818</v>
       </c>
-      <c r="E323" s="3" t="s">
+      <c r="E324" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F324" s="3" t="s">
         <v>1819</v>
       </c>
-      <c r="G323" s="3" t="s">
+      <c r="G324" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H323" s="3" t="s">
+      <c r="H324" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="I324" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="J323" s="3" t="s">
+      <c r="J324" s="3" t="s">
         <v>2240</v>
       </c>
-      <c r="K323" s="3" t="s">
+      <c r="K324" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L323" s="3" t="s">
+      <c r="L324" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="M323" s="3" t="s">
+      <c r="M324" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N323" s="3" t="s">
+      <c r="N324" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="O323" s="3" t="s">
+      <c r="O324" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="P323" s="3" t="s">
+      <c r="P324" s="3" t="s">
         <v>2239</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
+    <row r="325" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="3" t="s">
         <v>3660</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B326" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>3705</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D326" s="3" t="s">
         <v>3692</v>
       </c>
-      <c r="E325" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>3693</v>
       </c>
-      <c r="F325" s="3" t="s">
+      <c r="F326" s="3" t="s">
         <v>3694</v>
       </c>
-      <c r="G325" s="3" t="s">
+      <c r="G326" s="3" t="s">
         <v>3695</v>
       </c>
-      <c r="H325" s="3" t="s">
+      <c r="H326" s="3" t="s">
         <v>3696</v>
       </c>
-      <c r="I325" s="3" t="s">
+      <c r="I326" s="3" t="s">
         <v>3697</v>
       </c>
-      <c r="J325" s="3" t="s">
+      <c r="J326" s="3" t="s">
         <v>3698</v>
       </c>
-      <c r="K325" s="3" t="s">
+      <c r="K326" s="3" t="s">
         <v>3699</v>
       </c>
-      <c r="L325" s="3" t="s">
+      <c r="L326" s="3" t="s">
         <v>3700</v>
       </c>
-      <c r="M325" s="3" t="s">
+      <c r="M326" s="3" t="s">
         <v>3701</v>
       </c>
-      <c r="N325" s="3" t="s">
+      <c r="N326" s="3" t="s">
         <v>3702</v>
       </c>
-      <c r="O325" s="3" t="s">
+      <c r="O326" s="3" t="s">
         <v>3703</v>
       </c>
-      <c r="P325" s="3" t="s">
+      <c r="P326" s="3" t="s">
         <v>3704</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3" t="s">
+    <row r="327" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="3" t="s">
         <v>3661</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B327" s="3" t="s">
         <v>2397</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>2398</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>2399</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="E327" s="3" t="s">
         <v>2401</v>
       </c>
-      <c r="F326" s="3" t="s">
+      <c r="F327" s="3" t="s">
         <v>2402</v>
       </c>
-      <c r="G326" s="4" t="s">
+      <c r="G327" s="4" t="s">
         <v>2403</v>
       </c>
-      <c r="H326" s="3" t="s">
+      <c r="H327" s="3" t="s">
         <v>2404</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="I327" s="3" t="s">
         <v>2405</v>
       </c>
-      <c r="J326" s="3" t="s">
+      <c r="J327" s="3" t="s">
         <v>2406</v>
       </c>
-      <c r="K326" s="3" t="s">
+      <c r="K327" s="3" t="s">
         <v>2407</v>
       </c>
-      <c r="L326" s="3" t="s">
+      <c r="L327" s="3" t="s">
         <v>2408</v>
       </c>
-      <c r="M326" s="3" t="s">
+      <c r="M327" s="3" t="s">
         <v>2409</v>
       </c>
-      <c r="N326" s="3" t="s">
+      <c r="N327" s="3" t="s">
         <v>2410</v>
       </c>
-      <c r="O326" s="3" t="s">
+      <c r="O327" s="3" t="s">
         <v>2411</v>
       </c>
-      <c r="P326" s="3" t="s">
+      <c r="P327" s="3" t="s">
         <v>2400</v>
       </c>
     </row>
-    <row r="327" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G327" s="4"/>
-    </row>
-    <row r="328" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
+    <row r="328" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="3" t="s">
         <v>3670</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B329" s="3" t="s">
         <v>3668</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>3706</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D329" s="3" t="s">
         <v>3733</v>
       </c>
-      <c r="E328" s="3" t="s">
+      <c r="E329" s="3" t="s">
         <v>3712</v>
       </c>
-      <c r="F328" s="3" t="s">
+      <c r="F329" s="3" t="s">
         <v>3741</v>
       </c>
-      <c r="G328" s="4" t="s">
+      <c r="G329" s="4" t="s">
         <v>3711</v>
       </c>
-      <c r="H328" s="3" t="s">
+      <c r="H329" s="3" t="s">
         <v>3710</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="I329" s="3" t="s">
         <v>3742</v>
       </c>
-      <c r="J328" s="3" t="s">
+      <c r="J329" s="3" t="s">
         <v>3746</v>
       </c>
-      <c r="K328" s="3" t="s">
+      <c r="K329" s="3" t="s">
         <v>3709</v>
       </c>
-      <c r="L328" s="3" t="s">
+      <c r="L329" s="3" t="s">
         <v>3750</v>
       </c>
-      <c r="M328" s="3" t="s">
+      <c r="M329" s="3" t="s">
         <v>3708</v>
       </c>
-      <c r="N328" s="3" t="s">
+      <c r="N329" s="3" t="s">
         <v>3754</v>
       </c>
-      <c r="O328" s="3" t="s">
+      <c r="O329" s="3" t="s">
         <v>3760</v>
       </c>
-      <c r="P328" s="3" t="s">
+      <c r="P329" s="3" t="s">
         <v>3707</v>
       </c>
     </row>
-    <row r="329" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+    <row r="330" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="3" t="s">
         <v>3671</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B330" s="3" t="s">
         <v>3669</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>3719</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D330" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="E329" s="3" t="s">
+      <c r="E330" s="3" t="s">
         <v>3713</v>
       </c>
-      <c r="F329" s="3" t="s">
+      <c r="F330" s="3" t="s">
         <v>3740</v>
       </c>
-      <c r="G329" s="4" t="s">
+      <c r="G330" s="4" t="s">
         <v>3714</v>
       </c>
-      <c r="H329" s="3" t="s">
+      <c r="H330" s="3" t="s">
         <v>3715</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="I330" s="3" t="s">
         <v>3743</v>
       </c>
-      <c r="J329" s="3" t="s">
+      <c r="J330" s="3" t="s">
         <v>3747</v>
       </c>
-      <c r="K329" s="3" t="s">
+      <c r="K330" s="3" t="s">
         <v>3716</v>
       </c>
-      <c r="L329" s="3" t="s">
+      <c r="L330" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="M329" s="3" t="s">
+      <c r="M330" s="3" t="s">
         <v>3717</v>
       </c>
-      <c r="N329" s="3" t="s">
+      <c r="N330" s="3" t="s">
         <v>3755</v>
       </c>
-      <c r="O329" s="3" t="s">
+      <c r="O330" s="3" t="s">
         <v>3761</v>
       </c>
-      <c r="P329" s="3" t="s">
+      <c r="P330" s="3" t="s">
         <v>3718</v>
       </c>
     </row>
-    <row r="330" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="3" t="s">
+    <row r="331" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="3" t="s">
         <v>3688</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B331" s="3" t="s">
         <v>3689</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C331" s="3" t="s">
         <v>3720</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>3735</v>
       </c>
-      <c r="E330" s="3" t="s">
+      <c r="E331" s="3" t="s">
         <v>3726</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="F331" s="3" t="s">
         <v>3739</v>
       </c>
-      <c r="G330" s="4" t="s">
+      <c r="G331" s="4" t="s">
         <v>3724</v>
       </c>
-      <c r="H330" s="3" t="s">
+      <c r="H331" s="3" t="s">
         <v>3725</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="I331" s="3" t="s">
         <v>3744</v>
       </c>
-      <c r="J330" s="3" t="s">
+      <c r="J331" s="3" t="s">
         <v>3748</v>
       </c>
-      <c r="K330" s="3" t="s">
+      <c r="K331" s="3" t="s">
         <v>3722</v>
       </c>
-      <c r="L330" s="3" t="s">
+      <c r="L331" s="3" t="s">
         <v>3752</v>
       </c>
-      <c r="M330" s="3" t="s">
+      <c r="M331" s="3" t="s">
         <v>3723</v>
       </c>
-      <c r="N330" s="3" t="s">
+      <c r="N331" s="3" t="s">
         <v>3756</v>
       </c>
-      <c r="O330" s="3" t="s">
+      <c r="O331" s="3" t="s">
         <v>3758</v>
       </c>
-      <c r="P330" s="3" t="s">
+      <c r="P331" s="3" t="s">
         <v>3721</v>
       </c>
     </row>
-    <row r="331" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="3" t="s">
+    <row r="332" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="3" t="s">
         <v>3690</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B332" s="3" t="s">
         <v>3691</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C332" s="3" t="s">
         <v>3737</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>3736</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="E332" s="3" t="s">
         <v>3727</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="F332" s="3" t="s">
         <v>3738</v>
       </c>
-      <c r="G331" s="4" t="s">
+      <c r="G332" s="4" t="s">
         <v>3729</v>
       </c>
-      <c r="H331" s="3" t="s">
+      <c r="H332" s="3" t="s">
         <v>3728</v>
       </c>
-      <c r="I331" s="3" t="s">
+      <c r="I332" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="J331" s="3" t="s">
+      <c r="J332" s="3" t="s">
         <v>3749</v>
       </c>
-      <c r="K331" s="3" t="s">
+      <c r="K332" s="3" t="s">
         <v>3730</v>
       </c>
-      <c r="L331" s="3" t="s">
+      <c r="L332" s="3" t="s">
         <v>3753</v>
       </c>
-      <c r="M331" s="3" t="s">
+      <c r="M332" s="3" t="s">
         <v>3731</v>
       </c>
-      <c r="N331" s="3" t="s">
+      <c r="N332" s="3" t="s">
         <v>3757</v>
       </c>
-      <c r="O331" s="3" t="s">
+      <c r="O332" s="3" t="s">
         <v>3759</v>
       </c>
-      <c r="P331" s="3" t="s">
+      <c r="P332" s="3" t="s">
         <v>3732</v>
       </c>
     </row>
-    <row r="332" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="3" t="s">
+    <row r="333" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="3" t="s">
         <v>3676</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B333" s="3" t="s">
         <v>2428</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C333" s="3" t="s">
         <v>2585</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D333" s="3" t="s">
         <v>2584</v>
       </c>
-      <c r="E332" s="3" t="s">
+      <c r="E333" s="3" t="s">
         <v>2443</v>
       </c>
-      <c r="F332" s="3" t="s">
+      <c r="F333" s="3" t="s">
         <v>2559</v>
       </c>
-      <c r="G332" s="3" t="s">
+      <c r="G333" s="3" t="s">
         <v>2453</v>
       </c>
-      <c r="H332" s="3" t="s">
+      <c r="H333" s="3" t="s">
         <v>2464</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="I333" s="3" t="s">
         <v>2546</v>
       </c>
-      <c r="J332" s="3" t="s">
+      <c r="J333" s="3" t="s">
         <v>2533</v>
       </c>
-      <c r="K332" s="3" t="s">
+      <c r="K333" s="3" t="s">
         <v>2475</v>
       </c>
-      <c r="L332" s="3" t="s">
+      <c r="L333" s="3" t="s">
         <v>2521</v>
       </c>
-      <c r="M332" s="3" t="s">
+      <c r="M333" s="3" t="s">
         <v>2494</v>
       </c>
-      <c r="N332" s="3" t="s">
+      <c r="N333" s="3" t="s">
         <v>2495</v>
       </c>
-      <c r="O332" s="3" t="s">
+      <c r="O333" s="3" t="s">
         <v>2507</v>
       </c>
-      <c r="P332" s="3" t="s">
+      <c r="P333" s="3" t="s">
         <v>2598</v>
       </c>
     </row>
-    <row r="333" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3" t="s">
+    <row r="334" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="3" t="s">
         <v>3677</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B334" s="3" t="s">
         <v>2432</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>2586</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="D334" s="3" t="s">
         <v>2572</v>
       </c>
-      <c r="E333" s="3" t="s">
+      <c r="E334" s="3" t="s">
         <v>2432</v>
       </c>
-      <c r="F333" s="3" t="s">
+      <c r="F334" s="3" t="s">
         <v>2560</v>
       </c>
-      <c r="G333" s="3" t="s">
+      <c r="G334" s="3" t="s">
         <v>2454</v>
       </c>
-      <c r="H333" s="3" t="s">
+      <c r="H334" s="3" t="s">
         <v>2465</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="I334" s="3" t="s">
         <v>2547</v>
       </c>
-      <c r="J333" s="3" t="s">
+      <c r="J334" s="3" t="s">
         <v>2534</v>
       </c>
-      <c r="K333" s="3" t="s">
+      <c r="K334" s="3" t="s">
         <v>2476</v>
       </c>
-      <c r="L333" s="3" t="s">
+      <c r="L334" s="3" t="s">
         <v>2522</v>
       </c>
-      <c r="M333" s="3" t="s">
+      <c r="M334" s="3" t="s">
         <v>2454</v>
       </c>
-      <c r="N333" s="3" t="s">
+      <c r="N334" s="3" t="s">
         <v>2496</v>
       </c>
-      <c r="O333" s="3" t="s">
+      <c r="O334" s="3" t="s">
         <v>2508</v>
       </c>
-      <c r="P333" s="3" t="s">
+      <c r="P334" s="3" t="s">
         <v>2599</v>
       </c>
     </row>
-    <row r="334" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3" t="s">
+    <row r="335" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="3" t="s">
         <v>3678</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B335" s="3" t="s">
         <v>2431</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C335" s="3" t="s">
         <v>2587</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D335" s="3" t="s">
         <v>2573</v>
       </c>
-      <c r="E334" s="3" t="s">
+      <c r="E335" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="F335" s="3" t="s">
         <v>2561</v>
       </c>
-      <c r="G334" s="3" t="s">
+      <c r="G335" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="H334" s="3" t="s">
+      <c r="H335" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="I335" s="3" t="s">
         <v>2548</v>
       </c>
-      <c r="J334" s="3" t="s">
+      <c r="J335" s="3" t="s">
         <v>2535</v>
       </c>
-      <c r="K334" s="3" t="s">
+      <c r="K335" s="3" t="s">
         <v>2477</v>
       </c>
-      <c r="L334" s="3" t="s">
+      <c r="L335" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="M334" s="3" t="s">
+      <c r="M335" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="N334" s="3" t="s">
+      <c r="N335" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="O334" s="3" t="s">
+      <c r="O335" s="3" t="s">
         <v>2509</v>
       </c>
-      <c r="P334" s="3" t="s">
+      <c r="P335" s="3" t="s">
         <v>2600</v>
       </c>
     </row>
-    <row r="335" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3" t="s">
+    <row r="336" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="3" t="s">
         <v>3674</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B336" s="3" t="s">
         <v>2429</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C336" s="3" t="s">
         <v>2588</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D336" s="3" t="s">
         <v>2574</v>
       </c>
-      <c r="E335" s="3" t="s">
+      <c r="E336" s="3" t="s">
         <v>2429</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="F336" s="3" t="s">
         <v>2562</v>
       </c>
-      <c r="G335" s="3" t="s">
+      <c r="G336" s="3" t="s">
         <v>2455</v>
       </c>
-      <c r="H335" s="3" t="s">
+      <c r="H336" s="3" t="s">
         <v>2466</v>
       </c>
-      <c r="I335" s="3" t="s">
+      <c r="I336" s="3" t="s">
         <v>2549</v>
       </c>
-      <c r="J335" s="3" t="s">
+      <c r="J336" s="3" t="s">
         <v>2536</v>
       </c>
-      <c r="K335" s="3" t="s">
+      <c r="K336" s="3" t="s">
         <v>2429</v>
       </c>
-      <c r="L335" s="3" t="s">
+      <c r="L336" s="3" t="s">
         <v>2523</v>
       </c>
-      <c r="M335" s="3" t="s">
+      <c r="M336" s="3" t="s">
         <v>2455</v>
       </c>
-      <c r="N335" s="3" t="s">
+      <c r="N336" s="3" t="s">
         <v>2497</v>
       </c>
-      <c r="O335" s="3" t="s">
+      <c r="O336" s="3" t="s">
         <v>2520</v>
       </c>
-      <c r="P335" s="3" t="s">
+      <c r="P336" s="3" t="s">
         <v>2601</v>
       </c>
     </row>
-    <row r="336" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="3" t="s">
+    <row r="337" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="3" t="s">
         <v>3675</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B337" s="3" t="s">
         <v>2430</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C337" s="3" t="s">
         <v>2589</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>2575</v>
       </c>
-      <c r="E336" s="3" t="s">
+      <c r="E337" s="3" t="s">
         <v>2444</v>
       </c>
-      <c r="F336" s="3" t="s">
+      <c r="F337" s="3" t="s">
         <v>2563</v>
       </c>
-      <c r="G336" s="3" t="s">
+      <c r="G337" s="3" t="s">
         <v>2456</v>
       </c>
-      <c r="H336" s="3" t="s">
+      <c r="H337" s="3" t="s">
         <v>2430</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="I337" s="3" t="s">
         <v>2550</v>
       </c>
-      <c r="J336" s="3" t="s">
+      <c r="J337" s="3" t="s">
         <v>2537</v>
       </c>
-      <c r="K336" s="3" t="s">
+      <c r="K337" s="3" t="s">
         <v>2456</v>
       </c>
-      <c r="L336" s="3" t="s">
+      <c r="L337" s="3" t="s">
         <v>2524</v>
       </c>
-      <c r="M336" s="3" t="s">
+      <c r="M337" s="3" t="s">
         <v>2456</v>
       </c>
-      <c r="N336" s="3" t="s">
+      <c r="N337" s="3" t="s">
         <v>2498</v>
       </c>
-      <c r="O336" s="3" t="s">
+      <c r="O337" s="3" t="s">
         <v>2511</v>
       </c>
-      <c r="P336" s="3" t="s">
+      <c r="P337" s="3" t="s">
         <v>2602</v>
       </c>
     </row>
-    <row r="337" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3" t="s">
+    <row r="338" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="3" t="s">
         <v>3679</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B338" s="3" t="s">
         <v>2433</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C338" s="3" t="s">
         <v>2590</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>2576</v>
       </c>
-      <c r="E337" s="3" t="s">
+      <c r="E338" s="3" t="s">
         <v>2445</v>
       </c>
-      <c r="F337" s="3" t="s">
+      <c r="F338" s="3" t="s">
         <v>2564</v>
       </c>
-      <c r="G337" s="3" t="s">
+      <c r="G338" s="3" t="s">
         <v>2457</v>
       </c>
-      <c r="H337" s="3" t="s">
+      <c r="H338" s="3" t="s">
         <v>2467</v>
       </c>
-      <c r="I337" s="3" t="s">
+      <c r="I338" s="3" t="s">
         <v>2551</v>
       </c>
-      <c r="J337" s="3" t="s">
+      <c r="J338" s="3" t="s">
         <v>2538</v>
       </c>
-      <c r="K337" s="3" t="s">
+      <c r="K338" s="3" t="s">
         <v>2478</v>
       </c>
-      <c r="L337" s="3" t="s">
+      <c r="L338" s="3" t="s">
         <v>2525</v>
       </c>
-      <c r="M337" s="3" t="s">
+      <c r="M338" s="3" t="s">
         <v>2486</v>
       </c>
-      <c r="N337" s="3" t="s">
+      <c r="N338" s="3" t="s">
         <v>2499</v>
       </c>
-      <c r="O337" s="3" t="s">
+      <c r="O338" s="3" t="s">
         <v>2510</v>
       </c>
-      <c r="P337" s="3" t="s">
+      <c r="P338" s="3" t="s">
         <v>2603</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3" t="s">
+    <row r="339" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="3" t="s">
         <v>3680</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B339" s="3" t="s">
         <v>2434</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C339" s="3" t="s">
         <v>2591</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D339" s="3" t="s">
         <v>2577</v>
       </c>
-      <c r="E338" s="3" t="s">
+      <c r="E339" s="3" t="s">
         <v>2446</v>
       </c>
-      <c r="F338" s="3" t="s">
+      <c r="F339" s="3" t="s">
         <v>2565</v>
       </c>
-      <c r="G338" s="3" t="s">
+      <c r="G339" s="3" t="s">
         <v>2458</v>
       </c>
-      <c r="H338" s="3" t="s">
+      <c r="H339" s="3" t="s">
         <v>2468</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="I339" s="3" t="s">
         <v>2552</v>
       </c>
-      <c r="J338" s="3" t="s">
+      <c r="J339" s="3" t="s">
         <v>2539</v>
       </c>
-      <c r="K338" s="3" t="s">
+      <c r="K339" s="3" t="s">
         <v>2479</v>
       </c>
-      <c r="L338" s="3" t="s">
+      <c r="L339" s="3" t="s">
         <v>2526</v>
       </c>
-      <c r="M338" s="3" t="s">
+      <c r="M339" s="3" t="s">
         <v>2487</v>
       </c>
-      <c r="N338" s="3" t="s">
+      <c r="N339" s="3" t="s">
         <v>2500</v>
       </c>
-      <c r="O338" s="3" t="s">
+      <c r="O339" s="3" t="s">
         <v>2517</v>
       </c>
-      <c r="P338" s="3" t="s">
+      <c r="P339" s="3" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="339" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3" t="s">
+    <row r="340" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="3" t="s">
         <v>3681</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B340" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C340" s="3" t="s">
         <v>2592</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D340" s="3" t="s">
         <v>2578</v>
       </c>
-      <c r="E339" s="3" t="s">
+      <c r="E340" s="3" t="s">
         <v>2447</v>
       </c>
-      <c r="F339" s="3" t="s">
+      <c r="F340" s="3" t="s">
         <v>2566</v>
       </c>
-      <c r="G339" s="3" t="s">
+      <c r="G340" s="3" t="s">
         <v>2519</v>
       </c>
-      <c r="H339" s="3" t="s">
+      <c r="H340" s="3" t="s">
         <v>2469</v>
       </c>
-      <c r="I339" s="3" t="s">
+      <c r="I340" s="3" t="s">
         <v>2553</v>
       </c>
-      <c r="J339" s="3" t="s">
+      <c r="J340" s="3" t="s">
         <v>2540</v>
       </c>
-      <c r="K339" s="3" t="s">
+      <c r="K340" s="3" t="s">
         <v>2480</v>
       </c>
-      <c r="L339" s="3" t="s">
+      <c r="L340" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="M339" s="3" t="s">
+      <c r="M340" s="3" t="s">
         <v>2488</v>
       </c>
-      <c r="N339" s="3" t="s">
+      <c r="N340" s="3" t="s">
         <v>2501</v>
       </c>
-      <c r="O339" s="3" t="s">
+      <c r="O340" s="3" t="s">
         <v>2518</v>
       </c>
-      <c r="P339" s="3" t="s">
+      <c r="P340" s="3" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="340" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="3" t="s">
+    <row r="341" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="3" t="s">
         <v>3682</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B341" s="3" t="s">
         <v>2436</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C341" s="3" t="s">
         <v>2593</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="D341" s="3" t="s">
         <v>2579</v>
       </c>
-      <c r="E340" s="3" t="s">
+      <c r="E341" s="3" t="s">
         <v>2448</v>
       </c>
-      <c r="F340" s="3" t="s">
+      <c r="F341" s="3" t="s">
         <v>2567</v>
       </c>
-      <c r="G340" s="3" t="s">
+      <c r="G341" s="3" t="s">
         <v>2459</v>
       </c>
-      <c r="H340" s="3" t="s">
+      <c r="H341" s="3" t="s">
         <v>2474</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="I341" s="3" t="s">
         <v>2554</v>
       </c>
-      <c r="J340" s="3" t="s">
+      <c r="J341" s="3" t="s">
         <v>2541</v>
       </c>
-      <c r="K340" s="3" t="s">
+      <c r="K341" s="3" t="s">
         <v>2485</v>
       </c>
-      <c r="L340" s="3" t="s">
+      <c r="L341" s="3" t="s">
         <v>2528</v>
       </c>
-      <c r="M340" s="3" t="s">
+      <c r="M341" s="3" t="s">
         <v>2489</v>
       </c>
-      <c r="N340" s="3" t="s">
+      <c r="N341" s="3" t="s">
         <v>2502</v>
       </c>
-      <c r="O340" s="3" t="s">
+      <c r="O341" s="3" t="s">
         <v>2512</v>
       </c>
-      <c r="P340" s="3" t="s">
+      <c r="P341" s="3" t="s">
         <v>2606</v>
       </c>
     </row>
-    <row r="341" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3" t="s">
+    <row r="342" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="3" t="s">
         <v>3683</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B342" s="3" t="s">
         <v>2437</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C342" s="3" t="s">
         <v>2594</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D342" s="3" t="s">
         <v>2580</v>
       </c>
-      <c r="E341" s="3" t="s">
+      <c r="E342" s="3" t="s">
         <v>2452</v>
       </c>
-      <c r="F341" s="3" t="s">
+      <c r="F342" s="3" t="s">
         <v>2568</v>
       </c>
-      <c r="G341" s="3" t="s">
+      <c r="G342" s="3" t="s">
         <v>2460</v>
       </c>
-      <c r="H341" s="3" t="s">
+      <c r="H342" s="3" t="s">
         <v>2473</v>
       </c>
-      <c r="I341" s="3" t="s">
+      <c r="I342" s="3" t="s">
         <v>2555</v>
       </c>
-      <c r="J341" s="3" t="s">
+      <c r="J342" s="3" t="s">
         <v>2542</v>
       </c>
-      <c r="K341" s="3" t="s">
+      <c r="K342" s="3" t="s">
         <v>2484</v>
       </c>
-      <c r="L341" s="3" t="s">
+      <c r="L342" s="3" t="s">
         <v>2529</v>
       </c>
-      <c r="M341" s="3" t="s">
+      <c r="M342" s="3" t="s">
         <v>2490</v>
       </c>
-      <c r="N341" s="3" t="s">
+      <c r="N342" s="3" t="s">
         <v>2503</v>
       </c>
-      <c r="O341" s="3" t="s">
+      <c r="O342" s="3" t="s">
         <v>2513</v>
       </c>
-      <c r="P341" s="3" t="s">
+      <c r="P342" s="3" t="s">
         <v>2607</v>
       </c>
     </row>
-    <row r="342" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3" t="s">
+    <row r="343" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="3" t="s">
         <v>3684</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B343" s="3" t="s">
         <v>2440</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C343" s="3" t="s">
         <v>2596</v>
       </c>
-      <c r="D342" s="3" t="s">
+      <c r="D343" s="3" t="s">
         <v>2582</v>
       </c>
-      <c r="E342" s="3" t="s">
+      <c r="E343" s="3" t="s">
         <v>2450</v>
       </c>
-      <c r="F342" s="3" t="s">
+      <c r="F343" s="3" t="s">
         <v>2570</v>
       </c>
-      <c r="G342" s="3" t="s">
+      <c r="G343" s="3" t="s">
         <v>2463</v>
       </c>
-      <c r="H342" s="3" t="s">
+      <c r="H343" s="3" t="s">
         <v>2472</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="I343" s="3" t="s">
         <v>2557</v>
       </c>
-      <c r="J342" s="3" t="s">
+      <c r="J343" s="3" t="s">
         <v>2544</v>
       </c>
-      <c r="K342" s="3" t="s">
+      <c r="K343" s="3" t="s">
         <v>2483</v>
       </c>
-      <c r="L342" s="3" t="s">
+      <c r="L343" s="3" t="s">
         <v>2531</v>
       </c>
-      <c r="M342" s="3" t="s">
+      <c r="M343" s="3" t="s">
         <v>2492</v>
       </c>
-      <c r="N342" s="3" t="s">
+      <c r="N343" s="3" t="s">
         <v>2505</v>
       </c>
-      <c r="O342" s="3" t="s">
+      <c r="O343" s="3" t="s">
         <v>2516</v>
       </c>
-      <c r="P342" s="3" t="s">
+      <c r="P343" s="3" t="s">
         <v>2609</v>
       </c>
     </row>
-    <row r="344" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="3" t="s">
+    <row r="345" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="3" t="s">
         <v>3364</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B345" s="3" t="s">
         <v>3365</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C345" s="3" t="s">
         <v>3370</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D345" s="3" t="s">
         <v>3371</v>
       </c>
-      <c r="E344" s="3" t="s">
+      <c r="E345" s="3" t="s">
         <v>3373</v>
       </c>
-      <c r="F344" s="3" t="s">
+      <c r="F345" s="3" t="s">
         <v>3374</v>
       </c>
-      <c r="G344" s="3" t="s">
+      <c r="G345" s="3" t="s">
         <v>3375</v>
       </c>
-      <c r="H344" s="3" t="s">
+      <c r="H345" s="3" t="s">
         <v>3376</v>
       </c>
-      <c r="I344" s="3" t="s">
+      <c r="I345" s="3" t="s">
         <v>3368</v>
       </c>
-      <c r="J344" s="3" t="s">
+      <c r="J345" s="3" t="s">
         <v>3369</v>
       </c>
-      <c r="K344" s="3" t="s">
+      <c r="K345" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="L344" s="3" t="s">
+      <c r="L345" s="3" t="s">
         <v>3378</v>
       </c>
-      <c r="M344" s="3" t="s">
+      <c r="M345" s="3" t="s">
         <v>3379</v>
       </c>
-      <c r="N344" s="3" t="s">
+      <c r="N345" s="3" t="s">
         <v>3380</v>
       </c>
-      <c r="O344" s="3" t="s">
+      <c r="O345" s="3" t="s">
         <v>3381</v>
       </c>
-      <c r="P344" s="3" t="s">
+      <c r="P345" s="3" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="345" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3" t="s">
+    <row r="346" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="3" t="s">
         <v>3687</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B346" s="3" t="s">
         <v>3766</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C346" s="3" t="s">
         <v>3767</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="D346" s="3" t="s">
         <v>3768</v>
       </c>
-      <c r="E345" s="3" t="s">
+      <c r="E346" s="3" t="s">
         <v>3769</v>
       </c>
-      <c r="F345" s="3" t="s">
+      <c r="F346" s="3" t="s">
         <v>3770</v>
       </c>
-      <c r="G345" s="3" t="s">
+      <c r="G346" s="3" t="s">
         <v>3771</v>
       </c>
-      <c r="H345" s="3" t="s">
+      <c r="H346" s="3" t="s">
         <v>3772</v>
       </c>
-      <c r="I345" s="3" t="s">
+      <c r="I346" s="3" t="s">
         <v>3773</v>
       </c>
-      <c r="J345" s="3" t="s">
+      <c r="J346" s="3" t="s">
         <v>3774</v>
       </c>
-      <c r="K345" s="3" t="s">
+      <c r="K346" s="3" t="s">
         <v>3775</v>
       </c>
-      <c r="L345" s="3" t="s">
+      <c r="L346" s="3" t="s">
         <v>3765</v>
       </c>
-      <c r="M345" s="3" t="s">
+      <c r="M346" s="3" t="s">
         <v>3776</v>
       </c>
-      <c r="N345" s="3" t="s">
+      <c r="N346" s="3" t="s">
         <v>3764</v>
       </c>
-      <c r="O345" s="3" t="s">
+      <c r="O346" s="3" t="s">
         <v>3762</v>
       </c>
-      <c r="P345" s="3" t="s">
+      <c r="P346" s="3" t="s">
         <v>3763</v>
       </c>
     </row>
-    <row r="346" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="3" t="s">
+    <row r="347" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="3" t="s">
         <v>3354</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B347" s="3" t="s">
         <v>3355</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C347" s="3" t="s">
         <v>3393</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="D347" s="3" t="s">
         <v>3394</v>
       </c>
-      <c r="E346" s="3" t="s">
+      <c r="E347" s="3" t="s">
         <v>3390</v>
       </c>
-      <c r="F346" s="3" t="s">
+      <c r="F347" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="G346" s="3" t="s">
+      <c r="G347" s="3" t="s">
         <v>3384</v>
       </c>
-      <c r="H346" s="3" t="s">
+      <c r="H347" s="3" t="s">
         <v>3385</v>
       </c>
-      <c r="I346" s="3" t="s">
+      <c r="I347" s="3" t="s">
         <v>3392</v>
       </c>
-      <c r="J346" s="3" t="s">
+      <c r="J347" s="3" t="s">
         <v>3389</v>
       </c>
-      <c r="K346" s="3" t="s">
+      <c r="K347" s="3" t="s">
         <v>3386</v>
       </c>
-      <c r="L346" s="3" t="s">
+      <c r="L347" s="3" t="s">
         <v>3388</v>
       </c>
-      <c r="M346" s="3" t="s">
+      <c r="M347" s="3" t="s">
         <v>3387</v>
       </c>
-      <c r="N346" s="3" t="s">
+      <c r="N347" s="3" t="s">
         <v>3383</v>
       </c>
-      <c r="O346" s="3" t="s">
+      <c r="O347" s="3" t="s">
         <v>3382</v>
       </c>
-      <c r="P346" s="3" t="s">
+      <c r="P347" s="3" t="s">
         <v>3395</v>
       </c>
     </row>
-    <row r="347" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3" t="s">
+    <row r="348" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="3" t="s">
         <v>3356</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B348" s="3" t="s">
         <v>3360</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C348" s="3" t="s">
         <v>3398</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="D348" s="3" t="s">
         <v>3397</v>
       </c>
-      <c r="E347" s="3" t="s">
+      <c r="E348" s="3" t="s">
         <v>3399</v>
       </c>
-      <c r="F347" s="3" t="s">
+      <c r="F348" s="3" t="s">
         <v>3400</v>
       </c>
-      <c r="G347" s="3" t="s">
+      <c r="G348" s="3" t="s">
         <v>3401</v>
       </c>
-      <c r="H347" s="3" t="s">
+      <c r="H348" s="3" t="s">
         <v>3402</v>
       </c>
-      <c r="I347" s="3" t="s">
+      <c r="I348" s="3" t="s">
         <v>3403</v>
       </c>
-      <c r="J347" s="3" t="s">
+      <c r="J348" s="3" t="s">
         <v>3404</v>
       </c>
-      <c r="K347" s="3" t="s">
+      <c r="K348" s="3" t="s">
         <v>3405</v>
       </c>
-      <c r="L347" s="3" t="s">
+      <c r="L348" s="3" t="s">
         <v>3406</v>
       </c>
-      <c r="M347" s="3" t="s">
+      <c r="M348" s="3" t="s">
         <v>3407</v>
       </c>
-      <c r="N347" s="3" t="s">
+      <c r="N348" s="3" t="s">
         <v>3408</v>
       </c>
-      <c r="O347" s="3" t="s">
+      <c r="O348" s="3" t="s">
         <v>3409</v>
       </c>
-      <c r="P347" s="3" t="s">
+      <c r="P348" s="3" t="s">
         <v>3396</v>
       </c>
     </row>
-    <row r="348" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="3" t="s">
+    <row r="349" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="3" t="s">
         <v>3357</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B349" s="3" t="s">
         <v>3361</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C349" s="3" t="s">
         <v>3412</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="D349" s="3" t="s">
         <v>3413</v>
       </c>
-      <c r="E348" s="3" t="s">
+      <c r="E349" s="3" t="s">
         <v>3415</v>
       </c>
-      <c r="F348" s="3" t="s">
+      <c r="F349" s="3" t="s">
         <v>3416</v>
       </c>
-      <c r="G348" s="3" t="s">
+      <c r="G349" s="3" t="s">
         <v>3417</v>
       </c>
-      <c r="H348" s="3" t="s">
+      <c r="H349" s="3" t="s">
         <v>3418</v>
       </c>
-      <c r="I348" s="3" t="s">
+      <c r="I349" s="3" t="s">
         <v>3419</v>
       </c>
-      <c r="J348" s="3" t="s">
+      <c r="J349" s="3" t="s">
         <v>3420</v>
       </c>
-      <c r="K348" s="3" t="s">
+      <c r="K349" s="3" t="s">
         <v>3421</v>
       </c>
-      <c r="L348" s="3" t="s">
+      <c r="L349" s="3" t="s">
         <v>3422</v>
       </c>
-      <c r="M348" s="3" t="s">
+      <c r="M349" s="3" t="s">
         <v>3423</v>
       </c>
-      <c r="N348" s="3" t="s">
+      <c r="N349" s="3" t="s">
         <v>3411</v>
       </c>
-      <c r="O348" s="3" t="s">
+      <c r="O349" s="3" t="s">
         <v>3410</v>
       </c>
-      <c r="P348" s="3" t="s">
+      <c r="P349" s="3" t="s">
         <v>3414</v>
       </c>
     </row>
-    <row r="349" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3" t="s">
+    <row r="350" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="3" t="s">
         <v>3358</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B350" s="3" t="s">
         <v>3362</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C350" s="3" t="s">
         <v>3429</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D350" s="3" t="s">
         <v>3430</v>
       </c>
-      <c r="E349" s="3" t="s">
+      <c r="E350" s="3" t="s">
         <v>3432</v>
       </c>
-      <c r="F349" s="3" t="s">
+      <c r="F350" s="3" t="s">
         <v>3433</v>
       </c>
-      <c r="G349" s="3" t="s">
+      <c r="G350" s="3" t="s">
         <v>3434</v>
       </c>
-      <c r="H349" s="3" t="s">
+      <c r="H350" s="3" t="s">
         <v>3435</v>
       </c>
-      <c r="I349" s="3" t="s">
+      <c r="I350" s="3" t="s">
         <v>3436</v>
       </c>
-      <c r="J349" s="3" t="s">
+      <c r="J350" s="3" t="s">
         <v>3437</v>
       </c>
-      <c r="K349" s="3" t="s">
+      <c r="K350" s="3" t="s">
         <v>3425</v>
       </c>
-      <c r="L349" s="3" t="s">
+      <c r="L350" s="3" t="s">
         <v>3426</v>
       </c>
-      <c r="M349" s="3" t="s">
+      <c r="M350" s="3" t="s">
         <v>3424</v>
       </c>
-      <c r="N349" s="3" t="s">
+      <c r="N350" s="3" t="s">
         <v>3427</v>
       </c>
-      <c r="O349" s="3" t="s">
+      <c r="O350" s="3" t="s">
         <v>3428</v>
       </c>
-      <c r="P349" s="3" t="s">
+      <c r="P350" s="3" t="s">
         <v>3431</v>
       </c>
     </row>
-    <row r="350" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3" t="s">
+    <row r="351" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="3" t="s">
         <v>3359</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B351" s="3" t="s">
         <v>3363</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C351" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="D351" s="3" t="s">
         <v>3445</v>
       </c>
-      <c r="E350" s="3" t="s">
+      <c r="E351" s="3" t="s">
         <v>3448</v>
       </c>
-      <c r="F350" s="3" t="s">
+      <c r="F351" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="G350" s="3" t="s">
+      <c r="G351" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="H350" s="3" t="s">
+      <c r="H351" s="3" t="s">
         <v>3451</v>
       </c>
-      <c r="I350" s="3" t="s">
+      <c r="I351" s="3" t="s">
         <v>3439</v>
       </c>
-      <c r="J350" s="3" t="s">
+      <c r="J351" s="3" t="s">
         <v>3438</v>
       </c>
-      <c r="K350" s="3" t="s">
+      <c r="K351" s="3" t="s">
         <v>3440</v>
       </c>
-      <c r="L350" s="3" t="s">
+      <c r="L351" s="3" t="s">
         <v>3441</v>
       </c>
-      <c r="M350" s="3" t="s">
+      <c r="M351" s="3" t="s">
         <v>3442</v>
       </c>
-      <c r="N350" s="3" t="s">
+      <c r="N351" s="3" t="s">
         <v>3443</v>
       </c>
-      <c r="O350" s="3" t="s">
+      <c r="O351" s="3" t="s">
         <v>3444</v>
       </c>
-      <c r="P350" s="3" t="s">
+      <c r="P351" s="3" t="s">
         <v>3447</v>
       </c>
     </row>
-    <row r="351" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3" t="s">
+    <row r="352" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="3" t="s">
         <v>3366</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B352" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C352" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D352" s="3" t="s">
         <v>3462</v>
       </c>
-      <c r="E351" s="3" t="s">
+      <c r="E352" s="3" t="s">
         <v>3464</v>
       </c>
-      <c r="F351" s="3" t="s">
+      <c r="F352" s="3" t="s">
         <v>3465</v>
       </c>
-      <c r="G351" s="3" t="s">
+      <c r="G352" s="3" t="s">
         <v>3453</v>
       </c>
-      <c r="H351" s="3" t="s">
+      <c r="H352" s="3" t="s">
         <v>3452</v>
       </c>
-      <c r="I351" s="3" t="s">
+      <c r="I352" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="J351" s="3" t="s">
+      <c r="J352" s="3" t="s">
         <v>3455</v>
       </c>
-      <c r="K351" s="3" t="s">
+      <c r="K352" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="L351" s="3" t="s">
+      <c r="L352" s="3" t="s">
         <v>3458</v>
       </c>
-      <c r="M351" s="4" t="s">
+      <c r="M352" s="4" t="s">
         <v>3456</v>
       </c>
-      <c r="N351" s="3" t="s">
+      <c r="N352" s="3" t="s">
         <v>3459</v>
       </c>
-      <c r="O351" s="3" t="s">
+      <c r="O352" s="3" t="s">
         <v>3460</v>
       </c>
-      <c r="P351" s="3" t="s">
+      <c r="P352" s="3" t="s">
         <v>3463</v>
       </c>
     </row>
-    <row r="353" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="10" t="s">
+    <row r="354" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="10" t="s">
         <v>4230</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B354" s="10" t="s">
         <v>4231</v>
       </c>
     </row>
-    <row r="354" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="10" t="s">
+    <row r="355" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="10" t="s">
         <v>4174</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B355" s="10" t="s">
         <v>4177</v>
       </c>
     </row>
-    <row r="355" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="10" t="s">
+    <row r="356" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="10" t="s">
         <v>4175</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B356" s="10" t="s">
         <v>4178</v>
       </c>
     </row>
-    <row r="356" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="10" t="s">
+    <row r="357" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="10" t="s">
         <v>4176</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B357" s="10" t="s">
         <v>4179</v>
       </c>
     </row>
-    <row r="357" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="10" t="s">
+    <row r="358" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="10" t="s">
         <v>4180</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B358" s="10" t="s">
         <v>4183</v>
       </c>
     </row>
-    <row r="358" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="10" t="s">
+    <row r="359" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="10" t="s">
         <v>4181</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B359" s="10" t="s">
         <v>4184</v>
       </c>
     </row>
-    <row r="359" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="10" t="s">
+    <row r="360" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="10" t="s">
         <v>4182</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B360" s="10" t="s">
         <v>4185</v>
       </c>
     </row>
-    <row r="360" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="10" t="s">
+    <row r="361" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="10" t="s">
         <v>4186</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B361" s="10" t="s">
         <v>4207</v>
       </c>
     </row>
-    <row r="361" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="10" t="s">
+    <row r="362" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="10" t="s">
         <v>4187</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B362" s="10" t="s">
         <v>4208</v>
       </c>
     </row>
-    <row r="362" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="10" t="s">
+    <row r="363" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="10" t="s">
         <v>4188</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B363" s="10" t="s">
         <v>4209</v>
       </c>
     </row>
-    <row r="363" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="10" t="s">
+    <row r="364" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="10" t="s">
         <v>4189</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B364" s="10" t="s">
         <v>4210</v>
       </c>
     </row>
-    <row r="364" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="10" t="s">
+    <row r="365" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="10" t="s">
         <v>4190</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B365" s="10" t="s">
         <v>4216</v>
       </c>
     </row>
-    <row r="365" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
+    <row r="366" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="10" t="s">
         <v>4191</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B366" s="10" t="s">
         <v>4218</v>
       </c>
     </row>
-    <row r="366" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="10" t="s">
+    <row r="367" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="10" t="s">
         <v>4192</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B367" s="10" t="s">
         <v>4217</v>
       </c>
     </row>
-    <row r="367" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="10" t="s">
+    <row r="368" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="10" t="s">
         <v>4193</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B368" s="10" t="s">
         <v>4219</v>
       </c>
     </row>
-    <row r="368" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="10" t="s">
+    <row r="369" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="10" t="s">
         <v>4221</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B369" s="10" t="s">
         <v>4220</v>
       </c>
     </row>
-    <row r="369" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="10" t="s">
+    <row r="370" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="10" t="s">
         <v>4194</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B370" s="10" t="s">
         <v>4222</v>
       </c>
     </row>
-    <row r="370" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="10" t="s">
+    <row r="371" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="10" t="s">
         <v>4195</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B371" s="10" t="s">
         <v>4223</v>
       </c>
     </row>
-    <row r="371" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="10" t="s">
+    <row r="372" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="10" t="s">
         <v>4196</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B372" s="10" t="s">
         <v>4224</v>
       </c>
     </row>
-    <row r="372" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="10" t="s">
+    <row r="373" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="10" t="s">
         <v>4197</v>
       </c>
-      <c r="B372" s="10" t="s">
+      <c r="B373" s="10" t="s">
         <v>4225</v>
       </c>
     </row>
-    <row r="373" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="10" t="s">
+    <row r="374" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="10" t="s">
         <v>4198</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B374" s="10" t="s">
         <v>4226</v>
       </c>
     </row>
-    <row r="374" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="10" t="s">
+    <row r="375" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="10" t="s">
         <v>4199</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B375" s="10" t="s">
         <v>4227</v>
       </c>
     </row>
-    <row r="375" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="10" t="s">
+    <row r="376" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="10" t="s">
         <v>4200</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B376" s="10" t="s">
         <v>4228</v>
       </c>
     </row>
-    <row r="376" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="10" t="s">
+    <row r="377" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="10" t="s">
         <v>4201</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B377" s="10" t="s">
         <v>4211</v>
       </c>
     </row>
-    <row r="377" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="10" t="s">
+    <row r="378" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="10" t="s">
         <v>4202</v>
       </c>
-      <c r="B377" s="10" t="s">
+      <c r="B378" s="10" t="s">
         <v>4212</v>
       </c>
     </row>
-    <row r="378" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="10" t="s">
+    <row r="379" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="10" t="s">
         <v>4203</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B379" s="10" t="s">
         <v>4213</v>
       </c>
     </row>
-    <row r="379" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="10" t="s">
+    <row r="380" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="10" t="s">
         <v>4204</v>
       </c>
-      <c r="B379" s="10" t="s">
+      <c r="B380" s="10" t="s">
         <v>4214</v>
       </c>
     </row>
-    <row r="380" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="10" t="s">
+    <row r="381" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="10" t="s">
         <v>4205</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B381" s="10" t="s">
         <v>4215</v>
       </c>
     </row>
-    <row r="381" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="10" t="s">
+    <row r="382" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="10" t="s">
         <v>4206</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="B382" s="10" t="s">
         <v>4229</v>
       </c>
     </row>

--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\infirmary-integrated\II Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0964C144-1C5B-43EE-BB5D-9A4E3F2AF402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FBBE68-BEDA-4248-B764-E0B1B6538764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15410" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="5089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="5131">
   <si>
     <t>Temperature</t>
   </si>
@@ -15292,6 +15292,132 @@
   </si>
   <si>
     <t>MENU:MenuColorSchemeGrid</t>
+  </si>
+  <si>
+    <t>تمكين الصوت</t>
+  </si>
+  <si>
+    <t>تعطيل الصوت</t>
+  </si>
+  <si>
+    <t>ድምጽ አሰናክል</t>
+  </si>
+  <si>
+    <t>ድምጽን አንቃ</t>
+  </si>
+  <si>
+    <t>Audio aktivieren</t>
+  </si>
+  <si>
+    <t>Deaktiviere Audio</t>
+  </si>
+  <si>
+    <t>Desactivar el audio</t>
+  </si>
+  <si>
+    <t>Activar audio</t>
+  </si>
+  <si>
+    <t>Activer le son</t>
+  </si>
+  <si>
+    <t>Désactiver le son</t>
+  </si>
+  <si>
+    <t>Disattiva l'audio</t>
+  </si>
+  <si>
+    <t>Attiva l'audio</t>
+  </si>
+  <si>
+    <t>Ativar áudio</t>
+  </si>
+  <si>
+    <t>Desativar áudio</t>
+  </si>
+  <si>
+    <t>Деактивировать звук</t>
+  </si>
+  <si>
+    <t>Включить звук</t>
+  </si>
+  <si>
+    <t>Washa sauti</t>
+  </si>
+  <si>
+    <t>Zima sauti</t>
+  </si>
+  <si>
+    <t>停用音频</t>
+  </si>
+  <si>
+    <t>激活音频</t>
+  </si>
+  <si>
+    <t>오디오 활성화</t>
+  </si>
+  <si>
+    <t>오디오 비활성화</t>
+  </si>
+  <si>
+    <t>ऑडियो निष्क्रिय करें</t>
+  </si>
+  <si>
+    <t>ऑडियो सक्रिय करें</t>
+  </si>
+  <si>
+    <t>הפעל אודיו</t>
+  </si>
+  <si>
+    <t>השבת את האודיו</t>
+  </si>
+  <si>
+    <t>صدا را غیرفعال کنید</t>
+  </si>
+  <si>
+    <t>صدا را فعال کنید</t>
+  </si>
+  <si>
+    <t>الگوی مربع</t>
+  </si>
+  <si>
+    <t>نمط الشبكة المربعة</t>
+  </si>
+  <si>
+    <t>የካሬ ፍርግርግ ንድፍ</t>
+  </si>
+  <si>
+    <t>Quadratisches Gitterdesign</t>
+  </si>
+  <si>
+    <t>Grille</t>
+  </si>
+  <si>
+    <t>Cuadrícula</t>
+  </si>
+  <si>
+    <t>רשת מרובעת</t>
+  </si>
+  <si>
+    <t>वर्गाकार ग्रिड पैटर्न</t>
+  </si>
+  <si>
+    <t>Motivo quadrato</t>
+  </si>
+  <si>
+    <t>Padrão quadrado</t>
+  </si>
+  <si>
+    <t>정사각형 패턴</t>
+  </si>
+  <si>
+    <t>Квадратная сетка</t>
+  </si>
+  <si>
+    <t>Gridi ya mraba</t>
+  </si>
+  <si>
+    <t>方形网格图案</t>
   </si>
 </sst>
 </file>
@@ -15321,18 +15447,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -15362,7 +15482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -15387,9 +15507,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -15674,9 +15791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B248" sqref="B248"/>
+      <selection pane="bottomLeft" activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27030,48 +27147,104 @@
       </c>
     </row>
     <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="3" t="s">
         <v>5083</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="3" t="s">
         <v>5085</v>
       </c>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
-      <c r="K243" s="10"/>
-      <c r="L243" s="10"/>
-      <c r="M243" s="10"/>
-      <c r="N243" s="10"/>
-      <c r="O243" s="10"/>
-      <c r="P243" s="10"/>
+      <c r="C243" s="3" t="s">
+        <v>5092</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>5089</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>5093</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>5116</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>5096</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>5097</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>5113</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>5112</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>5100</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>5109</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>5101</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>5104</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>5105</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>5108</v>
+      </c>
     </row>
     <row r="244" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="3" t="s">
         <v>5084</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="3" t="s">
         <v>5086</v>
       </c>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
-      <c r="L244" s="10"/>
-      <c r="M244" s="10"/>
-      <c r="N244" s="10"/>
-      <c r="O244" s="10"/>
-      <c r="P244" s="10"/>
+      <c r="C244" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>5090</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>5094</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>5115</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>5095</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>5098</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>5114</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>5111</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>5099</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>5110</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>5102</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>5103</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>5106</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>5107</v>
+      </c>
     </row>
     <row r="245" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
@@ -27374,26 +27547,54 @@
       </c>
     </row>
     <row r="251" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="10" t="s">
+      <c r="A251" s="3" t="s">
         <v>5088</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="3" t="s">
         <v>5087</v>
       </c>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="10"/>
-      <c r="I251" s="10"/>
-      <c r="J251" s="10"/>
-      <c r="K251" s="10"/>
-      <c r="L251" s="10"/>
-      <c r="M251" s="10"/>
-      <c r="N251" s="10"/>
-      <c r="O251" s="10"/>
-      <c r="P251" s="10"/>
+      <c r="C251" s="3" t="s">
+        <v>5119</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>5118</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>5120</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>5117</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>5122</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>5121</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>5123</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>5124</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>5125</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>5127</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>5126</v>
+      </c>
+      <c r="N251" s="3" t="s">
+        <v>5128</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>5129</v>
+      </c>
+      <c r="P251" s="3" t="s">
+        <v>5130</v>
+      </c>
     </row>
     <row r="252" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">

--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="5183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="5185">
   <si>
     <t>Key</t>
   </si>
@@ -14628,97 +14628,97 @@
     <t>MIRROR:EnterSettings</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter settings, only using numbers and letters:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ቁጥሮችን እና ፊደሎችን ብቻ በመጠቀም ቅንብሮችን ያስገቡ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أدخل الإعدادات ، باستخدام الأرقام والحروف فقط:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geben Sie die Einstellungen ein, verwenden Sie nur Zahlen und Buchstaben:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تنظیمات را فقط با استفاده از اعداد و حروف وارد کنید:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingrese la configuración, solo use números y letras:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrez les paramètres, utilisez uniquement des chiffres et des lettres :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הזן הגדרות, באמצעות מספרים ואותיות בלבד:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">केवल संख्याओं और अक्षरों का उपयोग करके सेटिंग दर्ज करें:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserisci le impostazioni, usa solo numeri e lettere:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">숫자와 문자만 사용하여 설정을 입력합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insira as configurações, use apenas números e letras:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вводите настройки, используя только цифры и буквы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingiza mipangilio ukitumia nambari na herufi tu.</t>
-  </si>
-  <si>
-    <t>进入设置，只使用数字和字母：</t>
+    <t xml:space="preserve">Enter settings:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ቅንብሮችን ያስገቡ፡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدخل الإعدادات:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstellungen eingeben:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنظیمات را وارد کنید:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese la configuración:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrez les paramètres:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הזן הגדרות:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सेटिंग्स दर्ज करें:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserisci le impostazioni:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">설정으로 이동:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insira as configurações:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перейдите в настройки:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingiza mipangilio:</t>
+  </si>
+  <si>
+    <t>进入设置：</t>
   </si>
   <si>
     <t>MIRROR:SettingsInvalid</t>
   </si>
   <si>
-    <t xml:space="preserve">Settings can only include letters and numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ቅንጅቶች ፊደሎችን እና ቁጥሮችን ብቻ ሊያካትቱ ይችላሉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يمكن أن تتضمن الإعدادات أحرفًا وأرقامًا فقط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einstellungen können nur Buchstaben und Zahlen enthalten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تنظیمات فقط می توانند شامل حروف و اعداد باشند</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La configuración solo puede contener letras y números</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les paramètres ne peuvent contenir que des lettres et des chiffres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ההגדרות יכולות לכלול רק אותיות ומספרים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सेटिंग्स में केवल अक्षर और संख्याएं शामिल हो सकती हैं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le impostazioni possono contenere solo lettere e numeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">설정에는 문자와 숫자만 포함될 수 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As configurações podem conter apenas letras e números</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настройки могут содержать только буквы и цифры.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mipangilio inaweza kuwa barua na nambari tu.</t>
-  </si>
-  <si>
-    <t>设置只能包含字母和数字</t>
+    <t xml:space="preserve">Password and access keys can only include letters and numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">የይለፍ ቃላት እና የመዳረሻ ቁልፎች ፊደላትን እና ቁጥሮችን ብቻ ሊይዙ ይችላሉ።</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يجب أن تحتوي كلمات المرور ومفاتيح الوصول على أحرف وأرقام فقط.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passwörter und Zugangsschlüssel dürfen nur Buchstaben und Zahlen enthalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رمزهای عبور و کلیدهای دسترسی فقط می‌توانند شامل حروف و اعداد باشند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las contraseñas y las claves de acceso solo pueden contener letras y números.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les mots de passe et les clés d'accès ne peuvent contenir que des lettres et des chiffres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סיסמאות ומפתחות גישה יכולים להכיל רק אותיות ומספרים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पासवर्ड और एक्सेस की में सिर्फ़ अक्षर और नंबर हो सकते हैं।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le password e le chiavi di accesso possono contenere solo lettere e numeri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비밀번호와 접근 키에는 문자 및 숫자만 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As palavras-passe e as chaves de acesso só podem conter letras e números.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пароли и ключи доступа могут содержать только буквы и цифры.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manenosiri na funguo za ufikiaji zinaweza kuwa na herufi na nambari pekee.</t>
+  </si>
+  <si>
+    <t>密码和访问密钥只能包含字母和数字。</t>
   </si>
   <si>
     <t>MIRROR:MirrorPatientData</t>
@@ -14896,6 +14896,12 @@
   </si>
   <si>
     <t>客户</t>
+  </si>
+  <si>
+    <t>MIRROR:ServerAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Address:</t>
   </si>
   <si>
     <t>MIRROR:AccessionKey</t>
@@ -15640,10 +15646,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -26494,10 +26500,10 @@
       </c>
     </row>
     <row r="223" s="1" customFormat="1">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -27247,49 +27253,49 @@
       <c r="A238" s="1" t="s">
         <v>3240</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="E238" s="7" t="s">
+      <c r="E238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="F238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="G238" s="7" t="s">
+      <c r="G238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="H238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="I238" s="7" t="s">
+      <c r="I238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="J238" s="7" t="s">
+      <c r="J238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="K238" s="7" t="s">
+      <c r="K238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="L238" s="7" t="s">
+      <c r="L238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="M238" s="7" t="s">
+      <c r="M238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="N238" s="7" t="s">
+      <c r="N238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="O238" s="7" t="s">
+      <c r="O238" s="6" t="s">
         <v>3241</v>
       </c>
-      <c r="P238" s="7" t="s">
+      <c r="P238" s="6" t="s">
         <v>3241</v>
       </c>
     </row>
@@ -27297,49 +27303,49 @@
       <c r="A239" s="1" t="s">
         <v>3242</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="E239" s="7" t="s">
+      <c r="E239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="F239" s="7" t="s">
+      <c r="F239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="G239" s="7" t="s">
+      <c r="G239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="I239" s="7" t="s">
+      <c r="I239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="J239" s="7" t="s">
+      <c r="J239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="K239" s="7" t="s">
+      <c r="K239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="L239" s="7" t="s">
+      <c r="L239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="M239" s="7" t="s">
+      <c r="M239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="N239" s="7" t="s">
+      <c r="N239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="O239" s="7" t="s">
+      <c r="O239" s="6" t="s">
         <v>3243</v>
       </c>
-      <c r="P239" s="7" t="s">
+      <c r="P239" s="6" t="s">
         <v>3243</v>
       </c>
     </row>
@@ -27347,49 +27353,49 @@
       <c r="A240" s="1" t="s">
         <v>3244</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="E240" s="7" t="s">
+      <c r="E240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="F240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="G240" s="7" t="s">
+      <c r="G240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="I240" s="7" t="s">
+      <c r="I240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="J240" s="7" t="s">
+      <c r="J240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="K240" s="7" t="s">
+      <c r="K240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="L240" s="7" t="s">
+      <c r="L240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="M240" s="7" t="s">
+      <c r="M240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="N240" s="7" t="s">
+      <c r="N240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="O240" s="7" t="s">
+      <c r="O240" s="6" t="s">
         <v>3245</v>
       </c>
-      <c r="P240" s="7" t="s">
+      <c r="P240" s="6" t="s">
         <v>3245</v>
       </c>
     </row>
@@ -34713,7 +34719,7 @@
       <c r="A400" s="1" t="s">
         <v>4885</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="B400" s="7" t="s">
         <v>4886</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -35017,696 +35023,746 @@
         <v>4961</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>4962</v>
+        <v>4936</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>4963</v>
+        <v>4937</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>4964</v>
+        <v>4935</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>4965</v>
+        <v>4938</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>4966</v>
+        <v>4939</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>4967</v>
+        <v>4940</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>4968</v>
+        <v>4941</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>4969</v>
+        <v>4942</v>
       </c>
       <c r="K406" s="1" t="s">
-        <v>4970</v>
+        <v>4935</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>4971</v>
+        <v>4943</v>
       </c>
       <c r="M406" s="1" t="s">
-        <v>4972</v>
+        <v>4939</v>
       </c>
       <c r="N406" s="1" t="s">
-        <v>4973</v>
+        <v>4944</v>
       </c>
       <c r="O406" s="1" t="s">
-        <v>4974</v>
+        <v>4945</v>
       </c>
       <c r="P406" s="1" t="s">
-        <v>4975</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1">
       <c r="A407" s="1" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>4963</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>4964</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>4965</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>4966</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>4967</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>4968</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>4969</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>4970</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>4971</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>4972</v>
+      </c>
+      <c r="L407" s="1" t="s">
+        <v>4973</v>
+      </c>
+      <c r="M407" s="1" t="s">
+        <v>4974</v>
+      </c>
+      <c r="N407" s="1" t="s">
+        <v>4975</v>
+      </c>
+      <c r="O407" s="1" t="s">
         <v>4976</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="P407" s="1" t="s">
         <v>4977</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>4978</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>4979</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>4980</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>4981</v>
-      </c>
-      <c r="G407" s="1" t="s">
-        <v>4982</v>
-      </c>
-      <c r="H407" s="1" t="s">
-        <v>4983</v>
-      </c>
-      <c r="I407" s="1" t="s">
-        <v>4984</v>
-      </c>
-      <c r="J407" s="1" t="s">
-        <v>4985</v>
-      </c>
-      <c r="K407" s="1" t="s">
-        <v>4986</v>
-      </c>
-      <c r="L407" s="1" t="s">
-        <v>4987</v>
-      </c>
-      <c r="M407" s="1" t="s">
-        <v>4988</v>
-      </c>
-      <c r="N407" s="1" t="s">
-        <v>4989</v>
-      </c>
-      <c r="O407" s="1" t="s">
-        <v>4990</v>
-      </c>
-      <c r="P407" s="1" t="s">
-        <v>4991</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1">
       <c r="A408" s="1" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>4981</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>4982</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>4983</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>4984</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>4985</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>4986</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>4987</v>
+      </c>
+      <c r="K408" s="1" t="s">
+        <v>4988</v>
+      </c>
+      <c r="L408" s="1" t="s">
+        <v>4989</v>
+      </c>
+      <c r="M408" s="1" t="s">
+        <v>4990</v>
+      </c>
+      <c r="N408" s="1" t="s">
+        <v>4991</v>
+      </c>
+      <c r="O408" s="1" t="s">
         <v>4992</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="P408" s="1" t="s">
         <v>4993</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>4994</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>4995</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>4996</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>4997</v>
-      </c>
-      <c r="G408" s="1" t="s">
-        <v>4998</v>
-      </c>
-      <c r="H408" s="1" t="s">
-        <v>4999</v>
-      </c>
-      <c r="I408" s="1" t="s">
-        <v>5000</v>
-      </c>
-      <c r="J408" s="1" t="s">
-        <v>5001</v>
-      </c>
-      <c r="K408" s="1" t="s">
-        <v>5002</v>
-      </c>
-      <c r="L408" s="1" t="s">
-        <v>5003</v>
-      </c>
-      <c r="M408" s="1" t="s">
-        <v>5004</v>
-      </c>
-      <c r="N408" s="1" t="s">
-        <v>5005</v>
-      </c>
-      <c r="O408" s="1" t="s">
-        <v>5006</v>
-      </c>
-      <c r="P408" s="1" t="s">
-        <v>5007</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1">
       <c r="A409" s="1" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>4996</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>4997</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>4998</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>4999</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>5000</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>5001</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>5002</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>5003</v>
+      </c>
+      <c r="K409" s="1" t="s">
+        <v>5004</v>
+      </c>
+      <c r="L409" s="1" t="s">
+        <v>5005</v>
+      </c>
+      <c r="M409" s="1" t="s">
+        <v>5006</v>
+      </c>
+      <c r="N409" s="1" t="s">
+        <v>5007</v>
+      </c>
+      <c r="O409" s="1" t="s">
         <v>5008</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="P409" s="1" t="s">
         <v>5009</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>5010</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>5011</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>5012</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>5013</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>5014</v>
-      </c>
-      <c r="H409" s="1" t="s">
-        <v>5015</v>
-      </c>
-      <c r="I409" s="1" t="s">
-        <v>5016</v>
-      </c>
-      <c r="J409" s="1" t="s">
-        <v>5017</v>
-      </c>
-      <c r="K409" s="1" t="s">
-        <v>5018</v>
-      </c>
-      <c r="L409" s="1" t="s">
-        <v>5019</v>
-      </c>
-      <c r="M409" s="1" t="s">
-        <v>5020</v>
-      </c>
-      <c r="N409" s="1" t="s">
-        <v>5021</v>
-      </c>
-      <c r="O409" s="1" t="s">
-        <v>5022</v>
-      </c>
-      <c r="P409" s="1" t="s">
-        <v>5023</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1">
       <c r="A410" s="1" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>5012</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>5013</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>5014</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>5015</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>5016</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>5017</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>5018</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>5019</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>5020</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>5021</v>
+      </c>
+      <c r="M410" s="1" t="s">
+        <v>5022</v>
+      </c>
+      <c r="N410" s="1" t="s">
+        <v>5023</v>
+      </c>
+      <c r="O410" s="1" t="s">
         <v>5024</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="P410" s="1" t="s">
         <v>5025</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>5026</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>5027</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>5028</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>5029</v>
-      </c>
-      <c r="G410" s="1" t="s">
-        <v>5030</v>
-      </c>
-      <c r="H410" s="1" t="s">
-        <v>5031</v>
-      </c>
-      <c r="I410" s="1" t="s">
-        <v>5032</v>
-      </c>
-      <c r="J410" s="1" t="s">
-        <v>5033</v>
-      </c>
-      <c r="K410" s="1" t="s">
-        <v>5034</v>
-      </c>
-      <c r="L410" s="1" t="s">
-        <v>5035</v>
-      </c>
-      <c r="M410" s="1" t="s">
-        <v>5036</v>
-      </c>
-      <c r="N410" s="1" t="s">
-        <v>5037</v>
-      </c>
-      <c r="O410" s="1" t="s">
-        <v>5038</v>
-      </c>
-      <c r="P410" s="1" t="s">
-        <v>5039</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1">
       <c r="A411" s="1" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>5028</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>5032</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>5033</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>5034</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>5035</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>5036</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>5037</v>
+      </c>
+      <c r="M411" s="1" t="s">
+        <v>5038</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>5039</v>
+      </c>
+      <c r="O411" s="1" t="s">
         <v>5040</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="P411" s="1" t="s">
         <v>5041</v>
       </c>
-      <c r="C411" s="1" t="s">
+    </row>
+    <row r="412" s="1" customFormat="1">
+      <c r="A412" s="1" t="s">
         <v>5042</v>
       </c>
-      <c r="D411" s="1" t="s">
+      <c r="B412" s="1" t="s">
         <v>5043</v>
       </c>
-      <c r="E411" s="1" t="s">
+      <c r="C412" s="1" t="s">
         <v>5044</v>
       </c>
-      <c r="F411" s="1" t="s">
+      <c r="D412" s="1" t="s">
         <v>5045</v>
       </c>
-      <c r="G411" s="1" t="s">
+      <c r="E412" s="1" t="s">
         <v>5046</v>
       </c>
-      <c r="H411" s="1" t="s">
+      <c r="F412" s="1" t="s">
         <v>5047</v>
       </c>
-      <c r="I411" s="1" t="s">
+      <c r="G412" s="1" t="s">
         <v>5048</v>
       </c>
-      <c r="J411" s="1" t="s">
+      <c r="H412" s="1" t="s">
         <v>5049</v>
       </c>
-      <c r="K411" s="1" t="s">
+      <c r="I412" s="1" t="s">
         <v>5050</v>
       </c>
-      <c r="L411" s="1" t="s">
+      <c r="J412" s="1" t="s">
         <v>5051</v>
       </c>
-      <c r="M411" s="1" t="s">
+      <c r="K412" s="1" t="s">
         <v>5052</v>
       </c>
-      <c r="N411" s="1" t="s">
+      <c r="L412" s="1" t="s">
         <v>5053</v>
       </c>
-      <c r="O411" s="1" t="s">
+      <c r="M412" s="1" t="s">
         <v>5054</v>
       </c>
-      <c r="P411" s="1" t="s">
+      <c r="N412" s="1" t="s">
         <v>5055</v>
       </c>
-    </row>
-    <row r="413" s="1" customFormat="1">
-      <c r="A413" s="1" t="s">
+      <c r="O412" s="1" t="s">
         <v>5056</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="P412" s="1" t="s">
         <v>5057</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>5058</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>5059</v>
-      </c>
-      <c r="E413" s="1" t="s">
-        <v>3557</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>5060</v>
-      </c>
-      <c r="G413" s="1" t="s">
-        <v>5061</v>
-      </c>
-      <c r="H413" s="1" t="s">
-        <v>5062</v>
-      </c>
-      <c r="I413" s="1" t="s">
-        <v>5063</v>
-      </c>
-      <c r="J413" s="1" t="s">
-        <v>5064</v>
-      </c>
-      <c r="K413" s="1" t="s">
-        <v>5065</v>
-      </c>
-      <c r="L413" s="1" t="s">
-        <v>5066</v>
-      </c>
-      <c r="M413" s="1" t="s">
-        <v>5067</v>
-      </c>
-      <c r="N413" s="1" t="s">
-        <v>5068</v>
-      </c>
-      <c r="O413" s="1" t="s">
-        <v>5069</v>
-      </c>
-      <c r="P413" s="1" t="s">
-        <v>5070</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1">
       <c r="A414" s="1" t="s">
+        <v>5058</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>5059</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>5060</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>5061</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>5062</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>5063</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>5064</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>5067</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>5068</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>5069</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>5070</v>
+      </c>
+      <c r="O414" s="1" t="s">
         <v>5071</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="P414" s="1" t="s">
         <v>5072</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>5073</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>5074</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>5075</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>5076</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>5077</v>
-      </c>
-      <c r="H414" s="1" t="s">
-        <v>5078</v>
-      </c>
-      <c r="I414" s="1" t="s">
-        <v>5079</v>
-      </c>
-      <c r="J414" s="1" t="s">
-        <v>5080</v>
-      </c>
-      <c r="K414" s="1" t="s">
-        <v>5081</v>
-      </c>
-      <c r="L414" s="1" t="s">
-        <v>5082</v>
-      </c>
-      <c r="M414" s="1" t="s">
-        <v>5083</v>
-      </c>
-      <c r="N414" s="1" t="s">
-        <v>5084</v>
-      </c>
-      <c r="O414" s="1" t="s">
-        <v>5085</v>
-      </c>
-      <c r="P414" s="1" t="s">
-        <v>5086</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1">
       <c r="A415" s="1" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>5075</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>5076</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>5077</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>5078</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>5079</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>5080</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>5081</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>5082</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>5083</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>5084</v>
+      </c>
+      <c r="M415" s="1" t="s">
+        <v>5085</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>5086</v>
+      </c>
+      <c r="O415" s="1" t="s">
         <v>5087</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="P415" s="1" t="s">
         <v>5088</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>5089</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>5090</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>5091</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>5092</v>
-      </c>
-      <c r="G415" s="1" t="s">
-        <v>5093</v>
-      </c>
-      <c r="H415" s="1" t="s">
-        <v>5094</v>
-      </c>
-      <c r="I415" s="1" t="s">
-        <v>5095</v>
-      </c>
-      <c r="J415" s="1" t="s">
-        <v>5096</v>
-      </c>
-      <c r="K415" s="1" t="s">
-        <v>5097</v>
-      </c>
-      <c r="L415" s="1" t="s">
-        <v>5098</v>
-      </c>
-      <c r="M415" s="1" t="s">
-        <v>5099</v>
-      </c>
-      <c r="N415" s="1" t="s">
-        <v>5100</v>
-      </c>
-      <c r="O415" s="1" t="s">
-        <v>5101</v>
-      </c>
-      <c r="P415" s="1" t="s">
-        <v>5102</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1">
       <c r="A416" s="1" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>5090</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>5091</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>5093</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>5094</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>5095</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>5096</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>5097</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>5098</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>5099</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>5100</v>
+      </c>
+      <c r="M416" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>5102</v>
+      </c>
+      <c r="O416" s="1" t="s">
         <v>5103</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="P416" s="1" t="s">
         <v>5104</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>5105</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>5106</v>
-      </c>
-      <c r="E416" s="1" t="s">
-        <v>5107</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>5108</v>
-      </c>
-      <c r="G416" s="1" t="s">
-        <v>5109</v>
-      </c>
-      <c r="H416" s="1" t="s">
-        <v>5110</v>
-      </c>
-      <c r="I416" s="1" t="s">
-        <v>5111</v>
-      </c>
-      <c r="J416" s="1" t="s">
-        <v>5112</v>
-      </c>
-      <c r="K416" s="1" t="s">
-        <v>5113</v>
-      </c>
-      <c r="L416" s="1" t="s">
-        <v>5114</v>
-      </c>
-      <c r="M416" s="1" t="s">
-        <v>5115</v>
-      </c>
-      <c r="N416" s="1" t="s">
-        <v>5116</v>
-      </c>
-      <c r="O416" s="1" t="s">
-        <v>5117</v>
-      </c>
-      <c r="P416" s="1" t="s">
-        <v>5118</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1">
       <c r="A417" s="1" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>5106</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>5107</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>5108</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>5109</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>5110</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>5111</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>5112</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>5113</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>5114</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>5115</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="M417" s="1" t="s">
+        <v>5117</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>5118</v>
+      </c>
+      <c r="O417" s="1" t="s">
         <v>5119</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="P417" s="1" t="s">
         <v>5120</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>5121</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>5122</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>5123</v>
-      </c>
-      <c r="F417" s="1" t="s">
-        <v>5124</v>
-      </c>
-      <c r="G417" s="1" t="s">
-        <v>5125</v>
-      </c>
-      <c r="H417" s="1" t="s">
-        <v>5126</v>
-      </c>
-      <c r="I417" s="1" t="s">
-        <v>5127</v>
-      </c>
-      <c r="J417" s="1" t="s">
-        <v>5128</v>
-      </c>
-      <c r="K417" s="1" t="s">
-        <v>5129</v>
-      </c>
-      <c r="L417" s="1" t="s">
-        <v>5130</v>
-      </c>
-      <c r="M417" s="1" t="s">
-        <v>5131</v>
-      </c>
-      <c r="N417" s="1" t="s">
-        <v>5132</v>
-      </c>
-      <c r="O417" s="1" t="s">
-        <v>5133</v>
-      </c>
-      <c r="P417" s="1" t="s">
-        <v>5134</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1">
       <c r="A418" s="1" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>5122</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>5123</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>5124</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>5125</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>5126</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>5127</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>5128</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>5129</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>5130</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>5131</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>5132</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>5133</v>
+      </c>
+      <c r="N418" s="1" t="s">
+        <v>5134</v>
+      </c>
+      <c r="O418" s="1" t="s">
         <v>5135</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="P418" s="1" t="s">
         <v>5136</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>5137</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>5138</v>
-      </c>
-      <c r="E418" s="1" t="s">
-        <v>5139</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>5140</v>
-      </c>
-      <c r="G418" s="1" t="s">
-        <v>5141</v>
-      </c>
-      <c r="H418" s="1" t="s">
-        <v>5142</v>
-      </c>
-      <c r="I418" s="1" t="s">
-        <v>5143</v>
-      </c>
-      <c r="J418" s="1" t="s">
-        <v>5144</v>
-      </c>
-      <c r="K418" s="1" t="s">
-        <v>5145</v>
-      </c>
-      <c r="L418" s="1" t="s">
-        <v>5146</v>
-      </c>
-      <c r="M418" s="1" t="s">
-        <v>5147</v>
-      </c>
-      <c r="N418" s="1" t="s">
-        <v>5148</v>
-      </c>
-      <c r="O418" s="1" t="s">
-        <v>5149</v>
-      </c>
-      <c r="P418" s="1" t="s">
-        <v>5150</v>
       </c>
     </row>
     <row r="419" s="1" customFormat="1">
       <c r="A419" s="1" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>5139</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>5140</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>5141</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>5142</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>5143</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>5144</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>5145</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>5146</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>5147</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>5148</v>
+      </c>
+      <c r="M419" s="1" t="s">
+        <v>5149</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>5150</v>
+      </c>
+      <c r="O419" s="1" t="s">
         <v>5151</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="P419" s="1" t="s">
         <v>5152</v>
       </c>
-      <c r="C419" s="1" t="s">
+    </row>
+    <row r="420" s="1" customFormat="1">
+      <c r="A420" s="1" t="s">
         <v>5153</v>
       </c>
-      <c r="D419" s="1" t="s">
+      <c r="B420" s="1" t="s">
         <v>5154</v>
       </c>
-      <c r="E419" s="1" t="s">
+      <c r="C420" s="1" t="s">
         <v>5155</v>
       </c>
-      <c r="F419" s="1" t="s">
+      <c r="D420" s="1" t="s">
         <v>5156</v>
       </c>
-      <c r="G419" s="1" t="s">
+      <c r="E420" s="1" t="s">
         <v>5157</v>
       </c>
-      <c r="H419" s="1" t="s">
+      <c r="F420" s="1" t="s">
         <v>5158</v>
       </c>
-      <c r="I419" s="1" t="s">
+      <c r="G420" s="1" t="s">
         <v>5159</v>
       </c>
-      <c r="J419" s="1" t="s">
+      <c r="H420" s="1" t="s">
         <v>5160</v>
       </c>
-      <c r="K419" s="1" t="s">
+      <c r="I420" s="1" t="s">
         <v>5161</v>
       </c>
-      <c r="L419" s="1" t="s">
+      <c r="J420" s="1" t="s">
         <v>5162</v>
       </c>
-      <c r="M419" s="1" t="s">
+      <c r="K420" s="1" t="s">
         <v>5163</v>
       </c>
-      <c r="N419" s="1" t="s">
+      <c r="L420" s="1" t="s">
         <v>5164</v>
       </c>
-      <c r="O419" s="1" t="s">
+      <c r="M420" s="1" t="s">
         <v>5165</v>
       </c>
-      <c r="P419" s="1" t="s">
+      <c r="N420" s="1" t="s">
         <v>5166</v>
       </c>
-    </row>
-    <row r="420" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A420" s="1" t="s">
+      <c r="O420" s="1" t="s">
         <v>5167</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="P420" s="1" t="s">
         <v>5168</v>
       </c>
-      <c r="C420" s="1" t="s">
+    </row>
+    <row r="421" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A421" s="1" t="s">
         <v>5169</v>
       </c>
-      <c r="D420" s="1" t="s">
+      <c r="B421" s="1" t="s">
         <v>5170</v>
       </c>
-      <c r="E420" s="1" t="s">
+      <c r="C421" s="1" t="s">
         <v>5171</v>
       </c>
-      <c r="F420" s="1" t="s">
+      <c r="D421" s="1" t="s">
         <v>5172</v>
       </c>
-      <c r="G420" s="1" t="s">
+      <c r="E421" s="1" t="s">
         <v>5173</v>
       </c>
-      <c r="H420" s="1" t="s">
+      <c r="F421" s="1" t="s">
         <v>5174</v>
       </c>
-      <c r="I420" s="1" t="s">
+      <c r="G421" s="1" t="s">
         <v>5175</v>
       </c>
-      <c r="J420" s="1" t="s">
+      <c r="H421" s="1" t="s">
         <v>5176</v>
       </c>
-      <c r="K420" s="1" t="s">
+      <c r="I421" s="1" t="s">
         <v>5177</v>
       </c>
-      <c r="L420" s="1" t="s">
+      <c r="J421" s="1" t="s">
         <v>5178</v>
       </c>
-      <c r="M420" s="3" t="s">
+      <c r="K421" s="1" t="s">
         <v>5179</v>
       </c>
-      <c r="N420" s="1" t="s">
+      <c r="L421" s="1" t="s">
         <v>5180</v>
       </c>
-      <c r="O420" s="1" t="s">
+      <c r="M421" s="3" t="s">
         <v>5181</v>
       </c>
-      <c r="P420" s="1" t="s">
+      <c r="N421" s="1" t="s">
         <v>5182</v>
+      </c>
+      <c r="O421" s="1" t="s">
+        <v>5183</v>
+      </c>
+      <c r="P421" s="1" t="s">
+        <v>5184</v>
       </c>
     </row>
   </sheetData>

--- a/II Library/Localization Strings.xlsx
+++ b/II Library/Localization Strings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="5185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="5233">
   <si>
     <t>Key</t>
   </si>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">RUS: Russian</t>
   </si>
   <si>
-    <t xml:space="preserve">SWK: Swahili</t>
+    <t xml:space="preserve">SWA: Swahili</t>
   </si>
   <si>
     <t xml:space="preserve">ZHO: Chinese</t>
@@ -14739,7 +14739,7 @@
     <t xml:space="preserve">بازتاب بیمار داده</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos del Paciente espejo</t>
+    <t xml:space="preserve">Datos del paciente duplicación</t>
   </si>
   <si>
     <t xml:space="preserve">Réflexion données patient</t>
@@ -15165,7 +15165,7 @@
     <t xml:space="preserve">Reflejo de los parámetros del paciente actualizado</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise à jour des patients paramètres miroir</t>
+    <t xml:space="preserve">Mise à jour des patients paramètres réflexion</t>
   </si>
   <si>
     <t xml:space="preserve">שיקוף פרמטרים חולים עודכנו</t>
@@ -15190,6 +15190,150 @@
   </si>
   <si>
     <t>镜像更新患者参数</t>
+  </si>
+  <si>
+    <t>MIRROR:Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirroring Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">የማንጸባረቅ ስህተት</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطأ في النسخ المتطابق</t>
+  </si>
+  <si>
+    <t>Spiegelungsfehler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطای آینه‌سازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de duplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreur de mise en réflexion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שגיאת שיקוף</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मिररिंग त्रुटि</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore di riflessione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미러링 오류</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro de reflexão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка зеркального отображения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitilafu ya Kuakisi</t>
+  </si>
+  <si>
+    <t>镜像错误</t>
+  </si>
+  <si>
+    <t>MIRROR:ErrorServerInaccessible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mirroring server could not be reached. Please ensure the server address was entered correctly and that you are connected to the network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">የማንጸባረቂያ አገልጋዩ ሊደረስበት አልቻለም። እባክዎ የአገልጋይ አድራሻው በትክክል መገባቱን እና ከአውታረ መረቡ ጋር መገናኘትዎን ያረጋግጡ።</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعذر الوصول إلى خادم النسخ المتطابق. يرجى التأكد من إدخال عنوان الخادم بشكل صحيح وأنك متصل بالشبكة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Spiegelungsserver konnte nicht erreicht werden. Bitte stellen Sie sicher, dass die Serveradresse korrekt eingegeben wurde und dass Sie mit dem Netzwerk verbunden sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسترسی به سرور قرینه‌سازی امکان‌پذیر نیست. لطفاً مطمئن شوید که آدرس سرور به درستی وارد شده و به شبکه متصل هستید.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se pudo acceder al servidor de duplicación. Asegúrese de que la dirección del servidor se haya ingresado correctamente y de que esté conectado a la red.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossible de joindre le serveur de mise en réflexion. Veuillez vérifier que l'adresse du serveur est correcte et que vous êtes connecté au réseau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא ניתן היה להגיע לשרת השיקוף. אנא ודא שכתובת השרת הוזנה כהלכה ושאתה מחובר לרשת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मिररिंग सर्वर तक नहीं पहुंचा जा सका। कृपया सुनिश्चित करें कि आपने सर्वर का पता सही दर्ज किया है और आप नेटवर्क से जुड़े हुए हैं।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossibile raggiungere il server di riflessione. Assicurati che l'indirizzo del server sia stato inserito correttamente e di essere connesso alla rete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미러링 서버에 연결할 수 없습니다. 서버 주소를 올바르게 입력했는지, 네트워크에 연결되어 있는지 확인하십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não foi possível contatar o servidor de reflexão. Certifique-se de que o endereço do servidor foi inserido corretamente e que você está conectado à rede.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не удалось подключиться к серверу зеркалирования. Убедитесь, что адрес сервера введен правильно и что вы подключены к сети.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seva ya kuakisi haikuweza kufikiwa. Tafadhali hakikisha anwani ya seva imeingizwa kwa usahihi na kwamba umeunganishwa kwenye mtandao.</t>
+  </si>
+  <si>
+    <t>镜像服务器无法连接。请确保服务器地址输入正确，并且您已连接到网络。</t>
+  </si>
+  <si>
+    <t>MIRROR:ErrorServerEmptyResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mirroring server gave an invalid response. Please ensure you entered the correct accession key, password, and server address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">የማንጸባረቂያ አገልጋዩ የተሳሳተ ምላሽ ሰጥቷል። እባክዎን ትክክለኛውን የመግቢያ ቁልፍ፣ የይለፍ ቃል እና የአገልጋይ አድራሻ ማስገባትዎን ያረጋግጡ።</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أعطت خدمة النسخ الاحتياطي استجابة غير صالحة. يرجى التأكد من إدخال مفتاح الوصول وكلمة المرور وعنوان الخادم بشكل صحيح.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Spiegelungsserver hat eine ungültige Antwort gesendet. Bitte stellen Sie sicher, dass Sie den korrekten Zugangsschlüssel, das korrekte Passwort und die korrekte Serveradresse eingegeben haben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرور جایگزین پاسخ نامعتبری داد. لطفاً مطمئن شوید که کلید دسترسی، رمز عبور و آدرس سرور را به درستی وارد کرده‌اید.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servidor de duplicación ha dado una respuesta no válida. Asegúrese de haber ingresado la clave de acceso, la contraseña y la dirección del servidor correctamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le serveur réflexion a renvoyé une réponse invalide. Veuillez vérifier que vous avez saisi la clé d'accès, le mot de passe et l'adresse du serveur corrects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שרת השיקוף נתן תגובה לא חוקית. אנא ודא שהזנת את מפתח הגישה, הסיסמה וכתובת השרת הנכונים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मिररिंग सर्वर ने गलत प्रतिक्रिया दी है। कृपया सुनिश्चित करें कि आपने सही एक्सेस कुंजी, पासवर्ड और सर्वर पता दर्ज किया है।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il server di riflessione ha fornito una risposta non valida. Assicurati di aver inserito la chiave di accesso, la password e l'indirizzo del server corretti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미러링 서버에서 잘못된 응답이 전송되었습니다. 액세스 키, 암호 및 서버 주소를 정확하게 입력했는지 확인하십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O servidor de reflexão retornou uma resposta inválida. Certifique-se de ter inserido a chave de acesso, a senha e o endereço do servidor corretamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервер зеркалирования выдал неверный ответ. Пожалуйста, убедитесь, что вы ввели правильный ключ доступа, пароль и адрес сервера.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seva ya kuakisi ilitoa jibu batili. Tafadhali hakikisha umeingiza ufunguo sahihi wa kuingia, nenosiri, na anwani ya seva.</t>
+  </si>
+  <si>
+    <t>镜像服务器返回了无效响应。请确保您输入了正确的访问密钥、密码和服务器地址。</t>
   </si>
   <si>
     <t>UPGRADE:Upgrade</t>
@@ -15631,7 +15775,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -15650,6 +15794,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -34719,7 +34869,7 @@
       <c r="A400" s="1" t="s">
         <v>4885</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="B400" s="1" t="s">
         <v>4886</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -34778,16 +34928,16 @@
       <c r="D401" s="1" t="s">
         <v>4904</v>
       </c>
-      <c r="E401" s="1" t="s">
+      <c r="E401" s="7" t="s">
         <v>4905</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>4906</v>
       </c>
-      <c r="G401" s="1" t="s">
+      <c r="G401" s="7" t="s">
         <v>4907</v>
       </c>
-      <c r="H401" s="1" t="s">
+      <c r="H401" s="7" t="s">
         <v>4908</v>
       </c>
       <c r="I401" s="1" t="s">
@@ -35246,13 +35396,13 @@
       <c r="J410" s="1" t="s">
         <v>5019</v>
       </c>
-      <c r="K410" s="1" t="s">
+      <c r="K410" s="7" t="s">
         <v>5020</v>
       </c>
       <c r="L410" s="1" t="s">
         <v>5021</v>
       </c>
-      <c r="M410" s="1" t="s">
+      <c r="M410" s="7" t="s">
         <v>5022</v>
       </c>
       <c r="N410" s="1" t="s">
@@ -35337,7 +35487,7 @@
       <c r="G412" s="1" t="s">
         <v>5048</v>
       </c>
-      <c r="H412" s="1" t="s">
+      <c r="H412" s="7" t="s">
         <v>5049</v>
       </c>
       <c r="I412" s="1" t="s">
@@ -35365,171 +35515,189 @@
         <v>5057</v>
       </c>
     </row>
+    <row r="413" s="1" customFormat="1">
+      <c r="A413" s="8" t="s">
+        <v>5058</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>5059</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>5060</v>
+      </c>
+      <c r="D413" s="8" t="s">
+        <v>5061</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>5062</v>
+      </c>
+      <c r="F413" s="8" t="s">
+        <v>5063</v>
+      </c>
+      <c r="G413" s="9" t="s">
+        <v>5064</v>
+      </c>
+      <c r="H413" s="9" t="s">
+        <v>5065</v>
+      </c>
+      <c r="I413" s="8" t="s">
+        <v>5066</v>
+      </c>
+      <c r="J413" s="8" t="s">
+        <v>5067</v>
+      </c>
+      <c r="K413" s="9" t="s">
+        <v>5068</v>
+      </c>
+      <c r="L413" s="8" t="s">
+        <v>5069</v>
+      </c>
+      <c r="M413" s="9" t="s">
+        <v>5070</v>
+      </c>
+      <c r="N413" s="8" t="s">
+        <v>5071</v>
+      </c>
+      <c r="O413" s="8" t="s">
+        <v>5072</v>
+      </c>
+      <c r="P413" s="8" t="s">
+        <v>5073</v>
+      </c>
+    </row>
     <row r="414" s="1" customFormat="1">
-      <c r="A414" s="1" t="s">
-        <v>5058</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>5059</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>5060</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>5061</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>3557</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>5062</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>5063</v>
-      </c>
-      <c r="H414" s="1" t="s">
-        <v>5064</v>
-      </c>
-      <c r="I414" s="1" t="s">
-        <v>5065</v>
-      </c>
-      <c r="J414" s="1" t="s">
-        <v>5066</v>
-      </c>
-      <c r="K414" s="1" t="s">
-        <v>5067</v>
-      </c>
-      <c r="L414" s="1" t="s">
-        <v>5068</v>
-      </c>
-      <c r="M414" s="1" t="s">
-        <v>5069</v>
-      </c>
-      <c r="N414" s="1" t="s">
-        <v>5070</v>
-      </c>
-      <c r="O414" s="1" t="s">
-        <v>5071</v>
-      </c>
-      <c r="P414" s="1" t="s">
-        <v>5072</v>
+      <c r="A414" s="8" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>5075</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D414" s="8" t="s">
+        <v>5077</v>
+      </c>
+      <c r="E414" s="8" t="s">
+        <v>5078</v>
+      </c>
+      <c r="F414" s="8" t="s">
+        <v>5079</v>
+      </c>
+      <c r="G414" s="8" t="s">
+        <v>5080</v>
+      </c>
+      <c r="H414" s="9" t="s">
+        <v>5081</v>
+      </c>
+      <c r="I414" s="8" t="s">
+        <v>5082</v>
+      </c>
+      <c r="J414" s="8" t="s">
+        <v>5083</v>
+      </c>
+      <c r="K414" s="9" t="s">
+        <v>5084</v>
+      </c>
+      <c r="L414" s="8" t="s">
+        <v>5085</v>
+      </c>
+      <c r="M414" s="9" t="s">
+        <v>5086</v>
+      </c>
+      <c r="N414" s="8" t="s">
+        <v>5087</v>
+      </c>
+      <c r="O414" s="8" t="s">
+        <v>5088</v>
+      </c>
+      <c r="P414" s="8" t="s">
+        <v>5089</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1">
-      <c r="A415" s="1" t="s">
-        <v>5073</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>5074</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>5075</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>5076</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>5077</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>5078</v>
-      </c>
-      <c r="G415" s="1" t="s">
-        <v>5079</v>
-      </c>
-      <c r="H415" s="1" t="s">
-        <v>5080</v>
-      </c>
-      <c r="I415" s="1" t="s">
-        <v>5081</v>
-      </c>
-      <c r="J415" s="1" t="s">
-        <v>5082</v>
-      </c>
-      <c r="K415" s="1" t="s">
-        <v>5083</v>
-      </c>
-      <c r="L415" s="1" t="s">
-        <v>5084</v>
-      </c>
-      <c r="M415" s="1" t="s">
-        <v>5085</v>
-      </c>
-      <c r="N415" s="1" t="s">
-        <v>5086</v>
-      </c>
-      <c r="O415" s="1" t="s">
-        <v>5087</v>
-      </c>
-      <c r="P415" s="1" t="s">
-        <v>5088</v>
-      </c>
-    </row>
-    <row r="416" s="1" customFormat="1">
-      <c r="A416" s="1" t="s">
-        <v>5089</v>
-      </c>
-      <c r="B416" s="1" t="s">
+      <c r="A415" s="8" t="s">
         <v>5090</v>
       </c>
-      <c r="C416" s="1" t="s">
+      <c r="B415" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="D416" s="1" t="s">
+      <c r="C415" s="8" t="s">
         <v>5092</v>
       </c>
-      <c r="E416" s="1" t="s">
+      <c r="D415" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="F416" s="1" t="s">
+      <c r="E415" s="8" t="s">
         <v>5094</v>
       </c>
-      <c r="G416" s="1" t="s">
+      <c r="F415" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="H416" s="1" t="s">
+      <c r="G415" s="8" t="s">
         <v>5096</v>
       </c>
-      <c r="I416" s="1" t="s">
+      <c r="H415" s="9" t="s">
         <v>5097</v>
       </c>
-      <c r="J416" s="1" t="s">
+      <c r="I415" s="8" t="s">
         <v>5098</v>
       </c>
-      <c r="K416" s="1" t="s">
+      <c r="J415" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="L416" s="1" t="s">
+      <c r="K415" s="9" t="s">
         <v>5100</v>
       </c>
-      <c r="M416" s="1" t="s">
+      <c r="L415" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="N416" s="1" t="s">
+      <c r="M415" s="9" t="s">
         <v>5102</v>
       </c>
-      <c r="O416" s="1" t="s">
+      <c r="N415" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="P416" s="1" t="s">
+      <c r="O415" s="8" t="s">
         <v>5104</v>
       </c>
+      <c r="P415" s="8" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1"/>
+      <c r="N416" s="1"/>
+      <c r="O416" s="1"/>
+      <c r="P416" s="1"/>
     </row>
     <row r="417" s="1" customFormat="1">
       <c r="A417" s="1" t="s">
-        <v>5105</v>
+        <v>5106</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>5106</v>
+        <v>5107</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>5107</v>
+        <v>5108</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>5108</v>
+        <v>5109</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>5109</v>
+        <v>3557</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>5110</v>
@@ -35715,7 +35883,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="421" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="421" s="1" customFormat="1">
       <c r="A421" s="1" t="s">
         <v>5169</v>
       </c>
@@ -35752,7 +35920,7 @@
       <c r="L421" s="1" t="s">
         <v>5180</v>
       </c>
-      <c r="M421" s="3" t="s">
+      <c r="M421" s="1" t="s">
         <v>5181</v>
       </c>
       <c r="N421" s="1" t="s">
@@ -35763,6 +35931,156 @@
       </c>
       <c r="P421" s="1" t="s">
         <v>5184</v>
+      </c>
+    </row>
+    <row r="422" s="1" customFormat="1">
+      <c r="A422" s="1" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>5186</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>5187</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>5188</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>5189</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>5190</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>5191</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>5192</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>5193</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>5194</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>5195</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>5196</v>
+      </c>
+      <c r="M422" s="1" t="s">
+        <v>5197</v>
+      </c>
+      <c r="N422" s="1" t="s">
+        <v>5198</v>
+      </c>
+      <c r="O422" s="1" t="s">
+        <v>5199</v>
+      </c>
+      <c r="P422" s="1" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="423" s="1" customFormat="1">
+      <c r="A423" s="1" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>5202</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>5203</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>5204</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>5205</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>5206</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>5207</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>5208</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>5209</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>5210</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>5211</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>5212</v>
+      </c>
+      <c r="M423" s="1" t="s">
+        <v>5213</v>
+      </c>
+      <c r="N423" s="1" t="s">
+        <v>5214</v>
+      </c>
+      <c r="O423" s="1" t="s">
+        <v>5215</v>
+      </c>
+      <c r="P423" s="1" t="s">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="424" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A424" s="1" t="s">
+        <v>5217</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>5218</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>5219</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>5220</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>5221</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>5222</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>5223</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>5224</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>5225</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>5226</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>5227</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>5228</v>
+      </c>
+      <c r="M424" s="3" t="s">
+        <v>5229</v>
+      </c>
+      <c r="N424" s="1" t="s">
+        <v>5230</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>5231</v>
+      </c>
+      <c r="P424" s="1" t="s">
+        <v>5232</v>
       </c>
     </row>
   </sheetData>
